--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CDEVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>639000</v>
+        <v>668100</v>
       </c>
       <c r="E8" s="3">
-        <v>613800</v>
+        <v>624600</v>
       </c>
       <c r="F8" s="3">
-        <v>538600</v>
+        <v>600000</v>
       </c>
       <c r="G8" s="3">
-        <v>569000</v>
+        <v>526500</v>
       </c>
       <c r="H8" s="3">
-        <v>734000</v>
+        <v>556200</v>
       </c>
       <c r="I8" s="3">
-        <v>981200</v>
+        <v>717500</v>
       </c>
       <c r="J8" s="3">
+        <v>959200</v>
+      </c>
+      <c r="K8" s="3">
         <v>763500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>979100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>636900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>629700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>574000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>854700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>675800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>320400</v>
+        <v>367800</v>
       </c>
       <c r="E9" s="3">
-        <v>311100</v>
+        <v>313200</v>
       </c>
       <c r="F9" s="3">
-        <v>284400</v>
+        <v>304200</v>
       </c>
       <c r="G9" s="3">
-        <v>219600</v>
+        <v>278000</v>
       </c>
       <c r="H9" s="3">
-        <v>370400</v>
+        <v>214700</v>
       </c>
       <c r="I9" s="3">
-        <v>545700</v>
+        <v>362100</v>
       </c>
       <c r="J9" s="3">
+        <v>533400</v>
+      </c>
+      <c r="K9" s="3">
         <v>496300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>631200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>321800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>321700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>304900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>466700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>318600</v>
+        <v>300300</v>
       </c>
       <c r="E10" s="3">
-        <v>302600</v>
+        <v>311400</v>
       </c>
       <c r="F10" s="3">
-        <v>254200</v>
+        <v>295900</v>
       </c>
       <c r="G10" s="3">
-        <v>349400</v>
+        <v>248500</v>
       </c>
       <c r="H10" s="3">
-        <v>363600</v>
+        <v>341500</v>
       </c>
       <c r="I10" s="3">
-        <v>435600</v>
+        <v>355400</v>
       </c>
       <c r="J10" s="3">
+        <v>425800</v>
+      </c>
+      <c r="K10" s="3">
         <v>267200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>347900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>315200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>308000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>269000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>388000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>546700</v>
+        <v>595800</v>
       </c>
       <c r="E17" s="3">
-        <v>490800</v>
+        <v>534400</v>
       </c>
       <c r="F17" s="3">
-        <v>355800</v>
+        <v>479800</v>
       </c>
       <c r="G17" s="3">
-        <v>471000</v>
+        <v>347800</v>
       </c>
       <c r="H17" s="3">
-        <v>539500</v>
+        <v>460500</v>
       </c>
       <c r="I17" s="3">
-        <v>716500</v>
+        <v>527400</v>
       </c>
       <c r="J17" s="3">
+        <v>700400</v>
+      </c>
+      <c r="K17" s="3">
         <v>635000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>816600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>466500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>479700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>475500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>619100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>92300</v>
+        <v>72300</v>
       </c>
       <c r="E18" s="3">
-        <v>123000</v>
+        <v>90200</v>
       </c>
       <c r="F18" s="3">
-        <v>182800</v>
+        <v>120300</v>
       </c>
       <c r="G18" s="3">
-        <v>97900</v>
+        <v>178700</v>
       </c>
       <c r="H18" s="3">
-        <v>194400</v>
+        <v>95700</v>
       </c>
       <c r="I18" s="3">
-        <v>264800</v>
+        <v>190100</v>
       </c>
       <c r="J18" s="3">
+        <v>258800</v>
+      </c>
+      <c r="K18" s="3">
         <v>128400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>162400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>170400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>150000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>98400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>235600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>179600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>56300</v>
+        <v>38000</v>
       </c>
       <c r="E20" s="3">
-        <v>72000</v>
+        <v>55100</v>
       </c>
       <c r="F20" s="3">
-        <v>36400</v>
+        <v>70400</v>
       </c>
       <c r="G20" s="3">
+        <v>35600</v>
+      </c>
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
-        <v>9600</v>
-      </c>
       <c r="I20" s="3">
-        <v>3400</v>
+        <v>9400</v>
       </c>
       <c r="J20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K20" s="3">
         <v>16700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>40700</v>
       </c>
       <c r="L20" s="3">
         <v>40700</v>
       </c>
       <c r="M20" s="3">
+        <v>40700</v>
+      </c>
+      <c r="N20" s="3">
         <v>31500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>196900</v>
+        <v>165300</v>
       </c>
       <c r="E21" s="3">
-        <v>243600</v>
+        <v>192500</v>
       </c>
       <c r="F21" s="3">
-        <v>265300</v>
+        <v>238200</v>
       </c>
       <c r="G21" s="3">
-        <v>144400</v>
+        <v>259400</v>
       </c>
       <c r="H21" s="3">
-        <v>243400</v>
+        <v>141200</v>
       </c>
       <c r="I21" s="3">
-        <v>307400</v>
+        <v>237900</v>
       </c>
       <c r="J21" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K21" s="3">
         <v>181300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>242300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>251700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>221600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>150700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>290500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>234000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36400</v>
+        <v>33900</v>
       </c>
       <c r="E22" s="3">
-        <v>32900</v>
+        <v>35600</v>
       </c>
       <c r="F22" s="3">
-        <v>27400</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>32200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>26800</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>23100</v>
-      </c>
       <c r="I22" s="3">
-        <v>21800</v>
+        <v>22600</v>
       </c>
       <c r="J22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K22" s="3">
         <v>20300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>42100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20300</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>112200</v>
+        <v>76400</v>
       </c>
       <c r="E23" s="3">
-        <v>162100</v>
+        <v>109700</v>
       </c>
       <c r="F23" s="3">
-        <v>191700</v>
+        <v>158500</v>
       </c>
       <c r="G23" s="3">
-        <v>101300</v>
+        <v>187400</v>
       </c>
       <c r="H23" s="3">
-        <v>180900</v>
+        <v>99000</v>
       </c>
       <c r="I23" s="3">
-        <v>246300</v>
+        <v>176800</v>
       </c>
       <c r="J23" s="3">
+        <v>240800</v>
+      </c>
+      <c r="K23" s="3">
         <v>124900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>160000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>171000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>139500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>91700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>242800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>175100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="E24" s="3">
-        <v>30300</v>
+        <v>22000</v>
       </c>
       <c r="F24" s="3">
-        <v>39100</v>
+        <v>29600</v>
       </c>
       <c r="G24" s="3">
-        <v>26800</v>
+        <v>38200</v>
       </c>
       <c r="H24" s="3">
-        <v>37300</v>
+        <v>26200</v>
       </c>
       <c r="I24" s="3">
-        <v>65700</v>
+        <v>36500</v>
       </c>
       <c r="J24" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K24" s="3">
         <v>24400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>89700</v>
+        <v>66900</v>
       </c>
       <c r="E26" s="3">
-        <v>131900</v>
+        <v>87700</v>
       </c>
       <c r="F26" s="3">
-        <v>152700</v>
+        <v>128900</v>
       </c>
       <c r="G26" s="3">
-        <v>74500</v>
+        <v>149200</v>
       </c>
       <c r="H26" s="3">
-        <v>143600</v>
+        <v>72800</v>
       </c>
       <c r="I26" s="3">
-        <v>180600</v>
+        <v>140400</v>
       </c>
       <c r="J26" s="3">
+        <v>176600</v>
+      </c>
+      <c r="K26" s="3">
         <v>100500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>145100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>142300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>116400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>196100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>83000</v>
+        <v>57300</v>
       </c>
       <c r="E27" s="3">
-        <v>112600</v>
+        <v>81100</v>
       </c>
       <c r="F27" s="3">
-        <v>144000</v>
+        <v>110000</v>
       </c>
       <c r="G27" s="3">
-        <v>70600</v>
+        <v>140800</v>
       </c>
       <c r="H27" s="3">
-        <v>125100</v>
+        <v>69000</v>
       </c>
       <c r="I27" s="3">
-        <v>154700</v>
+        <v>122300</v>
       </c>
       <c r="J27" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K27" s="3">
         <v>61600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>108100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>79400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>70000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>173800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-56300</v>
+        <v>-38000</v>
       </c>
       <c r="E32" s="3">
-        <v>-72000</v>
+        <v>-55100</v>
       </c>
       <c r="F32" s="3">
-        <v>-36400</v>
+        <v>-70400</v>
       </c>
       <c r="G32" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-9600</v>
-      </c>
       <c r="I32" s="3">
-        <v>-3400</v>
+        <v>-9400</v>
       </c>
       <c r="J32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-40700</v>
       </c>
       <c r="L32" s="3">
         <v>-40700</v>
       </c>
       <c r="M32" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="N32" s="3">
         <v>-31500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>83000</v>
+        <v>57300</v>
       </c>
       <c r="E33" s="3">
-        <v>112600</v>
+        <v>81100</v>
       </c>
       <c r="F33" s="3">
-        <v>144000</v>
+        <v>110000</v>
       </c>
       <c r="G33" s="3">
-        <v>70600</v>
+        <v>140800</v>
       </c>
       <c r="H33" s="3">
-        <v>125100</v>
+        <v>69000</v>
       </c>
       <c r="I33" s="3">
-        <v>154700</v>
+        <v>122300</v>
       </c>
       <c r="J33" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K33" s="3">
         <v>61600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>112800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>108100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>79400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>70000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>173800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>83000</v>
+        <v>57300</v>
       </c>
       <c r="E35" s="3">
-        <v>112600</v>
+        <v>81100</v>
       </c>
       <c r="F35" s="3">
-        <v>144000</v>
+        <v>110000</v>
       </c>
       <c r="G35" s="3">
-        <v>70600</v>
+        <v>140800</v>
       </c>
       <c r="H35" s="3">
-        <v>125100</v>
+        <v>69000</v>
       </c>
       <c r="I35" s="3">
-        <v>154700</v>
+        <v>122300</v>
       </c>
       <c r="J35" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K35" s="3">
         <v>61600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>112800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>108100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>79400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>70000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>173800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,360 +2052,385 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1969400</v>
+        <v>1973900</v>
       </c>
       <c r="E41" s="3">
-        <v>2139000</v>
+        <v>1925200</v>
       </c>
       <c r="F41" s="3">
-        <v>1570400</v>
+        <v>2091000</v>
       </c>
       <c r="G41" s="3">
-        <v>1652300</v>
+        <v>1535100</v>
       </c>
       <c r="H41" s="3">
-        <v>1888000</v>
+        <v>1615200</v>
       </c>
       <c r="I41" s="3">
-        <v>1957300</v>
+        <v>1845700</v>
       </c>
       <c r="J41" s="3">
+        <v>1913400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2459600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2784200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2582400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2429900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2567300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2690100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2103600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15600</v>
+        <v>397000</v>
       </c>
       <c r="E42" s="3">
-        <v>13300</v>
+        <v>15200</v>
       </c>
       <c r="F42" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I42" s="3">
         <v>10400</v>
       </c>
-      <c r="G42" s="3">
-        <v>10300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>11400</v>
-      </c>
       <c r="J42" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K42" s="3">
         <v>11200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12100</v>
-      </c>
-      <c r="M42" s="3">
-        <v>13000</v>
       </c>
       <c r="N42" s="3">
         <v>13000</v>
       </c>
       <c r="O42" s="3">
+        <v>13000</v>
+      </c>
+      <c r="P42" s="3">
         <v>12000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1241300</v>
+        <v>750800</v>
       </c>
       <c r="E43" s="3">
-        <v>1235900</v>
+        <v>1213500</v>
       </c>
       <c r="F43" s="3">
-        <v>1265100</v>
+        <v>1208200</v>
       </c>
       <c r="G43" s="3">
-        <v>767000</v>
+        <v>1236700</v>
       </c>
       <c r="H43" s="3">
-        <v>773300</v>
+        <v>749800</v>
       </c>
       <c r="I43" s="3">
-        <v>787500</v>
+        <v>755900</v>
       </c>
       <c r="J43" s="3">
+        <v>769900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1003900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>888100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>711700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>896000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>851100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>854300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1019200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3922900</v>
+        <v>3649400</v>
       </c>
       <c r="E44" s="3">
-        <v>3990100</v>
+        <v>3834900</v>
       </c>
       <c r="F44" s="3">
-        <v>4070900</v>
+        <v>3900600</v>
       </c>
       <c r="G44" s="3">
-        <v>4126400</v>
+        <v>3979600</v>
       </c>
       <c r="H44" s="3">
-        <v>4240700</v>
+        <v>4033900</v>
       </c>
       <c r="I44" s="3">
-        <v>4202700</v>
+        <v>4145500</v>
       </c>
       <c r="J44" s="3">
+        <v>4108500</v>
+      </c>
+      <c r="K44" s="3">
         <v>3150600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3184500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3730100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3830700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3812300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3823600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4508500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11900</v>
+        <v>167600</v>
       </c>
       <c r="E45" s="3">
-        <v>8400</v>
+        <v>11600</v>
       </c>
       <c r="F45" s="3">
-        <v>4600</v>
+        <v>8300</v>
       </c>
       <c r="G45" s="3">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="H45" s="3">
-        <v>2700</v>
+        <v>11200</v>
       </c>
       <c r="I45" s="3">
-        <v>3700</v>
+        <v>2600</v>
       </c>
       <c r="J45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>220900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>2800</v>
       </c>
       <c r="N45" s="3">
         <v>2800</v>
       </c>
       <c r="O45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7161100</v>
+        <v>6938800</v>
       </c>
       <c r="E46" s="3">
-        <v>7386700</v>
+        <v>7000400</v>
       </c>
       <c r="F46" s="3">
-        <v>6921300</v>
+        <v>7221000</v>
       </c>
       <c r="G46" s="3">
-        <v>6567500</v>
+        <v>6766100</v>
       </c>
       <c r="H46" s="3">
-        <v>6915300</v>
+        <v>6420200</v>
       </c>
       <c r="I46" s="3">
-        <v>6962600</v>
+        <v>6760100</v>
       </c>
       <c r="J46" s="3">
+        <v>6806400</v>
+      </c>
+      <c r="K46" s="3">
         <v>6627900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6922300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7257200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7172400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7246600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7382900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7845000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2102900</v>
+        <v>1986600</v>
       </c>
       <c r="E47" s="3">
-        <v>2079900</v>
+        <v>2055800</v>
       </c>
       <c r="F47" s="3">
-        <v>1845500</v>
+        <v>2033200</v>
       </c>
       <c r="G47" s="3">
-        <v>1891000</v>
+        <v>1804100</v>
       </c>
       <c r="H47" s="3">
-        <v>1728400</v>
+        <v>1848600</v>
       </c>
       <c r="I47" s="3">
-        <v>1727400</v>
+        <v>1689600</v>
       </c>
       <c r="J47" s="3">
+        <v>1688600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1693800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1426600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1393500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1370100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1368200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1362300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1175600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6832300</v>
+        <v>6965800</v>
       </c>
       <c r="E48" s="3">
-        <v>6821800</v>
+        <v>6679000</v>
       </c>
       <c r="F48" s="3">
-        <v>6600900</v>
+        <v>6668800</v>
       </c>
       <c r="G48" s="3">
-        <v>6318700</v>
+        <v>6452800</v>
       </c>
       <c r="H48" s="3">
-        <v>5644600</v>
+        <v>6177000</v>
       </c>
       <c r="I48" s="3">
-        <v>5402600</v>
+        <v>5518000</v>
       </c>
       <c r="J48" s="3">
+        <v>5281400</v>
+      </c>
+      <c r="K48" s="3">
         <v>5399800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5491600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5573600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5511600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5411500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5479600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5451000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>487700</v>
+        <v>478200</v>
       </c>
       <c r="E52" s="3">
-        <v>450900</v>
+        <v>476700</v>
       </c>
       <c r="F52" s="3">
-        <v>181300</v>
+        <v>440800</v>
       </c>
       <c r="G52" s="3">
-        <v>297300</v>
+        <v>177200</v>
       </c>
       <c r="H52" s="3">
-        <v>445800</v>
+        <v>290600</v>
       </c>
       <c r="I52" s="3">
-        <v>538400</v>
+        <v>435800</v>
       </c>
       <c r="J52" s="3">
+        <v>526300</v>
+      </c>
+      <c r="K52" s="3">
         <v>425900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>437700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>423100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>271400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>271000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>274600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16583900</v>
+        <v>16369400</v>
       </c>
       <c r="E54" s="3">
-        <v>16739200</v>
+        <v>16211900</v>
       </c>
       <c r="F54" s="3">
-        <v>15549000</v>
+        <v>16363700</v>
       </c>
       <c r="G54" s="3">
-        <v>15074500</v>
+        <v>15200200</v>
       </c>
       <c r="H54" s="3">
-        <v>14734000</v>
+        <v>14736300</v>
       </c>
       <c r="I54" s="3">
-        <v>14631000</v>
+        <v>14403500</v>
       </c>
       <c r="J54" s="3">
+        <v>14302800</v>
+      </c>
+      <c r="K54" s="3">
         <v>14147400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14278300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14647400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14325500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14297200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14499400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14584200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>986700</v>
+        <v>845900</v>
       </c>
       <c r="E57" s="3">
-        <v>917600</v>
+        <v>964600</v>
       </c>
       <c r="F57" s="3">
-        <v>926500</v>
+        <v>897000</v>
       </c>
       <c r="G57" s="3">
-        <v>933500</v>
+        <v>905700</v>
       </c>
       <c r="H57" s="3">
-        <v>994000</v>
+        <v>912500</v>
       </c>
       <c r="I57" s="3">
-        <v>1055000</v>
+        <v>971700</v>
       </c>
       <c r="J57" s="3">
+        <v>1031300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1036700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>958000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1424300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1202900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1124800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1153700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1301500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1131400</v>
+        <v>1450500</v>
       </c>
       <c r="E58" s="3">
-        <v>1444800</v>
+        <v>1106000</v>
       </c>
       <c r="F58" s="3">
-        <v>994000</v>
+        <v>1412400</v>
       </c>
       <c r="G58" s="3">
-        <v>908300</v>
+        <v>971700</v>
       </c>
       <c r="H58" s="3">
-        <v>835800</v>
+        <v>887900</v>
       </c>
       <c r="I58" s="3">
-        <v>711800</v>
+        <v>817000</v>
       </c>
       <c r="J58" s="3">
+        <v>695900</v>
+      </c>
+      <c r="K58" s="3">
         <v>727400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>933500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1274000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>912100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1063400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1305700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>346800</v>
+        <v>368700</v>
       </c>
       <c r="E59" s="3">
-        <v>368500</v>
+        <v>339100</v>
       </c>
       <c r="F59" s="3">
-        <v>435000</v>
+        <v>360300</v>
       </c>
       <c r="G59" s="3">
-        <v>398400</v>
+        <v>425200</v>
       </c>
       <c r="H59" s="3">
-        <v>277500</v>
+        <v>389500</v>
       </c>
       <c r="I59" s="3">
-        <v>318100</v>
+        <v>271300</v>
       </c>
       <c r="J59" s="3">
+        <v>311000</v>
+      </c>
+      <c r="K59" s="3">
         <v>295600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>554500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>249700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>195000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>204500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>220700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2465000</v>
+        <v>2665100</v>
       </c>
       <c r="E60" s="3">
-        <v>2730900</v>
+        <v>2409700</v>
       </c>
       <c r="F60" s="3">
-        <v>2355500</v>
+        <v>2669700</v>
       </c>
       <c r="G60" s="3">
-        <v>2240200</v>
+        <v>2302700</v>
       </c>
       <c r="H60" s="3">
-        <v>2107300</v>
+        <v>2189900</v>
       </c>
       <c r="I60" s="3">
-        <v>2085000</v>
+        <v>2060000</v>
       </c>
       <c r="J60" s="3">
+        <v>2038200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2059700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2446100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2948000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2310000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2392700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2680100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2856100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4925900</v>
+        <v>5547600</v>
       </c>
       <c r="E61" s="3">
-        <v>4822000</v>
+        <v>4815400</v>
       </c>
       <c r="F61" s="3">
-        <v>3979200</v>
+        <v>4713800</v>
       </c>
       <c r="G61" s="3">
-        <v>3658500</v>
+        <v>3890000</v>
       </c>
       <c r="H61" s="3">
-        <v>3237300</v>
+        <v>3576400</v>
       </c>
       <c r="I61" s="3">
-        <v>3189100</v>
+        <v>3164700</v>
       </c>
       <c r="J61" s="3">
+        <v>3117600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2754000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2769200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2552800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3033500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3021400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2896600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3059300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>213400</v>
+        <v>207400</v>
       </c>
       <c r="E62" s="3">
-        <v>219100</v>
+        <v>208600</v>
       </c>
       <c r="F62" s="3">
-        <v>214800</v>
+        <v>214100</v>
       </c>
       <c r="G62" s="3">
-        <v>316900</v>
+        <v>209900</v>
       </c>
       <c r="H62" s="3">
-        <v>433700</v>
+        <v>309800</v>
       </c>
       <c r="I62" s="3">
-        <v>416200</v>
+        <v>424000</v>
       </c>
       <c r="J62" s="3">
+        <v>406900</v>
+      </c>
+      <c r="K62" s="3">
         <v>449400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>475700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>526900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>565200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>552700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>567200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>505200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9160900</v>
+        <v>8946600</v>
       </c>
       <c r="E66" s="3">
-        <v>9351700</v>
+        <v>8955400</v>
       </c>
       <c r="F66" s="3">
-        <v>8140400</v>
+        <v>9141900</v>
       </c>
       <c r="G66" s="3">
-        <v>7827500</v>
+        <v>7957800</v>
       </c>
       <c r="H66" s="3">
-        <v>7395700</v>
+        <v>7651900</v>
       </c>
       <c r="I66" s="3">
-        <v>7325900</v>
+        <v>7229800</v>
       </c>
       <c r="J66" s="3">
+        <v>7161600</v>
+      </c>
+      <c r="K66" s="3">
         <v>6881800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7353600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7685900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7452300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7483300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7692700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7983600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,11 +3359,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>243500</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3204,13 +3371,16 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>241800</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6106200</v>
+        <v>6108000</v>
       </c>
       <c r="E72" s="3">
-        <v>6020800</v>
+        <v>5969300</v>
       </c>
       <c r="F72" s="3">
-        <v>6041800</v>
+        <v>5885800</v>
       </c>
       <c r="G72" s="3">
-        <v>5911100</v>
+        <v>5906300</v>
       </c>
       <c r="H72" s="3">
-        <v>5972700</v>
+        <v>5778500</v>
       </c>
       <c r="I72" s="3">
-        <v>5905000</v>
+        <v>5838700</v>
       </c>
       <c r="J72" s="3">
+        <v>5772500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5853300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5513500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5891100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5797600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5763200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5689000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5562200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7423100</v>
+        <v>7422800</v>
       </c>
       <c r="E76" s="3">
-        <v>7387500</v>
+        <v>7256600</v>
       </c>
       <c r="F76" s="3">
-        <v>7408500</v>
+        <v>7221800</v>
       </c>
       <c r="G76" s="3">
-        <v>7247000</v>
+        <v>7242300</v>
       </c>
       <c r="H76" s="3">
-        <v>7338300</v>
+        <v>7084400</v>
       </c>
       <c r="I76" s="3">
-        <v>7305100</v>
+        <v>7173700</v>
       </c>
       <c r="J76" s="3">
+        <v>7141200</v>
+      </c>
+      <c r="K76" s="3">
         <v>7265600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6681200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6961500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6873200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6813900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6564800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6600600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>83000</v>
+        <v>57300</v>
       </c>
       <c r="E81" s="3">
-        <v>112600</v>
+        <v>81100</v>
       </c>
       <c r="F81" s="3">
-        <v>144000</v>
+        <v>110000</v>
       </c>
       <c r="G81" s="3">
-        <v>70600</v>
+        <v>140800</v>
       </c>
       <c r="H81" s="3">
-        <v>125100</v>
+        <v>69000</v>
       </c>
       <c r="I81" s="3">
-        <v>154700</v>
+        <v>122300</v>
       </c>
       <c r="J81" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K81" s="3">
         <v>61600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>112800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>108100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>79400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>70000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>173800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48300</v>
+        <v>54900</v>
       </c>
       <c r="E83" s="3">
-        <v>48600</v>
+        <v>47200</v>
       </c>
       <c r="F83" s="3">
-        <v>46200</v>
+        <v>47500</v>
       </c>
       <c r="G83" s="3">
-        <v>43200</v>
+        <v>45100</v>
       </c>
       <c r="H83" s="3">
-        <v>39400</v>
+        <v>42200</v>
       </c>
       <c r="I83" s="3">
+        <v>38500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>36100</v>
+      </c>
+      <c r="L83" s="3">
         <v>39300</v>
       </c>
-      <c r="J83" s="3">
-        <v>36100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>39300</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>38900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>108800</v>
+        <v>192700</v>
       </c>
       <c r="E89" s="3">
-        <v>143500</v>
+        <v>106300</v>
       </c>
       <c r="F89" s="3">
-        <v>154200</v>
+        <v>140300</v>
       </c>
       <c r="G89" s="3">
-        <v>200400</v>
+        <v>150800</v>
       </c>
       <c r="H89" s="3">
-        <v>145500</v>
+        <v>195900</v>
       </c>
       <c r="I89" s="3">
-        <v>-752000</v>
+        <v>142200</v>
       </c>
       <c r="J89" s="3">
+        <v>-735200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-26600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>370200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>122000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>223700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>85400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>302800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50600</v>
+        <v>-37400</v>
       </c>
       <c r="E91" s="3">
-        <v>-31200</v>
+        <v>-49500</v>
       </c>
       <c r="F91" s="3">
-        <v>-37600</v>
+        <v>-30500</v>
       </c>
       <c r="G91" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-49900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-24500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-38800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-49900</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-84200</v>
+        <v>3300</v>
       </c>
       <c r="E94" s="3">
-        <v>-452100</v>
+        <v>-82300</v>
       </c>
       <c r="F94" s="3">
-        <v>-441700</v>
+        <v>-441900</v>
       </c>
       <c r="G94" s="3">
-        <v>-915800</v>
+        <v>-431800</v>
       </c>
       <c r="H94" s="3">
-        <v>-280300</v>
+        <v>-895300</v>
       </c>
       <c r="I94" s="3">
-        <v>-28000</v>
+        <v>-274000</v>
       </c>
       <c r="J94" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>80000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>647800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-330600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4380,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-59400</v>
+        <v>-5000</v>
       </c>
       <c r="E96" s="3">
-        <v>-105400</v>
+        <v>-58100</v>
       </c>
       <c r="F96" s="3">
-        <v>-24000</v>
+        <v>-103000</v>
       </c>
       <c r="G96" s="3">
-        <v>-7600</v>
+        <v>-23500</v>
       </c>
       <c r="H96" s="3">
-        <v>-65300</v>
+        <v>-7400</v>
       </c>
       <c r="I96" s="3">
-        <v>-108300</v>
+        <v>-63800</v>
       </c>
       <c r="J96" s="3">
+        <v>-105900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-24800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-48300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-99900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-27100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-189100</v>
+        <v>-151500</v>
       </c>
       <c r="E100" s="3">
-        <v>982200</v>
+        <v>-184800</v>
       </c>
       <c r="F100" s="3">
-        <v>191400</v>
+        <v>960200</v>
       </c>
       <c r="G100" s="3">
-        <v>467200</v>
+        <v>187100</v>
       </c>
       <c r="H100" s="3">
-        <v>4700</v>
+        <v>456700</v>
       </c>
       <c r="I100" s="3">
-        <v>391600</v>
+        <v>4600</v>
       </c>
       <c r="J100" s="3">
+        <v>382900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-215700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-122300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-289900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-234600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-468700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-305800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-14900</v>
+        <v>2700</v>
       </c>
       <c r="I101" s="3">
-        <v>600</v>
+        <v>-14600</v>
       </c>
       <c r="J101" s="3">
+        <v>500</v>
+      </c>
+      <c r="K101" s="3">
         <v>7300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-167700</v>
+        <v>44300</v>
       </c>
       <c r="E102" s="3">
-        <v>671200</v>
+        <v>-164000</v>
       </c>
       <c r="F102" s="3">
-        <v>-96000</v>
+        <v>656100</v>
       </c>
       <c r="G102" s="3">
-        <v>-244500</v>
+        <v>-93900</v>
       </c>
       <c r="H102" s="3">
-        <v>-146000</v>
+        <v>-239000</v>
       </c>
       <c r="I102" s="3">
-        <v>-387900</v>
+        <v>-142800</v>
       </c>
       <c r="J102" s="3">
+        <v>-379200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-258500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>202800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>171400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-144400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-204600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>497500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-243500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CDEVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>668100</v>
+        <v>785700</v>
       </c>
       <c r="E8" s="3">
-        <v>624600</v>
+        <v>693400</v>
       </c>
       <c r="F8" s="3">
-        <v>600000</v>
+        <v>648300</v>
       </c>
       <c r="G8" s="3">
-        <v>526500</v>
+        <v>622800</v>
       </c>
       <c r="H8" s="3">
-        <v>556200</v>
+        <v>546500</v>
       </c>
       <c r="I8" s="3">
-        <v>717500</v>
+        <v>577300</v>
       </c>
       <c r="J8" s="3">
+        <v>744700</v>
+      </c>
+      <c r="K8" s="3">
         <v>959200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>763500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>979100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>636900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>629700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>574000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>854700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>675800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>367800</v>
+        <v>458800</v>
       </c>
       <c r="E9" s="3">
-        <v>313200</v>
+        <v>381700</v>
       </c>
       <c r="F9" s="3">
-        <v>304200</v>
+        <v>325100</v>
       </c>
       <c r="G9" s="3">
-        <v>278000</v>
+        <v>315700</v>
       </c>
       <c r="H9" s="3">
-        <v>214700</v>
+        <v>288600</v>
       </c>
       <c r="I9" s="3">
-        <v>362100</v>
+        <v>222800</v>
       </c>
       <c r="J9" s="3">
+        <v>375800</v>
+      </c>
+      <c r="K9" s="3">
         <v>533400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>496300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>631200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>321800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>321700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>304900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>466700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300300</v>
+        <v>327000</v>
       </c>
       <c r="E10" s="3">
-        <v>311400</v>
+        <v>311700</v>
       </c>
       <c r="F10" s="3">
-        <v>295900</v>
+        <v>323300</v>
       </c>
       <c r="G10" s="3">
-        <v>248500</v>
+        <v>307100</v>
       </c>
       <c r="H10" s="3">
-        <v>341500</v>
+        <v>257900</v>
       </c>
       <c r="I10" s="3">
-        <v>355400</v>
+        <v>354500</v>
       </c>
       <c r="J10" s="3">
+        <v>368900</v>
+      </c>
+      <c r="K10" s="3">
         <v>425800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>267200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>347900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>315200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>308000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>269000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>388000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>595800</v>
+        <v>740500</v>
       </c>
       <c r="E17" s="3">
-        <v>534400</v>
+        <v>618400</v>
       </c>
       <c r="F17" s="3">
-        <v>479800</v>
+        <v>554700</v>
       </c>
       <c r="G17" s="3">
-        <v>347800</v>
+        <v>497900</v>
       </c>
       <c r="H17" s="3">
-        <v>460500</v>
+        <v>361000</v>
       </c>
       <c r="I17" s="3">
-        <v>527400</v>
+        <v>477900</v>
       </c>
       <c r="J17" s="3">
+        <v>547400</v>
+      </c>
+      <c r="K17" s="3">
         <v>700400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>635000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>816600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>466500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>479700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>475500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>619100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>72300</v>
+        <v>45200</v>
       </c>
       <c r="E18" s="3">
-        <v>90200</v>
+        <v>75000</v>
       </c>
       <c r="F18" s="3">
-        <v>120300</v>
+        <v>93600</v>
       </c>
       <c r="G18" s="3">
-        <v>178700</v>
+        <v>124800</v>
       </c>
       <c r="H18" s="3">
-        <v>95700</v>
+        <v>185500</v>
       </c>
       <c r="I18" s="3">
-        <v>190100</v>
+        <v>99300</v>
       </c>
       <c r="J18" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K18" s="3">
         <v>258800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>162400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>170400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>150000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>98400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>235600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>179600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38000</v>
+        <v>40700</v>
       </c>
       <c r="E20" s="3">
-        <v>55100</v>
+        <v>39500</v>
       </c>
       <c r="F20" s="3">
-        <v>70400</v>
+        <v>57200</v>
       </c>
       <c r="G20" s="3">
-        <v>35600</v>
+        <v>73100</v>
       </c>
       <c r="H20" s="3">
+        <v>36900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>40700</v>
       </c>
       <c r="M20" s="3">
         <v>40700</v>
       </c>
       <c r="N20" s="3">
+        <v>40700</v>
+      </c>
+      <c r="O20" s="3">
         <v>31500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>165300</v>
+        <v>188800</v>
       </c>
       <c r="E21" s="3">
-        <v>192500</v>
+        <v>171500</v>
       </c>
       <c r="F21" s="3">
-        <v>238200</v>
+        <v>199800</v>
       </c>
       <c r="G21" s="3">
-        <v>259400</v>
+        <v>247200</v>
       </c>
       <c r="H21" s="3">
-        <v>141200</v>
+        <v>269200</v>
       </c>
       <c r="I21" s="3">
-        <v>237900</v>
+        <v>146500</v>
       </c>
       <c r="J21" s="3">
+        <v>246900</v>
+      </c>
+      <c r="K21" s="3">
         <v>300500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>181300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>242300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>251700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>221600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>150700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>290500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>234000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33900</v>
+        <v>75800</v>
       </c>
       <c r="E22" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="F22" s="3">
-        <v>32200</v>
+        <v>36900</v>
       </c>
       <c r="G22" s="3">
-        <v>26800</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>33400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>27800</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>22600</v>
-      </c>
       <c r="J22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K22" s="3">
         <v>21300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>42100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20300</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>76400</v>
+        <v>10100</v>
       </c>
       <c r="E23" s="3">
-        <v>109700</v>
+        <v>79300</v>
       </c>
       <c r="F23" s="3">
-        <v>158500</v>
+        <v>113900</v>
       </c>
       <c r="G23" s="3">
-        <v>187400</v>
+        <v>164500</v>
       </c>
       <c r="H23" s="3">
-        <v>99000</v>
+        <v>194500</v>
       </c>
       <c r="I23" s="3">
-        <v>176800</v>
+        <v>102700</v>
       </c>
       <c r="J23" s="3">
+        <v>183500</v>
+      </c>
+      <c r="K23" s="3">
         <v>240800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>124900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>160000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>171000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>139500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>91700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>242800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>175100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="E24" s="3">
-        <v>22000</v>
+        <v>9800</v>
       </c>
       <c r="F24" s="3">
-        <v>29600</v>
+        <v>22900</v>
       </c>
       <c r="G24" s="3">
-        <v>38200</v>
+        <v>30700</v>
       </c>
       <c r="H24" s="3">
-        <v>26200</v>
+        <v>39600</v>
       </c>
       <c r="I24" s="3">
-        <v>36500</v>
+        <v>27200</v>
       </c>
       <c r="J24" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K24" s="3">
         <v>64200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>66900</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>87700</v>
+        <v>69500</v>
       </c>
       <c r="F26" s="3">
-        <v>128900</v>
+        <v>91000</v>
       </c>
       <c r="G26" s="3">
-        <v>149200</v>
+        <v>133800</v>
       </c>
       <c r="H26" s="3">
-        <v>72800</v>
+        <v>154900</v>
       </c>
       <c r="I26" s="3">
-        <v>140400</v>
+        <v>75600</v>
       </c>
       <c r="J26" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K26" s="3">
         <v>176600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>145100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>142300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>116400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>196100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57300</v>
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
-        <v>81100</v>
+        <v>59500</v>
       </c>
       <c r="F27" s="3">
-        <v>110000</v>
+        <v>84200</v>
       </c>
       <c r="G27" s="3">
-        <v>140800</v>
+        <v>114200</v>
       </c>
       <c r="H27" s="3">
-        <v>69000</v>
+        <v>146100</v>
       </c>
       <c r="I27" s="3">
-        <v>122300</v>
+        <v>71600</v>
       </c>
       <c r="J27" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K27" s="3">
         <v>151200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>108100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>70000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>173800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38000</v>
+        <v>-40700</v>
       </c>
       <c r="E32" s="3">
-        <v>-55100</v>
+        <v>-39500</v>
       </c>
       <c r="F32" s="3">
-        <v>-70400</v>
+        <v>-57200</v>
       </c>
       <c r="G32" s="3">
-        <v>-35600</v>
+        <v>-73100</v>
       </c>
       <c r="H32" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-40700</v>
       </c>
       <c r="M32" s="3">
         <v>-40700</v>
       </c>
       <c r="N32" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="O32" s="3">
         <v>-31500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57300</v>
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
-        <v>81100</v>
+        <v>59500</v>
       </c>
       <c r="F33" s="3">
-        <v>110000</v>
+        <v>84200</v>
       </c>
       <c r="G33" s="3">
-        <v>140800</v>
+        <v>114200</v>
       </c>
       <c r="H33" s="3">
-        <v>69000</v>
+        <v>146100</v>
       </c>
       <c r="I33" s="3">
-        <v>122300</v>
+        <v>71600</v>
       </c>
       <c r="J33" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K33" s="3">
         <v>151200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>112800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>108100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>70000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>173800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57300</v>
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
-        <v>81100</v>
+        <v>59500</v>
       </c>
       <c r="F35" s="3">
-        <v>110000</v>
+        <v>84200</v>
       </c>
       <c r="G35" s="3">
-        <v>140800</v>
+        <v>114200</v>
       </c>
       <c r="H35" s="3">
-        <v>69000</v>
+        <v>146100</v>
       </c>
       <c r="I35" s="3">
-        <v>122300</v>
+        <v>71600</v>
       </c>
       <c r="J35" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K35" s="3">
         <v>151200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>112800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>108100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>70000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>173800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,384 +2139,409 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1973900</v>
+        <v>1758800</v>
       </c>
       <c r="E41" s="3">
-        <v>1925200</v>
+        <v>2048800</v>
       </c>
       <c r="F41" s="3">
-        <v>2091000</v>
+        <v>1998200</v>
       </c>
       <c r="G41" s="3">
-        <v>1535100</v>
+        <v>2170300</v>
       </c>
       <c r="H41" s="3">
-        <v>1615200</v>
+        <v>1593300</v>
       </c>
       <c r="I41" s="3">
-        <v>1845700</v>
+        <v>1676500</v>
       </c>
       <c r="J41" s="3">
+        <v>1915700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1913400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2459600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2784200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2582400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2429900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2567300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2690100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2103600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>397000</v>
+        <v>14700</v>
       </c>
       <c r="E42" s="3">
-        <v>15200</v>
+        <v>412100</v>
       </c>
       <c r="F42" s="3">
-        <v>13000</v>
+        <v>15800</v>
       </c>
       <c r="G42" s="3">
-        <v>10200</v>
+        <v>13400</v>
       </c>
       <c r="H42" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="I42" s="3">
         <v>10400</v>
       </c>
       <c r="J42" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K42" s="3">
         <v>11100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12100</v>
-      </c>
-      <c r="N42" s="3">
-        <v>13000</v>
       </c>
       <c r="O42" s="3">
         <v>13000</v>
       </c>
       <c r="P42" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Q42" s="3">
         <v>12000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>750800</v>
+        <v>998500</v>
       </c>
       <c r="E43" s="3">
-        <v>1213500</v>
+        <v>779300</v>
       </c>
       <c r="F43" s="3">
-        <v>1208200</v>
+        <v>1259500</v>
       </c>
       <c r="G43" s="3">
-        <v>1236700</v>
+        <v>1254000</v>
       </c>
       <c r="H43" s="3">
-        <v>749800</v>
+        <v>1283600</v>
       </c>
       <c r="I43" s="3">
-        <v>755900</v>
+        <v>778300</v>
       </c>
       <c r="J43" s="3">
+        <v>784600</v>
+      </c>
+      <c r="K43" s="3">
         <v>769900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1003900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>888100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>711700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>896000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>851100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>854300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1019200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3649400</v>
+        <v>4115000</v>
       </c>
       <c r="E44" s="3">
-        <v>3834900</v>
+        <v>3787800</v>
       </c>
       <c r="F44" s="3">
-        <v>3900600</v>
+        <v>3980300</v>
       </c>
       <c r="G44" s="3">
-        <v>3979600</v>
+        <v>4048500</v>
       </c>
       <c r="H44" s="3">
-        <v>4033900</v>
+        <v>4130500</v>
       </c>
       <c r="I44" s="3">
-        <v>4145500</v>
+        <v>4186900</v>
       </c>
       <c r="J44" s="3">
+        <v>4302800</v>
+      </c>
+      <c r="K44" s="3">
         <v>4108500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3150600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3184500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3730100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3830700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3812300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3823600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4508500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>167600</v>
+        <v>138500</v>
       </c>
       <c r="E45" s="3">
+        <v>173900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="F45" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2600</v>
-      </c>
       <c r="J45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>220900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2800</v>
       </c>
       <c r="O45" s="3">
         <v>2800</v>
       </c>
       <c r="P45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6938800</v>
+        <v>7025500</v>
       </c>
       <c r="E46" s="3">
-        <v>7000400</v>
+        <v>7201900</v>
       </c>
       <c r="F46" s="3">
-        <v>7221000</v>
+        <v>7265900</v>
       </c>
       <c r="G46" s="3">
-        <v>6766100</v>
+        <v>7494800</v>
       </c>
       <c r="H46" s="3">
-        <v>6420200</v>
+        <v>7022700</v>
       </c>
       <c r="I46" s="3">
-        <v>6760100</v>
+        <v>6663700</v>
       </c>
       <c r="J46" s="3">
+        <v>7016500</v>
+      </c>
+      <c r="K46" s="3">
         <v>6806400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6627900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6922300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7257200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7172400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7246600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7382900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7845000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1986600</v>
+        <v>2701700</v>
       </c>
       <c r="E47" s="3">
-        <v>2055800</v>
+        <v>2062000</v>
       </c>
       <c r="F47" s="3">
-        <v>2033200</v>
+        <v>2133700</v>
       </c>
       <c r="G47" s="3">
-        <v>1804100</v>
+        <v>2110300</v>
       </c>
       <c r="H47" s="3">
-        <v>1848600</v>
+        <v>1872500</v>
       </c>
       <c r="I47" s="3">
-        <v>1689600</v>
+        <v>1918700</v>
       </c>
       <c r="J47" s="3">
+        <v>1753700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1688600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1693800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1426600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1393500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1370100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1368200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1362300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1175600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6965800</v>
+        <v>7234400</v>
       </c>
       <c r="E48" s="3">
-        <v>6679000</v>
+        <v>7230000</v>
       </c>
       <c r="F48" s="3">
-        <v>6668800</v>
+        <v>6932300</v>
       </c>
       <c r="G48" s="3">
-        <v>6452800</v>
+        <v>6921700</v>
       </c>
       <c r="H48" s="3">
-        <v>6177000</v>
+        <v>6697500</v>
       </c>
       <c r="I48" s="3">
-        <v>5518000</v>
+        <v>6411300</v>
       </c>
       <c r="J48" s="3">
+        <v>5727300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5281400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5399800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5491600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5573600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5511600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5411500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5479600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5451000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>478200</v>
+        <v>508700</v>
       </c>
       <c r="E52" s="3">
-        <v>476700</v>
+        <v>496300</v>
       </c>
       <c r="F52" s="3">
-        <v>440800</v>
+        <v>494800</v>
       </c>
       <c r="G52" s="3">
-        <v>177200</v>
+        <v>457500</v>
       </c>
       <c r="H52" s="3">
-        <v>290600</v>
+        <v>183900</v>
       </c>
       <c r="I52" s="3">
-        <v>435800</v>
+        <v>301600</v>
       </c>
       <c r="J52" s="3">
+        <v>452300</v>
+      </c>
+      <c r="K52" s="3">
         <v>526300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>425900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>437700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>423100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>271400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>271000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>274600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16369400</v>
+        <v>17470300</v>
       </c>
       <c r="E54" s="3">
-        <v>16211900</v>
+        <v>16990200</v>
       </c>
       <c r="F54" s="3">
-        <v>16363700</v>
+        <v>16826800</v>
       </c>
       <c r="G54" s="3">
-        <v>15200200</v>
+        <v>16984400</v>
       </c>
       <c r="H54" s="3">
-        <v>14736300</v>
+        <v>15776700</v>
       </c>
       <c r="I54" s="3">
-        <v>14403500</v>
+        <v>15295200</v>
       </c>
       <c r="J54" s="3">
+        <v>14949800</v>
+      </c>
+      <c r="K54" s="3">
         <v>14302800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14147400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14278300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14647400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14325500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14297200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14499400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14584200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>845900</v>
+        <v>787800</v>
       </c>
       <c r="E57" s="3">
-        <v>964600</v>
+        <v>878000</v>
       </c>
       <c r="F57" s="3">
-        <v>897000</v>
+        <v>1001200</v>
       </c>
       <c r="G57" s="3">
-        <v>905700</v>
+        <v>931000</v>
       </c>
       <c r="H57" s="3">
-        <v>912500</v>
+        <v>940100</v>
       </c>
       <c r="I57" s="3">
-        <v>971700</v>
+        <v>947100</v>
       </c>
       <c r="J57" s="3">
+        <v>1008500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1031300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1036700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>958000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1424300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1202900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1124800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1153700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1301500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1450500</v>
+        <v>1329200</v>
       </c>
       <c r="E58" s="3">
-        <v>1106000</v>
+        <v>1505500</v>
       </c>
       <c r="F58" s="3">
-        <v>1412400</v>
+        <v>1148000</v>
       </c>
       <c r="G58" s="3">
-        <v>971700</v>
+        <v>1465900</v>
       </c>
       <c r="H58" s="3">
-        <v>887900</v>
+        <v>1008600</v>
       </c>
       <c r="I58" s="3">
-        <v>817000</v>
+        <v>921600</v>
       </c>
       <c r="J58" s="3">
+        <v>848000</v>
+      </c>
+      <c r="K58" s="3">
         <v>695900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>727400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>933500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1274000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>912100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1063400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1305700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>368700</v>
+        <v>403100</v>
       </c>
       <c r="E59" s="3">
-        <v>339100</v>
+        <v>382700</v>
       </c>
       <c r="F59" s="3">
-        <v>360300</v>
+        <v>351900</v>
       </c>
       <c r="G59" s="3">
-        <v>425200</v>
+        <v>373900</v>
       </c>
       <c r="H59" s="3">
-        <v>389500</v>
+        <v>441300</v>
       </c>
       <c r="I59" s="3">
-        <v>271300</v>
+        <v>404300</v>
       </c>
       <c r="J59" s="3">
+        <v>281600</v>
+      </c>
+      <c r="K59" s="3">
         <v>311000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>295600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>554500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>249700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>195000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>204500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>220700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2665100</v>
+        <v>2520100</v>
       </c>
       <c r="E60" s="3">
-        <v>2409700</v>
+        <v>2766200</v>
       </c>
       <c r="F60" s="3">
-        <v>2669700</v>
+        <v>2501100</v>
       </c>
       <c r="G60" s="3">
-        <v>2302700</v>
+        <v>2770900</v>
       </c>
       <c r="H60" s="3">
-        <v>2189900</v>
+        <v>2390000</v>
       </c>
       <c r="I60" s="3">
-        <v>2060000</v>
+        <v>2273000</v>
       </c>
       <c r="J60" s="3">
+        <v>2138200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2038200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2059700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2446100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2948000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2310000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2392700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2680100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2856100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5547600</v>
+        <v>6474300</v>
       </c>
       <c r="E61" s="3">
-        <v>4815400</v>
+        <v>5758000</v>
       </c>
       <c r="F61" s="3">
-        <v>4713800</v>
+        <v>4998000</v>
       </c>
       <c r="G61" s="3">
-        <v>3890000</v>
+        <v>4892600</v>
       </c>
       <c r="H61" s="3">
-        <v>3576400</v>
+        <v>4037500</v>
       </c>
       <c r="I61" s="3">
-        <v>3164700</v>
+        <v>3712100</v>
       </c>
       <c r="J61" s="3">
+        <v>3284700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3117600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2754000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2769200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2552800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3033500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3021400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2896600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3059300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>207400</v>
+        <v>207200</v>
       </c>
       <c r="E62" s="3">
-        <v>208600</v>
+        <v>215200</v>
       </c>
       <c r="F62" s="3">
-        <v>214100</v>
+        <v>216500</v>
       </c>
       <c r="G62" s="3">
-        <v>209900</v>
+        <v>222300</v>
       </c>
       <c r="H62" s="3">
-        <v>309800</v>
+        <v>217900</v>
       </c>
       <c r="I62" s="3">
-        <v>424000</v>
+        <v>321600</v>
       </c>
       <c r="J62" s="3">
+        <v>440100</v>
+      </c>
+      <c r="K62" s="3">
         <v>406900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>449400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>475700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>526900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>565200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>552700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>567200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>505200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8946600</v>
+        <v>9728300</v>
       </c>
       <c r="E66" s="3">
-        <v>8955400</v>
+        <v>9285900</v>
       </c>
       <c r="F66" s="3">
-        <v>9141900</v>
+        <v>9295000</v>
       </c>
       <c r="G66" s="3">
-        <v>7957800</v>
+        <v>9488700</v>
       </c>
       <c r="H66" s="3">
-        <v>7651900</v>
+        <v>8259700</v>
       </c>
       <c r="I66" s="3">
-        <v>7229800</v>
+        <v>7942100</v>
       </c>
       <c r="J66" s="3">
+        <v>7504000</v>
+      </c>
+      <c r="K66" s="3">
         <v>7161600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6881800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7353600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7685900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7452300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7483300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7692700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7983600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3362,11 +3530,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>243500</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3374,13 +3542,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>241800</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6108000</v>
+        <v>6352900</v>
       </c>
       <c r="E72" s="3">
-        <v>5969300</v>
+        <v>6339600</v>
       </c>
       <c r="F72" s="3">
-        <v>5885800</v>
+        <v>6195700</v>
       </c>
       <c r="G72" s="3">
-        <v>5906300</v>
+        <v>6109000</v>
       </c>
       <c r="H72" s="3">
-        <v>5778500</v>
+        <v>6130300</v>
       </c>
       <c r="I72" s="3">
-        <v>5838700</v>
+        <v>5997600</v>
       </c>
       <c r="J72" s="3">
+        <v>6060200</v>
+      </c>
+      <c r="K72" s="3">
         <v>5772500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5853300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5513500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5891100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5797600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5763200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5689000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5562200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7422800</v>
+        <v>7742000</v>
       </c>
       <c r="E76" s="3">
-        <v>7256600</v>
+        <v>7704300</v>
       </c>
       <c r="F76" s="3">
-        <v>7221800</v>
+        <v>7531800</v>
       </c>
       <c r="G76" s="3">
-        <v>7242300</v>
+        <v>7495700</v>
       </c>
       <c r="H76" s="3">
-        <v>7084400</v>
+        <v>7517000</v>
       </c>
       <c r="I76" s="3">
-        <v>7173700</v>
+        <v>7353100</v>
       </c>
       <c r="J76" s="3">
+        <v>7445800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7141200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7265600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6681200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6961500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6873200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6813900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6564800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6600600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57300</v>
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
-        <v>81100</v>
+        <v>59500</v>
       </c>
       <c r="F81" s="3">
-        <v>110000</v>
+        <v>84200</v>
       </c>
       <c r="G81" s="3">
-        <v>140800</v>
+        <v>114200</v>
       </c>
       <c r="H81" s="3">
-        <v>69000</v>
+        <v>146100</v>
       </c>
       <c r="I81" s="3">
-        <v>122300</v>
+        <v>71600</v>
       </c>
       <c r="J81" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K81" s="3">
         <v>151200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>112800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>108100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>70000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>173800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54900</v>
+        <v>102900</v>
       </c>
       <c r="E83" s="3">
-        <v>47200</v>
+        <v>57000</v>
       </c>
       <c r="F83" s="3">
-        <v>47500</v>
+        <v>49000</v>
       </c>
       <c r="G83" s="3">
-        <v>45100</v>
+        <v>49300</v>
       </c>
       <c r="H83" s="3">
-        <v>42200</v>
+        <v>46800</v>
       </c>
       <c r="I83" s="3">
-        <v>38500</v>
+        <v>43800</v>
       </c>
       <c r="J83" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K83" s="3">
         <v>38400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>38900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>192700</v>
+        <v>-385100</v>
       </c>
       <c r="E89" s="3">
-        <v>106300</v>
+        <v>200100</v>
       </c>
       <c r="F89" s="3">
-        <v>140300</v>
+        <v>110300</v>
       </c>
       <c r="G89" s="3">
-        <v>150800</v>
+        <v>145600</v>
       </c>
       <c r="H89" s="3">
-        <v>195900</v>
+        <v>156500</v>
       </c>
       <c r="I89" s="3">
-        <v>142200</v>
+        <v>203300</v>
       </c>
       <c r="J89" s="3">
+        <v>147600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-735200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>370200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>122000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>223700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>85400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>302800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37400</v>
+        <v>-34300</v>
       </c>
       <c r="E91" s="3">
-        <v>-49500</v>
+        <v>-38800</v>
       </c>
       <c r="F91" s="3">
-        <v>-30500</v>
+        <v>-51300</v>
       </c>
       <c r="G91" s="3">
-        <v>-36700</v>
+        <v>-31700</v>
       </c>
       <c r="H91" s="3">
-        <v>-48800</v>
+        <v>-38100</v>
       </c>
       <c r="I91" s="3">
-        <v>-31300</v>
+        <v>-50600</v>
       </c>
       <c r="J91" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-49900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3300</v>
+        <v>-329800</v>
       </c>
       <c r="E94" s="3">
-        <v>-82300</v>
+        <v>3400</v>
       </c>
       <c r="F94" s="3">
-        <v>-441900</v>
+        <v>-85400</v>
       </c>
       <c r="G94" s="3">
-        <v>-431800</v>
+        <v>-458700</v>
       </c>
       <c r="H94" s="3">
-        <v>-895300</v>
+        <v>-448100</v>
       </c>
       <c r="I94" s="3">
-        <v>-274000</v>
+        <v>-929300</v>
       </c>
       <c r="J94" s="3">
+        <v>-284400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>80000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-82100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>647800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-330600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5000</v>
+        <v>-30000</v>
       </c>
       <c r="E96" s="3">
-        <v>-58100</v>
+        <v>-5200</v>
       </c>
       <c r="F96" s="3">
-        <v>-103000</v>
+        <v>-60300</v>
       </c>
       <c r="G96" s="3">
-        <v>-23500</v>
+        <v>-106900</v>
       </c>
       <c r="H96" s="3">
-        <v>-7400</v>
+        <v>-24400</v>
       </c>
       <c r="I96" s="3">
-        <v>-63800</v>
+        <v>-7700</v>
       </c>
       <c r="J96" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-105900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-48300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-99900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-27100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-151500</v>
+        <v>414500</v>
       </c>
       <c r="E100" s="3">
-        <v>-184800</v>
+        <v>-157200</v>
       </c>
       <c r="F100" s="3">
-        <v>960200</v>
+        <v>-191800</v>
       </c>
       <c r="G100" s="3">
-        <v>187100</v>
+        <v>996600</v>
       </c>
       <c r="H100" s="3">
-        <v>456700</v>
+        <v>194200</v>
       </c>
       <c r="I100" s="3">
-        <v>4600</v>
+        <v>474100</v>
       </c>
       <c r="J100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K100" s="3">
         <v>382900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-215700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-122300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-289900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-234600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-468700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-305800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F101" s="3">
-        <v>-2400</v>
+        <v>-3300</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="H101" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-14600</v>
+        <v>2800</v>
       </c>
       <c r="J101" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>44300</v>
+        <v>-291100</v>
       </c>
       <c r="E102" s="3">
-        <v>-164000</v>
+        <v>45900</v>
       </c>
       <c r="F102" s="3">
-        <v>656100</v>
+        <v>-170200</v>
       </c>
       <c r="G102" s="3">
-        <v>-93900</v>
+        <v>681000</v>
       </c>
       <c r="H102" s="3">
-        <v>-239000</v>
+        <v>-97500</v>
       </c>
       <c r="I102" s="3">
-        <v>-142800</v>
+        <v>-248100</v>
       </c>
       <c r="J102" s="3">
+        <v>-148200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-379200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-258500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>202800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>171400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-144400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-204600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>497500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-243500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>785700</v>
+        <v>801600</v>
       </c>
       <c r="E8" s="3">
-        <v>693400</v>
+        <v>707500</v>
       </c>
       <c r="F8" s="3">
-        <v>648300</v>
+        <v>661500</v>
       </c>
       <c r="G8" s="3">
-        <v>622800</v>
+        <v>635400</v>
       </c>
       <c r="H8" s="3">
-        <v>546500</v>
+        <v>557500</v>
       </c>
       <c r="I8" s="3">
-        <v>577300</v>
+        <v>589000</v>
       </c>
       <c r="J8" s="3">
-        <v>744700</v>
+        <v>759800</v>
       </c>
       <c r="K8" s="3">
         <v>959200</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>458800</v>
+        <v>468100</v>
       </c>
       <c r="E9" s="3">
-        <v>381700</v>
+        <v>389400</v>
       </c>
       <c r="F9" s="3">
-        <v>325100</v>
+        <v>331700</v>
       </c>
       <c r="G9" s="3">
-        <v>315700</v>
+        <v>322100</v>
       </c>
       <c r="H9" s="3">
-        <v>288600</v>
+        <v>294400</v>
       </c>
       <c r="I9" s="3">
-        <v>222800</v>
+        <v>227300</v>
       </c>
       <c r="J9" s="3">
-        <v>375800</v>
+        <v>383400</v>
       </c>
       <c r="K9" s="3">
         <v>533400</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>327000</v>
+        <v>333600</v>
       </c>
       <c r="E10" s="3">
-        <v>311700</v>
+        <v>318000</v>
       </c>
       <c r="F10" s="3">
-        <v>323300</v>
+        <v>329800</v>
       </c>
       <c r="G10" s="3">
-        <v>307100</v>
+        <v>313300</v>
       </c>
       <c r="H10" s="3">
-        <v>257900</v>
+        <v>263100</v>
       </c>
       <c r="I10" s="3">
-        <v>354500</v>
+        <v>361700</v>
       </c>
       <c r="J10" s="3">
-        <v>368900</v>
+        <v>376400</v>
       </c>
       <c r="K10" s="3">
         <v>425800</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>740500</v>
+        <v>755500</v>
       </c>
       <c r="E17" s="3">
-        <v>618400</v>
+        <v>630900</v>
       </c>
       <c r="F17" s="3">
-        <v>554700</v>
+        <v>565900</v>
       </c>
       <c r="G17" s="3">
-        <v>497900</v>
+        <v>508000</v>
       </c>
       <c r="H17" s="3">
-        <v>361000</v>
+        <v>368300</v>
       </c>
       <c r="I17" s="3">
-        <v>477900</v>
+        <v>487600</v>
       </c>
       <c r="J17" s="3">
-        <v>547400</v>
+        <v>558500</v>
       </c>
       <c r="K17" s="3">
         <v>700400</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45200</v>
+        <v>46100</v>
       </c>
       <c r="E18" s="3">
-        <v>75000</v>
+        <v>76600</v>
       </c>
       <c r="F18" s="3">
-        <v>93600</v>
+        <v>95500</v>
       </c>
       <c r="G18" s="3">
-        <v>124800</v>
+        <v>127400</v>
       </c>
       <c r="H18" s="3">
-        <v>185500</v>
+        <v>189200</v>
       </c>
       <c r="I18" s="3">
-        <v>99300</v>
+        <v>101400</v>
       </c>
       <c r="J18" s="3">
-        <v>197300</v>
+        <v>201300</v>
       </c>
       <c r="K18" s="3">
         <v>258800</v>
@@ -1251,25 +1251,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>40700</v>
+        <v>41500</v>
       </c>
       <c r="E20" s="3">
-        <v>39500</v>
+        <v>40300</v>
       </c>
       <c r="F20" s="3">
-        <v>57200</v>
+        <v>58300</v>
       </c>
       <c r="G20" s="3">
-        <v>73100</v>
+        <v>74600</v>
       </c>
       <c r="H20" s="3">
-        <v>36900</v>
+        <v>37700</v>
       </c>
       <c r="I20" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J20" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="K20" s="3">
         <v>3300</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>188800</v>
+        <v>192600</v>
       </c>
       <c r="E21" s="3">
-        <v>171500</v>
+        <v>175000</v>
       </c>
       <c r="F21" s="3">
-        <v>199800</v>
+        <v>203800</v>
       </c>
       <c r="G21" s="3">
-        <v>247200</v>
+        <v>252200</v>
       </c>
       <c r="H21" s="3">
-        <v>269200</v>
+        <v>274700</v>
       </c>
       <c r="I21" s="3">
-        <v>146500</v>
+        <v>149500</v>
       </c>
       <c r="J21" s="3">
-        <v>246900</v>
+        <v>251900</v>
       </c>
       <c r="K21" s="3">
         <v>300500</v>
@@ -1351,25 +1351,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>75800</v>
+        <v>77300</v>
       </c>
       <c r="E22" s="3">
-        <v>35200</v>
+        <v>35900</v>
       </c>
       <c r="F22" s="3">
-        <v>36900</v>
+        <v>37600</v>
       </c>
       <c r="G22" s="3">
-        <v>33400</v>
+        <v>34100</v>
       </c>
       <c r="H22" s="3">
-        <v>27800</v>
+        <v>28400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="K22" s="3">
         <v>21300</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="E23" s="3">
-        <v>79300</v>
+        <v>80900</v>
       </c>
       <c r="F23" s="3">
-        <v>113900</v>
+        <v>116200</v>
       </c>
       <c r="G23" s="3">
-        <v>164500</v>
+        <v>167900</v>
       </c>
       <c r="H23" s="3">
-        <v>194500</v>
+        <v>198500</v>
       </c>
       <c r="I23" s="3">
-        <v>102700</v>
+        <v>104800</v>
       </c>
       <c r="J23" s="3">
-        <v>183500</v>
+        <v>187200</v>
       </c>
       <c r="K23" s="3">
         <v>240800</v>
@@ -1451,25 +1451,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="E24" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="F24" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="G24" s="3">
-        <v>30700</v>
+        <v>31300</v>
       </c>
       <c r="H24" s="3">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="I24" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="J24" s="3">
-        <v>37800</v>
+        <v>38600</v>
       </c>
       <c r="K24" s="3">
         <v>64200</v>
@@ -1554,22 +1554,22 @@
         <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>69500</v>
+        <v>70900</v>
       </c>
       <c r="F26" s="3">
-        <v>91000</v>
+        <v>92900</v>
       </c>
       <c r="G26" s="3">
-        <v>133800</v>
+        <v>136500</v>
       </c>
       <c r="H26" s="3">
-        <v>154900</v>
+        <v>158000</v>
       </c>
       <c r="I26" s="3">
-        <v>75600</v>
+        <v>77100</v>
       </c>
       <c r="J26" s="3">
-        <v>145700</v>
+        <v>148600</v>
       </c>
       <c r="K26" s="3">
         <v>176600</v>
@@ -1604,22 +1604,22 @@
         <v>-2400</v>
       </c>
       <c r="E27" s="3">
-        <v>59500</v>
+        <v>60700</v>
       </c>
       <c r="F27" s="3">
-        <v>84200</v>
+        <v>85900</v>
       </c>
       <c r="G27" s="3">
-        <v>114200</v>
+        <v>116500</v>
       </c>
       <c r="H27" s="3">
-        <v>146100</v>
+        <v>149100</v>
       </c>
       <c r="I27" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="J27" s="3">
-        <v>126900</v>
+        <v>129500</v>
       </c>
       <c r="K27" s="3">
         <v>151200</v>
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-40700</v>
+        <v>-41500</v>
       </c>
       <c r="E32" s="3">
-        <v>-39500</v>
+        <v>-40300</v>
       </c>
       <c r="F32" s="3">
-        <v>-57200</v>
+        <v>-58300</v>
       </c>
       <c r="G32" s="3">
-        <v>-73100</v>
+        <v>-74600</v>
       </c>
       <c r="H32" s="3">
-        <v>-36900</v>
+        <v>-37700</v>
       </c>
       <c r="I32" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J32" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="K32" s="3">
         <v>-3300</v>
@@ -1904,22 +1904,22 @@
         <v>-2400</v>
       </c>
       <c r="E33" s="3">
-        <v>59500</v>
+        <v>60700</v>
       </c>
       <c r="F33" s="3">
-        <v>84200</v>
+        <v>85900</v>
       </c>
       <c r="G33" s="3">
-        <v>114200</v>
+        <v>116500</v>
       </c>
       <c r="H33" s="3">
-        <v>146100</v>
+        <v>149100</v>
       </c>
       <c r="I33" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="J33" s="3">
-        <v>126900</v>
+        <v>129500</v>
       </c>
       <c r="K33" s="3">
         <v>151200</v>
@@ -2004,22 +2004,22 @@
         <v>-2400</v>
       </c>
       <c r="E35" s="3">
-        <v>59500</v>
+        <v>60700</v>
       </c>
       <c r="F35" s="3">
-        <v>84200</v>
+        <v>85900</v>
       </c>
       <c r="G35" s="3">
-        <v>114200</v>
+        <v>116500</v>
       </c>
       <c r="H35" s="3">
-        <v>146100</v>
+        <v>149100</v>
       </c>
       <c r="I35" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="J35" s="3">
-        <v>126900</v>
+        <v>129500</v>
       </c>
       <c r="K35" s="3">
         <v>151200</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1758800</v>
+        <v>1794400</v>
       </c>
       <c r="E41" s="3">
-        <v>2048800</v>
+        <v>2090300</v>
       </c>
       <c r="F41" s="3">
-        <v>1998200</v>
+        <v>2038700</v>
       </c>
       <c r="G41" s="3">
-        <v>2170300</v>
+        <v>2214200</v>
       </c>
       <c r="H41" s="3">
-        <v>1593300</v>
+        <v>1625600</v>
       </c>
       <c r="I41" s="3">
-        <v>1676500</v>
+        <v>1710400</v>
       </c>
       <c r="J41" s="3">
-        <v>1915700</v>
+        <v>1954400</v>
       </c>
       <c r="K41" s="3">
         <v>1913400</v>
@@ -2196,25 +2196,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="E42" s="3">
-        <v>412100</v>
+        <v>420400</v>
       </c>
       <c r="F42" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="G42" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="H42" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I42" s="3">
         <v>10600</v>
       </c>
-      <c r="I42" s="3">
-        <v>10400</v>
-      </c>
       <c r="J42" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="K42" s="3">
         <v>11100</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>998500</v>
+        <v>1018800</v>
       </c>
       <c r="E43" s="3">
-        <v>779300</v>
+        <v>795100</v>
       </c>
       <c r="F43" s="3">
-        <v>1259500</v>
+        <v>1285000</v>
       </c>
       <c r="G43" s="3">
-        <v>1254000</v>
+        <v>1279400</v>
       </c>
       <c r="H43" s="3">
-        <v>1283600</v>
+        <v>1309600</v>
       </c>
       <c r="I43" s="3">
-        <v>778300</v>
+        <v>794000</v>
       </c>
       <c r="J43" s="3">
-        <v>784600</v>
+        <v>800500</v>
       </c>
       <c r="K43" s="3">
         <v>769900</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4115000</v>
+        <v>4198300</v>
       </c>
       <c r="E44" s="3">
-        <v>3787800</v>
+        <v>3864500</v>
       </c>
       <c r="F44" s="3">
-        <v>3980300</v>
+        <v>4060900</v>
       </c>
       <c r="G44" s="3">
-        <v>4048500</v>
+        <v>4130500</v>
       </c>
       <c r="H44" s="3">
-        <v>4130500</v>
+        <v>4214200</v>
       </c>
       <c r="I44" s="3">
-        <v>4186900</v>
+        <v>4271600</v>
       </c>
       <c r="J44" s="3">
-        <v>4302800</v>
+        <v>4389900</v>
       </c>
       <c r="K44" s="3">
         <v>4108500</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>138500</v>
+        <v>141300</v>
       </c>
       <c r="E45" s="3">
-        <v>173900</v>
+        <v>177500</v>
       </c>
       <c r="F45" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="G45" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="H45" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I45" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="J45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K45" s="3">
         <v>3600</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7025500</v>
+        <v>7167800</v>
       </c>
       <c r="E46" s="3">
-        <v>7201900</v>
+        <v>7347800</v>
       </c>
       <c r="F46" s="3">
-        <v>7265900</v>
+        <v>7413100</v>
       </c>
       <c r="G46" s="3">
-        <v>7494800</v>
+        <v>7646600</v>
       </c>
       <c r="H46" s="3">
-        <v>7022700</v>
+        <v>7164900</v>
       </c>
       <c r="I46" s="3">
-        <v>6663700</v>
+        <v>6798600</v>
       </c>
       <c r="J46" s="3">
-        <v>7016500</v>
+        <v>7158600</v>
       </c>
       <c r="K46" s="3">
         <v>6806400</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2701700</v>
+        <v>2756400</v>
       </c>
       <c r="E47" s="3">
-        <v>2062000</v>
+        <v>2103700</v>
       </c>
       <c r="F47" s="3">
-        <v>2133700</v>
+        <v>2177000</v>
       </c>
       <c r="G47" s="3">
-        <v>2110300</v>
+        <v>2153100</v>
       </c>
       <c r="H47" s="3">
-        <v>1872500</v>
+        <v>1910400</v>
       </c>
       <c r="I47" s="3">
-        <v>1918700</v>
+        <v>1957500</v>
       </c>
       <c r="J47" s="3">
-        <v>1753700</v>
+        <v>1789200</v>
       </c>
       <c r="K47" s="3">
         <v>1688600</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7234400</v>
+        <v>7380900</v>
       </c>
       <c r="E48" s="3">
-        <v>7230000</v>
+        <v>7376400</v>
       </c>
       <c r="F48" s="3">
-        <v>6932300</v>
+        <v>7072700</v>
       </c>
       <c r="G48" s="3">
-        <v>6921700</v>
+        <v>7061800</v>
       </c>
       <c r="H48" s="3">
-        <v>6697500</v>
+        <v>6833200</v>
       </c>
       <c r="I48" s="3">
-        <v>6411300</v>
+        <v>6541100</v>
       </c>
       <c r="J48" s="3">
-        <v>5727300</v>
+        <v>5843300</v>
       </c>
       <c r="K48" s="3">
         <v>5281400</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>508700</v>
+        <v>519000</v>
       </c>
       <c r="E52" s="3">
-        <v>496300</v>
+        <v>506400</v>
       </c>
       <c r="F52" s="3">
-        <v>494800</v>
+        <v>504800</v>
       </c>
       <c r="G52" s="3">
-        <v>457500</v>
+        <v>466800</v>
       </c>
       <c r="H52" s="3">
-        <v>183900</v>
+        <v>187700</v>
       </c>
       <c r="I52" s="3">
-        <v>301600</v>
+        <v>307700</v>
       </c>
       <c r="J52" s="3">
-        <v>452300</v>
+        <v>461400</v>
       </c>
       <c r="K52" s="3">
         <v>526300</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17470300</v>
+        <v>17824100</v>
       </c>
       <c r="E54" s="3">
-        <v>16990200</v>
+        <v>17334300</v>
       </c>
       <c r="F54" s="3">
-        <v>16826800</v>
+        <v>17167600</v>
       </c>
       <c r="G54" s="3">
-        <v>16984400</v>
+        <v>17328300</v>
       </c>
       <c r="H54" s="3">
-        <v>15776700</v>
+        <v>16096100</v>
       </c>
       <c r="I54" s="3">
-        <v>15295200</v>
+        <v>15605000</v>
       </c>
       <c r="J54" s="3">
-        <v>14949800</v>
+        <v>15252600</v>
       </c>
       <c r="K54" s="3">
         <v>14302800</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>787800</v>
+        <v>803800</v>
       </c>
       <c r="E57" s="3">
-        <v>878000</v>
+        <v>895800</v>
       </c>
       <c r="F57" s="3">
-        <v>1001200</v>
+        <v>1021400</v>
       </c>
       <c r="G57" s="3">
-        <v>931000</v>
+        <v>949900</v>
       </c>
       <c r="H57" s="3">
-        <v>940100</v>
+        <v>959100</v>
       </c>
       <c r="I57" s="3">
-        <v>947100</v>
+        <v>966300</v>
       </c>
       <c r="J57" s="3">
-        <v>1008500</v>
+        <v>1029000</v>
       </c>
       <c r="K57" s="3">
         <v>1031300</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1329200</v>
+        <v>1356100</v>
       </c>
       <c r="E58" s="3">
-        <v>1505500</v>
+        <v>1536000</v>
       </c>
       <c r="F58" s="3">
-        <v>1148000</v>
+        <v>1171200</v>
       </c>
       <c r="G58" s="3">
-        <v>1465900</v>
+        <v>1495600</v>
       </c>
       <c r="H58" s="3">
-        <v>1008600</v>
+        <v>1029000</v>
       </c>
       <c r="I58" s="3">
-        <v>921600</v>
+        <v>940200</v>
       </c>
       <c r="J58" s="3">
-        <v>848000</v>
+        <v>865200</v>
       </c>
       <c r="K58" s="3">
         <v>695900</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>403100</v>
+        <v>411200</v>
       </c>
       <c r="E59" s="3">
-        <v>382700</v>
+        <v>390400</v>
       </c>
       <c r="F59" s="3">
-        <v>351900</v>
+        <v>359100</v>
       </c>
       <c r="G59" s="3">
-        <v>373900</v>
+        <v>381500</v>
       </c>
       <c r="H59" s="3">
-        <v>441300</v>
+        <v>450300</v>
       </c>
       <c r="I59" s="3">
-        <v>404300</v>
+        <v>412500</v>
       </c>
       <c r="J59" s="3">
-        <v>281600</v>
+        <v>287300</v>
       </c>
       <c r="K59" s="3">
         <v>311000</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2520100</v>
+        <v>2571100</v>
       </c>
       <c r="E60" s="3">
-        <v>2766200</v>
+        <v>2822200</v>
       </c>
       <c r="F60" s="3">
-        <v>2501100</v>
+        <v>2551700</v>
       </c>
       <c r="G60" s="3">
-        <v>2770900</v>
+        <v>2827000</v>
       </c>
       <c r="H60" s="3">
-        <v>2390000</v>
+        <v>2438400</v>
       </c>
       <c r="I60" s="3">
-        <v>2273000</v>
+        <v>2319000</v>
       </c>
       <c r="J60" s="3">
-        <v>2138200</v>
+        <v>2181500</v>
       </c>
       <c r="K60" s="3">
         <v>2038200</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6474300</v>
+        <v>6605400</v>
       </c>
       <c r="E61" s="3">
-        <v>5758000</v>
+        <v>5874600</v>
       </c>
       <c r="F61" s="3">
-        <v>4998000</v>
+        <v>5099200</v>
       </c>
       <c r="G61" s="3">
-        <v>4892600</v>
+        <v>4991700</v>
       </c>
       <c r="H61" s="3">
-        <v>4037500</v>
+        <v>4119300</v>
       </c>
       <c r="I61" s="3">
-        <v>3712100</v>
+        <v>3787200</v>
       </c>
       <c r="J61" s="3">
-        <v>3284700</v>
+        <v>3351300</v>
       </c>
       <c r="K61" s="3">
         <v>3117600</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>207200</v>
+        <v>211400</v>
       </c>
       <c r="E62" s="3">
-        <v>215200</v>
+        <v>219600</v>
       </c>
       <c r="F62" s="3">
-        <v>216500</v>
+        <v>220900</v>
       </c>
       <c r="G62" s="3">
+        <v>226800</v>
+      </c>
+      <c r="H62" s="3">
         <v>222300</v>
       </c>
-      <c r="H62" s="3">
-        <v>217900</v>
-      </c>
       <c r="I62" s="3">
-        <v>321600</v>
+        <v>328100</v>
       </c>
       <c r="J62" s="3">
-        <v>440100</v>
+        <v>449000</v>
       </c>
       <c r="K62" s="3">
         <v>406900</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9728300</v>
+        <v>9925300</v>
       </c>
       <c r="E66" s="3">
-        <v>9285900</v>
+        <v>9474000</v>
       </c>
       <c r="F66" s="3">
-        <v>9295000</v>
+        <v>9483200</v>
       </c>
       <c r="G66" s="3">
-        <v>9488700</v>
+        <v>9680800</v>
       </c>
       <c r="H66" s="3">
-        <v>8259700</v>
+        <v>8426900</v>
       </c>
       <c r="I66" s="3">
-        <v>7942100</v>
+        <v>8102900</v>
       </c>
       <c r="J66" s="3">
-        <v>7504000</v>
+        <v>7656000</v>
       </c>
       <c r="K66" s="3">
         <v>7161600</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6352900</v>
+        <v>6481600</v>
       </c>
       <c r="E72" s="3">
-        <v>6339600</v>
+        <v>6468000</v>
       </c>
       <c r="F72" s="3">
-        <v>6195700</v>
+        <v>6321100</v>
       </c>
       <c r="G72" s="3">
-        <v>6109000</v>
+        <v>6232700</v>
       </c>
       <c r="H72" s="3">
-        <v>6130300</v>
+        <v>6254400</v>
       </c>
       <c r="I72" s="3">
-        <v>5997600</v>
+        <v>6119100</v>
       </c>
       <c r="J72" s="3">
-        <v>6060200</v>
+        <v>6182900</v>
       </c>
       <c r="K72" s="3">
         <v>5772500</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7742000</v>
+        <v>7898800</v>
       </c>
       <c r="E76" s="3">
-        <v>7704300</v>
+        <v>7860300</v>
       </c>
       <c r="F76" s="3">
-        <v>7531800</v>
+        <v>7684300</v>
       </c>
       <c r="G76" s="3">
-        <v>7495700</v>
+        <v>7647500</v>
       </c>
       <c r="H76" s="3">
-        <v>7517000</v>
+        <v>7669200</v>
       </c>
       <c r="I76" s="3">
-        <v>7353100</v>
+        <v>7502000</v>
       </c>
       <c r="J76" s="3">
-        <v>7445800</v>
+        <v>7596600</v>
       </c>
       <c r="K76" s="3">
         <v>7141200</v>
@@ -3964,22 +3964,22 @@
         <v>-2400</v>
       </c>
       <c r="E81" s="3">
-        <v>59500</v>
+        <v>60700</v>
       </c>
       <c r="F81" s="3">
-        <v>84200</v>
+        <v>85900</v>
       </c>
       <c r="G81" s="3">
-        <v>114200</v>
+        <v>116500</v>
       </c>
       <c r="H81" s="3">
-        <v>146100</v>
+        <v>149100</v>
       </c>
       <c r="I81" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="J81" s="3">
-        <v>126900</v>
+        <v>129500</v>
       </c>
       <c r="K81" s="3">
         <v>151200</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102900</v>
+        <v>105000</v>
       </c>
       <c r="E83" s="3">
-        <v>57000</v>
+        <v>58200</v>
       </c>
       <c r="F83" s="3">
-        <v>49000</v>
+        <v>50000</v>
       </c>
       <c r="G83" s="3">
-        <v>49300</v>
+        <v>50300</v>
       </c>
       <c r="H83" s="3">
-        <v>46800</v>
+        <v>47800</v>
       </c>
       <c r="I83" s="3">
-        <v>43800</v>
+        <v>44700</v>
       </c>
       <c r="J83" s="3">
-        <v>39900</v>
+        <v>40700</v>
       </c>
       <c r="K83" s="3">
         <v>38400</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-385100</v>
+        <v>-392900</v>
       </c>
       <c r="E89" s="3">
-        <v>200100</v>
+        <v>204100</v>
       </c>
       <c r="F89" s="3">
-        <v>110300</v>
+        <v>112600</v>
       </c>
       <c r="G89" s="3">
-        <v>145600</v>
+        <v>148600</v>
       </c>
       <c r="H89" s="3">
-        <v>156500</v>
+        <v>159700</v>
       </c>
       <c r="I89" s="3">
-        <v>203300</v>
+        <v>207400</v>
       </c>
       <c r="J89" s="3">
-        <v>147600</v>
+        <v>150600</v>
       </c>
       <c r="K89" s="3">
         <v>-735200</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34300</v>
+        <v>-35000</v>
       </c>
       <c r="E91" s="3">
-        <v>-38800</v>
+        <v>-39600</v>
       </c>
       <c r="F91" s="3">
-        <v>-51300</v>
+        <v>-52400</v>
       </c>
       <c r="G91" s="3">
-        <v>-31700</v>
+        <v>-32300</v>
       </c>
       <c r="H91" s="3">
-        <v>-38100</v>
+        <v>-38900</v>
       </c>
       <c r="I91" s="3">
-        <v>-50600</v>
+        <v>-51700</v>
       </c>
       <c r="J91" s="3">
-        <v>-32500</v>
+        <v>-33100</v>
       </c>
       <c r="K91" s="3">
         <v>-23900</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-329800</v>
+        <v>-336400</v>
       </c>
       <c r="E94" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F94" s="3">
-        <v>-85400</v>
+        <v>-87100</v>
       </c>
       <c r="G94" s="3">
-        <v>-458700</v>
+        <v>-468000</v>
       </c>
       <c r="H94" s="3">
-        <v>-448100</v>
+        <v>-457200</v>
       </c>
       <c r="I94" s="3">
-        <v>-929300</v>
+        <v>-948100</v>
       </c>
       <c r="J94" s="3">
-        <v>-284400</v>
+        <v>-290200</v>
       </c>
       <c r="K94" s="3">
         <v>-27400</v>
@@ -4621,25 +4621,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30000</v>
+        <v>-30600</v>
       </c>
       <c r="E96" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F96" s="3">
-        <v>-60300</v>
+        <v>-61500</v>
       </c>
       <c r="G96" s="3">
-        <v>-106900</v>
+        <v>-109100</v>
       </c>
       <c r="H96" s="3">
-        <v>-24400</v>
+        <v>-24900</v>
       </c>
       <c r="I96" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="J96" s="3">
-        <v>-66200</v>
+        <v>-67600</v>
       </c>
       <c r="K96" s="3">
         <v>-105900</v>
@@ -4821,25 +4821,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>414500</v>
+        <v>422900</v>
       </c>
       <c r="E100" s="3">
-        <v>-157200</v>
+        <v>-160400</v>
       </c>
       <c r="F100" s="3">
-        <v>-191800</v>
+        <v>-195700</v>
       </c>
       <c r="G100" s="3">
-        <v>996600</v>
+        <v>1016700</v>
       </c>
       <c r="H100" s="3">
-        <v>194200</v>
+        <v>198100</v>
       </c>
       <c r="I100" s="3">
-        <v>474100</v>
+        <v>483700</v>
       </c>
       <c r="J100" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K100" s="3">
         <v>382900</v>
@@ -4871,13 +4871,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="G101" s="3">
         <v>-2500</v>
@@ -4886,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J101" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="K101" s="3">
         <v>500</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-291100</v>
+        <v>-297000</v>
       </c>
       <c r="E102" s="3">
-        <v>45900</v>
+        <v>46900</v>
       </c>
       <c r="F102" s="3">
-        <v>-170200</v>
+        <v>-173600</v>
       </c>
       <c r="G102" s="3">
-        <v>681000</v>
+        <v>694800</v>
       </c>
       <c r="H102" s="3">
-        <v>-97500</v>
+        <v>-99400</v>
       </c>
       <c r="I102" s="3">
-        <v>-248100</v>
+        <v>-253100</v>
       </c>
       <c r="J102" s="3">
-        <v>-148200</v>
+        <v>-151200</v>
       </c>
       <c r="K102" s="3">
         <v>-379200</v>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>801600</v>
+        <v>795400</v>
       </c>
       <c r="E8" s="3">
-        <v>707500</v>
+        <v>702000</v>
       </c>
       <c r="F8" s="3">
-        <v>661500</v>
+        <v>656300</v>
       </c>
       <c r="G8" s="3">
-        <v>635400</v>
+        <v>630400</v>
       </c>
       <c r="H8" s="3">
-        <v>557500</v>
+        <v>553200</v>
       </c>
       <c r="I8" s="3">
-        <v>589000</v>
+        <v>584400</v>
       </c>
       <c r="J8" s="3">
-        <v>759800</v>
+        <v>753900</v>
       </c>
       <c r="K8" s="3">
         <v>959200</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>468100</v>
+        <v>464400</v>
       </c>
       <c r="E9" s="3">
-        <v>389400</v>
+        <v>386400</v>
       </c>
       <c r="F9" s="3">
-        <v>331700</v>
+        <v>329100</v>
       </c>
       <c r="G9" s="3">
-        <v>322100</v>
+        <v>319600</v>
       </c>
       <c r="H9" s="3">
-        <v>294400</v>
+        <v>292100</v>
       </c>
       <c r="I9" s="3">
-        <v>227300</v>
+        <v>225600</v>
       </c>
       <c r="J9" s="3">
-        <v>383400</v>
+        <v>380400</v>
       </c>
       <c r="K9" s="3">
         <v>533400</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>333600</v>
+        <v>331000</v>
       </c>
       <c r="E10" s="3">
-        <v>318000</v>
+        <v>315600</v>
       </c>
       <c r="F10" s="3">
-        <v>329800</v>
+        <v>327200</v>
       </c>
       <c r="G10" s="3">
-        <v>313300</v>
+        <v>310800</v>
       </c>
       <c r="H10" s="3">
-        <v>263100</v>
+        <v>261100</v>
       </c>
       <c r="I10" s="3">
-        <v>361700</v>
+        <v>358800</v>
       </c>
       <c r="J10" s="3">
-        <v>376400</v>
+        <v>373400</v>
       </c>
       <c r="K10" s="3">
         <v>425800</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>755500</v>
+        <v>749600</v>
       </c>
       <c r="E17" s="3">
-        <v>630900</v>
+        <v>626000</v>
       </c>
       <c r="F17" s="3">
-        <v>565900</v>
+        <v>561500</v>
       </c>
       <c r="G17" s="3">
-        <v>508000</v>
+        <v>504100</v>
       </c>
       <c r="H17" s="3">
-        <v>368300</v>
+        <v>365400</v>
       </c>
       <c r="I17" s="3">
-        <v>487600</v>
+        <v>483800</v>
       </c>
       <c r="J17" s="3">
-        <v>558500</v>
+        <v>554200</v>
       </c>
       <c r="K17" s="3">
         <v>700400</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>46100</v>
+        <v>45700</v>
       </c>
       <c r="E18" s="3">
-        <v>76600</v>
+        <v>76000</v>
       </c>
       <c r="F18" s="3">
-        <v>95500</v>
+        <v>94800</v>
       </c>
       <c r="G18" s="3">
-        <v>127400</v>
+        <v>126400</v>
       </c>
       <c r="H18" s="3">
-        <v>189200</v>
+        <v>187800</v>
       </c>
       <c r="I18" s="3">
-        <v>101400</v>
+        <v>100600</v>
       </c>
       <c r="J18" s="3">
-        <v>201300</v>
+        <v>199700</v>
       </c>
       <c r="K18" s="3">
         <v>258800</v>
@@ -1251,25 +1251,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>41500</v>
+        <v>41200</v>
       </c>
       <c r="E20" s="3">
-        <v>40300</v>
+        <v>40000</v>
       </c>
       <c r="F20" s="3">
-        <v>58300</v>
+        <v>57900</v>
       </c>
       <c r="G20" s="3">
-        <v>74600</v>
+        <v>74000</v>
       </c>
       <c r="H20" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="I20" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J20" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="K20" s="3">
         <v>3300</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>192600</v>
+        <v>191100</v>
       </c>
       <c r="E21" s="3">
-        <v>175000</v>
+        <v>173600</v>
       </c>
       <c r="F21" s="3">
-        <v>203800</v>
+        <v>202200</v>
       </c>
       <c r="G21" s="3">
-        <v>252200</v>
+        <v>250200</v>
       </c>
       <c r="H21" s="3">
-        <v>274700</v>
+        <v>272500</v>
       </c>
       <c r="I21" s="3">
-        <v>149500</v>
+        <v>148400</v>
       </c>
       <c r="J21" s="3">
-        <v>251900</v>
+        <v>250000</v>
       </c>
       <c r="K21" s="3">
         <v>300500</v>
@@ -1351,25 +1351,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>77300</v>
+        <v>76700</v>
       </c>
       <c r="E22" s="3">
-        <v>35900</v>
+        <v>35700</v>
       </c>
       <c r="F22" s="3">
-        <v>37600</v>
+        <v>37400</v>
       </c>
       <c r="G22" s="3">
-        <v>34100</v>
+        <v>33800</v>
       </c>
       <c r="H22" s="3">
-        <v>28400</v>
+        <v>28200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="K22" s="3">
         <v>21300</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="E23" s="3">
-        <v>80900</v>
+        <v>80300</v>
       </c>
       <c r="F23" s="3">
-        <v>116200</v>
+        <v>115300</v>
       </c>
       <c r="G23" s="3">
-        <v>167900</v>
+        <v>166500</v>
       </c>
       <c r="H23" s="3">
-        <v>198500</v>
+        <v>196900</v>
       </c>
       <c r="I23" s="3">
-        <v>104800</v>
+        <v>104000</v>
       </c>
       <c r="J23" s="3">
-        <v>187200</v>
+        <v>185800</v>
       </c>
       <c r="K23" s="3">
         <v>240800</v>
@@ -1451,25 +1451,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="E24" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="F24" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="G24" s="3">
-        <v>31300</v>
+        <v>31100</v>
       </c>
       <c r="H24" s="3">
-        <v>40400</v>
+        <v>40100</v>
       </c>
       <c r="I24" s="3">
-        <v>27700</v>
+        <v>27500</v>
       </c>
       <c r="J24" s="3">
-        <v>38600</v>
+        <v>38300</v>
       </c>
       <c r="K24" s="3">
         <v>64200</v>
@@ -1554,22 +1554,22 @@
         <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>70900</v>
+        <v>70300</v>
       </c>
       <c r="F26" s="3">
-        <v>92900</v>
+        <v>92100</v>
       </c>
       <c r="G26" s="3">
-        <v>136500</v>
+        <v>135400</v>
       </c>
       <c r="H26" s="3">
-        <v>158000</v>
+        <v>156800</v>
       </c>
       <c r="I26" s="3">
-        <v>77100</v>
+        <v>76500</v>
       </c>
       <c r="J26" s="3">
-        <v>148600</v>
+        <v>147500</v>
       </c>
       <c r="K26" s="3">
         <v>176600</v>
@@ -1604,22 +1604,22 @@
         <v>-2400</v>
       </c>
       <c r="E27" s="3">
-        <v>60700</v>
+        <v>60200</v>
       </c>
       <c r="F27" s="3">
-        <v>85900</v>
+        <v>85200</v>
       </c>
       <c r="G27" s="3">
-        <v>116500</v>
+        <v>115600</v>
       </c>
       <c r="H27" s="3">
-        <v>149100</v>
+        <v>147900</v>
       </c>
       <c r="I27" s="3">
-        <v>73100</v>
+        <v>72500</v>
       </c>
       <c r="J27" s="3">
-        <v>129500</v>
+        <v>128500</v>
       </c>
       <c r="K27" s="3">
         <v>151200</v>
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41500</v>
+        <v>-41200</v>
       </c>
       <c r="E32" s="3">
-        <v>-40300</v>
+        <v>-40000</v>
       </c>
       <c r="F32" s="3">
-        <v>-58300</v>
+        <v>-57900</v>
       </c>
       <c r="G32" s="3">
-        <v>-74600</v>
+        <v>-74000</v>
       </c>
       <c r="H32" s="3">
-        <v>-37700</v>
+        <v>-37400</v>
       </c>
       <c r="I32" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="J32" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="K32" s="3">
         <v>-3300</v>
@@ -1904,22 +1904,22 @@
         <v>-2400</v>
       </c>
       <c r="E33" s="3">
-        <v>60700</v>
+        <v>60200</v>
       </c>
       <c r="F33" s="3">
-        <v>85900</v>
+        <v>85200</v>
       </c>
       <c r="G33" s="3">
-        <v>116500</v>
+        <v>115600</v>
       </c>
       <c r="H33" s="3">
-        <v>149100</v>
+        <v>147900</v>
       </c>
       <c r="I33" s="3">
-        <v>73100</v>
+        <v>72500</v>
       </c>
       <c r="J33" s="3">
-        <v>129500</v>
+        <v>128500</v>
       </c>
       <c r="K33" s="3">
         <v>151200</v>
@@ -2004,22 +2004,22 @@
         <v>-2400</v>
       </c>
       <c r="E35" s="3">
-        <v>60700</v>
+        <v>60200</v>
       </c>
       <c r="F35" s="3">
-        <v>85900</v>
+        <v>85200</v>
       </c>
       <c r="G35" s="3">
-        <v>116500</v>
+        <v>115600</v>
       </c>
       <c r="H35" s="3">
-        <v>149100</v>
+        <v>147900</v>
       </c>
       <c r="I35" s="3">
-        <v>73100</v>
+        <v>72500</v>
       </c>
       <c r="J35" s="3">
-        <v>129500</v>
+        <v>128500</v>
       </c>
       <c r="K35" s="3">
         <v>151200</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1794400</v>
+        <v>1780500</v>
       </c>
       <c r="E41" s="3">
-        <v>2090300</v>
+        <v>2074000</v>
       </c>
       <c r="F41" s="3">
-        <v>2038700</v>
+        <v>2022800</v>
       </c>
       <c r="G41" s="3">
-        <v>2214200</v>
+        <v>2197000</v>
       </c>
       <c r="H41" s="3">
-        <v>1625600</v>
+        <v>1613000</v>
       </c>
       <c r="I41" s="3">
-        <v>1710400</v>
+        <v>1697100</v>
       </c>
       <c r="J41" s="3">
-        <v>1954400</v>
+        <v>1939200</v>
       </c>
       <c r="K41" s="3">
         <v>1913400</v>
@@ -2196,25 +2196,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="E42" s="3">
-        <v>420400</v>
+        <v>417100</v>
       </c>
       <c r="F42" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="G42" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="H42" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="I42" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="J42" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="K42" s="3">
         <v>11100</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1018800</v>
+        <v>1010800</v>
       </c>
       <c r="E43" s="3">
-        <v>795100</v>
+        <v>788900</v>
       </c>
       <c r="F43" s="3">
-        <v>1285000</v>
+        <v>1275000</v>
       </c>
       <c r="G43" s="3">
-        <v>1279400</v>
+        <v>1269500</v>
       </c>
       <c r="H43" s="3">
-        <v>1309600</v>
+        <v>1299400</v>
       </c>
       <c r="I43" s="3">
-        <v>794000</v>
+        <v>787800</v>
       </c>
       <c r="J43" s="3">
-        <v>800500</v>
+        <v>794300</v>
       </c>
       <c r="K43" s="3">
         <v>769900</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4198300</v>
+        <v>4165600</v>
       </c>
       <c r="E44" s="3">
-        <v>3864500</v>
+        <v>3834400</v>
       </c>
       <c r="F44" s="3">
-        <v>4060900</v>
+        <v>4029300</v>
       </c>
       <c r="G44" s="3">
-        <v>4130500</v>
+        <v>4098300</v>
       </c>
       <c r="H44" s="3">
-        <v>4214200</v>
+        <v>4181300</v>
       </c>
       <c r="I44" s="3">
-        <v>4271600</v>
+        <v>4238400</v>
       </c>
       <c r="J44" s="3">
-        <v>4389900</v>
+        <v>4355700</v>
       </c>
       <c r="K44" s="3">
         <v>4108500</v>
@@ -2346,13 +2346,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>141300</v>
+        <v>140200</v>
       </c>
       <c r="E45" s="3">
-        <v>177500</v>
+        <v>176100</v>
       </c>
       <c r="F45" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="G45" s="3">
         <v>8700</v>
@@ -2361,7 +2361,7 @@
         <v>4700</v>
       </c>
       <c r="I45" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="J45" s="3">
         <v>2800</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7167800</v>
+        <v>7112000</v>
       </c>
       <c r="E46" s="3">
-        <v>7347800</v>
+        <v>7290500</v>
       </c>
       <c r="F46" s="3">
-        <v>7413100</v>
+        <v>7355300</v>
       </c>
       <c r="G46" s="3">
-        <v>7646600</v>
+        <v>7587000</v>
       </c>
       <c r="H46" s="3">
-        <v>7164900</v>
+        <v>7109100</v>
       </c>
       <c r="I46" s="3">
-        <v>6798600</v>
+        <v>6745600</v>
       </c>
       <c r="J46" s="3">
-        <v>7158600</v>
+        <v>7102900</v>
       </c>
       <c r="K46" s="3">
         <v>6806400</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2756400</v>
+        <v>2734900</v>
       </c>
       <c r="E47" s="3">
-        <v>2103700</v>
+        <v>2087300</v>
       </c>
       <c r="F47" s="3">
-        <v>2177000</v>
+        <v>2160000</v>
       </c>
       <c r="G47" s="3">
-        <v>2153100</v>
+        <v>2136300</v>
       </c>
       <c r="H47" s="3">
-        <v>1910400</v>
+        <v>1895600</v>
       </c>
       <c r="I47" s="3">
-        <v>1957500</v>
+        <v>1942300</v>
       </c>
       <c r="J47" s="3">
-        <v>1789200</v>
+        <v>1775300</v>
       </c>
       <c r="K47" s="3">
         <v>1688600</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7380900</v>
+        <v>7323400</v>
       </c>
       <c r="E48" s="3">
-        <v>7376400</v>
+        <v>7319000</v>
       </c>
       <c r="F48" s="3">
-        <v>7072700</v>
+        <v>7017600</v>
       </c>
       <c r="G48" s="3">
-        <v>7061800</v>
+        <v>7006800</v>
       </c>
       <c r="H48" s="3">
-        <v>6833200</v>
+        <v>6779900</v>
       </c>
       <c r="I48" s="3">
-        <v>6541100</v>
+        <v>6490200</v>
       </c>
       <c r="J48" s="3">
-        <v>5843300</v>
+        <v>5797800</v>
       </c>
       <c r="K48" s="3">
         <v>5281400</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>519000</v>
+        <v>514900</v>
       </c>
       <c r="E52" s="3">
-        <v>506400</v>
+        <v>502400</v>
       </c>
       <c r="F52" s="3">
-        <v>504800</v>
+        <v>500900</v>
       </c>
       <c r="G52" s="3">
-        <v>466800</v>
+        <v>463100</v>
       </c>
       <c r="H52" s="3">
-        <v>187700</v>
+        <v>186200</v>
       </c>
       <c r="I52" s="3">
-        <v>307700</v>
+        <v>305300</v>
       </c>
       <c r="J52" s="3">
-        <v>461400</v>
+        <v>457900</v>
       </c>
       <c r="K52" s="3">
         <v>526300</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17824100</v>
+        <v>17685200</v>
       </c>
       <c r="E54" s="3">
-        <v>17334300</v>
+        <v>17199300</v>
       </c>
       <c r="F54" s="3">
-        <v>17167600</v>
+        <v>17033800</v>
       </c>
       <c r="G54" s="3">
-        <v>17328300</v>
+        <v>17193300</v>
       </c>
       <c r="H54" s="3">
-        <v>16096100</v>
+        <v>15970800</v>
       </c>
       <c r="I54" s="3">
-        <v>15605000</v>
+        <v>15483400</v>
       </c>
       <c r="J54" s="3">
-        <v>15252600</v>
+        <v>15133700</v>
       </c>
       <c r="K54" s="3">
         <v>14302800</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>803800</v>
+        <v>797500</v>
       </c>
       <c r="E57" s="3">
-        <v>895800</v>
+        <v>888800</v>
       </c>
       <c r="F57" s="3">
-        <v>1021400</v>
+        <v>1013500</v>
       </c>
       <c r="G57" s="3">
-        <v>949900</v>
+        <v>942500</v>
       </c>
       <c r="H57" s="3">
-        <v>959100</v>
+        <v>951700</v>
       </c>
       <c r="I57" s="3">
-        <v>966300</v>
+        <v>958800</v>
       </c>
       <c r="J57" s="3">
-        <v>1029000</v>
+        <v>1021000</v>
       </c>
       <c r="K57" s="3">
         <v>1031300</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1356100</v>
+        <v>1345500</v>
       </c>
       <c r="E58" s="3">
-        <v>1536000</v>
+        <v>1524000</v>
       </c>
       <c r="F58" s="3">
-        <v>1171200</v>
+        <v>1162100</v>
       </c>
       <c r="G58" s="3">
-        <v>1495600</v>
+        <v>1484000</v>
       </c>
       <c r="H58" s="3">
-        <v>1029000</v>
+        <v>1021000</v>
       </c>
       <c r="I58" s="3">
-        <v>940200</v>
+        <v>932900</v>
       </c>
       <c r="J58" s="3">
-        <v>865200</v>
+        <v>858500</v>
       </c>
       <c r="K58" s="3">
         <v>695900</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>411200</v>
+        <v>408000</v>
       </c>
       <c r="E59" s="3">
-        <v>390400</v>
+        <v>387400</v>
       </c>
       <c r="F59" s="3">
-        <v>359100</v>
+        <v>356300</v>
       </c>
       <c r="G59" s="3">
-        <v>381500</v>
+        <v>378500</v>
       </c>
       <c r="H59" s="3">
-        <v>450300</v>
+        <v>446800</v>
       </c>
       <c r="I59" s="3">
-        <v>412500</v>
+        <v>409200</v>
       </c>
       <c r="J59" s="3">
-        <v>287300</v>
+        <v>285100</v>
       </c>
       <c r="K59" s="3">
         <v>311000</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2571100</v>
+        <v>2551100</v>
       </c>
       <c r="E60" s="3">
-        <v>2822200</v>
+        <v>2800200</v>
       </c>
       <c r="F60" s="3">
-        <v>2551700</v>
+        <v>2531900</v>
       </c>
       <c r="G60" s="3">
-        <v>2827000</v>
+        <v>2805000</v>
       </c>
       <c r="H60" s="3">
-        <v>2438400</v>
+        <v>2419400</v>
       </c>
       <c r="I60" s="3">
-        <v>2319000</v>
+        <v>2301000</v>
       </c>
       <c r="J60" s="3">
-        <v>2181500</v>
+        <v>2164500</v>
       </c>
       <c r="K60" s="3">
         <v>2038200</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6605400</v>
+        <v>6554000</v>
       </c>
       <c r="E61" s="3">
-        <v>5874600</v>
+        <v>5828900</v>
       </c>
       <c r="F61" s="3">
-        <v>5099200</v>
+        <v>5059500</v>
       </c>
       <c r="G61" s="3">
-        <v>4991700</v>
+        <v>4952800</v>
       </c>
       <c r="H61" s="3">
-        <v>4119300</v>
+        <v>4087200</v>
       </c>
       <c r="I61" s="3">
-        <v>3787200</v>
+        <v>3757700</v>
       </c>
       <c r="J61" s="3">
-        <v>3351300</v>
+        <v>3325200</v>
       </c>
       <c r="K61" s="3">
         <v>3117600</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>211400</v>
+        <v>209700</v>
       </c>
       <c r="E62" s="3">
-        <v>219600</v>
+        <v>217900</v>
       </c>
       <c r="F62" s="3">
-        <v>220900</v>
+        <v>219200</v>
       </c>
       <c r="G62" s="3">
-        <v>226800</v>
+        <v>225000</v>
       </c>
       <c r="H62" s="3">
-        <v>222300</v>
+        <v>220600</v>
       </c>
       <c r="I62" s="3">
-        <v>328100</v>
+        <v>325500</v>
       </c>
       <c r="J62" s="3">
-        <v>449000</v>
+        <v>445500</v>
       </c>
       <c r="K62" s="3">
         <v>406900</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9925300</v>
+        <v>9848000</v>
       </c>
       <c r="E66" s="3">
-        <v>9474000</v>
+        <v>9400200</v>
       </c>
       <c r="F66" s="3">
-        <v>9483200</v>
+        <v>9409400</v>
       </c>
       <c r="G66" s="3">
-        <v>9680800</v>
+        <v>9605400</v>
       </c>
       <c r="H66" s="3">
-        <v>8426900</v>
+        <v>8361300</v>
       </c>
       <c r="I66" s="3">
-        <v>8102900</v>
+        <v>8039800</v>
       </c>
       <c r="J66" s="3">
-        <v>7656000</v>
+        <v>7596300</v>
       </c>
       <c r="K66" s="3">
         <v>7161600</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6481600</v>
+        <v>6431100</v>
       </c>
       <c r="E72" s="3">
-        <v>6468000</v>
+        <v>6417600</v>
       </c>
       <c r="F72" s="3">
-        <v>6321100</v>
+        <v>6271900</v>
       </c>
       <c r="G72" s="3">
-        <v>6232700</v>
+        <v>6184100</v>
       </c>
       <c r="H72" s="3">
-        <v>6254400</v>
+        <v>6205700</v>
       </c>
       <c r="I72" s="3">
-        <v>6119100</v>
+        <v>6071400</v>
       </c>
       <c r="J72" s="3">
-        <v>6182900</v>
+        <v>6134700</v>
       </c>
       <c r="K72" s="3">
         <v>5772500</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7898800</v>
+        <v>7837300</v>
       </c>
       <c r="E76" s="3">
-        <v>7860300</v>
+        <v>7799100</v>
       </c>
       <c r="F76" s="3">
-        <v>7684300</v>
+        <v>7624500</v>
       </c>
       <c r="G76" s="3">
-        <v>7647500</v>
+        <v>7587900</v>
       </c>
       <c r="H76" s="3">
-        <v>7669200</v>
+        <v>7609500</v>
       </c>
       <c r="I76" s="3">
-        <v>7502000</v>
+        <v>7443600</v>
       </c>
       <c r="J76" s="3">
-        <v>7596600</v>
+        <v>7537400</v>
       </c>
       <c r="K76" s="3">
         <v>7141200</v>
@@ -3964,22 +3964,22 @@
         <v>-2400</v>
       </c>
       <c r="E81" s="3">
-        <v>60700</v>
+        <v>60200</v>
       </c>
       <c r="F81" s="3">
-        <v>85900</v>
+        <v>85200</v>
       </c>
       <c r="G81" s="3">
-        <v>116500</v>
+        <v>115600</v>
       </c>
       <c r="H81" s="3">
-        <v>149100</v>
+        <v>147900</v>
       </c>
       <c r="I81" s="3">
-        <v>73100</v>
+        <v>72500</v>
       </c>
       <c r="J81" s="3">
-        <v>129500</v>
+        <v>128500</v>
       </c>
       <c r="K81" s="3">
         <v>151200</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>105000</v>
+        <v>104200</v>
       </c>
       <c r="E83" s="3">
-        <v>58200</v>
+        <v>57700</v>
       </c>
       <c r="F83" s="3">
-        <v>50000</v>
+        <v>49600</v>
       </c>
       <c r="G83" s="3">
-        <v>50300</v>
+        <v>49900</v>
       </c>
       <c r="H83" s="3">
-        <v>47800</v>
+        <v>47400</v>
       </c>
       <c r="I83" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="J83" s="3">
-        <v>40700</v>
+        <v>40400</v>
       </c>
       <c r="K83" s="3">
         <v>38400</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-392900</v>
+        <v>-389900</v>
       </c>
       <c r="E89" s="3">
-        <v>204100</v>
+        <v>202500</v>
       </c>
       <c r="F89" s="3">
-        <v>112600</v>
+        <v>111700</v>
       </c>
       <c r="G89" s="3">
-        <v>148600</v>
+        <v>147400</v>
       </c>
       <c r="H89" s="3">
-        <v>159700</v>
+        <v>158400</v>
       </c>
       <c r="I89" s="3">
-        <v>207400</v>
+        <v>205800</v>
       </c>
       <c r="J89" s="3">
-        <v>150600</v>
+        <v>149400</v>
       </c>
       <c r="K89" s="3">
         <v>-735200</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35000</v>
+        <v>-34700</v>
       </c>
       <c r="E91" s="3">
-        <v>-39600</v>
+        <v>-39300</v>
       </c>
       <c r="F91" s="3">
-        <v>-52400</v>
+        <v>-52000</v>
       </c>
       <c r="G91" s="3">
-        <v>-32300</v>
+        <v>-32100</v>
       </c>
       <c r="H91" s="3">
-        <v>-38900</v>
+        <v>-38600</v>
       </c>
       <c r="I91" s="3">
-        <v>-51700</v>
+        <v>-51300</v>
       </c>
       <c r="J91" s="3">
-        <v>-33100</v>
+        <v>-32900</v>
       </c>
       <c r="K91" s="3">
         <v>-23900</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-336400</v>
+        <v>-333800</v>
       </c>
       <c r="E94" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F94" s="3">
-        <v>-87100</v>
+        <v>-86500</v>
       </c>
       <c r="G94" s="3">
-        <v>-468000</v>
+        <v>-464300</v>
       </c>
       <c r="H94" s="3">
-        <v>-457200</v>
+        <v>-453700</v>
       </c>
       <c r="I94" s="3">
-        <v>-948100</v>
+        <v>-940700</v>
       </c>
       <c r="J94" s="3">
-        <v>-290200</v>
+        <v>-287900</v>
       </c>
       <c r="K94" s="3">
         <v>-27400</v>
@@ -4621,25 +4621,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30600</v>
+        <v>-30400</v>
       </c>
       <c r="E96" s="3">
         <v>-5300</v>
       </c>
       <c r="F96" s="3">
-        <v>-61500</v>
+        <v>-61000</v>
       </c>
       <c r="G96" s="3">
-        <v>-109100</v>
+        <v>-108200</v>
       </c>
       <c r="H96" s="3">
-        <v>-24900</v>
+        <v>-24700</v>
       </c>
       <c r="I96" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="J96" s="3">
-        <v>-67600</v>
+        <v>-67100</v>
       </c>
       <c r="K96" s="3">
         <v>-105900</v>
@@ -4821,22 +4821,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>422900</v>
+        <v>419600</v>
       </c>
       <c r="E100" s="3">
-        <v>-160400</v>
+        <v>-159100</v>
       </c>
       <c r="F100" s="3">
-        <v>-195700</v>
+        <v>-194200</v>
       </c>
       <c r="G100" s="3">
-        <v>1016700</v>
+        <v>1008800</v>
       </c>
       <c r="H100" s="3">
-        <v>198100</v>
+        <v>196600</v>
       </c>
       <c r="I100" s="3">
-        <v>483700</v>
+        <v>479900</v>
       </c>
       <c r="J100" s="3">
         <v>4800</v>
@@ -4871,13 +4871,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="G101" s="3">
         <v>-2500</v>
@@ -4889,7 +4889,7 @@
         <v>2900</v>
       </c>
       <c r="J101" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="K101" s="3">
         <v>500</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-297000</v>
+        <v>-294700</v>
       </c>
       <c r="E102" s="3">
-        <v>46900</v>
+        <v>46500</v>
       </c>
       <c r="F102" s="3">
-        <v>-173600</v>
+        <v>-172300</v>
       </c>
       <c r="G102" s="3">
-        <v>694800</v>
+        <v>689400</v>
       </c>
       <c r="H102" s="3">
-        <v>-99400</v>
+        <v>-98700</v>
       </c>
       <c r="I102" s="3">
-        <v>-253100</v>
+        <v>-251100</v>
       </c>
       <c r="J102" s="3">
-        <v>-151200</v>
+        <v>-150000</v>
       </c>
       <c r="K102" s="3">
         <v>-379200</v>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CDEVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>795400</v>
+        <v>781100</v>
       </c>
       <c r="E8" s="3">
-        <v>702000</v>
+        <v>809300</v>
       </c>
       <c r="F8" s="3">
-        <v>656300</v>
+        <v>714300</v>
       </c>
       <c r="G8" s="3">
-        <v>630400</v>
+        <v>667800</v>
       </c>
       <c r="H8" s="3">
-        <v>553200</v>
+        <v>641500</v>
       </c>
       <c r="I8" s="3">
-        <v>584400</v>
+        <v>562900</v>
       </c>
       <c r="J8" s="3">
+        <v>594600</v>
+      </c>
+      <c r="K8" s="3">
         <v>753900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>959200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>763500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>979100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>636900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>629700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>574000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>854700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>675800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>464400</v>
+        <v>492600</v>
       </c>
       <c r="E9" s="3">
-        <v>386400</v>
+        <v>472500</v>
       </c>
       <c r="F9" s="3">
-        <v>329100</v>
+        <v>393200</v>
       </c>
       <c r="G9" s="3">
-        <v>319600</v>
+        <v>334800</v>
       </c>
       <c r="H9" s="3">
-        <v>292100</v>
+        <v>325200</v>
       </c>
       <c r="I9" s="3">
-        <v>225600</v>
+        <v>297200</v>
       </c>
       <c r="J9" s="3">
+        <v>229500</v>
+      </c>
+      <c r="K9" s="3">
         <v>380400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>533400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>496300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>631200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>321800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>321700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>304900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>466700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>331000</v>
+        <v>288500</v>
       </c>
       <c r="E10" s="3">
-        <v>315600</v>
+        <v>336800</v>
       </c>
       <c r="F10" s="3">
-        <v>327200</v>
+        <v>321100</v>
       </c>
       <c r="G10" s="3">
-        <v>310800</v>
+        <v>333000</v>
       </c>
       <c r="H10" s="3">
-        <v>261100</v>
+        <v>316300</v>
       </c>
       <c r="I10" s="3">
-        <v>358800</v>
+        <v>265600</v>
       </c>
       <c r="J10" s="3">
+        <v>365100</v>
+      </c>
+      <c r="K10" s="3">
         <v>373400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>425800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>267200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>347900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>315200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>308000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>269000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>388000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>217200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>749600</v>
+        <v>1470100</v>
       </c>
       <c r="E17" s="3">
-        <v>626000</v>
+        <v>762800</v>
       </c>
       <c r="F17" s="3">
-        <v>561500</v>
+        <v>637000</v>
       </c>
       <c r="G17" s="3">
-        <v>504100</v>
+        <v>571400</v>
       </c>
       <c r="H17" s="3">
-        <v>365400</v>
+        <v>512900</v>
       </c>
       <c r="I17" s="3">
-        <v>483800</v>
+        <v>371800</v>
       </c>
       <c r="J17" s="3">
+        <v>492300</v>
+      </c>
+      <c r="K17" s="3">
         <v>554200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>635000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>816600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>466500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>479700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>475500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>619100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45700</v>
+        <v>-689000</v>
       </c>
       <c r="E18" s="3">
-        <v>76000</v>
+        <v>46500</v>
       </c>
       <c r="F18" s="3">
-        <v>94800</v>
+        <v>77300</v>
       </c>
       <c r="G18" s="3">
-        <v>126400</v>
+        <v>96400</v>
       </c>
       <c r="H18" s="3">
-        <v>187800</v>
+        <v>128600</v>
       </c>
       <c r="I18" s="3">
-        <v>100600</v>
+        <v>191000</v>
       </c>
       <c r="J18" s="3">
+        <v>102300</v>
+      </c>
+      <c r="K18" s="3">
         <v>199700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>258800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>128400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>162400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>170400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>150000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>98400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>235600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>179600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>41200</v>
+        <v>-601100</v>
       </c>
       <c r="E20" s="3">
-        <v>40000</v>
+        <v>41900</v>
       </c>
       <c r="F20" s="3">
-        <v>57900</v>
+        <v>40700</v>
       </c>
       <c r="G20" s="3">
-        <v>74000</v>
+        <v>58900</v>
       </c>
       <c r="H20" s="3">
-        <v>37400</v>
+        <v>75300</v>
       </c>
       <c r="I20" s="3">
-        <v>3400</v>
+        <v>38000</v>
       </c>
       <c r="J20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K20" s="3">
         <v>9800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>40700</v>
       </c>
       <c r="N20" s="3">
         <v>40700</v>
       </c>
       <c r="O20" s="3">
+        <v>40700</v>
+      </c>
+      <c r="P20" s="3">
         <v>31500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>191100</v>
+        <v>-1179500</v>
       </c>
       <c r="E21" s="3">
-        <v>173600</v>
+        <v>194500</v>
       </c>
       <c r="F21" s="3">
-        <v>202200</v>
+        <v>176700</v>
       </c>
       <c r="G21" s="3">
-        <v>250200</v>
+        <v>205800</v>
       </c>
       <c r="H21" s="3">
-        <v>272500</v>
+        <v>254600</v>
       </c>
       <c r="I21" s="3">
-        <v>148400</v>
+        <v>277300</v>
       </c>
       <c r="J21" s="3">
+        <v>150900</v>
+      </c>
+      <c r="K21" s="3">
         <v>250000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>181300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>242300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>251700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>221600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>150700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>290500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>234000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>76700</v>
+        <v>71200</v>
       </c>
       <c r="E22" s="3">
-        <v>35700</v>
+        <v>78000</v>
       </c>
       <c r="F22" s="3">
-        <v>37400</v>
+        <v>36300</v>
       </c>
       <c r="G22" s="3">
-        <v>33800</v>
+        <v>38000</v>
       </c>
       <c r="H22" s="3">
-        <v>28200</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>34400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>28700</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>42100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20300</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10200</v>
+        <v>-1361300</v>
       </c>
       <c r="E23" s="3">
-        <v>80300</v>
+        <v>10400</v>
       </c>
       <c r="F23" s="3">
-        <v>115300</v>
+        <v>81700</v>
       </c>
       <c r="G23" s="3">
-        <v>166500</v>
+        <v>117300</v>
       </c>
       <c r="H23" s="3">
-        <v>196900</v>
+        <v>169500</v>
       </c>
       <c r="I23" s="3">
-        <v>104000</v>
+        <v>200400</v>
       </c>
       <c r="J23" s="3">
+        <v>105800</v>
+      </c>
+      <c r="K23" s="3">
         <v>185800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>240800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>124900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>160000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>171000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>139500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>91700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>242800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>175100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9900</v>
+        <v>56000</v>
       </c>
       <c r="E24" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="F24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>31600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>40800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>38300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>64200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>24400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>28700</v>
+      </c>
+      <c r="P24" s="3">
         <v>23100</v>
       </c>
-      <c r="G24" s="3">
-        <v>31100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>40100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>27500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>38300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>64200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>24400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>14900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>28700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>23100</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1417300</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>70300</v>
-      </c>
       <c r="F26" s="3">
-        <v>92100</v>
+        <v>71500</v>
       </c>
       <c r="G26" s="3">
-        <v>135400</v>
+        <v>93800</v>
       </c>
       <c r="H26" s="3">
-        <v>156800</v>
+        <v>137800</v>
       </c>
       <c r="I26" s="3">
-        <v>76500</v>
+        <v>159500</v>
       </c>
       <c r="J26" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K26" s="3">
         <v>147500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>176600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>145100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>142300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>116400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>196100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2400</v>
+        <v>-1453600</v>
       </c>
       <c r="E27" s="3">
-        <v>60200</v>
+        <v>-2500</v>
       </c>
       <c r="F27" s="3">
-        <v>85200</v>
+        <v>61200</v>
       </c>
       <c r="G27" s="3">
-        <v>115600</v>
+        <v>86700</v>
       </c>
       <c r="H27" s="3">
-        <v>147900</v>
+        <v>117600</v>
       </c>
       <c r="I27" s="3">
-        <v>72500</v>
+        <v>150500</v>
       </c>
       <c r="J27" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K27" s="3">
         <v>128500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>151200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>112800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>108100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>70000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>173800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41200</v>
+        <v>601100</v>
       </c>
       <c r="E32" s="3">
-        <v>-40000</v>
+        <v>-41900</v>
       </c>
       <c r="F32" s="3">
-        <v>-57900</v>
+        <v>-40700</v>
       </c>
       <c r="G32" s="3">
-        <v>-74000</v>
+        <v>-58900</v>
       </c>
       <c r="H32" s="3">
-        <v>-37400</v>
+        <v>-75300</v>
       </c>
       <c r="I32" s="3">
-        <v>-3400</v>
+        <v>-38000</v>
       </c>
       <c r="J32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-40700</v>
       </c>
       <c r="N32" s="3">
         <v>-40700</v>
       </c>
       <c r="O32" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="P32" s="3">
         <v>-31500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2400</v>
+        <v>-1453600</v>
       </c>
       <c r="E33" s="3">
-        <v>60200</v>
+        <v>-2500</v>
       </c>
       <c r="F33" s="3">
-        <v>85200</v>
+        <v>61200</v>
       </c>
       <c r="G33" s="3">
-        <v>115600</v>
+        <v>86700</v>
       </c>
       <c r="H33" s="3">
-        <v>147900</v>
+        <v>117600</v>
       </c>
       <c r="I33" s="3">
-        <v>72500</v>
+        <v>150500</v>
       </c>
       <c r="J33" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K33" s="3">
         <v>128500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>151200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>112800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>108100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>79400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>70000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>173800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2400</v>
+        <v>-1453600</v>
       </c>
       <c r="E35" s="3">
-        <v>60200</v>
+        <v>-2500</v>
       </c>
       <c r="F35" s="3">
-        <v>85200</v>
+        <v>61200</v>
       </c>
       <c r="G35" s="3">
-        <v>115600</v>
+        <v>86700</v>
       </c>
       <c r="H35" s="3">
-        <v>147900</v>
+        <v>117600</v>
       </c>
       <c r="I35" s="3">
-        <v>72500</v>
+        <v>150500</v>
       </c>
       <c r="J35" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K35" s="3">
         <v>128500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>151200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>112800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>108100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>79400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>70000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>173800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,408 +2226,433 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1780500</v>
+        <v>2358400</v>
       </c>
       <c r="E41" s="3">
-        <v>2074000</v>
+        <v>1811600</v>
       </c>
       <c r="F41" s="3">
-        <v>2022800</v>
+        <v>2110300</v>
       </c>
       <c r="G41" s="3">
-        <v>2197000</v>
+        <v>2058200</v>
       </c>
       <c r="H41" s="3">
-        <v>1613000</v>
+        <v>2235500</v>
       </c>
       <c r="I41" s="3">
-        <v>1697100</v>
+        <v>1641200</v>
       </c>
       <c r="J41" s="3">
+        <v>1726800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1939200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1913400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2459600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2784200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2582400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2429900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2567300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2690100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2103600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="E42" s="3">
-        <v>417100</v>
+        <v>15200</v>
       </c>
       <c r="F42" s="3">
-        <v>16000</v>
+        <v>424400</v>
       </c>
       <c r="G42" s="3">
-        <v>13600</v>
+        <v>16300</v>
       </c>
       <c r="H42" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J42" s="3">
         <v>10700</v>
       </c>
-      <c r="I42" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12100</v>
-      </c>
-      <c r="O42" s="3">
-        <v>13000</v>
       </c>
       <c r="P42" s="3">
         <v>13000</v>
       </c>
       <c r="Q42" s="3">
+        <v>13000</v>
+      </c>
+      <c r="R42" s="3">
         <v>12000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1010800</v>
+        <v>1649300</v>
       </c>
       <c r="E43" s="3">
-        <v>788900</v>
+        <v>1028500</v>
       </c>
       <c r="F43" s="3">
-        <v>1275000</v>
+        <v>802700</v>
       </c>
       <c r="G43" s="3">
-        <v>1269500</v>
+        <v>1297300</v>
       </c>
       <c r="H43" s="3">
-        <v>1299400</v>
+        <v>1291700</v>
       </c>
       <c r="I43" s="3">
-        <v>787800</v>
+        <v>1322200</v>
       </c>
       <c r="J43" s="3">
+        <v>801600</v>
+      </c>
+      <c r="K43" s="3">
         <v>794300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>769900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1003900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>888100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>711700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>896000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>851100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>854300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1019200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4165600</v>
+        <v>4074500</v>
       </c>
       <c r="E44" s="3">
-        <v>3834400</v>
+        <v>4238500</v>
       </c>
       <c r="F44" s="3">
-        <v>4029300</v>
+        <v>3901600</v>
       </c>
       <c r="G44" s="3">
-        <v>4098300</v>
+        <v>4099900</v>
       </c>
       <c r="H44" s="3">
-        <v>4181300</v>
+        <v>4170100</v>
       </c>
       <c r="I44" s="3">
-        <v>4238400</v>
+        <v>4254500</v>
       </c>
       <c r="J44" s="3">
+        <v>4312600</v>
+      </c>
+      <c r="K44" s="3">
         <v>4355700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4108500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3150600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3184500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3730100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3830700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3812300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3823600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4508500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>140200</v>
+        <v>58500</v>
       </c>
       <c r="E45" s="3">
-        <v>176100</v>
+        <v>142600</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>179200</v>
       </c>
       <c r="G45" s="3">
-        <v>8700</v>
+        <v>12400</v>
       </c>
       <c r="H45" s="3">
-        <v>4700</v>
+        <v>8800</v>
       </c>
       <c r="I45" s="3">
-        <v>11800</v>
+        <v>4800</v>
       </c>
       <c r="J45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>220900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2800</v>
       </c>
       <c r="P45" s="3">
         <v>2800</v>
       </c>
       <c r="Q45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7112000</v>
+        <v>8155800</v>
       </c>
       <c r="E46" s="3">
-        <v>7290500</v>
+        <v>7236500</v>
       </c>
       <c r="F46" s="3">
-        <v>7355300</v>
+        <v>7418200</v>
       </c>
       <c r="G46" s="3">
-        <v>7587000</v>
+        <v>7484100</v>
       </c>
       <c r="H46" s="3">
-        <v>7109100</v>
+        <v>7719900</v>
       </c>
       <c r="I46" s="3">
-        <v>6745600</v>
+        <v>7233500</v>
       </c>
       <c r="J46" s="3">
+        <v>6863700</v>
+      </c>
+      <c r="K46" s="3">
         <v>7102900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6806400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6627900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6922300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7257200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7172400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7246600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7382900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7845000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2734900</v>
+        <v>1907800</v>
       </c>
       <c r="E47" s="3">
-        <v>2087300</v>
+        <v>2782800</v>
       </c>
       <c r="F47" s="3">
-        <v>2160000</v>
+        <v>2123900</v>
       </c>
       <c r="G47" s="3">
-        <v>2136300</v>
+        <v>2197800</v>
       </c>
       <c r="H47" s="3">
-        <v>1895600</v>
+        <v>2173700</v>
       </c>
       <c r="I47" s="3">
-        <v>1942300</v>
+        <v>1928800</v>
       </c>
       <c r="J47" s="3">
+        <v>1976300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1775300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1688600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1693800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1426600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1393500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1370100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1368200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1362300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1175600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7323400</v>
+        <v>7614400</v>
       </c>
       <c r="E48" s="3">
-        <v>7319000</v>
+        <v>7451600</v>
       </c>
       <c r="F48" s="3">
-        <v>7017600</v>
+        <v>7447100</v>
       </c>
       <c r="G48" s="3">
-        <v>7006800</v>
+        <v>7140500</v>
       </c>
       <c r="H48" s="3">
-        <v>6779900</v>
+        <v>7129500</v>
       </c>
       <c r="I48" s="3">
-        <v>6490200</v>
+        <v>6898600</v>
       </c>
       <c r="J48" s="3">
+        <v>6603800</v>
+      </c>
+      <c r="K48" s="3">
         <v>5797800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5281400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5399800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5491600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5573600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5511600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5411500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5479600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5451000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>514900</v>
+        <v>181900</v>
       </c>
       <c r="E52" s="3">
-        <v>502400</v>
+        <v>524000</v>
       </c>
       <c r="F52" s="3">
-        <v>500900</v>
+        <v>511200</v>
       </c>
       <c r="G52" s="3">
-        <v>463100</v>
+        <v>509700</v>
       </c>
       <c r="H52" s="3">
-        <v>186200</v>
+        <v>471300</v>
       </c>
       <c r="I52" s="3">
-        <v>305300</v>
+        <v>189500</v>
       </c>
       <c r="J52" s="3">
+        <v>310700</v>
+      </c>
+      <c r="K52" s="3">
         <v>457900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>526300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>425900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>437700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>423100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>271400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>271000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>274600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17685200</v>
+        <v>17859900</v>
       </c>
       <c r="E54" s="3">
-        <v>17199300</v>
+        <v>17994900</v>
       </c>
       <c r="F54" s="3">
-        <v>17033800</v>
+        <v>17500400</v>
       </c>
       <c r="G54" s="3">
-        <v>17193300</v>
+        <v>17332100</v>
       </c>
       <c r="H54" s="3">
-        <v>15970800</v>
+        <v>17494400</v>
       </c>
       <c r="I54" s="3">
-        <v>15483400</v>
+        <v>16250400</v>
       </c>
       <c r="J54" s="3">
+        <v>15754500</v>
+      </c>
+      <c r="K54" s="3">
         <v>15133700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14302800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14147400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14278300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14647400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14325500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14297200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14499400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14584200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>797500</v>
+        <v>1017400</v>
       </c>
       <c r="E57" s="3">
-        <v>888800</v>
+        <v>811500</v>
       </c>
       <c r="F57" s="3">
-        <v>1013500</v>
+        <v>904400</v>
       </c>
       <c r="G57" s="3">
-        <v>942500</v>
+        <v>1031200</v>
       </c>
       <c r="H57" s="3">
-        <v>951700</v>
+        <v>959000</v>
       </c>
       <c r="I57" s="3">
-        <v>958800</v>
+        <v>968300</v>
       </c>
       <c r="J57" s="3">
+        <v>975600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1021000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1031300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1036700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>958000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1424300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1202900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1124800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1153700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1301500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1345500</v>
+        <v>2121800</v>
       </c>
       <c r="E58" s="3">
-        <v>1524000</v>
+        <v>1369100</v>
       </c>
       <c r="F58" s="3">
-        <v>1162100</v>
+        <v>1550700</v>
       </c>
       <c r="G58" s="3">
-        <v>1484000</v>
+        <v>1182500</v>
       </c>
       <c r="H58" s="3">
-        <v>1021000</v>
+        <v>1510000</v>
       </c>
       <c r="I58" s="3">
-        <v>932900</v>
+        <v>1038900</v>
       </c>
       <c r="J58" s="3">
+        <v>949200</v>
+      </c>
+      <c r="K58" s="3">
         <v>858500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>695900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>727400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>933500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1274000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>912100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1063400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1305700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>408000</v>
+        <v>666000</v>
       </c>
       <c r="E59" s="3">
-        <v>387400</v>
+        <v>415200</v>
       </c>
       <c r="F59" s="3">
-        <v>356300</v>
+        <v>394200</v>
       </c>
       <c r="G59" s="3">
-        <v>378500</v>
+        <v>362500</v>
       </c>
       <c r="H59" s="3">
-        <v>446800</v>
+        <v>385200</v>
       </c>
       <c r="I59" s="3">
-        <v>409200</v>
+        <v>454600</v>
       </c>
       <c r="J59" s="3">
+        <v>416400</v>
+      </c>
+      <c r="K59" s="3">
         <v>285100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>311000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>295600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>554500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>249700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>195000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>204500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>220700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2551100</v>
+        <v>3805100</v>
       </c>
       <c r="E60" s="3">
-        <v>2800200</v>
+        <v>2595700</v>
       </c>
       <c r="F60" s="3">
-        <v>2531900</v>
+        <v>2849200</v>
       </c>
       <c r="G60" s="3">
-        <v>2805000</v>
+        <v>2576200</v>
       </c>
       <c r="H60" s="3">
-        <v>2419400</v>
+        <v>2854100</v>
       </c>
       <c r="I60" s="3">
-        <v>2301000</v>
+        <v>2461800</v>
       </c>
       <c r="J60" s="3">
+        <v>2341200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2164500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2038200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2059700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2446100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2948000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2310000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2392700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2680100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2856100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6554000</v>
+        <v>6784300</v>
       </c>
       <c r="E61" s="3">
-        <v>5828900</v>
+        <v>6668700</v>
       </c>
       <c r="F61" s="3">
-        <v>5059500</v>
+        <v>5930900</v>
       </c>
       <c r="G61" s="3">
-        <v>4952800</v>
+        <v>5148100</v>
       </c>
       <c r="H61" s="3">
-        <v>4087200</v>
+        <v>5039500</v>
       </c>
       <c r="I61" s="3">
-        <v>3757700</v>
+        <v>4158700</v>
       </c>
       <c r="J61" s="3">
+        <v>3823500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3325200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3117600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2754000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2769200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2552800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3033500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3021400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2896600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3059300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>209700</v>
+        <v>298700</v>
       </c>
       <c r="E62" s="3">
-        <v>217900</v>
+        <v>213400</v>
       </c>
       <c r="F62" s="3">
-        <v>219200</v>
+        <v>221700</v>
       </c>
       <c r="G62" s="3">
-        <v>225000</v>
+        <v>223000</v>
       </c>
       <c r="H62" s="3">
-        <v>220600</v>
+        <v>228900</v>
       </c>
       <c r="I62" s="3">
-        <v>325500</v>
+        <v>224500</v>
       </c>
       <c r="J62" s="3">
+        <v>331200</v>
+      </c>
+      <c r="K62" s="3">
         <v>445500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>406900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>449400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>475700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>526900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>565200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>552700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>567200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>505200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9848000</v>
+        <v>11446500</v>
       </c>
       <c r="E66" s="3">
-        <v>9400200</v>
+        <v>10020400</v>
       </c>
       <c r="F66" s="3">
-        <v>9409400</v>
+        <v>9564800</v>
       </c>
       <c r="G66" s="3">
-        <v>9605400</v>
+        <v>9574100</v>
       </c>
       <c r="H66" s="3">
-        <v>8361300</v>
+        <v>9773600</v>
       </c>
       <c r="I66" s="3">
-        <v>8039800</v>
+        <v>8507700</v>
       </c>
       <c r="J66" s="3">
+        <v>8180600</v>
+      </c>
+      <c r="K66" s="3">
         <v>7596300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7161600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6881800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7353600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7685900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7452300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7483300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7692700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7983600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3533,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>243500</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3545,13 +3713,16 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>241800</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6431100</v>
+        <v>4978200</v>
       </c>
       <c r="E72" s="3">
-        <v>6417600</v>
+        <v>6543700</v>
       </c>
       <c r="F72" s="3">
-        <v>6271900</v>
+        <v>6530000</v>
       </c>
       <c r="G72" s="3">
-        <v>6184100</v>
+        <v>6381700</v>
       </c>
       <c r="H72" s="3">
-        <v>6205700</v>
+        <v>6292400</v>
       </c>
       <c r="I72" s="3">
-        <v>6071400</v>
+        <v>6314300</v>
       </c>
       <c r="J72" s="3">
+        <v>6177700</v>
+      </c>
+      <c r="K72" s="3">
         <v>6134700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5772500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5853300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5513500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5891100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5797600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5763200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5689000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5562200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7837300</v>
+        <v>6413400</v>
       </c>
       <c r="E76" s="3">
-        <v>7799100</v>
+        <v>7974500</v>
       </c>
       <c r="F76" s="3">
-        <v>7624500</v>
+        <v>7935600</v>
       </c>
       <c r="G76" s="3">
-        <v>7587900</v>
+        <v>7758000</v>
       </c>
       <c r="H76" s="3">
-        <v>7609500</v>
+        <v>7720800</v>
       </c>
       <c r="I76" s="3">
-        <v>7443600</v>
+        <v>7742700</v>
       </c>
       <c r="J76" s="3">
+        <v>7573900</v>
+      </c>
+      <c r="K76" s="3">
         <v>7537400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7141200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7265600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6681200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6961500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6873200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6813900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6564800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6600600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2400</v>
+        <v>-1453600</v>
       </c>
       <c r="E81" s="3">
-        <v>60200</v>
+        <v>-2500</v>
       </c>
       <c r="F81" s="3">
-        <v>85200</v>
+        <v>61200</v>
       </c>
       <c r="G81" s="3">
-        <v>115600</v>
+        <v>86700</v>
       </c>
       <c r="H81" s="3">
-        <v>147900</v>
+        <v>117600</v>
       </c>
       <c r="I81" s="3">
-        <v>72500</v>
+        <v>150500</v>
       </c>
       <c r="J81" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K81" s="3">
         <v>128500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>151200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>112800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>108100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>79400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>70000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>173800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>104200</v>
+        <v>110600</v>
       </c>
       <c r="E83" s="3">
-        <v>57700</v>
+        <v>106000</v>
       </c>
       <c r="F83" s="3">
-        <v>49600</v>
+        <v>58700</v>
       </c>
       <c r="G83" s="3">
-        <v>49900</v>
+        <v>50400</v>
       </c>
       <c r="H83" s="3">
-        <v>47400</v>
+        <v>50800</v>
       </c>
       <c r="I83" s="3">
-        <v>44300</v>
+        <v>48300</v>
       </c>
       <c r="J83" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K83" s="3">
         <v>40400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>38900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-389900</v>
+        <v>128100</v>
       </c>
       <c r="E89" s="3">
-        <v>202500</v>
+        <v>-396700</v>
       </c>
       <c r="F89" s="3">
-        <v>111700</v>
+        <v>206100</v>
       </c>
       <c r="G89" s="3">
-        <v>147400</v>
+        <v>113700</v>
       </c>
       <c r="H89" s="3">
-        <v>158400</v>
+        <v>150000</v>
       </c>
       <c r="I89" s="3">
-        <v>205800</v>
+        <v>161200</v>
       </c>
       <c r="J89" s="3">
+        <v>209400</v>
+      </c>
+      <c r="K89" s="3">
         <v>149400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-735200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>370200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>122000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>223700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>302800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34700</v>
+        <v>-166300</v>
       </c>
       <c r="E91" s="3">
-        <v>-39300</v>
+        <v>-35300</v>
       </c>
       <c r="F91" s="3">
-        <v>-52000</v>
+        <v>-40000</v>
       </c>
       <c r="G91" s="3">
-        <v>-32100</v>
+        <v>-52900</v>
       </c>
       <c r="H91" s="3">
-        <v>-38600</v>
+        <v>-32600</v>
       </c>
       <c r="I91" s="3">
-        <v>-51300</v>
+        <v>-39200</v>
       </c>
       <c r="J91" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-32900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-333800</v>
+        <v>-472000</v>
       </c>
       <c r="E94" s="3">
-        <v>3400</v>
+        <v>-339700</v>
       </c>
       <c r="F94" s="3">
-        <v>-86500</v>
+        <v>3500</v>
       </c>
       <c r="G94" s="3">
-        <v>-464300</v>
+        <v>-88000</v>
       </c>
       <c r="H94" s="3">
-        <v>-453700</v>
+        <v>-472400</v>
       </c>
       <c r="I94" s="3">
-        <v>-940700</v>
+        <v>-461600</v>
       </c>
       <c r="J94" s="3">
+        <v>-957200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-287900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>80000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-82100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>647800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-330600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30400</v>
+        <v>-112600</v>
       </c>
       <c r="E96" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5300</v>
       </c>
-      <c r="F96" s="3">
-        <v>-61000</v>
-      </c>
       <c r="G96" s="3">
-        <v>-108200</v>
+        <v>-62100</v>
       </c>
       <c r="H96" s="3">
-        <v>-24700</v>
+        <v>-110100</v>
       </c>
       <c r="I96" s="3">
-        <v>-7800</v>
+        <v>-25100</v>
       </c>
       <c r="J96" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-67100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-105900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-48300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-99900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>419600</v>
+        <v>752500</v>
       </c>
       <c r="E100" s="3">
-        <v>-159100</v>
+        <v>427000</v>
       </c>
       <c r="F100" s="3">
-        <v>-194200</v>
+        <v>-161900</v>
       </c>
       <c r="G100" s="3">
-        <v>1008800</v>
+        <v>-197600</v>
       </c>
       <c r="H100" s="3">
-        <v>196600</v>
+        <v>1026500</v>
       </c>
       <c r="I100" s="3">
-        <v>479900</v>
+        <v>200000</v>
       </c>
       <c r="J100" s="3">
+        <v>488300</v>
+      </c>
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>382900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-215700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-122300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-289900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-234600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-468700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-305800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9300</v>
+        <v>16200</v>
       </c>
       <c r="E101" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-3300</v>
-      </c>
       <c r="G101" s="3">
-        <v>-2500</v>
+        <v>-3400</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-294700</v>
+        <v>424700</v>
       </c>
       <c r="E102" s="3">
-        <v>46500</v>
+        <v>-299900</v>
       </c>
       <c r="F102" s="3">
-        <v>-172300</v>
+        <v>47300</v>
       </c>
       <c r="G102" s="3">
-        <v>689400</v>
+        <v>-175300</v>
       </c>
       <c r="H102" s="3">
-        <v>-98700</v>
+        <v>701500</v>
       </c>
       <c r="I102" s="3">
-        <v>-251100</v>
+        <v>-100400</v>
       </c>
       <c r="J102" s="3">
+        <v>-255500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-150000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-379200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-258500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>202800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>171400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-144400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-204600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>497500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-243500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>CDEVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>781100</v>
+        <v>873900</v>
       </c>
       <c r="E8" s="3">
-        <v>809300</v>
+        <v>759000</v>
       </c>
       <c r="F8" s="3">
-        <v>714300</v>
+        <v>786400</v>
       </c>
       <c r="G8" s="3">
-        <v>667800</v>
+        <v>694100</v>
       </c>
       <c r="H8" s="3">
-        <v>641500</v>
+        <v>648900</v>
       </c>
       <c r="I8" s="3">
-        <v>562900</v>
+        <v>623300</v>
       </c>
       <c r="J8" s="3">
+        <v>546900</v>
+      </c>
+      <c r="K8" s="3">
         <v>594600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>753900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>959200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>763500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>979100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>636900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>629700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>574000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>854700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>675800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>492600</v>
+        <v>568400</v>
       </c>
       <c r="E9" s="3">
-        <v>472500</v>
+        <v>478700</v>
       </c>
       <c r="F9" s="3">
-        <v>393200</v>
+        <v>459200</v>
       </c>
       <c r="G9" s="3">
-        <v>334800</v>
+        <v>382000</v>
       </c>
       <c r="H9" s="3">
-        <v>325200</v>
+        <v>325400</v>
       </c>
       <c r="I9" s="3">
-        <v>297200</v>
+        <v>316000</v>
       </c>
       <c r="J9" s="3">
+        <v>288800</v>
+      </c>
+      <c r="K9" s="3">
         <v>229500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>380400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>533400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>496300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>631200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>321800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>321700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>304900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>466700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>288500</v>
+        <v>305500</v>
       </c>
       <c r="E10" s="3">
-        <v>336800</v>
+        <v>280300</v>
       </c>
       <c r="F10" s="3">
-        <v>321100</v>
+        <v>327200</v>
       </c>
       <c r="G10" s="3">
-        <v>333000</v>
+        <v>312000</v>
       </c>
       <c r="H10" s="3">
-        <v>316300</v>
+        <v>323500</v>
       </c>
       <c r="I10" s="3">
-        <v>265600</v>
+        <v>307300</v>
       </c>
       <c r="J10" s="3">
+        <v>258100</v>
+      </c>
+      <c r="K10" s="3">
         <v>365100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>373400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>425800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>267200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>347900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>315200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>308000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>269000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>388000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>217200</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>211100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1470100</v>
+        <v>817900</v>
       </c>
       <c r="E17" s="3">
-        <v>762800</v>
+        <v>1428500</v>
       </c>
       <c r="F17" s="3">
-        <v>637000</v>
+        <v>741200</v>
       </c>
       <c r="G17" s="3">
-        <v>571400</v>
+        <v>619000</v>
       </c>
       <c r="H17" s="3">
-        <v>512900</v>
+        <v>555200</v>
       </c>
       <c r="I17" s="3">
-        <v>371800</v>
+        <v>498400</v>
       </c>
       <c r="J17" s="3">
+        <v>361300</v>
+      </c>
+      <c r="K17" s="3">
         <v>492300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>554200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>635000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>816600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>466500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>479700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>475500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>619100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-689000</v>
+        <v>56000</v>
       </c>
       <c r="E18" s="3">
-        <v>46500</v>
+        <v>-669500</v>
       </c>
       <c r="F18" s="3">
-        <v>77300</v>
+        <v>45200</v>
       </c>
       <c r="G18" s="3">
-        <v>96400</v>
+        <v>75100</v>
       </c>
       <c r="H18" s="3">
-        <v>128600</v>
+        <v>93700</v>
       </c>
       <c r="I18" s="3">
-        <v>191000</v>
+        <v>124900</v>
       </c>
       <c r="J18" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K18" s="3">
         <v>102300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>199700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>258800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>128400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>162400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>170400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>150000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>98400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>235600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>179600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-601100</v>
+        <v>23900</v>
       </c>
       <c r="E20" s="3">
-        <v>41900</v>
+        <v>-584100</v>
       </c>
       <c r="F20" s="3">
         <v>40700</v>
       </c>
       <c r="G20" s="3">
-        <v>58900</v>
+        <v>39500</v>
       </c>
       <c r="H20" s="3">
-        <v>75300</v>
+        <v>57200</v>
       </c>
       <c r="I20" s="3">
-        <v>38000</v>
+        <v>73200</v>
       </c>
       <c r="J20" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>40700</v>
       </c>
       <c r="O20" s="3">
         <v>40700</v>
       </c>
       <c r="P20" s="3">
+        <v>40700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>31500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1179500</v>
+        <v>185500</v>
       </c>
       <c r="E21" s="3">
-        <v>194500</v>
+        <v>-1146100</v>
       </c>
       <c r="F21" s="3">
-        <v>176700</v>
+        <v>189000</v>
       </c>
       <c r="G21" s="3">
-        <v>205800</v>
+        <v>171700</v>
       </c>
       <c r="H21" s="3">
-        <v>254600</v>
+        <v>199900</v>
       </c>
       <c r="I21" s="3">
-        <v>277300</v>
+        <v>247400</v>
       </c>
       <c r="J21" s="3">
+        <v>269500</v>
+      </c>
+      <c r="K21" s="3">
         <v>150900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>250000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>181300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>242300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>251700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>221600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>150700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>290500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>234000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>71200</v>
+        <v>72800</v>
       </c>
       <c r="E22" s="3">
-        <v>78000</v>
+        <v>69200</v>
       </c>
       <c r="F22" s="3">
-        <v>36300</v>
+        <v>75800</v>
       </c>
       <c r="G22" s="3">
-        <v>38000</v>
+        <v>35300</v>
       </c>
       <c r="H22" s="3">
-        <v>34400</v>
+        <v>36900</v>
       </c>
       <c r="I22" s="3">
-        <v>28700</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>33400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>42100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20300</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1361300</v>
+        <v>7100</v>
       </c>
       <c r="E23" s="3">
-        <v>10400</v>
+        <v>-1322700</v>
       </c>
       <c r="F23" s="3">
-        <v>81700</v>
+        <v>10100</v>
       </c>
       <c r="G23" s="3">
-        <v>117300</v>
+        <v>79400</v>
       </c>
       <c r="H23" s="3">
-        <v>169500</v>
+        <v>114000</v>
       </c>
       <c r="I23" s="3">
-        <v>200400</v>
+        <v>164700</v>
       </c>
       <c r="J23" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K23" s="3">
         <v>105800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>185800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>240800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>124900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>160000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>171000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>139500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>91700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>242800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>175100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56000</v>
+        <v>20900</v>
       </c>
       <c r="E24" s="3">
-        <v>10100</v>
+        <v>54500</v>
       </c>
       <c r="F24" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="G24" s="3">
-        <v>23600</v>
+        <v>9800</v>
       </c>
       <c r="H24" s="3">
-        <v>31600</v>
+        <v>22900</v>
       </c>
       <c r="I24" s="3">
-        <v>40800</v>
+        <v>30700</v>
       </c>
       <c r="J24" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1417300</v>
+        <v>-13700</v>
       </c>
       <c r="E26" s="3">
+        <v>-1377200</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
-        <v>71500</v>
-      </c>
       <c r="G26" s="3">
-        <v>93800</v>
+        <v>69500</v>
       </c>
       <c r="H26" s="3">
-        <v>137800</v>
+        <v>91100</v>
       </c>
       <c r="I26" s="3">
-        <v>159500</v>
+        <v>133900</v>
       </c>
       <c r="J26" s="3">
+        <v>155000</v>
+      </c>
+      <c r="K26" s="3">
         <v>77800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>176600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>145100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>142300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>116400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>196100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1453600</v>
+        <v>-28200</v>
       </c>
       <c r="E27" s="3">
-        <v>-2500</v>
+        <v>-1412500</v>
       </c>
       <c r="F27" s="3">
-        <v>61200</v>
+        <v>-2400</v>
       </c>
       <c r="G27" s="3">
-        <v>86700</v>
+        <v>59500</v>
       </c>
       <c r="H27" s="3">
-        <v>117600</v>
+        <v>84300</v>
       </c>
       <c r="I27" s="3">
-        <v>150500</v>
+        <v>114300</v>
       </c>
       <c r="J27" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K27" s="3">
         <v>73800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>128500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>151200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>108100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>79400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>70000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>173800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>601100</v>
+        <v>-23900</v>
       </c>
       <c r="E32" s="3">
-        <v>-41900</v>
+        <v>584100</v>
       </c>
       <c r="F32" s="3">
         <v>-40700</v>
       </c>
       <c r="G32" s="3">
-        <v>-58900</v>
+        <v>-39500</v>
       </c>
       <c r="H32" s="3">
-        <v>-75300</v>
+        <v>-57200</v>
       </c>
       <c r="I32" s="3">
-        <v>-38000</v>
+        <v>-73200</v>
       </c>
       <c r="J32" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-40700</v>
       </c>
       <c r="O32" s="3">
         <v>-40700</v>
       </c>
       <c r="P32" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1453600</v>
+        <v>-28200</v>
       </c>
       <c r="E33" s="3">
-        <v>-2500</v>
+        <v>-1412500</v>
       </c>
       <c r="F33" s="3">
-        <v>61200</v>
+        <v>-2400</v>
       </c>
       <c r="G33" s="3">
-        <v>86700</v>
+        <v>59500</v>
       </c>
       <c r="H33" s="3">
-        <v>117600</v>
+        <v>84300</v>
       </c>
       <c r="I33" s="3">
-        <v>150500</v>
+        <v>114300</v>
       </c>
       <c r="J33" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K33" s="3">
         <v>73800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>128500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>151200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>112800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>108100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>79400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>70000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>173800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1453600</v>
+        <v>-28200</v>
       </c>
       <c r="E35" s="3">
-        <v>-2500</v>
+        <v>-1412500</v>
       </c>
       <c r="F35" s="3">
-        <v>61200</v>
+        <v>-2400</v>
       </c>
       <c r="G35" s="3">
-        <v>86700</v>
+        <v>59500</v>
       </c>
       <c r="H35" s="3">
-        <v>117600</v>
+        <v>84300</v>
       </c>
       <c r="I35" s="3">
-        <v>150500</v>
+        <v>114300</v>
       </c>
       <c r="J35" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K35" s="3">
         <v>73800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>128500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>151200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>112800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>108100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>79400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>70000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>173800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,455 +2313,480 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2358400</v>
+        <v>1943400</v>
       </c>
       <c r="E41" s="3">
-        <v>1811600</v>
+        <v>2291700</v>
       </c>
       <c r="F41" s="3">
-        <v>2110300</v>
+        <v>1760400</v>
       </c>
       <c r="G41" s="3">
-        <v>2058200</v>
+        <v>2050600</v>
       </c>
       <c r="H41" s="3">
-        <v>2235500</v>
+        <v>2000000</v>
       </c>
       <c r="I41" s="3">
-        <v>1641200</v>
+        <v>2172200</v>
       </c>
       <c r="J41" s="3">
+        <v>1594800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1726800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1939200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1913400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2459600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2784200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2582400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2429900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2567300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2690100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2103600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15100</v>
+        <v>27600</v>
       </c>
       <c r="E42" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="F42" s="3">
-        <v>424400</v>
+        <v>14700</v>
       </c>
       <c r="G42" s="3">
-        <v>16300</v>
+        <v>412400</v>
       </c>
       <c r="H42" s="3">
-        <v>13800</v>
+        <v>15800</v>
       </c>
       <c r="I42" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L42" s="3">
         <v>10900</v>
       </c>
-      <c r="J42" s="3">
-        <v>10700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>10900</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12100</v>
-      </c>
-      <c r="P42" s="3">
-        <v>13000</v>
       </c>
       <c r="Q42" s="3">
         <v>13000</v>
       </c>
       <c r="R42" s="3">
+        <v>13000</v>
+      </c>
+      <c r="S42" s="3">
         <v>12000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1649300</v>
+        <v>1609400</v>
       </c>
       <c r="E43" s="3">
-        <v>1028500</v>
+        <v>1602600</v>
       </c>
       <c r="F43" s="3">
-        <v>802700</v>
+        <v>999400</v>
       </c>
       <c r="G43" s="3">
-        <v>1297300</v>
+        <v>780000</v>
       </c>
       <c r="H43" s="3">
-        <v>1291700</v>
+        <v>1260600</v>
       </c>
       <c r="I43" s="3">
-        <v>1322200</v>
+        <v>1255200</v>
       </c>
       <c r="J43" s="3">
+        <v>1284800</v>
+      </c>
+      <c r="K43" s="3">
         <v>801600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>794300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>769900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1003900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>888100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>711700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>896000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>851100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>854300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1019200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4074500</v>
+        <v>4486100</v>
       </c>
       <c r="E44" s="3">
-        <v>4238500</v>
+        <v>3959200</v>
       </c>
       <c r="F44" s="3">
-        <v>3901600</v>
+        <v>4118600</v>
       </c>
       <c r="G44" s="3">
-        <v>4099900</v>
+        <v>3791200</v>
       </c>
       <c r="H44" s="3">
-        <v>4170100</v>
+        <v>3983900</v>
       </c>
       <c r="I44" s="3">
-        <v>4254500</v>
+        <v>4052100</v>
       </c>
       <c r="J44" s="3">
+        <v>4134200</v>
+      </c>
+      <c r="K44" s="3">
         <v>4312600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4355700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4108500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3150600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3184500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3730100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3830700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3812300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3823600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4508500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58500</v>
+        <v>949200</v>
       </c>
       <c r="E45" s="3">
-        <v>142600</v>
+        <v>56800</v>
       </c>
       <c r="F45" s="3">
-        <v>179200</v>
+        <v>138600</v>
       </c>
       <c r="G45" s="3">
-        <v>12400</v>
+        <v>174100</v>
       </c>
       <c r="H45" s="3">
-        <v>8800</v>
+        <v>12100</v>
       </c>
       <c r="I45" s="3">
-        <v>4800</v>
+        <v>8600</v>
       </c>
       <c r="J45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K45" s="3">
         <v>12000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>220900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>2800</v>
       </c>
       <c r="Q45" s="3">
         <v>2800</v>
       </c>
       <c r="R45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8155800</v>
+        <v>9015800</v>
       </c>
       <c r="E46" s="3">
-        <v>7236500</v>
+        <v>7925100</v>
       </c>
       <c r="F46" s="3">
-        <v>7418200</v>
+        <v>7031800</v>
       </c>
       <c r="G46" s="3">
-        <v>7484100</v>
+        <v>7208300</v>
       </c>
       <c r="H46" s="3">
-        <v>7719900</v>
+        <v>7272400</v>
       </c>
       <c r="I46" s="3">
-        <v>7233500</v>
+        <v>7501500</v>
       </c>
       <c r="J46" s="3">
+        <v>7028900</v>
+      </c>
+      <c r="K46" s="3">
         <v>6863700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7102900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6806400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6627900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6922300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7257200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7172400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7246600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7382900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7845000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1907800</v>
+        <v>1859000</v>
       </c>
       <c r="E47" s="3">
-        <v>2782800</v>
+        <v>1853800</v>
       </c>
       <c r="F47" s="3">
-        <v>2123900</v>
+        <v>2704100</v>
       </c>
       <c r="G47" s="3">
-        <v>2197800</v>
+        <v>2063800</v>
       </c>
       <c r="H47" s="3">
-        <v>2173700</v>
+        <v>2135600</v>
       </c>
       <c r="I47" s="3">
-        <v>1928800</v>
+        <v>2112200</v>
       </c>
       <c r="J47" s="3">
+        <v>1874200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1976300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1775300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1688600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1693800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1426600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1393500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1370100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1368200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1362300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1175600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7614400</v>
+        <v>6969800</v>
       </c>
       <c r="E48" s="3">
-        <v>7451600</v>
+        <v>7399000</v>
       </c>
       <c r="F48" s="3">
-        <v>7447100</v>
+        <v>7240800</v>
       </c>
       <c r="G48" s="3">
-        <v>7140500</v>
+        <v>7236400</v>
       </c>
       <c r="H48" s="3">
-        <v>7129500</v>
+        <v>6938500</v>
       </c>
       <c r="I48" s="3">
-        <v>6898600</v>
+        <v>6927800</v>
       </c>
       <c r="J48" s="3">
+        <v>6703500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6603800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5797800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5281400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5399800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5491600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5573600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5511600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5411500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5479600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5451000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>181900</v>
+        <v>148000</v>
       </c>
       <c r="E52" s="3">
-        <v>524000</v>
+        <v>176800</v>
       </c>
       <c r="F52" s="3">
-        <v>511200</v>
+        <v>509100</v>
       </c>
       <c r="G52" s="3">
-        <v>509700</v>
+        <v>496800</v>
       </c>
       <c r="H52" s="3">
-        <v>471300</v>
+        <v>495300</v>
       </c>
       <c r="I52" s="3">
-        <v>189500</v>
+        <v>457900</v>
       </c>
       <c r="J52" s="3">
+        <v>184100</v>
+      </c>
+      <c r="K52" s="3">
         <v>310700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>457900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>526300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>425900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>437700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>423100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>271400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>271000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>274600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17859900</v>
+        <v>17994000</v>
       </c>
       <c r="E54" s="3">
-        <v>17994900</v>
+        <v>17354600</v>
       </c>
       <c r="F54" s="3">
-        <v>17500400</v>
+        <v>17485800</v>
       </c>
       <c r="G54" s="3">
-        <v>17332100</v>
+        <v>17005300</v>
       </c>
       <c r="H54" s="3">
-        <v>17494400</v>
+        <v>16841800</v>
       </c>
       <c r="I54" s="3">
-        <v>16250400</v>
+        <v>16999400</v>
       </c>
       <c r="J54" s="3">
+        <v>15790700</v>
+      </c>
+      <c r="K54" s="3">
         <v>15754500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15133700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14302800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14147400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14278300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14647400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14325500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14297200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14499400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14584200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1017400</v>
+        <v>154000</v>
       </c>
       <c r="E57" s="3">
-        <v>811500</v>
+        <v>988600</v>
       </c>
       <c r="F57" s="3">
-        <v>904400</v>
+        <v>788500</v>
       </c>
       <c r="G57" s="3">
-        <v>1031200</v>
+        <v>878800</v>
       </c>
       <c r="H57" s="3">
-        <v>959000</v>
+        <v>1002100</v>
       </c>
       <c r="I57" s="3">
-        <v>968300</v>
+        <v>931900</v>
       </c>
       <c r="J57" s="3">
+        <v>940900</v>
+      </c>
+      <c r="K57" s="3">
         <v>975600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1021000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1031300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1036700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>958000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1424300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1202900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1124800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1153700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1301500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2121800</v>
+        <v>3042200</v>
       </c>
       <c r="E58" s="3">
-        <v>1369100</v>
+        <v>2061700</v>
       </c>
       <c r="F58" s="3">
-        <v>1550700</v>
+        <v>1330400</v>
       </c>
       <c r="G58" s="3">
-        <v>1182500</v>
+        <v>1506800</v>
       </c>
       <c r="H58" s="3">
-        <v>1510000</v>
+        <v>1149000</v>
       </c>
       <c r="I58" s="3">
-        <v>1038900</v>
+        <v>1467200</v>
       </c>
       <c r="J58" s="3">
+        <v>1009500</v>
+      </c>
+      <c r="K58" s="3">
         <v>949200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>858500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>695900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>727400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>933500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1274000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>912100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1063400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1305700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>666000</v>
+        <v>1870800</v>
       </c>
       <c r="E59" s="3">
-        <v>415200</v>
+        <v>647100</v>
       </c>
       <c r="F59" s="3">
-        <v>394200</v>
+        <v>403400</v>
       </c>
       <c r="G59" s="3">
-        <v>362500</v>
+        <v>383000</v>
       </c>
       <c r="H59" s="3">
-        <v>385200</v>
+        <v>352200</v>
       </c>
       <c r="I59" s="3">
-        <v>454600</v>
+        <v>374300</v>
       </c>
       <c r="J59" s="3">
+        <v>441700</v>
+      </c>
+      <c r="K59" s="3">
         <v>416400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>285100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>311000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>295600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>554500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>249700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>195000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>204500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>220700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3805100</v>
+        <v>5067000</v>
       </c>
       <c r="E60" s="3">
-        <v>2595700</v>
+        <v>3697500</v>
       </c>
       <c r="F60" s="3">
-        <v>2849200</v>
+        <v>2522300</v>
       </c>
       <c r="G60" s="3">
-        <v>2576200</v>
+        <v>2768600</v>
       </c>
       <c r="H60" s="3">
-        <v>2854100</v>
+        <v>2503300</v>
       </c>
       <c r="I60" s="3">
-        <v>2461800</v>
+        <v>2773400</v>
       </c>
       <c r="J60" s="3">
+        <v>2392100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2341200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2164500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2038200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2059700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2446100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2948000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2310000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2392700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2680100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2856100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6784300</v>
+        <v>5756600</v>
       </c>
       <c r="E61" s="3">
-        <v>6668700</v>
+        <v>6592400</v>
       </c>
       <c r="F61" s="3">
-        <v>5930900</v>
+        <v>6480100</v>
       </c>
       <c r="G61" s="3">
-        <v>5148100</v>
+        <v>5763100</v>
       </c>
       <c r="H61" s="3">
-        <v>5039500</v>
+        <v>5002500</v>
       </c>
       <c r="I61" s="3">
-        <v>4158700</v>
+        <v>4897000</v>
       </c>
       <c r="J61" s="3">
+        <v>4041100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3823500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3325200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3117600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2754000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2769200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2552800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3033500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3021400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2896600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3059300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>298700</v>
+        <v>380400</v>
       </c>
       <c r="E62" s="3">
-        <v>213400</v>
+        <v>290300</v>
       </c>
       <c r="F62" s="3">
-        <v>221700</v>
+        <v>207400</v>
       </c>
       <c r="G62" s="3">
-        <v>223000</v>
+        <v>215400</v>
       </c>
       <c r="H62" s="3">
-        <v>228900</v>
+        <v>216700</v>
       </c>
       <c r="I62" s="3">
-        <v>224500</v>
+        <v>222500</v>
       </c>
       <c r="J62" s="3">
+        <v>218100</v>
+      </c>
+      <c r="K62" s="3">
         <v>331200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>445500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>406900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>449400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>475700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>526900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>565200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>552700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>567200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>505200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11446500</v>
+        <v>11864300</v>
       </c>
       <c r="E66" s="3">
-        <v>10020400</v>
+        <v>11122700</v>
       </c>
       <c r="F66" s="3">
-        <v>9564800</v>
+        <v>9736900</v>
       </c>
       <c r="G66" s="3">
-        <v>9574100</v>
+        <v>9294200</v>
       </c>
       <c r="H66" s="3">
-        <v>9773600</v>
+        <v>9303300</v>
       </c>
       <c r="I66" s="3">
-        <v>8507700</v>
+        <v>9497100</v>
       </c>
       <c r="J66" s="3">
+        <v>8267000</v>
+      </c>
+      <c r="K66" s="3">
         <v>8180600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7596300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7161600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6881800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7353600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7685900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7452300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7483300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7692700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7983600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,13 +3833,16 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>242000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3704,11 +3872,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>243500</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3716,13 +3884,16 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>241800</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4978200</v>
+        <v>4730900</v>
       </c>
       <c r="E72" s="3">
-        <v>6543700</v>
+        <v>4837400</v>
       </c>
       <c r="F72" s="3">
-        <v>6530000</v>
+        <v>6358600</v>
       </c>
       <c r="G72" s="3">
-        <v>6381700</v>
+        <v>6345300</v>
       </c>
       <c r="H72" s="3">
-        <v>6292400</v>
+        <v>6201200</v>
       </c>
       <c r="I72" s="3">
-        <v>6314300</v>
+        <v>6114400</v>
       </c>
       <c r="J72" s="3">
+        <v>6135700</v>
+      </c>
+      <c r="K72" s="3">
         <v>6177700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6134700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5772500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5853300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5513500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5891100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5797600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5763200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5689000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5562200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6413400</v>
+        <v>5887700</v>
       </c>
       <c r="E76" s="3">
-        <v>7974500</v>
+        <v>6231900</v>
       </c>
       <c r="F76" s="3">
-        <v>7935600</v>
+        <v>7748900</v>
       </c>
       <c r="G76" s="3">
-        <v>7758000</v>
+        <v>7711100</v>
       </c>
       <c r="H76" s="3">
-        <v>7720800</v>
+        <v>7538500</v>
       </c>
       <c r="I76" s="3">
-        <v>7742700</v>
+        <v>7502400</v>
       </c>
       <c r="J76" s="3">
+        <v>7523700</v>
+      </c>
+      <c r="K76" s="3">
         <v>7573900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7537400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7141200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7265600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6681200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6961500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6873200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6813900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6564800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6600600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1453600</v>
+        <v>-28200</v>
       </c>
       <c r="E81" s="3">
-        <v>-2500</v>
+        <v>-1412500</v>
       </c>
       <c r="F81" s="3">
-        <v>61200</v>
+        <v>-2400</v>
       </c>
       <c r="G81" s="3">
-        <v>86700</v>
+        <v>59500</v>
       </c>
       <c r="H81" s="3">
-        <v>117600</v>
+        <v>84300</v>
       </c>
       <c r="I81" s="3">
-        <v>150500</v>
+        <v>114300</v>
       </c>
       <c r="J81" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K81" s="3">
         <v>73800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>128500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>151200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>112800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>108100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>79400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>70000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>173800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>110600</v>
+        <v>105600</v>
       </c>
       <c r="E83" s="3">
-        <v>106000</v>
+        <v>107400</v>
       </c>
       <c r="F83" s="3">
-        <v>58700</v>
+        <v>103000</v>
       </c>
       <c r="G83" s="3">
-        <v>50400</v>
+        <v>57100</v>
       </c>
       <c r="H83" s="3">
-        <v>50800</v>
+        <v>49000</v>
       </c>
       <c r="I83" s="3">
-        <v>48300</v>
+        <v>49300</v>
       </c>
       <c r="J83" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K83" s="3">
         <v>45100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>38900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>128100</v>
+        <v>437000</v>
       </c>
       <c r="E89" s="3">
-        <v>-396700</v>
+        <v>124400</v>
       </c>
       <c r="F89" s="3">
-        <v>206100</v>
+        <v>-385500</v>
       </c>
       <c r="G89" s="3">
-        <v>113700</v>
+        <v>200200</v>
       </c>
       <c r="H89" s="3">
-        <v>150000</v>
+        <v>110400</v>
       </c>
       <c r="I89" s="3">
-        <v>161200</v>
+        <v>145700</v>
       </c>
       <c r="J89" s="3">
+        <v>156600</v>
+      </c>
+      <c r="K89" s="3">
         <v>209400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>149400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-735200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>370200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>122000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>223700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>85400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>302800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-166300</v>
+        <v>-28400</v>
       </c>
       <c r="E91" s="3">
-        <v>-35300</v>
+        <v>-161600</v>
       </c>
       <c r="F91" s="3">
-        <v>-40000</v>
+        <v>-34300</v>
       </c>
       <c r="G91" s="3">
-        <v>-52900</v>
+        <v>-38900</v>
       </c>
       <c r="H91" s="3">
-        <v>-32600</v>
+        <v>-51400</v>
       </c>
       <c r="I91" s="3">
-        <v>-39200</v>
+        <v>-31700</v>
       </c>
       <c r="J91" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-52200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-49900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-472000</v>
+        <v>-347300</v>
       </c>
       <c r="E94" s="3">
-        <v>-339700</v>
+        <v>-458700</v>
       </c>
       <c r="F94" s="3">
-        <v>3500</v>
+        <v>-330100</v>
       </c>
       <c r="G94" s="3">
-        <v>-88000</v>
+        <v>3400</v>
       </c>
       <c r="H94" s="3">
-        <v>-472400</v>
+        <v>-85500</v>
       </c>
       <c r="I94" s="3">
-        <v>-461600</v>
+        <v>-459100</v>
       </c>
       <c r="J94" s="3">
+        <v>-448500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-957200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-287900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>80000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-82100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>647800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-330600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-112600</v>
+        <v>-95400</v>
       </c>
       <c r="E96" s="3">
-        <v>-30900</v>
+        <v>-109400</v>
       </c>
       <c r="F96" s="3">
-        <v>-5300</v>
+        <v>-30000</v>
       </c>
       <c r="G96" s="3">
-        <v>-62100</v>
+        <v>-5200</v>
       </c>
       <c r="H96" s="3">
-        <v>-110100</v>
+        <v>-60400</v>
       </c>
       <c r="I96" s="3">
-        <v>-25100</v>
+        <v>-107000</v>
       </c>
       <c r="J96" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-67100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-105900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-24800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-48300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-99900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-27100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>752500</v>
+        <v>-429700</v>
       </c>
       <c r="E100" s="3">
-        <v>427000</v>
+        <v>731200</v>
       </c>
       <c r="F100" s="3">
-        <v>-161900</v>
+        <v>414900</v>
       </c>
       <c r="G100" s="3">
-        <v>-197600</v>
+        <v>-157300</v>
       </c>
       <c r="H100" s="3">
-        <v>1026500</v>
+        <v>-192000</v>
       </c>
       <c r="I100" s="3">
-        <v>200000</v>
+        <v>997500</v>
       </c>
       <c r="J100" s="3">
+        <v>194400</v>
+      </c>
+      <c r="K100" s="3">
         <v>488300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>382900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-215700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-122300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-289900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-234600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-468700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-305800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16200</v>
+        <v>1800</v>
       </c>
       <c r="E101" s="3">
-        <v>9500</v>
+        <v>15800</v>
       </c>
       <c r="F101" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>-3400</v>
-      </c>
       <c r="H101" s="3">
-        <v>-2600</v>
+        <v>-3300</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>424700</v>
+        <v>-338100</v>
       </c>
       <c r="E102" s="3">
-        <v>-299900</v>
+        <v>412700</v>
       </c>
       <c r="F102" s="3">
-        <v>47300</v>
+        <v>-291400</v>
       </c>
       <c r="G102" s="3">
-        <v>-175300</v>
+        <v>46000</v>
       </c>
       <c r="H102" s="3">
-        <v>701500</v>
+        <v>-170300</v>
       </c>
       <c r="I102" s="3">
-        <v>-100400</v>
+        <v>681600</v>
       </c>
       <c r="J102" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-255500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-150000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-379200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-258500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>202800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>171400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-144400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-204600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>497500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-243500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>873900</v>
+        <v>871000</v>
       </c>
       <c r="E8" s="3">
-        <v>759000</v>
+        <v>756500</v>
       </c>
       <c r="F8" s="3">
-        <v>786400</v>
+        <v>783800</v>
       </c>
       <c r="G8" s="3">
-        <v>694100</v>
+        <v>691800</v>
       </c>
       <c r="H8" s="3">
-        <v>648900</v>
+        <v>646800</v>
       </c>
       <c r="I8" s="3">
-        <v>623300</v>
+        <v>621300</v>
       </c>
       <c r="J8" s="3">
-        <v>546900</v>
+        <v>545200</v>
       </c>
       <c r="K8" s="3">
         <v>594600</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>568400</v>
+        <v>566500</v>
       </c>
       <c r="E9" s="3">
-        <v>478700</v>
+        <v>477100</v>
       </c>
       <c r="F9" s="3">
-        <v>459200</v>
+        <v>457700</v>
       </c>
       <c r="G9" s="3">
-        <v>382000</v>
+        <v>380800</v>
       </c>
       <c r="H9" s="3">
-        <v>325400</v>
+        <v>324300</v>
       </c>
       <c r="I9" s="3">
-        <v>316000</v>
+        <v>314900</v>
       </c>
       <c r="J9" s="3">
-        <v>288800</v>
+        <v>287900</v>
       </c>
       <c r="K9" s="3">
         <v>229500</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>305500</v>
+        <v>304500</v>
       </c>
       <c r="E10" s="3">
-        <v>280300</v>
+        <v>279400</v>
       </c>
       <c r="F10" s="3">
-        <v>327200</v>
+        <v>326200</v>
       </c>
       <c r="G10" s="3">
-        <v>312000</v>
+        <v>311000</v>
       </c>
       <c r="H10" s="3">
-        <v>323500</v>
+        <v>322500</v>
       </c>
       <c r="I10" s="3">
-        <v>307300</v>
+        <v>306300</v>
       </c>
       <c r="J10" s="3">
-        <v>258100</v>
+        <v>257300</v>
       </c>
       <c r="K10" s="3">
         <v>365100</v>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>211100</v>
+        <v>210400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>817900</v>
+        <v>815200</v>
       </c>
       <c r="E17" s="3">
-        <v>1428500</v>
+        <v>1423800</v>
       </c>
       <c r="F17" s="3">
-        <v>741200</v>
+        <v>738700</v>
       </c>
       <c r="G17" s="3">
-        <v>619000</v>
+        <v>616900</v>
       </c>
       <c r="H17" s="3">
-        <v>555200</v>
+        <v>553400</v>
       </c>
       <c r="I17" s="3">
-        <v>498400</v>
+        <v>496800</v>
       </c>
       <c r="J17" s="3">
-        <v>361300</v>
+        <v>360100</v>
       </c>
       <c r="K17" s="3">
         <v>492300</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>56000</v>
+        <v>55800</v>
       </c>
       <c r="E18" s="3">
-        <v>-669500</v>
+        <v>-667300</v>
       </c>
       <c r="F18" s="3">
-        <v>45200</v>
+        <v>45100</v>
       </c>
       <c r="G18" s="3">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="H18" s="3">
-        <v>93700</v>
+        <v>93400</v>
       </c>
       <c r="I18" s="3">
-        <v>124900</v>
+        <v>124500</v>
       </c>
       <c r="J18" s="3">
-        <v>185600</v>
+        <v>185000</v>
       </c>
       <c r="K18" s="3">
         <v>102300</v>
@@ -1322,22 +1322,22 @@
         <v>23900</v>
       </c>
       <c r="E20" s="3">
-        <v>-584100</v>
+        <v>-582200</v>
       </c>
       <c r="F20" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="G20" s="3">
-        <v>39500</v>
+        <v>39400</v>
       </c>
       <c r="H20" s="3">
-        <v>57200</v>
+        <v>57000</v>
       </c>
       <c r="I20" s="3">
-        <v>73200</v>
+        <v>72900</v>
       </c>
       <c r="J20" s="3">
-        <v>36900</v>
+        <v>36800</v>
       </c>
       <c r="K20" s="3">
         <v>3500</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>185500</v>
+        <v>184900</v>
       </c>
       <c r="E21" s="3">
-        <v>-1146100</v>
+        <v>-1142400</v>
       </c>
       <c r="F21" s="3">
-        <v>189000</v>
+        <v>188300</v>
       </c>
       <c r="G21" s="3">
-        <v>171700</v>
+        <v>171100</v>
       </c>
       <c r="H21" s="3">
-        <v>199900</v>
+        <v>199300</v>
       </c>
       <c r="I21" s="3">
-        <v>247400</v>
+        <v>246600</v>
       </c>
       <c r="J21" s="3">
-        <v>269500</v>
+        <v>268600</v>
       </c>
       <c r="K21" s="3">
         <v>150900</v>
@@ -1431,25 +1431,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72800</v>
+        <v>72500</v>
       </c>
       <c r="E22" s="3">
-        <v>69200</v>
+        <v>68900</v>
       </c>
       <c r="F22" s="3">
-        <v>75800</v>
+        <v>75600</v>
       </c>
       <c r="G22" s="3">
-        <v>35300</v>
+        <v>35100</v>
       </c>
       <c r="H22" s="3">
-        <v>36900</v>
+        <v>36800</v>
       </c>
       <c r="I22" s="3">
-        <v>33400</v>
+        <v>33300</v>
       </c>
       <c r="J22" s="3">
-        <v>27900</v>
+        <v>27800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1490,22 +1490,22 @@
         <v>7100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1322700</v>
+        <v>-1318400</v>
       </c>
       <c r="F23" s="3">
         <v>10100</v>
       </c>
       <c r="G23" s="3">
-        <v>79400</v>
+        <v>79100</v>
       </c>
       <c r="H23" s="3">
-        <v>114000</v>
+        <v>113600</v>
       </c>
       <c r="I23" s="3">
-        <v>164700</v>
+        <v>164100</v>
       </c>
       <c r="J23" s="3">
-        <v>194700</v>
+        <v>194100</v>
       </c>
       <c r="K23" s="3">
         <v>105800</v>
@@ -1543,10 +1543,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20900</v>
+        <v>20800</v>
       </c>
       <c r="E24" s="3">
-        <v>54500</v>
+        <v>54300</v>
       </c>
       <c r="F24" s="3">
         <v>9800</v>
@@ -1555,13 +1555,13 @@
         <v>9800</v>
       </c>
       <c r="H24" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="I24" s="3">
-        <v>30700</v>
+        <v>30600</v>
       </c>
       <c r="J24" s="3">
-        <v>39700</v>
+        <v>39500</v>
       </c>
       <c r="K24" s="3">
         <v>28000</v>
@@ -1658,22 +1658,22 @@
         <v>-13700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1377200</v>
+        <v>-1372700</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
       </c>
       <c r="G26" s="3">
-        <v>69500</v>
+        <v>69300</v>
       </c>
       <c r="H26" s="3">
-        <v>91100</v>
+        <v>90800</v>
       </c>
       <c r="I26" s="3">
-        <v>133900</v>
+        <v>133500</v>
       </c>
       <c r="J26" s="3">
-        <v>155000</v>
+        <v>154500</v>
       </c>
       <c r="K26" s="3">
         <v>77800</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-28200</v>
+        <v>-28100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1412500</v>
+        <v>-1407800</v>
       </c>
       <c r="F27" s="3">
         <v>-2400</v>
       </c>
       <c r="G27" s="3">
-        <v>59500</v>
+        <v>59300</v>
       </c>
       <c r="H27" s="3">
-        <v>84300</v>
+        <v>84000</v>
       </c>
       <c r="I27" s="3">
-        <v>114300</v>
+        <v>113900</v>
       </c>
       <c r="J27" s="3">
-        <v>146300</v>
+        <v>145800</v>
       </c>
       <c r="K27" s="3">
         <v>73800</v>
@@ -1994,22 +1994,22 @@
         <v>-23900</v>
       </c>
       <c r="E32" s="3">
-        <v>584100</v>
+        <v>582200</v>
       </c>
       <c r="F32" s="3">
-        <v>-40700</v>
+        <v>-40600</v>
       </c>
       <c r="G32" s="3">
-        <v>-39500</v>
+        <v>-39400</v>
       </c>
       <c r="H32" s="3">
-        <v>-57200</v>
+        <v>-57000</v>
       </c>
       <c r="I32" s="3">
-        <v>-73200</v>
+        <v>-72900</v>
       </c>
       <c r="J32" s="3">
-        <v>-36900</v>
+        <v>-36800</v>
       </c>
       <c r="K32" s="3">
         <v>-3500</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-28200</v>
+        <v>-28100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1412500</v>
+        <v>-1407800</v>
       </c>
       <c r="F33" s="3">
         <v>-2400</v>
       </c>
       <c r="G33" s="3">
-        <v>59500</v>
+        <v>59300</v>
       </c>
       <c r="H33" s="3">
-        <v>84300</v>
+        <v>84000</v>
       </c>
       <c r="I33" s="3">
-        <v>114300</v>
+        <v>113900</v>
       </c>
       <c r="J33" s="3">
-        <v>146300</v>
+        <v>145800</v>
       </c>
       <c r="K33" s="3">
         <v>73800</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-28200</v>
+        <v>-28100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1412500</v>
+        <v>-1407800</v>
       </c>
       <c r="F35" s="3">
         <v>-2400</v>
       </c>
       <c r="G35" s="3">
-        <v>59500</v>
+        <v>59300</v>
       </c>
       <c r="H35" s="3">
-        <v>84300</v>
+        <v>84000</v>
       </c>
       <c r="I35" s="3">
-        <v>114300</v>
+        <v>113900</v>
       </c>
       <c r="J35" s="3">
-        <v>146300</v>
+        <v>145800</v>
       </c>
       <c r="K35" s="3">
         <v>73800</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1943400</v>
+        <v>1937000</v>
       </c>
       <c r="E41" s="3">
-        <v>2291700</v>
+        <v>2284100</v>
       </c>
       <c r="F41" s="3">
-        <v>1760400</v>
+        <v>1754600</v>
       </c>
       <c r="G41" s="3">
-        <v>2050600</v>
+        <v>2043900</v>
       </c>
       <c r="H41" s="3">
-        <v>2000000</v>
+        <v>1993400</v>
       </c>
       <c r="I41" s="3">
-        <v>2172200</v>
+        <v>2165100</v>
       </c>
       <c r="J41" s="3">
-        <v>1594800</v>
+        <v>1589500</v>
       </c>
       <c r="K41" s="3">
         <v>1726800</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27600</v>
+        <v>27500</v>
       </c>
       <c r="E42" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F42" s="3">
         <v>14700</v>
       </c>
       <c r="G42" s="3">
-        <v>412400</v>
+        <v>411100</v>
       </c>
       <c r="H42" s="3">
         <v>15800</v>
       </c>
       <c r="I42" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="J42" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="K42" s="3">
         <v>10700</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1609400</v>
+        <v>1604100</v>
       </c>
       <c r="E43" s="3">
-        <v>1602600</v>
+        <v>1597400</v>
       </c>
       <c r="F43" s="3">
-        <v>999400</v>
+        <v>996100</v>
       </c>
       <c r="G43" s="3">
-        <v>780000</v>
+        <v>777400</v>
       </c>
       <c r="H43" s="3">
-        <v>1260600</v>
+        <v>1256500</v>
       </c>
       <c r="I43" s="3">
-        <v>1255200</v>
+        <v>1251000</v>
       </c>
       <c r="J43" s="3">
-        <v>1284800</v>
+        <v>1280500</v>
       </c>
       <c r="K43" s="3">
         <v>801600</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4486100</v>
+        <v>4471400</v>
       </c>
       <c r="E44" s="3">
-        <v>3959200</v>
+        <v>3946200</v>
       </c>
       <c r="F44" s="3">
-        <v>4118600</v>
+        <v>4105100</v>
       </c>
       <c r="G44" s="3">
-        <v>3791200</v>
+        <v>3778700</v>
       </c>
       <c r="H44" s="3">
-        <v>3983900</v>
+        <v>3970800</v>
       </c>
       <c r="I44" s="3">
-        <v>4052100</v>
+        <v>4038800</v>
       </c>
       <c r="J44" s="3">
-        <v>4134200</v>
+        <v>4120600</v>
       </c>
       <c r="K44" s="3">
         <v>4312600</v>
@@ -2544,22 +2544,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>949200</v>
+        <v>946100</v>
       </c>
       <c r="E45" s="3">
-        <v>56800</v>
+        <v>56600</v>
       </c>
       <c r="F45" s="3">
-        <v>138600</v>
+        <v>138200</v>
       </c>
       <c r="G45" s="3">
-        <v>174100</v>
+        <v>173500</v>
       </c>
       <c r="H45" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="I45" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="J45" s="3">
         <v>4600</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9015800</v>
+        <v>8986100</v>
       </c>
       <c r="E46" s="3">
-        <v>7925100</v>
+        <v>7899000</v>
       </c>
       <c r="F46" s="3">
-        <v>7031800</v>
+        <v>7008600</v>
       </c>
       <c r="G46" s="3">
-        <v>7208300</v>
+        <v>7184600</v>
       </c>
       <c r="H46" s="3">
-        <v>7272400</v>
+        <v>7248500</v>
       </c>
       <c r="I46" s="3">
-        <v>7501500</v>
+        <v>7476800</v>
       </c>
       <c r="J46" s="3">
-        <v>7028900</v>
+        <v>7005800</v>
       </c>
       <c r="K46" s="3">
         <v>6863700</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1859000</v>
+        <v>1852900</v>
       </c>
       <c r="E47" s="3">
-        <v>1853800</v>
+        <v>1847700</v>
       </c>
       <c r="F47" s="3">
-        <v>2704100</v>
+        <v>2695200</v>
       </c>
       <c r="G47" s="3">
-        <v>2063800</v>
+        <v>2057000</v>
       </c>
       <c r="H47" s="3">
-        <v>2135600</v>
+        <v>2128600</v>
       </c>
       <c r="I47" s="3">
-        <v>2112200</v>
+        <v>2105300</v>
       </c>
       <c r="J47" s="3">
-        <v>1874200</v>
+        <v>1868000</v>
       </c>
       <c r="K47" s="3">
         <v>1976300</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6969800</v>
+        <v>6946900</v>
       </c>
       <c r="E48" s="3">
-        <v>7399000</v>
+        <v>7374700</v>
       </c>
       <c r="F48" s="3">
-        <v>7240800</v>
+        <v>7217000</v>
       </c>
       <c r="G48" s="3">
-        <v>7236400</v>
+        <v>7212600</v>
       </c>
       <c r="H48" s="3">
-        <v>6938500</v>
+        <v>6915700</v>
       </c>
       <c r="I48" s="3">
-        <v>6927800</v>
+        <v>6905000</v>
       </c>
       <c r="J48" s="3">
-        <v>6703500</v>
+        <v>6681400</v>
       </c>
       <c r="K48" s="3">
         <v>6603800</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>148000</v>
+        <v>147500</v>
       </c>
       <c r="E52" s="3">
-        <v>176800</v>
+        <v>176200</v>
       </c>
       <c r="F52" s="3">
-        <v>509100</v>
+        <v>507500</v>
       </c>
       <c r="G52" s="3">
-        <v>496800</v>
+        <v>495100</v>
       </c>
       <c r="H52" s="3">
-        <v>495300</v>
+        <v>493600</v>
       </c>
       <c r="I52" s="3">
-        <v>457900</v>
+        <v>456400</v>
       </c>
       <c r="J52" s="3">
-        <v>184100</v>
+        <v>183500</v>
       </c>
       <c r="K52" s="3">
         <v>310700</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17994000</v>
+        <v>17934800</v>
       </c>
       <c r="E54" s="3">
-        <v>17354600</v>
+        <v>17297600</v>
       </c>
       <c r="F54" s="3">
-        <v>17485800</v>
+        <v>17428300</v>
       </c>
       <c r="G54" s="3">
-        <v>17005300</v>
+        <v>16949400</v>
       </c>
       <c r="H54" s="3">
-        <v>16841800</v>
+        <v>16786400</v>
       </c>
       <c r="I54" s="3">
-        <v>16999400</v>
+        <v>16943600</v>
       </c>
       <c r="J54" s="3">
-        <v>15790700</v>
+        <v>15738700</v>
       </c>
       <c r="K54" s="3">
         <v>15754500</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>154000</v>
+        <v>153500</v>
       </c>
       <c r="E57" s="3">
-        <v>988600</v>
+        <v>985400</v>
       </c>
       <c r="F57" s="3">
-        <v>788500</v>
+        <v>785900</v>
       </c>
       <c r="G57" s="3">
-        <v>878800</v>
+        <v>875900</v>
       </c>
       <c r="H57" s="3">
-        <v>1002100</v>
+        <v>998800</v>
       </c>
       <c r="I57" s="3">
-        <v>931900</v>
+        <v>928800</v>
       </c>
       <c r="J57" s="3">
-        <v>940900</v>
+        <v>937800</v>
       </c>
       <c r="K57" s="3">
         <v>975600</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3042200</v>
+        <v>3032200</v>
       </c>
       <c r="E58" s="3">
-        <v>2061700</v>
+        <v>2054900</v>
       </c>
       <c r="F58" s="3">
-        <v>1330400</v>
+        <v>1326000</v>
       </c>
       <c r="G58" s="3">
-        <v>1506800</v>
+        <v>1501900</v>
       </c>
       <c r="H58" s="3">
-        <v>1149000</v>
+        <v>1145200</v>
       </c>
       <c r="I58" s="3">
-        <v>1467200</v>
+        <v>1462400</v>
       </c>
       <c r="J58" s="3">
-        <v>1009500</v>
+        <v>1006100</v>
       </c>
       <c r="K58" s="3">
         <v>949200</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1870800</v>
+        <v>1864600</v>
       </c>
       <c r="E59" s="3">
-        <v>647100</v>
+        <v>645000</v>
       </c>
       <c r="F59" s="3">
-        <v>403400</v>
+        <v>402100</v>
       </c>
       <c r="G59" s="3">
-        <v>383000</v>
+        <v>381800</v>
       </c>
       <c r="H59" s="3">
-        <v>352200</v>
+        <v>351100</v>
       </c>
       <c r="I59" s="3">
-        <v>374300</v>
+        <v>373000</v>
       </c>
       <c r="J59" s="3">
-        <v>441700</v>
+        <v>440300</v>
       </c>
       <c r="K59" s="3">
         <v>416400</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5067000</v>
+        <v>5050300</v>
       </c>
       <c r="E60" s="3">
-        <v>3697500</v>
+        <v>3685300</v>
       </c>
       <c r="F60" s="3">
-        <v>2522300</v>
+        <v>2514000</v>
       </c>
       <c r="G60" s="3">
-        <v>2768600</v>
+        <v>2759500</v>
       </c>
       <c r="H60" s="3">
-        <v>2503300</v>
+        <v>2495100</v>
       </c>
       <c r="I60" s="3">
-        <v>2773400</v>
+        <v>2764200</v>
       </c>
       <c r="J60" s="3">
-        <v>2392100</v>
+        <v>2384300</v>
       </c>
       <c r="K60" s="3">
         <v>2341200</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5756600</v>
+        <v>5737600</v>
       </c>
       <c r="E61" s="3">
-        <v>6592400</v>
+        <v>6570700</v>
       </c>
       <c r="F61" s="3">
-        <v>6480100</v>
+        <v>6458800</v>
       </c>
       <c r="G61" s="3">
-        <v>5763100</v>
+        <v>5744200</v>
       </c>
       <c r="H61" s="3">
-        <v>5002500</v>
+        <v>4986000</v>
       </c>
       <c r="I61" s="3">
-        <v>4897000</v>
+        <v>4880900</v>
       </c>
       <c r="J61" s="3">
-        <v>4041100</v>
+        <v>4027800</v>
       </c>
       <c r="K61" s="3">
         <v>3823500</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>380400</v>
+        <v>379100</v>
       </c>
       <c r="E62" s="3">
-        <v>290300</v>
+        <v>289300</v>
       </c>
       <c r="F62" s="3">
-        <v>207400</v>
+        <v>206700</v>
       </c>
       <c r="G62" s="3">
-        <v>215400</v>
+        <v>214700</v>
       </c>
       <c r="H62" s="3">
-        <v>216700</v>
+        <v>216000</v>
       </c>
       <c r="I62" s="3">
-        <v>222500</v>
+        <v>221700</v>
       </c>
       <c r="J62" s="3">
-        <v>218100</v>
+        <v>217400</v>
       </c>
       <c r="K62" s="3">
         <v>331200</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11864300</v>
+        <v>11825200</v>
       </c>
       <c r="E66" s="3">
-        <v>11122700</v>
+        <v>11086100</v>
       </c>
       <c r="F66" s="3">
-        <v>9736900</v>
+        <v>9704900</v>
       </c>
       <c r="G66" s="3">
-        <v>9294200</v>
+        <v>9263600</v>
       </c>
       <c r="H66" s="3">
-        <v>9303300</v>
+        <v>9272700</v>
       </c>
       <c r="I66" s="3">
-        <v>9497100</v>
+        <v>9465800</v>
       </c>
       <c r="J66" s="3">
-        <v>8267000</v>
+        <v>8239800</v>
       </c>
       <c r="K66" s="3">
         <v>8180600</v>
@@ -3842,7 +3842,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>242000</v>
+        <v>241200</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4730900</v>
+        <v>4715300</v>
       </c>
       <c r="E72" s="3">
-        <v>4837400</v>
+        <v>4821400</v>
       </c>
       <c r="F72" s="3">
-        <v>6358600</v>
+        <v>6337700</v>
       </c>
       <c r="G72" s="3">
-        <v>6345300</v>
+        <v>6324400</v>
       </c>
       <c r="H72" s="3">
-        <v>6201200</v>
+        <v>6180800</v>
       </c>
       <c r="I72" s="3">
-        <v>6114400</v>
+        <v>6094300</v>
       </c>
       <c r="J72" s="3">
-        <v>6135700</v>
+        <v>6115500</v>
       </c>
       <c r="K72" s="3">
         <v>6177700</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5887700</v>
+        <v>5868300</v>
       </c>
       <c r="E76" s="3">
-        <v>6231900</v>
+        <v>6211500</v>
       </c>
       <c r="F76" s="3">
-        <v>7748900</v>
+        <v>7723400</v>
       </c>
       <c r="G76" s="3">
-        <v>7711100</v>
+        <v>7685800</v>
       </c>
       <c r="H76" s="3">
-        <v>7538500</v>
+        <v>7513700</v>
       </c>
       <c r="I76" s="3">
-        <v>7502400</v>
+        <v>7477700</v>
       </c>
       <c r="J76" s="3">
-        <v>7523700</v>
+        <v>7498900</v>
       </c>
       <c r="K76" s="3">
         <v>7573900</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-28200</v>
+        <v>-28100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1412500</v>
+        <v>-1407800</v>
       </c>
       <c r="F81" s="3">
         <v>-2400</v>
       </c>
       <c r="G81" s="3">
-        <v>59500</v>
+        <v>59300</v>
       </c>
       <c r="H81" s="3">
-        <v>84300</v>
+        <v>84000</v>
       </c>
       <c r="I81" s="3">
-        <v>114300</v>
+        <v>113900</v>
       </c>
       <c r="J81" s="3">
-        <v>146300</v>
+        <v>145800</v>
       </c>
       <c r="K81" s="3">
         <v>73800</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>105600</v>
+        <v>105300</v>
       </c>
       <c r="E83" s="3">
-        <v>107400</v>
+        <v>107100</v>
       </c>
       <c r="F83" s="3">
-        <v>103000</v>
+        <v>102700</v>
       </c>
       <c r="G83" s="3">
-        <v>57100</v>
+        <v>56900</v>
       </c>
       <c r="H83" s="3">
-        <v>49000</v>
+        <v>48800</v>
       </c>
       <c r="I83" s="3">
-        <v>49300</v>
+        <v>49200</v>
       </c>
       <c r="J83" s="3">
-        <v>46900</v>
+        <v>46700</v>
       </c>
       <c r="K83" s="3">
         <v>45100</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>437000</v>
+        <v>435600</v>
       </c>
       <c r="E89" s="3">
-        <v>124400</v>
+        <v>124000</v>
       </c>
       <c r="F89" s="3">
-        <v>-385500</v>
+        <v>-384200</v>
       </c>
       <c r="G89" s="3">
-        <v>200200</v>
+        <v>199600</v>
       </c>
       <c r="H89" s="3">
-        <v>110400</v>
+        <v>110100</v>
       </c>
       <c r="I89" s="3">
-        <v>145700</v>
+        <v>145300</v>
       </c>
       <c r="J89" s="3">
-        <v>156600</v>
+        <v>156100</v>
       </c>
       <c r="K89" s="3">
         <v>209400</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28400</v>
+        <v>-28300</v>
       </c>
       <c r="E91" s="3">
-        <v>-161600</v>
+        <v>-161000</v>
       </c>
       <c r="F91" s="3">
-        <v>-34300</v>
+        <v>-34200</v>
       </c>
       <c r="G91" s="3">
-        <v>-38900</v>
+        <v>-38700</v>
       </c>
       <c r="H91" s="3">
-        <v>-51400</v>
+        <v>-51200</v>
       </c>
       <c r="I91" s="3">
-        <v>-31700</v>
+        <v>-31600</v>
       </c>
       <c r="J91" s="3">
-        <v>-38100</v>
+        <v>-38000</v>
       </c>
       <c r="K91" s="3">
         <v>-52200</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-347300</v>
+        <v>-346200</v>
       </c>
       <c r="E94" s="3">
-        <v>-458700</v>
+        <v>-457200</v>
       </c>
       <c r="F94" s="3">
-        <v>-330100</v>
+        <v>-329000</v>
       </c>
       <c r="G94" s="3">
         <v>3400</v>
       </c>
       <c r="H94" s="3">
-        <v>-85500</v>
+        <v>-85200</v>
       </c>
       <c r="I94" s="3">
-        <v>-459100</v>
+        <v>-457600</v>
       </c>
       <c r="J94" s="3">
-        <v>-448500</v>
+        <v>-447100</v>
       </c>
       <c r="K94" s="3">
         <v>-957200</v>
@@ -5089,25 +5089,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95400</v>
+        <v>-95100</v>
       </c>
       <c r="E96" s="3">
-        <v>-109400</v>
+        <v>-109000</v>
       </c>
       <c r="F96" s="3">
-        <v>-30000</v>
+        <v>-29900</v>
       </c>
       <c r="G96" s="3">
         <v>-5200</v>
       </c>
       <c r="H96" s="3">
-        <v>-60400</v>
+        <v>-60200</v>
       </c>
       <c r="I96" s="3">
-        <v>-107000</v>
+        <v>-106600</v>
       </c>
       <c r="J96" s="3">
-        <v>-24400</v>
+        <v>-24300</v>
       </c>
       <c r="K96" s="3">
         <v>-7900</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-429700</v>
+        <v>-428200</v>
       </c>
       <c r="E100" s="3">
-        <v>731200</v>
+        <v>728800</v>
       </c>
       <c r="F100" s="3">
-        <v>414900</v>
+        <v>413500</v>
       </c>
       <c r="G100" s="3">
-        <v>-157300</v>
+        <v>-156800</v>
       </c>
       <c r="H100" s="3">
-        <v>-192000</v>
+        <v>-191400</v>
       </c>
       <c r="I100" s="3">
-        <v>997500</v>
+        <v>994200</v>
       </c>
       <c r="J100" s="3">
-        <v>194400</v>
+        <v>193700</v>
       </c>
       <c r="K100" s="3">
         <v>488300</v>
@@ -5372,7 +5372,7 @@
         <v>1800</v>
       </c>
       <c r="E101" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="F101" s="3">
         <v>9200</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-338100</v>
+        <v>-337000</v>
       </c>
       <c r="E102" s="3">
-        <v>412700</v>
+        <v>411400</v>
       </c>
       <c r="F102" s="3">
-        <v>-291400</v>
+        <v>-290400</v>
       </c>
       <c r="G102" s="3">
-        <v>46000</v>
+        <v>45800</v>
       </c>
       <c r="H102" s="3">
-        <v>-170300</v>
+        <v>-169800</v>
       </c>
       <c r="I102" s="3">
-        <v>681600</v>
+        <v>679400</v>
       </c>
       <c r="J102" s="3">
-        <v>-97500</v>
+        <v>-97200</v>
       </c>
       <c r="K102" s="3">
         <v>-255500</v>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>871000</v>
+        <v>874200</v>
       </c>
       <c r="E8" s="3">
-        <v>756500</v>
+        <v>759300</v>
       </c>
       <c r="F8" s="3">
-        <v>783800</v>
+        <v>786700</v>
       </c>
       <c r="G8" s="3">
-        <v>691800</v>
+        <v>694300</v>
       </c>
       <c r="H8" s="3">
-        <v>646800</v>
+        <v>649100</v>
       </c>
       <c r="I8" s="3">
-        <v>621300</v>
+        <v>623600</v>
       </c>
       <c r="J8" s="3">
-        <v>545200</v>
+        <v>547200</v>
       </c>
       <c r="K8" s="3">
         <v>594600</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>566500</v>
+        <v>568600</v>
       </c>
       <c r="E9" s="3">
-        <v>477100</v>
+        <v>478800</v>
       </c>
       <c r="F9" s="3">
-        <v>457700</v>
+        <v>459300</v>
       </c>
       <c r="G9" s="3">
-        <v>380800</v>
+        <v>382200</v>
       </c>
       <c r="H9" s="3">
-        <v>324300</v>
+        <v>325500</v>
       </c>
       <c r="I9" s="3">
-        <v>314900</v>
+        <v>316100</v>
       </c>
       <c r="J9" s="3">
-        <v>287900</v>
+        <v>288900</v>
       </c>
       <c r="K9" s="3">
         <v>229500</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>304500</v>
+        <v>305600</v>
       </c>
       <c r="E10" s="3">
-        <v>279400</v>
+        <v>280400</v>
       </c>
       <c r="F10" s="3">
-        <v>326200</v>
+        <v>327400</v>
       </c>
       <c r="G10" s="3">
-        <v>311000</v>
+        <v>312100</v>
       </c>
       <c r="H10" s="3">
-        <v>322500</v>
+        <v>323700</v>
       </c>
       <c r="I10" s="3">
-        <v>306300</v>
+        <v>307500</v>
       </c>
       <c r="J10" s="3">
-        <v>257300</v>
+        <v>258200</v>
       </c>
       <c r="K10" s="3">
         <v>365100</v>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>210400</v>
+        <v>211200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>815200</v>
+        <v>818200</v>
       </c>
       <c r="E17" s="3">
-        <v>1423800</v>
+        <v>1429000</v>
       </c>
       <c r="F17" s="3">
-        <v>738700</v>
+        <v>741500</v>
       </c>
       <c r="G17" s="3">
-        <v>616900</v>
+        <v>619200</v>
       </c>
       <c r="H17" s="3">
-        <v>553400</v>
+        <v>555400</v>
       </c>
       <c r="I17" s="3">
-        <v>496800</v>
+        <v>498600</v>
       </c>
       <c r="J17" s="3">
-        <v>360100</v>
+        <v>361400</v>
       </c>
       <c r="K17" s="3">
         <v>492300</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55800</v>
+        <v>56000</v>
       </c>
       <c r="E18" s="3">
-        <v>-667300</v>
+        <v>-669700</v>
       </c>
       <c r="F18" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="G18" s="3">
-        <v>74900</v>
+        <v>75100</v>
       </c>
       <c r="H18" s="3">
-        <v>93400</v>
+        <v>93700</v>
       </c>
       <c r="I18" s="3">
-        <v>124500</v>
+        <v>125000</v>
       </c>
       <c r="J18" s="3">
-        <v>185000</v>
+        <v>185700</v>
       </c>
       <c r="K18" s="3">
         <v>102300</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="E20" s="3">
-        <v>-582200</v>
+        <v>-584300</v>
       </c>
       <c r="F20" s="3">
-        <v>40600</v>
+        <v>40700</v>
       </c>
       <c r="G20" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="H20" s="3">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="I20" s="3">
-        <v>72900</v>
+        <v>73200</v>
       </c>
       <c r="J20" s="3">
-        <v>36800</v>
+        <v>37000</v>
       </c>
       <c r="K20" s="3">
         <v>3500</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>184900</v>
+        <v>185600</v>
       </c>
       <c r="E21" s="3">
-        <v>-1142400</v>
+        <v>-1146600</v>
       </c>
       <c r="F21" s="3">
-        <v>188300</v>
+        <v>189000</v>
       </c>
       <c r="G21" s="3">
-        <v>171100</v>
+        <v>171700</v>
       </c>
       <c r="H21" s="3">
-        <v>199300</v>
+        <v>200000</v>
       </c>
       <c r="I21" s="3">
-        <v>246600</v>
+        <v>247500</v>
       </c>
       <c r="J21" s="3">
-        <v>268600</v>
+        <v>269600</v>
       </c>
       <c r="K21" s="3">
         <v>150900</v>
@@ -1431,25 +1431,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72500</v>
+        <v>72800</v>
       </c>
       <c r="E22" s="3">
-        <v>68900</v>
+        <v>69200</v>
       </c>
       <c r="F22" s="3">
-        <v>75600</v>
+        <v>75900</v>
       </c>
       <c r="G22" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="H22" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="I22" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="J22" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1490,22 +1490,22 @@
         <v>7100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1318400</v>
+        <v>-1323200</v>
       </c>
       <c r="F23" s="3">
         <v>10100</v>
       </c>
       <c r="G23" s="3">
-        <v>79100</v>
+        <v>79400</v>
       </c>
       <c r="H23" s="3">
-        <v>113600</v>
+        <v>114000</v>
       </c>
       <c r="I23" s="3">
-        <v>164100</v>
+        <v>164700</v>
       </c>
       <c r="J23" s="3">
-        <v>194100</v>
+        <v>194800</v>
       </c>
       <c r="K23" s="3">
         <v>105800</v>
@@ -1543,10 +1543,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="E24" s="3">
-        <v>54300</v>
+        <v>54500</v>
       </c>
       <c r="F24" s="3">
         <v>9800</v>
@@ -1555,13 +1555,13 @@
         <v>9800</v>
       </c>
       <c r="H24" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="I24" s="3">
-        <v>30600</v>
+        <v>30800</v>
       </c>
       <c r="J24" s="3">
-        <v>39500</v>
+        <v>39700</v>
       </c>
       <c r="K24" s="3">
         <v>28000</v>
@@ -1658,22 +1658,22 @@
         <v>-13700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1372700</v>
+        <v>-1377700</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
       </c>
       <c r="G26" s="3">
-        <v>69300</v>
+        <v>69500</v>
       </c>
       <c r="H26" s="3">
-        <v>90800</v>
+        <v>91100</v>
       </c>
       <c r="I26" s="3">
-        <v>133500</v>
+        <v>134000</v>
       </c>
       <c r="J26" s="3">
-        <v>154500</v>
+        <v>155100</v>
       </c>
       <c r="K26" s="3">
         <v>77800</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1407800</v>
+        <v>-1413000</v>
       </c>
       <c r="F27" s="3">
         <v>-2400</v>
       </c>
       <c r="G27" s="3">
-        <v>59300</v>
+        <v>59500</v>
       </c>
       <c r="H27" s="3">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="I27" s="3">
-        <v>113900</v>
+        <v>114400</v>
       </c>
       <c r="J27" s="3">
-        <v>145800</v>
+        <v>146300</v>
       </c>
       <c r="K27" s="3">
         <v>73800</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23900</v>
+        <v>-24000</v>
       </c>
       <c r="E32" s="3">
-        <v>582200</v>
+        <v>584300</v>
       </c>
       <c r="F32" s="3">
-        <v>-40600</v>
+        <v>-40700</v>
       </c>
       <c r="G32" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="H32" s="3">
-        <v>-57000</v>
+        <v>-57200</v>
       </c>
       <c r="I32" s="3">
-        <v>-72900</v>
+        <v>-73200</v>
       </c>
       <c r="J32" s="3">
-        <v>-36800</v>
+        <v>-37000</v>
       </c>
       <c r="K32" s="3">
         <v>-3500</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1407800</v>
+        <v>-1413000</v>
       </c>
       <c r="F33" s="3">
         <v>-2400</v>
       </c>
       <c r="G33" s="3">
-        <v>59300</v>
+        <v>59500</v>
       </c>
       <c r="H33" s="3">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="I33" s="3">
-        <v>113900</v>
+        <v>114400</v>
       </c>
       <c r="J33" s="3">
-        <v>145800</v>
+        <v>146300</v>
       </c>
       <c r="K33" s="3">
         <v>73800</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1407800</v>
+        <v>-1413000</v>
       </c>
       <c r="F35" s="3">
         <v>-2400</v>
       </c>
       <c r="G35" s="3">
-        <v>59300</v>
+        <v>59500</v>
       </c>
       <c r="H35" s="3">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="I35" s="3">
-        <v>113900</v>
+        <v>114400</v>
       </c>
       <c r="J35" s="3">
-        <v>145800</v>
+        <v>146300</v>
       </c>
       <c r="K35" s="3">
         <v>73800</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1937000</v>
+        <v>1944100</v>
       </c>
       <c r="E41" s="3">
-        <v>2284100</v>
+        <v>2292500</v>
       </c>
       <c r="F41" s="3">
-        <v>1754600</v>
+        <v>1761000</v>
       </c>
       <c r="G41" s="3">
-        <v>2043900</v>
+        <v>2051400</v>
       </c>
       <c r="H41" s="3">
-        <v>1993400</v>
+        <v>2000700</v>
       </c>
       <c r="I41" s="3">
-        <v>2165100</v>
+        <v>2173000</v>
       </c>
       <c r="J41" s="3">
-        <v>1589500</v>
+        <v>1595400</v>
       </c>
       <c r="K41" s="3">
         <v>1726800</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="E42" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="F42" s="3">
         <v>14700</v>
       </c>
       <c r="G42" s="3">
-        <v>411100</v>
+        <v>412600</v>
       </c>
       <c r="H42" s="3">
         <v>15800</v>
       </c>
       <c r="I42" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J42" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="K42" s="3">
         <v>10700</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1604100</v>
+        <v>1610000</v>
       </c>
       <c r="E43" s="3">
-        <v>1597400</v>
+        <v>1603200</v>
       </c>
       <c r="F43" s="3">
-        <v>996100</v>
+        <v>999800</v>
       </c>
       <c r="G43" s="3">
-        <v>777400</v>
+        <v>780300</v>
       </c>
       <c r="H43" s="3">
-        <v>1256500</v>
+        <v>1261100</v>
       </c>
       <c r="I43" s="3">
-        <v>1251000</v>
+        <v>1255600</v>
       </c>
       <c r="J43" s="3">
-        <v>1280500</v>
+        <v>1285200</v>
       </c>
       <c r="K43" s="3">
         <v>801600</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4471400</v>
+        <v>4487800</v>
       </c>
       <c r="E44" s="3">
-        <v>3946200</v>
+        <v>3960700</v>
       </c>
       <c r="F44" s="3">
-        <v>4105100</v>
+        <v>4120100</v>
       </c>
       <c r="G44" s="3">
-        <v>3778700</v>
+        <v>3792600</v>
       </c>
       <c r="H44" s="3">
-        <v>3970800</v>
+        <v>3985300</v>
       </c>
       <c r="I44" s="3">
-        <v>4038800</v>
+        <v>4053600</v>
       </c>
       <c r="J44" s="3">
-        <v>4120600</v>
+        <v>4135700</v>
       </c>
       <c r="K44" s="3">
         <v>4312600</v>
@@ -2544,22 +2544,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>946100</v>
+        <v>949600</v>
       </c>
       <c r="E45" s="3">
-        <v>56600</v>
+        <v>56800</v>
       </c>
       <c r="F45" s="3">
-        <v>138200</v>
+        <v>138700</v>
       </c>
       <c r="G45" s="3">
-        <v>173500</v>
+        <v>174200</v>
       </c>
       <c r="H45" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="I45" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="J45" s="3">
         <v>4600</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8986100</v>
+        <v>9019100</v>
       </c>
       <c r="E46" s="3">
-        <v>7899000</v>
+        <v>7928000</v>
       </c>
       <c r="F46" s="3">
-        <v>7008600</v>
+        <v>7034400</v>
       </c>
       <c r="G46" s="3">
-        <v>7184600</v>
+        <v>7211000</v>
       </c>
       <c r="H46" s="3">
-        <v>7248500</v>
+        <v>7275100</v>
       </c>
       <c r="I46" s="3">
-        <v>7476800</v>
+        <v>7504200</v>
       </c>
       <c r="J46" s="3">
-        <v>7005800</v>
+        <v>7031500</v>
       </c>
       <c r="K46" s="3">
         <v>6863700</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1852900</v>
+        <v>1859700</v>
       </c>
       <c r="E47" s="3">
-        <v>1847700</v>
+        <v>1854500</v>
       </c>
       <c r="F47" s="3">
-        <v>2695200</v>
+        <v>2705100</v>
       </c>
       <c r="G47" s="3">
-        <v>2057000</v>
+        <v>2064600</v>
       </c>
       <c r="H47" s="3">
-        <v>2128600</v>
+        <v>2136400</v>
       </c>
       <c r="I47" s="3">
-        <v>2105300</v>
+        <v>2113000</v>
       </c>
       <c r="J47" s="3">
-        <v>1868000</v>
+        <v>1874900</v>
       </c>
       <c r="K47" s="3">
         <v>1976300</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6946900</v>
+        <v>6972300</v>
       </c>
       <c r="E48" s="3">
-        <v>7374700</v>
+        <v>7401700</v>
       </c>
       <c r="F48" s="3">
-        <v>7217000</v>
+        <v>7243500</v>
       </c>
       <c r="G48" s="3">
-        <v>7212600</v>
+        <v>7239100</v>
       </c>
       <c r="H48" s="3">
-        <v>6915700</v>
+        <v>6941000</v>
       </c>
       <c r="I48" s="3">
-        <v>6905000</v>
+        <v>6930400</v>
       </c>
       <c r="J48" s="3">
-        <v>6681400</v>
+        <v>6705900</v>
       </c>
       <c r="K48" s="3">
         <v>6603800</v>
@@ -2768,7 +2768,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>147500</v>
+        <v>148000</v>
       </c>
       <c r="E52" s="3">
-        <v>176200</v>
+        <v>176800</v>
       </c>
       <c r="F52" s="3">
-        <v>507500</v>
+        <v>509300</v>
       </c>
       <c r="G52" s="3">
-        <v>495100</v>
+        <v>496900</v>
       </c>
       <c r="H52" s="3">
-        <v>493600</v>
+        <v>495400</v>
       </c>
       <c r="I52" s="3">
-        <v>456400</v>
+        <v>458100</v>
       </c>
       <c r="J52" s="3">
-        <v>183500</v>
+        <v>184200</v>
       </c>
       <c r="K52" s="3">
         <v>310700</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17934800</v>
+        <v>18000600</v>
       </c>
       <c r="E54" s="3">
-        <v>17297600</v>
+        <v>17361000</v>
       </c>
       <c r="F54" s="3">
-        <v>17428300</v>
+        <v>17492200</v>
       </c>
       <c r="G54" s="3">
-        <v>16949400</v>
+        <v>17011600</v>
       </c>
       <c r="H54" s="3">
-        <v>16786400</v>
+        <v>16848000</v>
       </c>
       <c r="I54" s="3">
-        <v>16943600</v>
+        <v>17005700</v>
       </c>
       <c r="J54" s="3">
-        <v>15738700</v>
+        <v>15796500</v>
       </c>
       <c r="K54" s="3">
         <v>15754500</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153500</v>
+        <v>154000</v>
       </c>
       <c r="E57" s="3">
-        <v>985400</v>
+        <v>989000</v>
       </c>
       <c r="F57" s="3">
-        <v>785900</v>
+        <v>788800</v>
       </c>
       <c r="G57" s="3">
-        <v>875900</v>
+        <v>879100</v>
       </c>
       <c r="H57" s="3">
-        <v>998800</v>
+        <v>1002400</v>
       </c>
       <c r="I57" s="3">
-        <v>928800</v>
+        <v>932200</v>
       </c>
       <c r="J57" s="3">
-        <v>937800</v>
+        <v>941300</v>
       </c>
       <c r="K57" s="3">
         <v>975600</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3032200</v>
+        <v>3043300</v>
       </c>
       <c r="E58" s="3">
-        <v>2054900</v>
+        <v>2062500</v>
       </c>
       <c r="F58" s="3">
-        <v>1326000</v>
+        <v>1330900</v>
       </c>
       <c r="G58" s="3">
-        <v>1501900</v>
+        <v>1507400</v>
       </c>
       <c r="H58" s="3">
-        <v>1145200</v>
+        <v>1149400</v>
       </c>
       <c r="I58" s="3">
-        <v>1462400</v>
+        <v>1467800</v>
       </c>
       <c r="J58" s="3">
-        <v>1006100</v>
+        <v>1009800</v>
       </c>
       <c r="K58" s="3">
         <v>949200</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1864600</v>
+        <v>1852400</v>
       </c>
       <c r="E59" s="3">
-        <v>645000</v>
+        <v>647400</v>
       </c>
       <c r="F59" s="3">
-        <v>402100</v>
+        <v>403600</v>
       </c>
       <c r="G59" s="3">
-        <v>381800</v>
+        <v>383200</v>
       </c>
       <c r="H59" s="3">
-        <v>351100</v>
+        <v>352400</v>
       </c>
       <c r="I59" s="3">
-        <v>373000</v>
+        <v>374400</v>
       </c>
       <c r="J59" s="3">
-        <v>440300</v>
+        <v>441900</v>
       </c>
       <c r="K59" s="3">
         <v>416400</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5050300</v>
+        <v>5049800</v>
       </c>
       <c r="E60" s="3">
-        <v>3685300</v>
+        <v>3698800</v>
       </c>
       <c r="F60" s="3">
-        <v>2514000</v>
+        <v>2523200</v>
       </c>
       <c r="G60" s="3">
-        <v>2759500</v>
+        <v>2769600</v>
       </c>
       <c r="H60" s="3">
-        <v>2495100</v>
+        <v>2504200</v>
       </c>
       <c r="I60" s="3">
-        <v>2764200</v>
+        <v>2774400</v>
       </c>
       <c r="J60" s="3">
-        <v>2384300</v>
+        <v>2393000</v>
       </c>
       <c r="K60" s="3">
         <v>2341200</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5737600</v>
+        <v>5758700</v>
       </c>
       <c r="E61" s="3">
-        <v>6570700</v>
+        <v>6594800</v>
       </c>
       <c r="F61" s="3">
-        <v>6458800</v>
+        <v>6482500</v>
       </c>
       <c r="G61" s="3">
-        <v>5744200</v>
+        <v>5765300</v>
       </c>
       <c r="H61" s="3">
-        <v>4986000</v>
+        <v>5004300</v>
       </c>
       <c r="I61" s="3">
-        <v>4880900</v>
+        <v>4898800</v>
       </c>
       <c r="J61" s="3">
-        <v>4027800</v>
+        <v>4042600</v>
       </c>
       <c r="K61" s="3">
         <v>3823500</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>379100</v>
+        <v>399600</v>
       </c>
       <c r="E62" s="3">
-        <v>289300</v>
+        <v>290400</v>
       </c>
       <c r="F62" s="3">
-        <v>206700</v>
+        <v>207400</v>
       </c>
       <c r="G62" s="3">
-        <v>214700</v>
+        <v>215500</v>
       </c>
       <c r="H62" s="3">
-        <v>216000</v>
+        <v>216800</v>
       </c>
       <c r="I62" s="3">
-        <v>221700</v>
+        <v>222500</v>
       </c>
       <c r="J62" s="3">
-        <v>217400</v>
+        <v>218200</v>
       </c>
       <c r="K62" s="3">
         <v>331200</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11825200</v>
+        <v>11868600</v>
       </c>
       <c r="E66" s="3">
-        <v>11086100</v>
+        <v>11126800</v>
       </c>
       <c r="F66" s="3">
-        <v>9704900</v>
+        <v>9740500</v>
       </c>
       <c r="G66" s="3">
-        <v>9263600</v>
+        <v>9297600</v>
       </c>
       <c r="H66" s="3">
-        <v>9272700</v>
+        <v>9306700</v>
       </c>
       <c r="I66" s="3">
-        <v>9465800</v>
+        <v>9500600</v>
       </c>
       <c r="J66" s="3">
-        <v>8239800</v>
+        <v>8270000</v>
       </c>
       <c r="K66" s="3">
         <v>8180600</v>
@@ -3842,7 +3842,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>241200</v>
+        <v>242100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4715300</v>
+        <v>4732600</v>
       </c>
       <c r="E72" s="3">
-        <v>4821400</v>
+        <v>4839100</v>
       </c>
       <c r="F72" s="3">
-        <v>6337700</v>
+        <v>6360900</v>
       </c>
       <c r="G72" s="3">
-        <v>6324400</v>
+        <v>6347600</v>
       </c>
       <c r="H72" s="3">
-        <v>6180800</v>
+        <v>6203500</v>
       </c>
       <c r="I72" s="3">
-        <v>6094300</v>
+        <v>6116700</v>
       </c>
       <c r="J72" s="3">
-        <v>6115500</v>
+        <v>6138000</v>
       </c>
       <c r="K72" s="3">
         <v>6177700</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5868300</v>
+        <v>5889900</v>
       </c>
       <c r="E76" s="3">
-        <v>6211500</v>
+        <v>6234200</v>
       </c>
       <c r="F76" s="3">
-        <v>7723400</v>
+        <v>7751700</v>
       </c>
       <c r="G76" s="3">
-        <v>7685800</v>
+        <v>7714000</v>
       </c>
       <c r="H76" s="3">
-        <v>7513700</v>
+        <v>7541300</v>
       </c>
       <c r="I76" s="3">
-        <v>7477700</v>
+        <v>7505100</v>
       </c>
       <c r="J76" s="3">
-        <v>7498900</v>
+        <v>7526500</v>
       </c>
       <c r="K76" s="3">
         <v>7573900</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1407800</v>
+        <v>-1413000</v>
       </c>
       <c r="F81" s="3">
         <v>-2400</v>
       </c>
       <c r="G81" s="3">
-        <v>59300</v>
+        <v>59500</v>
       </c>
       <c r="H81" s="3">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="I81" s="3">
-        <v>113900</v>
+        <v>114400</v>
       </c>
       <c r="J81" s="3">
-        <v>145800</v>
+        <v>146300</v>
       </c>
       <c r="K81" s="3">
         <v>73800</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>105300</v>
+        <v>105600</v>
       </c>
       <c r="E83" s="3">
-        <v>107100</v>
+        <v>107500</v>
       </c>
       <c r="F83" s="3">
-        <v>102700</v>
+        <v>103100</v>
       </c>
       <c r="G83" s="3">
-        <v>56900</v>
+        <v>57100</v>
       </c>
       <c r="H83" s="3">
-        <v>48800</v>
+        <v>49000</v>
       </c>
       <c r="I83" s="3">
-        <v>49200</v>
+        <v>49300</v>
       </c>
       <c r="J83" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="K83" s="3">
         <v>45100</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>435600</v>
+        <v>437200</v>
       </c>
       <c r="E89" s="3">
-        <v>124000</v>
+        <v>124500</v>
       </c>
       <c r="F89" s="3">
-        <v>-384200</v>
+        <v>-385600</v>
       </c>
       <c r="G89" s="3">
-        <v>199600</v>
+        <v>200300</v>
       </c>
       <c r="H89" s="3">
-        <v>110100</v>
+        <v>110500</v>
       </c>
       <c r="I89" s="3">
-        <v>145300</v>
+        <v>145800</v>
       </c>
       <c r="J89" s="3">
-        <v>156100</v>
+        <v>156700</v>
       </c>
       <c r="K89" s="3">
         <v>209400</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28300</v>
+        <v>-28400</v>
       </c>
       <c r="E91" s="3">
-        <v>-161000</v>
+        <v>-161600</v>
       </c>
       <c r="F91" s="3">
-        <v>-34200</v>
+        <v>-34300</v>
       </c>
       <c r="G91" s="3">
-        <v>-38700</v>
+        <v>-38900</v>
       </c>
       <c r="H91" s="3">
-        <v>-51200</v>
+        <v>-51400</v>
       </c>
       <c r="I91" s="3">
-        <v>-31600</v>
+        <v>-31700</v>
       </c>
       <c r="J91" s="3">
-        <v>-38000</v>
+        <v>-38200</v>
       </c>
       <c r="K91" s="3">
         <v>-52200</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-346200</v>
+        <v>-347500</v>
       </c>
       <c r="E94" s="3">
-        <v>-457200</v>
+        <v>-458800</v>
       </c>
       <c r="F94" s="3">
-        <v>-329000</v>
+        <v>-330200</v>
       </c>
       <c r="G94" s="3">
         <v>3400</v>
       </c>
       <c r="H94" s="3">
-        <v>-85200</v>
+        <v>-85500</v>
       </c>
       <c r="I94" s="3">
-        <v>-457600</v>
+        <v>-459200</v>
       </c>
       <c r="J94" s="3">
-        <v>-447100</v>
+        <v>-448700</v>
       </c>
       <c r="K94" s="3">
         <v>-957200</v>
@@ -5089,25 +5089,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95100</v>
+        <v>-95500</v>
       </c>
       <c r="E96" s="3">
-        <v>-109000</v>
+        <v>-109400</v>
       </c>
       <c r="F96" s="3">
-        <v>-29900</v>
+        <v>-30100</v>
       </c>
       <c r="G96" s="3">
         <v>-5200</v>
       </c>
       <c r="H96" s="3">
-        <v>-60200</v>
+        <v>-60400</v>
       </c>
       <c r="I96" s="3">
-        <v>-106600</v>
+        <v>-107000</v>
       </c>
       <c r="J96" s="3">
-        <v>-24300</v>
+        <v>-24400</v>
       </c>
       <c r="K96" s="3">
         <v>-7900</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-428200</v>
+        <v>-429800</v>
       </c>
       <c r="E100" s="3">
-        <v>728800</v>
+        <v>731400</v>
       </c>
       <c r="F100" s="3">
-        <v>413500</v>
+        <v>415100</v>
       </c>
       <c r="G100" s="3">
-        <v>-156800</v>
+        <v>-157400</v>
       </c>
       <c r="H100" s="3">
-        <v>-191400</v>
+        <v>-192100</v>
       </c>
       <c r="I100" s="3">
-        <v>994200</v>
+        <v>997800</v>
       </c>
       <c r="J100" s="3">
-        <v>193700</v>
+        <v>194400</v>
       </c>
       <c r="K100" s="3">
         <v>488300</v>
@@ -5372,7 +5372,7 @@
         <v>1800</v>
       </c>
       <c r="E101" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="F101" s="3">
         <v>9200</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-337000</v>
+        <v>-338300</v>
       </c>
       <c r="E102" s="3">
-        <v>411400</v>
+        <v>412900</v>
       </c>
       <c r="F102" s="3">
-        <v>-290400</v>
+        <v>-291500</v>
       </c>
       <c r="G102" s="3">
-        <v>45800</v>
+        <v>46000</v>
       </c>
       <c r="H102" s="3">
-        <v>-169800</v>
+        <v>-170400</v>
       </c>
       <c r="I102" s="3">
-        <v>679400</v>
+        <v>681900</v>
       </c>
       <c r="J102" s="3">
-        <v>-97200</v>
+        <v>-97600</v>
       </c>
       <c r="K102" s="3">
         <v>-255500</v>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>CDEVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>874200</v>
+        <v>1026500</v>
       </c>
       <c r="E8" s="3">
-        <v>759300</v>
+        <v>853600</v>
       </c>
       <c r="F8" s="3">
-        <v>786700</v>
+        <v>741400</v>
       </c>
       <c r="G8" s="3">
-        <v>694300</v>
+        <v>768200</v>
       </c>
       <c r="H8" s="3">
-        <v>649100</v>
+        <v>678000</v>
       </c>
       <c r="I8" s="3">
-        <v>623600</v>
+        <v>633800</v>
       </c>
       <c r="J8" s="3">
+        <v>608900</v>
+      </c>
+      <c r="K8" s="3">
         <v>547200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>594600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>753900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>959200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>763500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>979100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>636900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>629700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>574000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>854700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>675800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>568600</v>
+        <v>624900</v>
       </c>
       <c r="E9" s="3">
-        <v>478800</v>
+        <v>555200</v>
       </c>
       <c r="F9" s="3">
-        <v>459300</v>
+        <v>467600</v>
       </c>
       <c r="G9" s="3">
-        <v>382200</v>
+        <v>448500</v>
       </c>
       <c r="H9" s="3">
-        <v>325500</v>
+        <v>373200</v>
       </c>
       <c r="I9" s="3">
-        <v>316100</v>
+        <v>317800</v>
       </c>
       <c r="J9" s="3">
+        <v>308600</v>
+      </c>
+      <c r="K9" s="3">
         <v>288900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>229500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>380400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>533400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>496300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>631200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>321800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>321700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>304900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>466700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>305600</v>
+        <v>401600</v>
       </c>
       <c r="E10" s="3">
-        <v>280400</v>
+        <v>298400</v>
       </c>
       <c r="F10" s="3">
-        <v>327400</v>
+        <v>273800</v>
       </c>
       <c r="G10" s="3">
-        <v>312100</v>
+        <v>319700</v>
       </c>
       <c r="H10" s="3">
-        <v>323700</v>
+        <v>304800</v>
       </c>
       <c r="I10" s="3">
-        <v>307500</v>
+        <v>316000</v>
       </c>
       <c r="J10" s="3">
+        <v>300200</v>
+      </c>
+      <c r="K10" s="3">
         <v>258200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>365100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>373400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>425800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>267200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>347900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>315200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>308000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>269000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>388000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,19 +1065,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>211200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>206200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1077,8 +1097,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>818200</v>
+        <v>850700</v>
       </c>
       <c r="E17" s="3">
-        <v>1429000</v>
+        <v>798900</v>
       </c>
       <c r="F17" s="3">
-        <v>741500</v>
+        <v>1395300</v>
       </c>
       <c r="G17" s="3">
-        <v>619200</v>
+        <v>724000</v>
       </c>
       <c r="H17" s="3">
-        <v>555400</v>
+        <v>604600</v>
       </c>
       <c r="I17" s="3">
-        <v>498600</v>
+        <v>542300</v>
       </c>
       <c r="J17" s="3">
+        <v>486800</v>
+      </c>
+      <c r="K17" s="3">
         <v>361400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>492300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>554200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>635000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>816600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>466500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>479700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>475500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>619100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>56000</v>
+        <v>175800</v>
       </c>
       <c r="E18" s="3">
-        <v>-669700</v>
+        <v>54700</v>
       </c>
       <c r="F18" s="3">
-        <v>45200</v>
+        <v>-653900</v>
       </c>
       <c r="G18" s="3">
-        <v>75100</v>
+        <v>44200</v>
       </c>
       <c r="H18" s="3">
-        <v>93700</v>
+        <v>73400</v>
       </c>
       <c r="I18" s="3">
-        <v>125000</v>
+        <v>91500</v>
       </c>
       <c r="J18" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K18" s="3">
         <v>185700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>102300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>199700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>258800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>128400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>162400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>170400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>150000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>98400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>235600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>179600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24000</v>
+        <v>38500</v>
       </c>
       <c r="E20" s="3">
-        <v>-584300</v>
+        <v>23400</v>
       </c>
       <c r="F20" s="3">
-        <v>40700</v>
+        <v>-570500</v>
       </c>
       <c r="G20" s="3">
-        <v>39500</v>
+        <v>39800</v>
       </c>
       <c r="H20" s="3">
-        <v>57200</v>
+        <v>38600</v>
       </c>
       <c r="I20" s="3">
-        <v>73200</v>
+        <v>55900</v>
       </c>
       <c r="J20" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K20" s="3">
         <v>37000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>40700</v>
       </c>
       <c r="P20" s="3">
         <v>40700</v>
       </c>
       <c r="Q20" s="3">
+        <v>40700</v>
+      </c>
+      <c r="R20" s="3">
         <v>31500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>185600</v>
+        <v>309900</v>
       </c>
       <c r="E21" s="3">
-        <v>-1146600</v>
+        <v>181200</v>
       </c>
       <c r="F21" s="3">
-        <v>189000</v>
+        <v>-1119500</v>
       </c>
       <c r="G21" s="3">
-        <v>171700</v>
+        <v>184600</v>
       </c>
       <c r="H21" s="3">
-        <v>200000</v>
+        <v>167700</v>
       </c>
       <c r="I21" s="3">
-        <v>247500</v>
+        <v>195300</v>
       </c>
       <c r="J21" s="3">
+        <v>241700</v>
+      </c>
+      <c r="K21" s="3">
         <v>269600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>150900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>250000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>181300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>242300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>251700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>221600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>150700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>290500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>234000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72800</v>
+        <v>58200</v>
       </c>
       <c r="E22" s="3">
-        <v>69200</v>
+        <v>71100</v>
       </c>
       <c r="F22" s="3">
-        <v>75900</v>
+        <v>67600</v>
       </c>
       <c r="G22" s="3">
-        <v>35300</v>
+        <v>74100</v>
       </c>
       <c r="H22" s="3">
-        <v>36900</v>
+        <v>34400</v>
       </c>
       <c r="I22" s="3">
-        <v>33400</v>
+        <v>36100</v>
       </c>
       <c r="J22" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K22" s="3">
         <v>27900</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20300</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7100</v>
+        <v>156100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1323200</v>
+        <v>7000</v>
       </c>
       <c r="F23" s="3">
-        <v>10100</v>
+        <v>-1292000</v>
       </c>
       <c r="G23" s="3">
-        <v>79400</v>
+        <v>9900</v>
       </c>
       <c r="H23" s="3">
-        <v>114000</v>
+        <v>77500</v>
       </c>
       <c r="I23" s="3">
-        <v>164700</v>
+        <v>111300</v>
       </c>
       <c r="J23" s="3">
+        <v>160800</v>
+      </c>
+      <c r="K23" s="3">
         <v>194800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>105800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>185800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>240800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>124900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>160000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>171000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>139500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>91700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>242800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>175100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20900</v>
+        <v>42600</v>
       </c>
       <c r="E24" s="3">
-        <v>54500</v>
+        <v>20400</v>
       </c>
       <c r="F24" s="3">
-        <v>9800</v>
+        <v>53200</v>
       </c>
       <c r="G24" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="H24" s="3">
-        <v>22900</v>
+        <v>9600</v>
       </c>
       <c r="I24" s="3">
-        <v>30800</v>
+        <v>22400</v>
       </c>
       <c r="J24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K24" s="3">
         <v>39700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13700</v>
+        <v>113500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1377700</v>
+        <v>-13400</v>
       </c>
       <c r="F26" s="3">
+        <v>-1345200</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>69500</v>
-      </c>
       <c r="H26" s="3">
-        <v>91100</v>
+        <v>67900</v>
       </c>
       <c r="I26" s="3">
-        <v>134000</v>
+        <v>89000</v>
       </c>
       <c r="J26" s="3">
+        <v>130800</v>
+      </c>
+      <c r="K26" s="3">
         <v>155100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>176600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>145100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>142300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>116400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>196100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-28200</v>
+        <v>88200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1413000</v>
+        <v>-27600</v>
       </c>
       <c r="F27" s="3">
-        <v>-2400</v>
+        <v>-1379700</v>
       </c>
       <c r="G27" s="3">
-        <v>59500</v>
+        <v>-2300</v>
       </c>
       <c r="H27" s="3">
-        <v>84300</v>
+        <v>58100</v>
       </c>
       <c r="I27" s="3">
-        <v>114400</v>
+        <v>82300</v>
       </c>
       <c r="J27" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K27" s="3">
         <v>146300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>73800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>128500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>151200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>112800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>108100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>79400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>70000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>173800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24000</v>
+        <v>-38500</v>
       </c>
       <c r="E32" s="3">
-        <v>584300</v>
+        <v>-23400</v>
       </c>
       <c r="F32" s="3">
-        <v>-40700</v>
+        <v>570500</v>
       </c>
       <c r="G32" s="3">
-        <v>-39500</v>
+        <v>-39800</v>
       </c>
       <c r="H32" s="3">
-        <v>-57200</v>
+        <v>-38600</v>
       </c>
       <c r="I32" s="3">
-        <v>-73200</v>
+        <v>-55900</v>
       </c>
       <c r="J32" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-37000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-40700</v>
       </c>
       <c r="P32" s="3">
         <v>-40700</v>
       </c>
       <c r="Q32" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="R32" s="3">
         <v>-31500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-28200</v>
+        <v>88200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1413000</v>
+        <v>-27600</v>
       </c>
       <c r="F33" s="3">
-        <v>-2400</v>
+        <v>-1379700</v>
       </c>
       <c r="G33" s="3">
-        <v>59500</v>
+        <v>-2300</v>
       </c>
       <c r="H33" s="3">
-        <v>84300</v>
+        <v>58100</v>
       </c>
       <c r="I33" s="3">
-        <v>114400</v>
+        <v>82300</v>
       </c>
       <c r="J33" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K33" s="3">
         <v>146300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>73800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>128500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>151200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>112800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>108100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>79400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>70000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>173800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-28200</v>
+        <v>88200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1413000</v>
+        <v>-27600</v>
       </c>
       <c r="F35" s="3">
-        <v>-2400</v>
+        <v>-1379700</v>
       </c>
       <c r="G35" s="3">
-        <v>59500</v>
+        <v>-2300</v>
       </c>
       <c r="H35" s="3">
-        <v>84300</v>
+        <v>58100</v>
       </c>
       <c r="I35" s="3">
-        <v>114400</v>
+        <v>82300</v>
       </c>
       <c r="J35" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K35" s="3">
         <v>146300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>73800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>128500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>151200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>112800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>108100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>79400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>70000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>173800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,464 +2400,489 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1944100</v>
+        <v>1491500</v>
       </c>
       <c r="E41" s="3">
-        <v>2292500</v>
+        <v>1898300</v>
       </c>
       <c r="F41" s="3">
-        <v>1761000</v>
+        <v>2238500</v>
       </c>
       <c r="G41" s="3">
-        <v>2051400</v>
+        <v>1719500</v>
       </c>
       <c r="H41" s="3">
-        <v>2000700</v>
+        <v>2003000</v>
       </c>
       <c r="I41" s="3">
-        <v>2173000</v>
+        <v>1953600</v>
       </c>
       <c r="J41" s="3">
+        <v>2121800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1595400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1726800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1939200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1913400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2459600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2784200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2582400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2429900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2567300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2690100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2103600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27600</v>
+        <v>19200</v>
       </c>
       <c r="E42" s="3">
-        <v>14700</v>
+        <v>26900</v>
       </c>
       <c r="F42" s="3">
-        <v>14700</v>
+        <v>14400</v>
       </c>
       <c r="G42" s="3">
-        <v>412600</v>
+        <v>14400</v>
       </c>
       <c r="H42" s="3">
-        <v>15800</v>
+        <v>402900</v>
       </c>
       <c r="I42" s="3">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="J42" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K42" s="3">
         <v>10600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12100</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>13000</v>
       </c>
       <c r="R42" s="3">
         <v>13000</v>
       </c>
       <c r="S42" s="3">
+        <v>13000</v>
+      </c>
+      <c r="T42" s="3">
         <v>12000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1610000</v>
+        <v>1514300</v>
       </c>
       <c r="E43" s="3">
-        <v>1603200</v>
+        <v>1572100</v>
       </c>
       <c r="F43" s="3">
-        <v>999800</v>
+        <v>1565400</v>
       </c>
       <c r="G43" s="3">
-        <v>780300</v>
+        <v>976200</v>
       </c>
       <c r="H43" s="3">
-        <v>1261100</v>
+        <v>761900</v>
       </c>
       <c r="I43" s="3">
-        <v>1255600</v>
+        <v>1231400</v>
       </c>
       <c r="J43" s="3">
+        <v>1226000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1285200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>801600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>794300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>769900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1003900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>888100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>711700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>896000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>851100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>854300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1019200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4487800</v>
+        <v>4188600</v>
       </c>
       <c r="E44" s="3">
-        <v>3960700</v>
+        <v>4382000</v>
       </c>
       <c r="F44" s="3">
-        <v>4120100</v>
+        <v>3867400</v>
       </c>
       <c r="G44" s="3">
-        <v>3792600</v>
+        <v>4023000</v>
       </c>
       <c r="H44" s="3">
-        <v>3985300</v>
+        <v>3703200</v>
       </c>
       <c r="I44" s="3">
-        <v>4053600</v>
+        <v>3891400</v>
       </c>
       <c r="J44" s="3">
+        <v>3958100</v>
+      </c>
+      <c r="K44" s="3">
         <v>4135700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4312600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4355700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4108500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3150600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3184500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3730100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3830700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3812300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3823600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4508500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>949600</v>
+        <v>1203800</v>
       </c>
       <c r="E45" s="3">
-        <v>56800</v>
+        <v>927200</v>
       </c>
       <c r="F45" s="3">
-        <v>138700</v>
+        <v>55500</v>
       </c>
       <c r="G45" s="3">
-        <v>174200</v>
+        <v>135400</v>
       </c>
       <c r="H45" s="3">
-        <v>12100</v>
+        <v>170100</v>
       </c>
       <c r="I45" s="3">
-        <v>8600</v>
+        <v>11800</v>
       </c>
       <c r="J45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>220900</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>2800</v>
       </c>
       <c r="R45" s="3">
         <v>2800</v>
       </c>
       <c r="S45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9019100</v>
+        <v>8417500</v>
       </c>
       <c r="E46" s="3">
-        <v>7928000</v>
+        <v>8806600</v>
       </c>
       <c r="F46" s="3">
-        <v>7034400</v>
+        <v>7741200</v>
       </c>
       <c r="G46" s="3">
-        <v>7211000</v>
+        <v>6868600</v>
       </c>
       <c r="H46" s="3">
-        <v>7275100</v>
+        <v>7041000</v>
       </c>
       <c r="I46" s="3">
-        <v>7504200</v>
+        <v>7103600</v>
       </c>
       <c r="J46" s="3">
+        <v>7327400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7031500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6863700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7102900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6806400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6627900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6922300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7257200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7172400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7246600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7382900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7845000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1859700</v>
+        <v>1867300</v>
       </c>
       <c r="E47" s="3">
-        <v>1854500</v>
+        <v>1815900</v>
       </c>
       <c r="F47" s="3">
-        <v>2705100</v>
+        <v>1810800</v>
       </c>
       <c r="G47" s="3">
-        <v>2064600</v>
+        <v>2641300</v>
       </c>
       <c r="H47" s="3">
-        <v>2136400</v>
+        <v>2015900</v>
       </c>
       <c r="I47" s="3">
-        <v>2113000</v>
+        <v>2086100</v>
       </c>
       <c r="J47" s="3">
+        <v>2063200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1874900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1976300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1775300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1688600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1693800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1426600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1393500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1370100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1368200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1362300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1175600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6972300</v>
+        <v>6700800</v>
       </c>
       <c r="E48" s="3">
-        <v>7401700</v>
+        <v>6808000</v>
       </c>
       <c r="F48" s="3">
-        <v>7243500</v>
+        <v>7227300</v>
       </c>
       <c r="G48" s="3">
-        <v>7239100</v>
+        <v>7072800</v>
       </c>
       <c r="H48" s="3">
-        <v>6941000</v>
+        <v>7068500</v>
       </c>
       <c r="I48" s="3">
-        <v>6930400</v>
+        <v>6777400</v>
       </c>
       <c r="J48" s="3">
+        <v>6767100</v>
+      </c>
+      <c r="K48" s="3">
         <v>6705900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6603800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5797800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5281400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5399800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5491600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5573600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5511600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5411500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5479600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5451000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -2788,8 +2899,8 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>148000</v>
+        <v>119800</v>
       </c>
       <c r="E52" s="3">
-        <v>176800</v>
+        <v>144600</v>
       </c>
       <c r="F52" s="3">
-        <v>509300</v>
+        <v>172700</v>
       </c>
       <c r="G52" s="3">
-        <v>496900</v>
+        <v>497300</v>
       </c>
       <c r="H52" s="3">
-        <v>495400</v>
+        <v>485200</v>
       </c>
       <c r="I52" s="3">
-        <v>458100</v>
+        <v>483800</v>
       </c>
       <c r="J52" s="3">
+        <v>447300</v>
+      </c>
+      <c r="K52" s="3">
         <v>184200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>310700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>457900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>526300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>425900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>437700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>423100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>271400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>271000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>274600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18000600</v>
+        <v>17106700</v>
       </c>
       <c r="E54" s="3">
-        <v>17361000</v>
+        <v>17576400</v>
       </c>
       <c r="F54" s="3">
-        <v>17492200</v>
+        <v>16951900</v>
       </c>
       <c r="G54" s="3">
-        <v>17011600</v>
+        <v>17080000</v>
       </c>
       <c r="H54" s="3">
-        <v>16848000</v>
+        <v>16610700</v>
       </c>
       <c r="I54" s="3">
-        <v>17005700</v>
+        <v>16450900</v>
       </c>
       <c r="J54" s="3">
+        <v>16604900</v>
+      </c>
+      <c r="K54" s="3">
         <v>15796500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15754500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15133700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14302800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14147400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14278300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14647400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14325500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14297200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14499400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14584200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>154000</v>
+        <v>180100</v>
       </c>
       <c r="E57" s="3">
-        <v>989000</v>
+        <v>150400</v>
       </c>
       <c r="F57" s="3">
-        <v>788800</v>
+        <v>965700</v>
       </c>
       <c r="G57" s="3">
-        <v>879100</v>
+        <v>770200</v>
       </c>
       <c r="H57" s="3">
-        <v>1002400</v>
+        <v>858400</v>
       </c>
       <c r="I57" s="3">
-        <v>932200</v>
+        <v>978800</v>
       </c>
       <c r="J57" s="3">
+        <v>910200</v>
+      </c>
+      <c r="K57" s="3">
         <v>941300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>975600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1021000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1031300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1036700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>958000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1424300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1202900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1124800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1153700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1301500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3043300</v>
+        <v>3906300</v>
       </c>
       <c r="E58" s="3">
-        <v>2062500</v>
+        <v>2971600</v>
       </c>
       <c r="F58" s="3">
-        <v>1330900</v>
+        <v>2013900</v>
       </c>
       <c r="G58" s="3">
-        <v>1507400</v>
+        <v>1299500</v>
       </c>
       <c r="H58" s="3">
-        <v>1149400</v>
+        <v>1471900</v>
       </c>
       <c r="I58" s="3">
-        <v>1467800</v>
+        <v>1122400</v>
       </c>
       <c r="J58" s="3">
+        <v>1433200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1009800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>949200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>858500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>695900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>727400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>933500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1274000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>912100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1063400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1305700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1852400</v>
+        <v>1551800</v>
       </c>
       <c r="E59" s="3">
-        <v>647400</v>
+        <v>1808700</v>
       </c>
       <c r="F59" s="3">
-        <v>403600</v>
+        <v>632100</v>
       </c>
       <c r="G59" s="3">
-        <v>383200</v>
+        <v>394100</v>
       </c>
       <c r="H59" s="3">
-        <v>352400</v>
+        <v>374100</v>
       </c>
       <c r="I59" s="3">
-        <v>374400</v>
+        <v>344100</v>
       </c>
       <c r="J59" s="3">
+        <v>365600</v>
+      </c>
+      <c r="K59" s="3">
         <v>441900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>416400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>285100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>311000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>295600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>554500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>249700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>195000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>204500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>220700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5049800</v>
+        <v>5638200</v>
       </c>
       <c r="E60" s="3">
-        <v>3698800</v>
+        <v>4930800</v>
       </c>
       <c r="F60" s="3">
-        <v>2523200</v>
+        <v>3611700</v>
       </c>
       <c r="G60" s="3">
-        <v>2769600</v>
+        <v>2463800</v>
       </c>
       <c r="H60" s="3">
-        <v>2504200</v>
+        <v>2704400</v>
       </c>
       <c r="I60" s="3">
-        <v>2774400</v>
+        <v>2445200</v>
       </c>
       <c r="J60" s="3">
+        <v>2709000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2393000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2341200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2164500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2038200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2059700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2446100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2948000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2310000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2392700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2680100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2856100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5758700</v>
+        <v>4437600</v>
       </c>
       <c r="E61" s="3">
-        <v>6594800</v>
+        <v>5623000</v>
       </c>
       <c r="F61" s="3">
-        <v>6482500</v>
+        <v>6439400</v>
       </c>
       <c r="G61" s="3">
-        <v>5765300</v>
+        <v>6329700</v>
       </c>
       <c r="H61" s="3">
-        <v>5004300</v>
+        <v>5629400</v>
       </c>
       <c r="I61" s="3">
-        <v>4898800</v>
+        <v>4886400</v>
       </c>
       <c r="J61" s="3">
+        <v>4783300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4042600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3823500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3325200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3117600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2754000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2769200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2552800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3033500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3021400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2896600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3059300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>399600</v>
+        <v>349500</v>
       </c>
       <c r="E62" s="3">
-        <v>290400</v>
+        <v>390200</v>
       </c>
       <c r="F62" s="3">
-        <v>207400</v>
+        <v>283500</v>
       </c>
       <c r="G62" s="3">
-        <v>215500</v>
+        <v>202600</v>
       </c>
       <c r="H62" s="3">
-        <v>216800</v>
+        <v>210400</v>
       </c>
       <c r="I62" s="3">
-        <v>222500</v>
+        <v>211700</v>
       </c>
       <c r="J62" s="3">
+        <v>217300</v>
+      </c>
+      <c r="K62" s="3">
         <v>218200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>331200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>445500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>406900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>449400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>475700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>526900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>565200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>552700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>567200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>505200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11868600</v>
+        <v>11082800</v>
       </c>
       <c r="E66" s="3">
-        <v>11126800</v>
+        <v>11588900</v>
       </c>
       <c r="F66" s="3">
-        <v>9740500</v>
+        <v>10864500</v>
       </c>
       <c r="G66" s="3">
-        <v>9297600</v>
+        <v>9511000</v>
       </c>
       <c r="H66" s="3">
-        <v>9306700</v>
+        <v>9078500</v>
       </c>
       <c r="I66" s="3">
-        <v>9500600</v>
+        <v>9087400</v>
       </c>
       <c r="J66" s="3">
+        <v>9276700</v>
+      </c>
+      <c r="K66" s="3">
         <v>8270000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8180600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7596300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7161600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6881800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7353600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7685900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7452300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7483300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7692700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7983600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,16 +4001,19 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>242100</v>
+        <v>236400</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>236400</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3875,11 +4043,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>243500</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3887,13 +4055,16 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>241800</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4732600</v>
+        <v>4699000</v>
       </c>
       <c r="E72" s="3">
-        <v>4839100</v>
+        <v>4621100</v>
       </c>
       <c r="F72" s="3">
-        <v>6360900</v>
+        <v>4725100</v>
       </c>
       <c r="G72" s="3">
-        <v>6347600</v>
+        <v>6211000</v>
       </c>
       <c r="H72" s="3">
-        <v>6203500</v>
+        <v>6198000</v>
       </c>
       <c r="I72" s="3">
-        <v>6116700</v>
+        <v>6057300</v>
       </c>
       <c r="J72" s="3">
+        <v>5972500</v>
+      </c>
+      <c r="K72" s="3">
         <v>6138000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6177700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6134700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5772500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5853300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5513500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5891100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5797600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5763200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5689000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5562200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5889900</v>
+        <v>5787400</v>
       </c>
       <c r="E76" s="3">
-        <v>6234200</v>
+        <v>5751100</v>
       </c>
       <c r="F76" s="3">
-        <v>7751700</v>
+        <v>6087300</v>
       </c>
       <c r="G76" s="3">
-        <v>7714000</v>
+        <v>7569100</v>
       </c>
       <c r="H76" s="3">
-        <v>7541300</v>
+        <v>7532200</v>
       </c>
       <c r="I76" s="3">
-        <v>7505100</v>
+        <v>7363500</v>
       </c>
       <c r="J76" s="3">
+        <v>7328300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7526500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7573900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7537400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7141200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7265600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6681200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6961500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6873200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6813900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6564800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6600600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-28200</v>
+        <v>88200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1413000</v>
+        <v>-27600</v>
       </c>
       <c r="F81" s="3">
-        <v>-2400</v>
+        <v>-1379700</v>
       </c>
       <c r="G81" s="3">
-        <v>59500</v>
+        <v>-2300</v>
       </c>
       <c r="H81" s="3">
-        <v>84300</v>
+        <v>58100</v>
       </c>
       <c r="I81" s="3">
-        <v>114400</v>
+        <v>82300</v>
       </c>
       <c r="J81" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K81" s="3">
         <v>146300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>73800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>128500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>151200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>112800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>108100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>79400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>70000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>173800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>105600</v>
+        <v>95600</v>
       </c>
       <c r="E83" s="3">
-        <v>107500</v>
+        <v>103100</v>
       </c>
       <c r="F83" s="3">
-        <v>103100</v>
+        <v>105000</v>
       </c>
       <c r="G83" s="3">
-        <v>57100</v>
+        <v>100600</v>
       </c>
       <c r="H83" s="3">
-        <v>49000</v>
+        <v>55800</v>
       </c>
       <c r="I83" s="3">
-        <v>49300</v>
+        <v>47900</v>
       </c>
       <c r="J83" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K83" s="3">
         <v>46900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>38400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>38900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>47700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>437200</v>
+        <v>385200</v>
       </c>
       <c r="E89" s="3">
-        <v>124500</v>
+        <v>426900</v>
       </c>
       <c r="F89" s="3">
-        <v>-385600</v>
+        <v>121500</v>
       </c>
       <c r="G89" s="3">
-        <v>200300</v>
+        <v>-376500</v>
       </c>
       <c r="H89" s="3">
-        <v>110500</v>
+        <v>195600</v>
       </c>
       <c r="I89" s="3">
-        <v>145800</v>
+        <v>107900</v>
       </c>
       <c r="J89" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K89" s="3">
         <v>156700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>209400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>149400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-735200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>370200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>122000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>223700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>85400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>302800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28400</v>
+        <v>-74700</v>
       </c>
       <c r="E91" s="3">
-        <v>-161600</v>
+        <v>-27800</v>
       </c>
       <c r="F91" s="3">
-        <v>-34300</v>
+        <v>-157800</v>
       </c>
       <c r="G91" s="3">
-        <v>-38900</v>
+        <v>-33500</v>
       </c>
       <c r="H91" s="3">
-        <v>-51400</v>
+        <v>-38000</v>
       </c>
       <c r="I91" s="3">
-        <v>-31700</v>
+        <v>-50200</v>
       </c>
       <c r="J91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-38200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-49900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-347500</v>
+        <v>-278900</v>
       </c>
       <c r="E94" s="3">
-        <v>-458800</v>
+        <v>-339300</v>
       </c>
       <c r="F94" s="3">
-        <v>-330200</v>
+        <v>-448000</v>
       </c>
       <c r="G94" s="3">
-        <v>3400</v>
+        <v>-322400</v>
       </c>
       <c r="H94" s="3">
-        <v>-85500</v>
+        <v>3300</v>
       </c>
       <c r="I94" s="3">
-        <v>-459200</v>
+        <v>-83500</v>
       </c>
       <c r="J94" s="3">
+        <v>-448400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-448700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-957200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-287900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-48000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>80000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-82100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>647800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-330600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95500</v>
+        <v>-31300</v>
       </c>
       <c r="E96" s="3">
-        <v>-109400</v>
+        <v>-93200</v>
       </c>
       <c r="F96" s="3">
-        <v>-30100</v>
+        <v>-106800</v>
       </c>
       <c r="G96" s="3">
-        <v>-5200</v>
+        <v>-29300</v>
       </c>
       <c r="H96" s="3">
-        <v>-60400</v>
+        <v>-5100</v>
       </c>
       <c r="I96" s="3">
-        <v>-107000</v>
+        <v>-59000</v>
       </c>
       <c r="J96" s="3">
+        <v>-104500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-24400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-67100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-105900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-24800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-4400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-99900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-27100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-429800</v>
+        <v>-494700</v>
       </c>
       <c r="E100" s="3">
-        <v>731400</v>
+        <v>-419700</v>
       </c>
       <c r="F100" s="3">
-        <v>415100</v>
+        <v>714200</v>
       </c>
       <c r="G100" s="3">
-        <v>-157400</v>
+        <v>405300</v>
       </c>
       <c r="H100" s="3">
-        <v>-192100</v>
+        <v>-153700</v>
       </c>
       <c r="I100" s="3">
-        <v>997800</v>
+        <v>-187500</v>
       </c>
       <c r="J100" s="3">
+        <v>974300</v>
+      </c>
+      <c r="K100" s="3">
         <v>194400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>488300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>382900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-215700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-122300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-289900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-234600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-468700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-305800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
-        <v>15800</v>
-      </c>
       <c r="F101" s="3">
-        <v>9200</v>
+        <v>15400</v>
       </c>
       <c r="G101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3300</v>
-      </c>
       <c r="I101" s="3">
-        <v>-2500</v>
+        <v>-3200</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-338300</v>
+        <v>-393500</v>
       </c>
       <c r="E102" s="3">
-        <v>412900</v>
+        <v>-330300</v>
       </c>
       <c r="F102" s="3">
-        <v>-291500</v>
+        <v>403200</v>
       </c>
       <c r="G102" s="3">
-        <v>46000</v>
+        <v>-284600</v>
       </c>
       <c r="H102" s="3">
-        <v>-170400</v>
+        <v>44900</v>
       </c>
       <c r="I102" s="3">
-        <v>681900</v>
+        <v>-166400</v>
       </c>
       <c r="J102" s="3">
+        <v>665800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-97600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-255500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-150000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-379200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-258500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>202800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>171400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-144400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-204600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>497500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-243500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>CDEVY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1026500</v>
+        <v>1060400</v>
       </c>
       <c r="E8" s="3">
-        <v>853600</v>
+        <v>1032400</v>
       </c>
       <c r="F8" s="3">
-        <v>741400</v>
+        <v>858500</v>
       </c>
       <c r="G8" s="3">
-        <v>768200</v>
+        <v>745700</v>
       </c>
       <c r="H8" s="3">
-        <v>678000</v>
+        <v>772600</v>
       </c>
       <c r="I8" s="3">
-        <v>633800</v>
+        <v>681900</v>
       </c>
       <c r="J8" s="3">
+        <v>637500</v>
+      </c>
+      <c r="K8" s="3">
         <v>608900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>547200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>594600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>753900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>959200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>763500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>979100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>636900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>629700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>574000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>854700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>675800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>624900</v>
+        <v>640200</v>
       </c>
       <c r="E9" s="3">
-        <v>555200</v>
+        <v>628500</v>
       </c>
       <c r="F9" s="3">
-        <v>467600</v>
+        <v>558400</v>
       </c>
       <c r="G9" s="3">
-        <v>448500</v>
+        <v>470300</v>
       </c>
       <c r="H9" s="3">
-        <v>373200</v>
+        <v>451100</v>
       </c>
       <c r="I9" s="3">
-        <v>317800</v>
+        <v>375300</v>
       </c>
       <c r="J9" s="3">
+        <v>319600</v>
+      </c>
+      <c r="K9" s="3">
         <v>308600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>288900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>229500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>380400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>533400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>496300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>631200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>321800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>321700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>304900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>466700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>360900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>401600</v>
+        <v>420200</v>
       </c>
       <c r="E10" s="3">
-        <v>298400</v>
+        <v>403900</v>
       </c>
       <c r="F10" s="3">
-        <v>273800</v>
+        <v>300100</v>
       </c>
       <c r="G10" s="3">
-        <v>319700</v>
+        <v>275400</v>
       </c>
       <c r="H10" s="3">
-        <v>304800</v>
+        <v>321500</v>
       </c>
       <c r="I10" s="3">
-        <v>316000</v>
+        <v>306500</v>
       </c>
       <c r="J10" s="3">
+        <v>317900</v>
+      </c>
+      <c r="K10" s="3">
         <v>300200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>258200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>365100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>373400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>425800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>267200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>347900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>315200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>308000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>269000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>388000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,22 +1085,25 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>-358600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>206200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>207400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1100,8 +1120,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1127,31 +1147,34 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>94400</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>850700</v>
+        <v>-42000</v>
       </c>
       <c r="E17" s="3">
-        <v>798900</v>
+        <v>855600</v>
       </c>
       <c r="F17" s="3">
-        <v>1395300</v>
+        <v>803500</v>
       </c>
       <c r="G17" s="3">
-        <v>724000</v>
+        <v>1403400</v>
       </c>
       <c r="H17" s="3">
-        <v>604600</v>
+        <v>728200</v>
       </c>
       <c r="I17" s="3">
-        <v>542300</v>
+        <v>608100</v>
       </c>
       <c r="J17" s="3">
+        <v>545500</v>
+      </c>
+      <c r="K17" s="3">
         <v>486800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>361400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>492300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>554200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>635000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>816600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>466500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>479700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>475500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>619100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>175800</v>
+        <v>1102500</v>
       </c>
       <c r="E18" s="3">
-        <v>54700</v>
+        <v>176800</v>
       </c>
       <c r="F18" s="3">
-        <v>-653900</v>
+        <v>55000</v>
       </c>
       <c r="G18" s="3">
-        <v>44200</v>
+        <v>-657700</v>
       </c>
       <c r="H18" s="3">
-        <v>73400</v>
+        <v>44400</v>
       </c>
       <c r="I18" s="3">
-        <v>91500</v>
+        <v>73800</v>
       </c>
       <c r="J18" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K18" s="3">
         <v>122000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>185700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>102300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>199700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>258800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>128400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>162400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>170400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>150000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>98400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>235600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>179600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38500</v>
+        <v>106600</v>
       </c>
       <c r="E20" s="3">
-        <v>23400</v>
+        <v>38700</v>
       </c>
       <c r="F20" s="3">
-        <v>-570500</v>
+        <v>23500</v>
       </c>
       <c r="G20" s="3">
-        <v>39800</v>
+        <v>-573800</v>
       </c>
       <c r="H20" s="3">
-        <v>38600</v>
+        <v>40000</v>
       </c>
       <c r="I20" s="3">
-        <v>55900</v>
+        <v>38800</v>
       </c>
       <c r="J20" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K20" s="3">
         <v>71500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>40700</v>
       </c>
       <c r="Q20" s="3">
         <v>40700</v>
       </c>
       <c r="R20" s="3">
+        <v>40700</v>
+      </c>
+      <c r="S20" s="3">
         <v>31500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>13600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>309900</v>
+        <v>1303400</v>
       </c>
       <c r="E21" s="3">
-        <v>181200</v>
+        <v>311700</v>
       </c>
       <c r="F21" s="3">
-        <v>-1119500</v>
+        <v>182300</v>
       </c>
       <c r="G21" s="3">
-        <v>184600</v>
+        <v>-1126000</v>
       </c>
       <c r="H21" s="3">
-        <v>167700</v>
+        <v>185600</v>
       </c>
       <c r="I21" s="3">
-        <v>195300</v>
+        <v>168700</v>
       </c>
       <c r="J21" s="3">
+        <v>196400</v>
+      </c>
+      <c r="K21" s="3">
         <v>241700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>269600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>150900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>250000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>181300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>242300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>251700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>221600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>150700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>290500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>234000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>58200</v>
+        <v>67800</v>
       </c>
       <c r="E22" s="3">
-        <v>71100</v>
+        <v>58600</v>
       </c>
       <c r="F22" s="3">
-        <v>67600</v>
+        <v>71500</v>
       </c>
       <c r="G22" s="3">
-        <v>74100</v>
+        <v>67900</v>
       </c>
       <c r="H22" s="3">
-        <v>34400</v>
+        <v>74500</v>
       </c>
       <c r="I22" s="3">
-        <v>36100</v>
+        <v>34600</v>
       </c>
       <c r="J22" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K22" s="3">
         <v>32700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27900</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20300</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>156100</v>
+        <v>1141300</v>
       </c>
       <c r="E23" s="3">
+        <v>157000</v>
+      </c>
+      <c r="F23" s="3">
         <v>7000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-1292000</v>
-      </c>
       <c r="G23" s="3">
+        <v>-1299500</v>
+      </c>
+      <c r="H23" s="3">
         <v>9900</v>
       </c>
-      <c r="H23" s="3">
-        <v>77500</v>
-      </c>
       <c r="I23" s="3">
-        <v>111300</v>
+        <v>78000</v>
       </c>
       <c r="J23" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K23" s="3">
         <v>160800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>194800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>105800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>185800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>240800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>124900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>160000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>171000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>139500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>91700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>242800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>175100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42600</v>
+        <v>311600</v>
       </c>
       <c r="E24" s="3">
-        <v>20400</v>
+        <v>42800</v>
       </c>
       <c r="F24" s="3">
-        <v>53200</v>
+        <v>20500</v>
       </c>
       <c r="G24" s="3">
-        <v>9600</v>
+        <v>53500</v>
       </c>
       <c r="H24" s="3">
         <v>9600</v>
       </c>
       <c r="I24" s="3">
-        <v>22400</v>
+        <v>9700</v>
       </c>
       <c r="J24" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>113500</v>
+        <v>829600</v>
       </c>
       <c r="E26" s="3">
-        <v>-13400</v>
+        <v>114200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1345200</v>
+        <v>-13500</v>
       </c>
       <c r="G26" s="3">
+        <v>-1353000</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>67900</v>
-      </c>
       <c r="I26" s="3">
-        <v>89000</v>
+        <v>68300</v>
       </c>
       <c r="J26" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K26" s="3">
         <v>130800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>155100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>77800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>176600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>145100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>142300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>116400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>80400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>196100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>88200</v>
+        <v>806500</v>
       </c>
       <c r="E27" s="3">
-        <v>-27600</v>
+        <v>88700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1379700</v>
+        <v>-27700</v>
       </c>
       <c r="G27" s="3">
-        <v>-2300</v>
+        <v>-1387600</v>
       </c>
       <c r="H27" s="3">
-        <v>58100</v>
+        <v>-2400</v>
       </c>
       <c r="I27" s="3">
-        <v>82300</v>
+        <v>58500</v>
       </c>
       <c r="J27" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K27" s="3">
         <v>111700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>73800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>128500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>151200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>61600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>112800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>108100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>79400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>70000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>173800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38500</v>
+        <v>-106600</v>
       </c>
       <c r="E32" s="3">
-        <v>-23400</v>
+        <v>-38700</v>
       </c>
       <c r="F32" s="3">
-        <v>570500</v>
+        <v>-23500</v>
       </c>
       <c r="G32" s="3">
-        <v>-39800</v>
+        <v>573800</v>
       </c>
       <c r="H32" s="3">
-        <v>-38600</v>
+        <v>-40000</v>
       </c>
       <c r="I32" s="3">
-        <v>-55900</v>
+        <v>-38800</v>
       </c>
       <c r="J32" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-71500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-40700</v>
       </c>
       <c r="Q32" s="3">
         <v>-40700</v>
       </c>
       <c r="R32" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="S32" s="3">
         <v>-31500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-13600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88200</v>
+        <v>806500</v>
       </c>
       <c r="E33" s="3">
-        <v>-27600</v>
+        <v>88700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1379700</v>
+        <v>-27700</v>
       </c>
       <c r="G33" s="3">
-        <v>-2300</v>
+        <v>-1387600</v>
       </c>
       <c r="H33" s="3">
-        <v>58100</v>
+        <v>-2400</v>
       </c>
       <c r="I33" s="3">
-        <v>82300</v>
+        <v>58500</v>
       </c>
       <c r="J33" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K33" s="3">
         <v>111700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>146300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>73800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>128500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>151200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>61600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>112800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>108100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>79400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>70000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>173800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88200</v>
+        <v>806500</v>
       </c>
       <c r="E35" s="3">
-        <v>-27600</v>
+        <v>88700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1379700</v>
+        <v>-27700</v>
       </c>
       <c r="G35" s="3">
-        <v>-2300</v>
+        <v>-1387600</v>
       </c>
       <c r="H35" s="3">
-        <v>58100</v>
+        <v>-2400</v>
       </c>
       <c r="I35" s="3">
-        <v>82300</v>
+        <v>58500</v>
       </c>
       <c r="J35" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K35" s="3">
         <v>111700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>146300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>73800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>128500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>151200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>61600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>112800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>108100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>79400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>70000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>173800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1491500</v>
+        <v>1532900</v>
       </c>
       <c r="E41" s="3">
-        <v>1898300</v>
+        <v>1500100</v>
       </c>
       <c r="F41" s="3">
-        <v>2238500</v>
+        <v>1909300</v>
       </c>
       <c r="G41" s="3">
-        <v>1719500</v>
+        <v>2251400</v>
       </c>
       <c r="H41" s="3">
-        <v>2003000</v>
+        <v>1729400</v>
       </c>
       <c r="I41" s="3">
-        <v>1953600</v>
+        <v>2014600</v>
       </c>
       <c r="J41" s="3">
+        <v>1964800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2121800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1595400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1726800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1939200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1913400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2459600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2784200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2582400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2429900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2567300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2690100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2103600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2469,412 +2559,433 @@
         <v>19200</v>
       </c>
       <c r="E42" s="3">
-        <v>26900</v>
+        <v>19300</v>
       </c>
       <c r="F42" s="3">
-        <v>14400</v>
+        <v>27100</v>
       </c>
       <c r="G42" s="3">
         <v>14400</v>
       </c>
       <c r="H42" s="3">
-        <v>402900</v>
+        <v>14500</v>
       </c>
       <c r="I42" s="3">
+        <v>405200</v>
+      </c>
+      <c r="J42" s="3">
         <v>15500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12100</v>
-      </c>
-      <c r="R42" s="3">
-        <v>13000</v>
       </c>
       <c r="S42" s="3">
         <v>13000</v>
       </c>
       <c r="T42" s="3">
+        <v>13000</v>
+      </c>
+      <c r="U42" s="3">
         <v>12000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1514300</v>
+        <v>1396300</v>
       </c>
       <c r="E43" s="3">
-        <v>1572100</v>
+        <v>1523100</v>
       </c>
       <c r="F43" s="3">
-        <v>1565400</v>
+        <v>1581100</v>
       </c>
       <c r="G43" s="3">
-        <v>976200</v>
+        <v>1574500</v>
       </c>
       <c r="H43" s="3">
-        <v>761900</v>
+        <v>981900</v>
       </c>
       <c r="I43" s="3">
-        <v>1231400</v>
+        <v>766300</v>
       </c>
       <c r="J43" s="3">
+        <v>1238500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1226000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1285200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>801600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>794300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>769900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1003900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>888100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>711700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>896000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>851100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>854300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1019200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4188600</v>
+        <v>4302300</v>
       </c>
       <c r="E44" s="3">
-        <v>4382000</v>
+        <v>4212800</v>
       </c>
       <c r="F44" s="3">
-        <v>3867400</v>
+        <v>4407300</v>
       </c>
       <c r="G44" s="3">
-        <v>4023000</v>
+        <v>3889700</v>
       </c>
       <c r="H44" s="3">
-        <v>3703200</v>
+        <v>4046200</v>
       </c>
       <c r="I44" s="3">
-        <v>3891400</v>
+        <v>3724600</v>
       </c>
       <c r="J44" s="3">
+        <v>3913900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3958100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4135700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4312600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4355700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4108500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3150600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3184500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3730100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3830700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3812300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3823600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4508500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1203800</v>
+        <v>960700</v>
       </c>
       <c r="E45" s="3">
-        <v>927200</v>
+        <v>1210800</v>
       </c>
       <c r="F45" s="3">
-        <v>55500</v>
+        <v>932500</v>
       </c>
       <c r="G45" s="3">
-        <v>135400</v>
+        <v>55800</v>
       </c>
       <c r="H45" s="3">
-        <v>170100</v>
+        <v>136200</v>
       </c>
       <c r="I45" s="3">
-        <v>11800</v>
+        <v>171000</v>
       </c>
       <c r="J45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>220900</v>
-      </c>
-      <c r="R45" s="3">
-        <v>2800</v>
       </c>
       <c r="S45" s="3">
         <v>2800</v>
       </c>
       <c r="T45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8417500</v>
+        <v>8211400</v>
       </c>
       <c r="E46" s="3">
-        <v>8806600</v>
+        <v>8466000</v>
       </c>
       <c r="F46" s="3">
-        <v>7741200</v>
+        <v>8857400</v>
       </c>
       <c r="G46" s="3">
-        <v>6868600</v>
+        <v>7785800</v>
       </c>
       <c r="H46" s="3">
-        <v>7041000</v>
+        <v>6908200</v>
       </c>
       <c r="I46" s="3">
-        <v>7103600</v>
+        <v>7081700</v>
       </c>
       <c r="J46" s="3">
+        <v>7144600</v>
+      </c>
+      <c r="K46" s="3">
         <v>7327400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7031500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6863700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7102900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6806400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6627900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6922300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7257200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7172400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7246600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7382900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7845000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1867300</v>
+        <v>2346800</v>
       </c>
       <c r="E47" s="3">
-        <v>1815900</v>
+        <v>1878000</v>
       </c>
       <c r="F47" s="3">
-        <v>1810800</v>
+        <v>1826300</v>
       </c>
       <c r="G47" s="3">
-        <v>2641300</v>
+        <v>1821200</v>
       </c>
       <c r="H47" s="3">
-        <v>2015900</v>
+        <v>2656600</v>
       </c>
       <c r="I47" s="3">
-        <v>2086100</v>
+        <v>2027500</v>
       </c>
       <c r="J47" s="3">
+        <v>2098100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2063200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1874900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1976300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1775300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1688600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1693800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1426600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1393500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1370100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1368200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1362300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1175600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6700800</v>
+        <v>5963900</v>
       </c>
       <c r="E48" s="3">
-        <v>6808000</v>
+        <v>6739400</v>
       </c>
       <c r="F48" s="3">
-        <v>7227300</v>
+        <v>6847300</v>
       </c>
       <c r="G48" s="3">
-        <v>7072800</v>
+        <v>7269000</v>
       </c>
       <c r="H48" s="3">
-        <v>7068500</v>
+        <v>7113600</v>
       </c>
       <c r="I48" s="3">
-        <v>6777400</v>
+        <v>7109300</v>
       </c>
       <c r="J48" s="3">
+        <v>6816500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6767100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6705900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6603800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5797800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5281400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5399800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5491600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5573600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5511600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5411500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5479600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5451000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,8 +2995,8 @@
       <c r="E49" s="3">
         <v>1400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+      <c r="F49" s="3">
+        <v>1400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -2902,8 +3013,8 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>119800</v>
+        <v>64700</v>
       </c>
       <c r="E52" s="3">
-        <v>144600</v>
+        <v>120500</v>
       </c>
       <c r="F52" s="3">
-        <v>172700</v>
+        <v>145400</v>
       </c>
       <c r="G52" s="3">
-        <v>497300</v>
+        <v>173700</v>
       </c>
       <c r="H52" s="3">
-        <v>485200</v>
+        <v>500200</v>
       </c>
       <c r="I52" s="3">
-        <v>483800</v>
+        <v>488000</v>
       </c>
       <c r="J52" s="3">
+        <v>486600</v>
+      </c>
+      <c r="K52" s="3">
         <v>447300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>184200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>310700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>457900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>526300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>425900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>437700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>423100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>271400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>271000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>274600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>112600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17106700</v>
+        <v>16588100</v>
       </c>
       <c r="E54" s="3">
-        <v>17576400</v>
+        <v>17205400</v>
       </c>
       <c r="F54" s="3">
-        <v>16951900</v>
+        <v>17677800</v>
       </c>
       <c r="G54" s="3">
-        <v>17080000</v>
+        <v>17049700</v>
       </c>
       <c r="H54" s="3">
-        <v>16610700</v>
+        <v>17178500</v>
       </c>
       <c r="I54" s="3">
-        <v>16450900</v>
+        <v>16706500</v>
       </c>
       <c r="J54" s="3">
+        <v>16545800</v>
+      </c>
+      <c r="K54" s="3">
         <v>16604900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15796500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15754500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15133700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14302800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14147400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14278300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14647400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14325500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14297200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14499400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14584200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>180100</v>
+        <v>176300</v>
       </c>
       <c r="E57" s="3">
-        <v>150400</v>
+        <v>181100</v>
       </c>
       <c r="F57" s="3">
-        <v>965700</v>
+        <v>151300</v>
       </c>
       <c r="G57" s="3">
-        <v>770200</v>
+        <v>971200</v>
       </c>
       <c r="H57" s="3">
-        <v>858400</v>
+        <v>774700</v>
       </c>
       <c r="I57" s="3">
-        <v>978800</v>
+        <v>863300</v>
       </c>
       <c r="J57" s="3">
+        <v>984400</v>
+      </c>
+      <c r="K57" s="3">
         <v>910200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>941300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>975600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1021000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1031300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1036700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>958000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1424300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1202900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1124800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1153700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1301500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3906300</v>
+        <v>2790800</v>
       </c>
       <c r="E58" s="3">
-        <v>2971600</v>
+        <v>3928800</v>
       </c>
       <c r="F58" s="3">
-        <v>2013900</v>
+        <v>2988800</v>
       </c>
       <c r="G58" s="3">
-        <v>1299500</v>
+        <v>2025500</v>
       </c>
       <c r="H58" s="3">
-        <v>1471900</v>
+        <v>1307000</v>
       </c>
       <c r="I58" s="3">
-        <v>1122400</v>
+        <v>1480300</v>
       </c>
       <c r="J58" s="3">
+        <v>1128800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1433200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1009800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>949200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>858500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>695900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>727400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>933500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1274000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>912100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1063400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1305700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1551800</v>
+        <v>1680300</v>
       </c>
       <c r="E59" s="3">
-        <v>1808700</v>
+        <v>1560700</v>
       </c>
       <c r="F59" s="3">
-        <v>632100</v>
+        <v>1819100</v>
       </c>
       <c r="G59" s="3">
-        <v>394100</v>
+        <v>635700</v>
       </c>
       <c r="H59" s="3">
-        <v>374100</v>
+        <v>396300</v>
       </c>
       <c r="I59" s="3">
-        <v>344100</v>
+        <v>376300</v>
       </c>
       <c r="J59" s="3">
+        <v>346100</v>
+      </c>
+      <c r="K59" s="3">
         <v>365600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>441900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>416400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>285100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>311000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>295600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>554500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>249700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>195000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>204500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>220700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>193400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5638200</v>
+        <v>4647400</v>
       </c>
       <c r="E60" s="3">
-        <v>4930800</v>
+        <v>5670700</v>
       </c>
       <c r="F60" s="3">
-        <v>3611700</v>
+        <v>4959200</v>
       </c>
       <c r="G60" s="3">
-        <v>2463800</v>
+        <v>3632500</v>
       </c>
       <c r="H60" s="3">
-        <v>2704400</v>
+        <v>2478000</v>
       </c>
       <c r="I60" s="3">
-        <v>2445200</v>
+        <v>2720000</v>
       </c>
       <c r="J60" s="3">
+        <v>2459300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2709000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2393000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2341200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2164500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2038200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2059700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2446100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2948000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2310000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2392700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2680100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2856100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4437600</v>
+        <v>4669000</v>
       </c>
       <c r="E61" s="3">
-        <v>5623000</v>
+        <v>4463200</v>
       </c>
       <c r="F61" s="3">
-        <v>6439400</v>
+        <v>5655400</v>
       </c>
       <c r="G61" s="3">
-        <v>6329700</v>
+        <v>6476500</v>
       </c>
       <c r="H61" s="3">
-        <v>5629400</v>
+        <v>6366200</v>
       </c>
       <c r="I61" s="3">
-        <v>4886400</v>
+        <v>5661900</v>
       </c>
       <c r="J61" s="3">
+        <v>4914600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4783300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4042600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3823500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3325200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3117600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2754000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2769200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2552800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3033500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3021400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2896600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3059300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>349500</v>
+        <v>360000</v>
       </c>
       <c r="E62" s="3">
-        <v>390200</v>
+        <v>351500</v>
       </c>
       <c r="F62" s="3">
-        <v>283500</v>
+        <v>392500</v>
       </c>
       <c r="G62" s="3">
-        <v>202600</v>
+        <v>285200</v>
       </c>
       <c r="H62" s="3">
-        <v>210400</v>
+        <v>203700</v>
       </c>
       <c r="I62" s="3">
-        <v>211700</v>
+        <v>211600</v>
       </c>
       <c r="J62" s="3">
+        <v>212900</v>
+      </c>
+      <c r="K62" s="3">
         <v>217300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>218200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>331200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>445500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>406900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>449400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>475700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>526900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>565200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>552700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>567200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>505200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11082800</v>
+        <v>9938900</v>
       </c>
       <c r="E66" s="3">
-        <v>11588900</v>
+        <v>11146800</v>
       </c>
       <c r="F66" s="3">
-        <v>10864500</v>
+        <v>11655800</v>
       </c>
       <c r="G66" s="3">
-        <v>9511000</v>
+        <v>10927200</v>
       </c>
       <c r="H66" s="3">
-        <v>9078500</v>
+        <v>9565800</v>
       </c>
       <c r="I66" s="3">
-        <v>9087400</v>
+        <v>9130900</v>
       </c>
       <c r="J66" s="3">
+        <v>9139800</v>
+      </c>
+      <c r="K66" s="3">
         <v>9276700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8270000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8180600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7596300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7161600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6881800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7353600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7685900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7452300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7483300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7692700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7983600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,19 +4169,22 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>236400</v>
+        <v>237800</v>
       </c>
       <c r="E70" s="3">
-        <v>236400</v>
+        <v>237800</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>237800</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4046,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>243500</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4058,13 +4226,16 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>241800</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4699000</v>
+        <v>5342300</v>
       </c>
       <c r="E72" s="3">
-        <v>4621100</v>
+        <v>4726100</v>
       </c>
       <c r="F72" s="3">
-        <v>4725100</v>
+        <v>4647700</v>
       </c>
       <c r="G72" s="3">
-        <v>6211000</v>
+        <v>4752400</v>
       </c>
       <c r="H72" s="3">
-        <v>6198000</v>
+        <v>6246800</v>
       </c>
       <c r="I72" s="3">
-        <v>6057300</v>
+        <v>6233800</v>
       </c>
       <c r="J72" s="3">
+        <v>6092200</v>
+      </c>
+      <c r="K72" s="3">
         <v>5972500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6138000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6177700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6134700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5772500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5853300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5513500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5891100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5797600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5763200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5689000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5562200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5787400</v>
+        <v>6411400</v>
       </c>
       <c r="E76" s="3">
-        <v>5751100</v>
+        <v>5820800</v>
       </c>
       <c r="F76" s="3">
-        <v>6087300</v>
+        <v>5784200</v>
       </c>
       <c r="G76" s="3">
-        <v>7569100</v>
+        <v>6122400</v>
       </c>
       <c r="H76" s="3">
-        <v>7532200</v>
+        <v>7612700</v>
       </c>
       <c r="I76" s="3">
-        <v>7363500</v>
+        <v>7575600</v>
       </c>
       <c r="J76" s="3">
+        <v>7406000</v>
+      </c>
+      <c r="K76" s="3">
         <v>7328300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7526500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7573900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7537400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7141200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7265600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6681200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6961500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6873200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6813900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6564800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6600600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88200</v>
+        <v>806500</v>
       </c>
       <c r="E81" s="3">
-        <v>-27600</v>
+        <v>88700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1379700</v>
+        <v>-27700</v>
       </c>
       <c r="G81" s="3">
-        <v>-2300</v>
+        <v>-1387600</v>
       </c>
       <c r="H81" s="3">
-        <v>58100</v>
+        <v>-2400</v>
       </c>
       <c r="I81" s="3">
-        <v>82300</v>
+        <v>58500</v>
       </c>
       <c r="J81" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K81" s="3">
         <v>111700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>146300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>73800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>128500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>151200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>61600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>112800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>108100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>79400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>70000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>173800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>95600</v>
+        <v>94400</v>
       </c>
       <c r="E83" s="3">
-        <v>103100</v>
+        <v>96100</v>
       </c>
       <c r="F83" s="3">
-        <v>105000</v>
+        <v>103700</v>
       </c>
       <c r="G83" s="3">
-        <v>100600</v>
+        <v>105600</v>
       </c>
       <c r="H83" s="3">
-        <v>55800</v>
+        <v>101200</v>
       </c>
       <c r="I83" s="3">
-        <v>47900</v>
+        <v>56100</v>
       </c>
       <c r="J83" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K83" s="3">
         <v>48200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>38400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>38900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>47700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>385200</v>
+        <v>-21500</v>
       </c>
       <c r="E89" s="3">
-        <v>426900</v>
+        <v>387400</v>
       </c>
       <c r="F89" s="3">
-        <v>121500</v>
+        <v>429400</v>
       </c>
       <c r="G89" s="3">
-        <v>-376500</v>
+        <v>122200</v>
       </c>
       <c r="H89" s="3">
-        <v>195600</v>
+        <v>-378700</v>
       </c>
       <c r="I89" s="3">
-        <v>107900</v>
+        <v>196700</v>
       </c>
       <c r="J89" s="3">
+        <v>108500</v>
+      </c>
+      <c r="K89" s="3">
         <v>142400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>156700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>209400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>149400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-735200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-26600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>370200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>122000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>223700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>85400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>302800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-74700</v>
+        <v>-23800</v>
       </c>
       <c r="E91" s="3">
-        <v>-27800</v>
+        <v>-75200</v>
       </c>
       <c r="F91" s="3">
-        <v>-157800</v>
+        <v>-27900</v>
       </c>
       <c r="G91" s="3">
-        <v>-33500</v>
+        <v>-158700</v>
       </c>
       <c r="H91" s="3">
-        <v>-38000</v>
+        <v>-33700</v>
       </c>
       <c r="I91" s="3">
-        <v>-50200</v>
+        <v>-38200</v>
       </c>
       <c r="J91" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-52200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-49900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-278900</v>
+        <v>488600</v>
       </c>
       <c r="E94" s="3">
-        <v>-339300</v>
+        <v>-280500</v>
       </c>
       <c r="F94" s="3">
-        <v>-448000</v>
+        <v>-341200</v>
       </c>
       <c r="G94" s="3">
-        <v>-322400</v>
+        <v>-450600</v>
       </c>
       <c r="H94" s="3">
+        <v>-324300</v>
+      </c>
+      <c r="I94" s="3">
         <v>3300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-83500</v>
-      </c>
       <c r="J94" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-448400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-448700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-957200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-287900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>80000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-82100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>647800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-330600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-31300</v>
+        <v>-75700</v>
       </c>
       <c r="E96" s="3">
-        <v>-93200</v>
+        <v>-31500</v>
       </c>
       <c r="F96" s="3">
-        <v>-106800</v>
+        <v>-93800</v>
       </c>
       <c r="G96" s="3">
-        <v>-29300</v>
+        <v>-107500</v>
       </c>
       <c r="H96" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-59000</v>
-      </c>
       <c r="J96" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-104500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-67100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-105900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-24800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-48300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-99900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-27100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-494700</v>
+        <v>-367000</v>
       </c>
       <c r="E100" s="3">
-        <v>-419700</v>
+        <v>-497500</v>
       </c>
       <c r="F100" s="3">
-        <v>714200</v>
+        <v>-422100</v>
       </c>
       <c r="G100" s="3">
-        <v>405300</v>
+        <v>718300</v>
       </c>
       <c r="H100" s="3">
-        <v>-153700</v>
+        <v>407600</v>
       </c>
       <c r="I100" s="3">
-        <v>-187500</v>
+        <v>-154600</v>
       </c>
       <c r="J100" s="3">
+        <v>-188600</v>
+      </c>
+      <c r="K100" s="3">
         <v>974300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>194400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>488300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>382900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-215700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-122300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-289900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-234600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-468700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-305800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5100</v>
+        <v>-23900</v>
       </c>
       <c r="E101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
-        <v>15400</v>
-      </c>
       <c r="G101" s="3">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="H101" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-17500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>15600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-393500</v>
+        <v>76200</v>
       </c>
       <c r="E102" s="3">
-        <v>-330300</v>
+        <v>-395800</v>
       </c>
       <c r="F102" s="3">
-        <v>403200</v>
+        <v>-332200</v>
       </c>
       <c r="G102" s="3">
-        <v>-284600</v>
+        <v>405500</v>
       </c>
       <c r="H102" s="3">
-        <v>44900</v>
+        <v>-286300</v>
       </c>
       <c r="I102" s="3">
-        <v>-166400</v>
+        <v>45200</v>
       </c>
       <c r="J102" s="3">
+        <v>-167300</v>
+      </c>
+      <c r="K102" s="3">
         <v>665800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-97600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-255500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-150000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-379200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-258500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>202800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>171400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-144400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-204600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>497500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-243500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1060400</v>
+        <v>1065600</v>
       </c>
       <c r="E8" s="3">
-        <v>1032400</v>
+        <v>1037500</v>
       </c>
       <c r="F8" s="3">
-        <v>858500</v>
+        <v>862700</v>
       </c>
       <c r="G8" s="3">
-        <v>745700</v>
+        <v>749300</v>
       </c>
       <c r="H8" s="3">
-        <v>772600</v>
+        <v>776400</v>
       </c>
       <c r="I8" s="3">
-        <v>681900</v>
+        <v>685200</v>
       </c>
       <c r="J8" s="3">
-        <v>637500</v>
+        <v>640600</v>
       </c>
       <c r="K8" s="3">
         <v>608900</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>640200</v>
+        <v>643400</v>
       </c>
       <c r="E9" s="3">
-        <v>628500</v>
+        <v>631500</v>
       </c>
       <c r="F9" s="3">
-        <v>558400</v>
+        <v>561100</v>
       </c>
       <c r="G9" s="3">
-        <v>470300</v>
+        <v>472600</v>
       </c>
       <c r="H9" s="3">
-        <v>451100</v>
+        <v>453300</v>
       </c>
       <c r="I9" s="3">
-        <v>375300</v>
+        <v>377200</v>
       </c>
       <c r="J9" s="3">
-        <v>319600</v>
+        <v>321200</v>
       </c>
       <c r="K9" s="3">
         <v>308600</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>420200</v>
+        <v>422200</v>
       </c>
       <c r="E10" s="3">
-        <v>403900</v>
+        <v>405900</v>
       </c>
       <c r="F10" s="3">
-        <v>300100</v>
+        <v>301600</v>
       </c>
       <c r="G10" s="3">
-        <v>275400</v>
+        <v>276800</v>
       </c>
       <c r="H10" s="3">
-        <v>321500</v>
+        <v>323100</v>
       </c>
       <c r="I10" s="3">
-        <v>306500</v>
+        <v>308000</v>
       </c>
       <c r="J10" s="3">
-        <v>317900</v>
+        <v>319400</v>
       </c>
       <c r="K10" s="3">
         <v>300200</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-358600</v>
+        <v>-360400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>207400</v>
+        <v>208400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>94400</v>
+        <v>94900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="E17" s="3">
-        <v>855600</v>
+        <v>859800</v>
       </c>
       <c r="F17" s="3">
-        <v>803500</v>
+        <v>807500</v>
       </c>
       <c r="G17" s="3">
-        <v>1403400</v>
+        <v>1410300</v>
       </c>
       <c r="H17" s="3">
-        <v>728200</v>
+        <v>731700</v>
       </c>
       <c r="I17" s="3">
-        <v>608100</v>
+        <v>611100</v>
       </c>
       <c r="J17" s="3">
-        <v>545500</v>
+        <v>548100</v>
       </c>
       <c r="K17" s="3">
         <v>486800</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1102500</v>
+        <v>1107900</v>
       </c>
       <c r="E18" s="3">
-        <v>176800</v>
+        <v>177700</v>
       </c>
       <c r="F18" s="3">
-        <v>55000</v>
+        <v>55300</v>
       </c>
       <c r="G18" s="3">
-        <v>-657700</v>
+        <v>-661000</v>
       </c>
       <c r="H18" s="3">
-        <v>44400</v>
+        <v>44700</v>
       </c>
       <c r="I18" s="3">
-        <v>73800</v>
+        <v>74100</v>
       </c>
       <c r="J18" s="3">
-        <v>92100</v>
+        <v>92500</v>
       </c>
       <c r="K18" s="3">
         <v>122000</v>
@@ -1387,25 +1387,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>106600</v>
+        <v>107100</v>
       </c>
       <c r="E20" s="3">
-        <v>38700</v>
+        <v>38900</v>
       </c>
       <c r="F20" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="G20" s="3">
-        <v>-573800</v>
+        <v>-576600</v>
       </c>
       <c r="H20" s="3">
-        <v>40000</v>
+        <v>40200</v>
       </c>
       <c r="I20" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
       <c r="J20" s="3">
-        <v>56200</v>
+        <v>56500</v>
       </c>
       <c r="K20" s="3">
         <v>71500</v>
@@ -1449,25 +1449,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1303400</v>
+        <v>1309800</v>
       </c>
       <c r="E21" s="3">
-        <v>311700</v>
+        <v>313200</v>
       </c>
       <c r="F21" s="3">
-        <v>182300</v>
+        <v>183100</v>
       </c>
       <c r="G21" s="3">
-        <v>-1126000</v>
+        <v>-1131500</v>
       </c>
       <c r="H21" s="3">
-        <v>185600</v>
+        <v>186600</v>
       </c>
       <c r="I21" s="3">
-        <v>168700</v>
+        <v>169500</v>
       </c>
       <c r="J21" s="3">
-        <v>196400</v>
+        <v>197400</v>
       </c>
       <c r="K21" s="3">
         <v>241700</v>
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67800</v>
+        <v>68100</v>
       </c>
       <c r="E22" s="3">
-        <v>58600</v>
+        <v>58900</v>
       </c>
       <c r="F22" s="3">
-        <v>71500</v>
+        <v>71800</v>
       </c>
       <c r="G22" s="3">
-        <v>67900</v>
+        <v>68300</v>
       </c>
       <c r="H22" s="3">
-        <v>74500</v>
+        <v>74900</v>
       </c>
       <c r="I22" s="3">
-        <v>34600</v>
+        <v>34800</v>
       </c>
       <c r="J22" s="3">
-        <v>36300</v>
+        <v>36500</v>
       </c>
       <c r="K22" s="3">
         <v>32700</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1141300</v>
+        <v>1146900</v>
       </c>
       <c r="E23" s="3">
-        <v>157000</v>
+        <v>157800</v>
       </c>
       <c r="F23" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G23" s="3">
-        <v>-1299500</v>
+        <v>-1305900</v>
       </c>
       <c r="H23" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="I23" s="3">
-        <v>78000</v>
+        <v>78300</v>
       </c>
       <c r="J23" s="3">
-        <v>112000</v>
+        <v>112500</v>
       </c>
       <c r="K23" s="3">
         <v>160800</v>
@@ -1635,25 +1635,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>311600</v>
+        <v>313200</v>
       </c>
       <c r="E24" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="F24" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="G24" s="3">
-        <v>53500</v>
+        <v>53800</v>
       </c>
       <c r="H24" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="I24" s="3">
         <v>9700</v>
       </c>
       <c r="J24" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="K24" s="3">
         <v>30000</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>829600</v>
+        <v>833700</v>
       </c>
       <c r="E26" s="3">
-        <v>114200</v>
+        <v>114700</v>
       </c>
       <c r="F26" s="3">
         <v>-13500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1353000</v>
+        <v>-1359700</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
-        <v>68300</v>
+        <v>68600</v>
       </c>
       <c r="J26" s="3">
-        <v>89500</v>
+        <v>89900</v>
       </c>
       <c r="K26" s="3">
         <v>130800</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>806500</v>
+        <v>810400</v>
       </c>
       <c r="E27" s="3">
-        <v>88700</v>
+        <v>89200</v>
       </c>
       <c r="F27" s="3">
-        <v>-27700</v>
+        <v>-27800</v>
       </c>
       <c r="G27" s="3">
-        <v>-1387600</v>
+        <v>-1394500</v>
       </c>
       <c r="H27" s="3">
         <v>-2400</v>
       </c>
       <c r="I27" s="3">
-        <v>58500</v>
+        <v>58700</v>
       </c>
       <c r="J27" s="3">
-        <v>82800</v>
+        <v>83200</v>
       </c>
       <c r="K27" s="3">
         <v>111700</v>
@@ -2131,25 +2131,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-106600</v>
+        <v>-107100</v>
       </c>
       <c r="E32" s="3">
-        <v>-38700</v>
+        <v>-38900</v>
       </c>
       <c r="F32" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="G32" s="3">
-        <v>573800</v>
+        <v>576600</v>
       </c>
       <c r="H32" s="3">
-        <v>-40000</v>
+        <v>-40200</v>
       </c>
       <c r="I32" s="3">
-        <v>-38800</v>
+        <v>-39000</v>
       </c>
       <c r="J32" s="3">
-        <v>-56200</v>
+        <v>-56500</v>
       </c>
       <c r="K32" s="3">
         <v>-71500</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>806500</v>
+        <v>810400</v>
       </c>
       <c r="E33" s="3">
-        <v>88700</v>
+        <v>89200</v>
       </c>
       <c r="F33" s="3">
-        <v>-27700</v>
+        <v>-27800</v>
       </c>
       <c r="G33" s="3">
-        <v>-1387600</v>
+        <v>-1394500</v>
       </c>
       <c r="H33" s="3">
         <v>-2400</v>
       </c>
       <c r="I33" s="3">
-        <v>58500</v>
+        <v>58700</v>
       </c>
       <c r="J33" s="3">
-        <v>82800</v>
+        <v>83200</v>
       </c>
       <c r="K33" s="3">
         <v>111700</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>806500</v>
+        <v>810400</v>
       </c>
       <c r="E35" s="3">
-        <v>88700</v>
+        <v>89200</v>
       </c>
       <c r="F35" s="3">
-        <v>-27700</v>
+        <v>-27800</v>
       </c>
       <c r="G35" s="3">
-        <v>-1387600</v>
+        <v>-1394500</v>
       </c>
       <c r="H35" s="3">
         <v>-2400</v>
       </c>
       <c r="I35" s="3">
-        <v>58500</v>
+        <v>58700</v>
       </c>
       <c r="J35" s="3">
-        <v>82800</v>
+        <v>83200</v>
       </c>
       <c r="K35" s="3">
         <v>111700</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1532900</v>
+        <v>1540400</v>
       </c>
       <c r="E41" s="3">
-        <v>1500100</v>
+        <v>1507500</v>
       </c>
       <c r="F41" s="3">
-        <v>1909300</v>
+        <v>1918700</v>
       </c>
       <c r="G41" s="3">
-        <v>2251400</v>
+        <v>2262500</v>
       </c>
       <c r="H41" s="3">
-        <v>1729400</v>
+        <v>1737900</v>
       </c>
       <c r="I41" s="3">
-        <v>2014600</v>
+        <v>2024500</v>
       </c>
       <c r="J41" s="3">
-        <v>1964800</v>
+        <v>1974500</v>
       </c>
       <c r="K41" s="3">
         <v>2121800</v>
@@ -2559,22 +2559,22 @@
         <v>19200</v>
       </c>
       <c r="E42" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="F42" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="G42" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="H42" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="I42" s="3">
-        <v>405200</v>
+        <v>407200</v>
       </c>
       <c r="J42" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="K42" s="3">
         <v>13100</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1396300</v>
+        <v>1403200</v>
       </c>
       <c r="E43" s="3">
-        <v>1523100</v>
+        <v>1530600</v>
       </c>
       <c r="F43" s="3">
-        <v>1581100</v>
+        <v>1588900</v>
       </c>
       <c r="G43" s="3">
-        <v>1574500</v>
+        <v>1582200</v>
       </c>
       <c r="H43" s="3">
-        <v>981900</v>
+        <v>986700</v>
       </c>
       <c r="I43" s="3">
-        <v>766300</v>
+        <v>770000</v>
       </c>
       <c r="J43" s="3">
-        <v>1238500</v>
+        <v>1244600</v>
       </c>
       <c r="K43" s="3">
         <v>1226000</v>
@@ -2680,25 +2680,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4302300</v>
+        <v>4323500</v>
       </c>
       <c r="E44" s="3">
-        <v>4212800</v>
+        <v>4233500</v>
       </c>
       <c r="F44" s="3">
-        <v>4407300</v>
+        <v>4429000</v>
       </c>
       <c r="G44" s="3">
-        <v>3889700</v>
+        <v>3908800</v>
       </c>
       <c r="H44" s="3">
-        <v>4046200</v>
+        <v>4066100</v>
       </c>
       <c r="I44" s="3">
-        <v>3724600</v>
+        <v>3742900</v>
       </c>
       <c r="J44" s="3">
-        <v>3913900</v>
+        <v>3933100</v>
       </c>
       <c r="K44" s="3">
         <v>3958100</v>
@@ -2742,22 +2742,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>960700</v>
+        <v>965400</v>
       </c>
       <c r="E45" s="3">
-        <v>1210800</v>
+        <v>1216700</v>
       </c>
       <c r="F45" s="3">
-        <v>932500</v>
+        <v>937100</v>
       </c>
       <c r="G45" s="3">
-        <v>55800</v>
+        <v>56100</v>
       </c>
       <c r="H45" s="3">
-        <v>136200</v>
+        <v>136800</v>
       </c>
       <c r="I45" s="3">
-        <v>171000</v>
+        <v>171900</v>
       </c>
       <c r="J45" s="3">
         <v>11900</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8211400</v>
+        <v>8251800</v>
       </c>
       <c r="E46" s="3">
-        <v>8466000</v>
+        <v>8507700</v>
       </c>
       <c r="F46" s="3">
-        <v>8857400</v>
+        <v>8900900</v>
       </c>
       <c r="G46" s="3">
-        <v>7785800</v>
+        <v>7824100</v>
       </c>
       <c r="H46" s="3">
-        <v>6908200</v>
+        <v>6942200</v>
       </c>
       <c r="I46" s="3">
-        <v>7081700</v>
+        <v>7116500</v>
       </c>
       <c r="J46" s="3">
-        <v>7144600</v>
+        <v>7179700</v>
       </c>
       <c r="K46" s="3">
         <v>7327400</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2346800</v>
+        <v>2358400</v>
       </c>
       <c r="E47" s="3">
-        <v>1878000</v>
+        <v>1887300</v>
       </c>
       <c r="F47" s="3">
-        <v>1826300</v>
+        <v>1835300</v>
       </c>
       <c r="G47" s="3">
-        <v>1821200</v>
+        <v>1830200</v>
       </c>
       <c r="H47" s="3">
-        <v>2656600</v>
+        <v>2669600</v>
       </c>
       <c r="I47" s="3">
-        <v>2027500</v>
+        <v>2037500</v>
       </c>
       <c r="J47" s="3">
-        <v>2098100</v>
+        <v>2108400</v>
       </c>
       <c r="K47" s="3">
         <v>2063200</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5963900</v>
+        <v>5993200</v>
       </c>
       <c r="E48" s="3">
-        <v>6739400</v>
+        <v>6772500</v>
       </c>
       <c r="F48" s="3">
-        <v>6847300</v>
+        <v>6881000</v>
       </c>
       <c r="G48" s="3">
-        <v>7269000</v>
+        <v>7304700</v>
       </c>
       <c r="H48" s="3">
-        <v>7113600</v>
+        <v>7148600</v>
       </c>
       <c r="I48" s="3">
-        <v>7109300</v>
+        <v>7144200</v>
       </c>
       <c r="J48" s="3">
-        <v>6816500</v>
+        <v>6850100</v>
       </c>
       <c r="K48" s="3">
         <v>6767100</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64700</v>
+        <v>65000</v>
       </c>
       <c r="E52" s="3">
-        <v>120500</v>
+        <v>121100</v>
       </c>
       <c r="F52" s="3">
-        <v>145400</v>
+        <v>146100</v>
       </c>
       <c r="G52" s="3">
-        <v>173700</v>
+        <v>174500</v>
       </c>
       <c r="H52" s="3">
-        <v>500200</v>
+        <v>502600</v>
       </c>
       <c r="I52" s="3">
-        <v>488000</v>
+        <v>490400</v>
       </c>
       <c r="J52" s="3">
-        <v>486600</v>
+        <v>488900</v>
       </c>
       <c r="K52" s="3">
         <v>447300</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16588100</v>
+        <v>16669600</v>
       </c>
       <c r="E54" s="3">
-        <v>17205400</v>
+        <v>17289900</v>
       </c>
       <c r="F54" s="3">
-        <v>17677800</v>
+        <v>17764700</v>
       </c>
       <c r="G54" s="3">
-        <v>17049700</v>
+        <v>17133500</v>
       </c>
       <c r="H54" s="3">
-        <v>17178500</v>
+        <v>17263000</v>
       </c>
       <c r="I54" s="3">
-        <v>16706500</v>
+        <v>16788600</v>
       </c>
       <c r="J54" s="3">
-        <v>16545800</v>
+        <v>16627100</v>
       </c>
       <c r="K54" s="3">
         <v>16604900</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>176300</v>
+        <v>177200</v>
       </c>
       <c r="E57" s="3">
-        <v>181100</v>
+        <v>182000</v>
       </c>
       <c r="F57" s="3">
-        <v>151300</v>
+        <v>152000</v>
       </c>
       <c r="G57" s="3">
-        <v>971200</v>
+        <v>976000</v>
       </c>
       <c r="H57" s="3">
-        <v>774700</v>
+        <v>778500</v>
       </c>
       <c r="I57" s="3">
-        <v>863300</v>
+        <v>867600</v>
       </c>
       <c r="J57" s="3">
-        <v>984400</v>
+        <v>989300</v>
       </c>
       <c r="K57" s="3">
         <v>910200</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2790800</v>
+        <v>2804500</v>
       </c>
       <c r="E58" s="3">
-        <v>3928800</v>
+        <v>3948100</v>
       </c>
       <c r="F58" s="3">
-        <v>2988800</v>
+        <v>3003500</v>
       </c>
       <c r="G58" s="3">
-        <v>2025500</v>
+        <v>2035500</v>
       </c>
       <c r="H58" s="3">
-        <v>1307000</v>
+        <v>1313400</v>
       </c>
       <c r="I58" s="3">
-        <v>1480300</v>
+        <v>1487600</v>
       </c>
       <c r="J58" s="3">
-        <v>1128800</v>
+        <v>1134400</v>
       </c>
       <c r="K58" s="3">
         <v>1433200</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1680300</v>
+        <v>1688600</v>
       </c>
       <c r="E59" s="3">
-        <v>1560700</v>
+        <v>1568400</v>
       </c>
       <c r="F59" s="3">
-        <v>1819100</v>
+        <v>1828100</v>
       </c>
       <c r="G59" s="3">
-        <v>635700</v>
+        <v>638900</v>
       </c>
       <c r="H59" s="3">
-        <v>396300</v>
+        <v>398300</v>
       </c>
       <c r="I59" s="3">
-        <v>376300</v>
+        <v>378100</v>
       </c>
       <c r="J59" s="3">
-        <v>346100</v>
+        <v>347800</v>
       </c>
       <c r="K59" s="3">
         <v>365600</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4647400</v>
+        <v>4670300</v>
       </c>
       <c r="E60" s="3">
-        <v>5670700</v>
+        <v>5698600</v>
       </c>
       <c r="F60" s="3">
-        <v>4959200</v>
+        <v>4983600</v>
       </c>
       <c r="G60" s="3">
-        <v>3632500</v>
+        <v>3650300</v>
       </c>
       <c r="H60" s="3">
-        <v>2478000</v>
+        <v>2490200</v>
       </c>
       <c r="I60" s="3">
-        <v>2720000</v>
+        <v>2733300</v>
       </c>
       <c r="J60" s="3">
-        <v>2459300</v>
+        <v>2471400</v>
       </c>
       <c r="K60" s="3">
         <v>2709000</v>
@@ -3658,25 +3658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4669000</v>
+        <v>4691900</v>
       </c>
       <c r="E61" s="3">
-        <v>4463200</v>
+        <v>4485100</v>
       </c>
       <c r="F61" s="3">
-        <v>5655400</v>
+        <v>5683200</v>
       </c>
       <c r="G61" s="3">
-        <v>6476500</v>
+        <v>6508400</v>
       </c>
       <c r="H61" s="3">
-        <v>6366200</v>
+        <v>6397500</v>
       </c>
       <c r="I61" s="3">
-        <v>5661900</v>
+        <v>5689700</v>
       </c>
       <c r="J61" s="3">
-        <v>4914600</v>
+        <v>4938700</v>
       </c>
       <c r="K61" s="3">
         <v>4783300</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>360000</v>
+        <v>361800</v>
       </c>
       <c r="E62" s="3">
-        <v>351500</v>
+        <v>353200</v>
       </c>
       <c r="F62" s="3">
-        <v>392500</v>
+        <v>394400</v>
       </c>
       <c r="G62" s="3">
-        <v>285200</v>
+        <v>286600</v>
       </c>
       <c r="H62" s="3">
-        <v>203700</v>
+        <v>204700</v>
       </c>
       <c r="I62" s="3">
-        <v>211600</v>
+        <v>212700</v>
       </c>
       <c r="J62" s="3">
-        <v>212900</v>
+        <v>213900</v>
       </c>
       <c r="K62" s="3">
         <v>217300</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9938900</v>
+        <v>9987800</v>
       </c>
       <c r="E66" s="3">
-        <v>11146800</v>
+        <v>11201600</v>
       </c>
       <c r="F66" s="3">
-        <v>11655800</v>
+        <v>11713100</v>
       </c>
       <c r="G66" s="3">
-        <v>10927200</v>
+        <v>10980900</v>
       </c>
       <c r="H66" s="3">
-        <v>9565800</v>
+        <v>9612900</v>
       </c>
       <c r="I66" s="3">
-        <v>9130900</v>
+        <v>9175800</v>
       </c>
       <c r="J66" s="3">
-        <v>9139800</v>
+        <v>9184700</v>
       </c>
       <c r="K66" s="3">
         <v>9276700</v>
@@ -4178,13 +4178,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>237800</v>
+        <v>239000</v>
       </c>
       <c r="E70" s="3">
-        <v>237800</v>
+        <v>239000</v>
       </c>
       <c r="F70" s="3">
-        <v>237800</v>
+        <v>239000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5342300</v>
+        <v>5368500</v>
       </c>
       <c r="E72" s="3">
-        <v>4726100</v>
+        <v>4749300</v>
       </c>
       <c r="F72" s="3">
-        <v>4647700</v>
+        <v>4670600</v>
       </c>
       <c r="G72" s="3">
-        <v>4752400</v>
+        <v>4775700</v>
       </c>
       <c r="H72" s="3">
-        <v>6246800</v>
+        <v>6277500</v>
       </c>
       <c r="I72" s="3">
-        <v>6233800</v>
+        <v>6264400</v>
       </c>
       <c r="J72" s="3">
-        <v>6092200</v>
+        <v>6122200</v>
       </c>
       <c r="K72" s="3">
         <v>5972500</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6411400</v>
+        <v>6442900</v>
       </c>
       <c r="E76" s="3">
-        <v>5820800</v>
+        <v>5849400</v>
       </c>
       <c r="F76" s="3">
-        <v>5784200</v>
+        <v>5812700</v>
       </c>
       <c r="G76" s="3">
-        <v>6122400</v>
+        <v>6152500</v>
       </c>
       <c r="H76" s="3">
-        <v>7612700</v>
+        <v>7650100</v>
       </c>
       <c r="I76" s="3">
-        <v>7575600</v>
+        <v>7612900</v>
       </c>
       <c r="J76" s="3">
-        <v>7406000</v>
+        <v>7442400</v>
       </c>
       <c r="K76" s="3">
         <v>7328300</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>806500</v>
+        <v>810400</v>
       </c>
       <c r="E81" s="3">
-        <v>88700</v>
+        <v>89200</v>
       </c>
       <c r="F81" s="3">
-        <v>-27700</v>
+        <v>-27800</v>
       </c>
       <c r="G81" s="3">
-        <v>-1387600</v>
+        <v>-1394500</v>
       </c>
       <c r="H81" s="3">
         <v>-2400</v>
       </c>
       <c r="I81" s="3">
-        <v>58500</v>
+        <v>58700</v>
       </c>
       <c r="J81" s="3">
-        <v>82800</v>
+        <v>83200</v>
       </c>
       <c r="K81" s="3">
         <v>111700</v>
@@ -4827,25 +4827,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>94400</v>
+        <v>94900</v>
       </c>
       <c r="E83" s="3">
-        <v>96100</v>
+        <v>96600</v>
       </c>
       <c r="F83" s="3">
-        <v>103700</v>
+        <v>104300</v>
       </c>
       <c r="G83" s="3">
-        <v>105600</v>
+        <v>106100</v>
       </c>
       <c r="H83" s="3">
-        <v>101200</v>
+        <v>101700</v>
       </c>
       <c r="I83" s="3">
-        <v>56100</v>
+        <v>56300</v>
       </c>
       <c r="J83" s="3">
-        <v>48100</v>
+        <v>48400</v>
       </c>
       <c r="K83" s="3">
         <v>48200</v>
@@ -5199,25 +5199,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21500</v>
+        <v>-21600</v>
       </c>
       <c r="E89" s="3">
-        <v>387400</v>
+        <v>389300</v>
       </c>
       <c r="F89" s="3">
-        <v>429400</v>
+        <v>431500</v>
       </c>
       <c r="G89" s="3">
-        <v>122200</v>
+        <v>122900</v>
       </c>
       <c r="H89" s="3">
-        <v>-378700</v>
+        <v>-380600</v>
       </c>
       <c r="I89" s="3">
-        <v>196700</v>
+        <v>197700</v>
       </c>
       <c r="J89" s="3">
-        <v>108500</v>
+        <v>109000</v>
       </c>
       <c r="K89" s="3">
         <v>142400</v>
@@ -5285,25 +5285,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23800</v>
+        <v>-23900</v>
       </c>
       <c r="E91" s="3">
-        <v>-75200</v>
+        <v>-75500</v>
       </c>
       <c r="F91" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="G91" s="3">
-        <v>-158700</v>
+        <v>-159500</v>
       </c>
       <c r="H91" s="3">
-        <v>-33700</v>
+        <v>-33900</v>
       </c>
       <c r="I91" s="3">
-        <v>-38200</v>
+        <v>-38400</v>
       </c>
       <c r="J91" s="3">
-        <v>-50500</v>
+        <v>-50700</v>
       </c>
       <c r="K91" s="3">
         <v>-31000</v>
@@ -5471,25 +5471,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>488600</v>
+        <v>491000</v>
       </c>
       <c r="E94" s="3">
-        <v>-280500</v>
+        <v>-281900</v>
       </c>
       <c r="F94" s="3">
-        <v>-341200</v>
+        <v>-342900</v>
       </c>
       <c r="G94" s="3">
-        <v>-450600</v>
+        <v>-452800</v>
       </c>
       <c r="H94" s="3">
-        <v>-324300</v>
+        <v>-325800</v>
       </c>
       <c r="I94" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J94" s="3">
-        <v>-84000</v>
+        <v>-84400</v>
       </c>
       <c r="K94" s="3">
         <v>-448400</v>
@@ -5557,25 +5557,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-75700</v>
+        <v>-76000</v>
       </c>
       <c r="E96" s="3">
-        <v>-31500</v>
+        <v>-31700</v>
       </c>
       <c r="F96" s="3">
-        <v>-93800</v>
+        <v>-94200</v>
       </c>
       <c r="G96" s="3">
-        <v>-107500</v>
+        <v>-108000</v>
       </c>
       <c r="H96" s="3">
-        <v>-29500</v>
+        <v>-29700</v>
       </c>
       <c r="I96" s="3">
         <v>-5100</v>
       </c>
       <c r="J96" s="3">
-        <v>-59300</v>
+        <v>-59600</v>
       </c>
       <c r="K96" s="3">
         <v>-104500</v>
@@ -5805,25 +5805,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-367000</v>
+        <v>-368800</v>
       </c>
       <c r="E100" s="3">
-        <v>-497500</v>
+        <v>-500000</v>
       </c>
       <c r="F100" s="3">
-        <v>-422100</v>
+        <v>-424200</v>
       </c>
       <c r="G100" s="3">
-        <v>718300</v>
+        <v>721900</v>
       </c>
       <c r="H100" s="3">
-        <v>407600</v>
+        <v>409600</v>
       </c>
       <c r="I100" s="3">
-        <v>-154600</v>
+        <v>-155300</v>
       </c>
       <c r="J100" s="3">
-        <v>-188600</v>
+        <v>-189600</v>
       </c>
       <c r="K100" s="3">
         <v>974300</v>
@@ -5867,7 +5867,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23900</v>
+        <v>-24100</v>
       </c>
       <c r="E101" s="3">
         <v>-5200</v>
@@ -5876,7 +5876,7 @@
         <v>1800</v>
       </c>
       <c r="G101" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="H101" s="3">
         <v>9100</v>
@@ -5929,25 +5929,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>76200</v>
+        <v>76600</v>
       </c>
       <c r="E102" s="3">
-        <v>-395800</v>
+        <v>-397800</v>
       </c>
       <c r="F102" s="3">
-        <v>-332200</v>
+        <v>-333800</v>
       </c>
       <c r="G102" s="3">
-        <v>405500</v>
+        <v>407500</v>
       </c>
       <c r="H102" s="3">
-        <v>-286300</v>
+        <v>-287700</v>
       </c>
       <c r="I102" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="J102" s="3">
-        <v>-167300</v>
+        <v>-168200</v>
       </c>
       <c r="K102" s="3">
         <v>665800</v>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1065600</v>
+        <v>1088400</v>
       </c>
       <c r="E8" s="3">
-        <v>1037500</v>
+        <v>1059600</v>
       </c>
       <c r="F8" s="3">
-        <v>862700</v>
+        <v>881200</v>
       </c>
       <c r="G8" s="3">
-        <v>749300</v>
+        <v>765300</v>
       </c>
       <c r="H8" s="3">
-        <v>776400</v>
+        <v>793000</v>
       </c>
       <c r="I8" s="3">
-        <v>685200</v>
+        <v>699900</v>
       </c>
       <c r="J8" s="3">
-        <v>640600</v>
+        <v>654300</v>
       </c>
       <c r="K8" s="3">
         <v>608900</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>643400</v>
+        <v>657100</v>
       </c>
       <c r="E9" s="3">
-        <v>631500</v>
+        <v>645000</v>
       </c>
       <c r="F9" s="3">
-        <v>561100</v>
+        <v>573100</v>
       </c>
       <c r="G9" s="3">
-        <v>472600</v>
+        <v>482700</v>
       </c>
       <c r="H9" s="3">
-        <v>453300</v>
+        <v>463000</v>
       </c>
       <c r="I9" s="3">
-        <v>377200</v>
+        <v>385200</v>
       </c>
       <c r="J9" s="3">
-        <v>321200</v>
+        <v>328100</v>
       </c>
       <c r="K9" s="3">
         <v>308600</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>422200</v>
+        <v>431300</v>
       </c>
       <c r="E10" s="3">
-        <v>405900</v>
+        <v>414600</v>
       </c>
       <c r="F10" s="3">
-        <v>301600</v>
+        <v>308100</v>
       </c>
       <c r="G10" s="3">
-        <v>276800</v>
+        <v>282700</v>
       </c>
       <c r="H10" s="3">
-        <v>323100</v>
+        <v>330000</v>
       </c>
       <c r="I10" s="3">
-        <v>308000</v>
+        <v>314600</v>
       </c>
       <c r="J10" s="3">
-        <v>319400</v>
+        <v>326200</v>
       </c>
       <c r="K10" s="3">
         <v>300200</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-360400</v>
+        <v>-368100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>208400</v>
+        <v>212900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>94900</v>
+        <v>96900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-42300</v>
+        <v>-38100</v>
       </c>
       <c r="E17" s="3">
-        <v>859800</v>
+        <v>887700</v>
       </c>
       <c r="F17" s="3">
-        <v>807500</v>
+        <v>824700</v>
       </c>
       <c r="G17" s="3">
-        <v>1410300</v>
+        <v>1440400</v>
       </c>
       <c r="H17" s="3">
-        <v>731700</v>
+        <v>747400</v>
       </c>
       <c r="I17" s="3">
-        <v>611100</v>
+        <v>624100</v>
       </c>
       <c r="J17" s="3">
-        <v>548100</v>
+        <v>559800</v>
       </c>
       <c r="K17" s="3">
         <v>486800</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1107900</v>
+        <v>1126500</v>
       </c>
       <c r="E18" s="3">
-        <v>177700</v>
+        <v>171900</v>
       </c>
       <c r="F18" s="3">
-        <v>55300</v>
+        <v>56400</v>
       </c>
       <c r="G18" s="3">
-        <v>-661000</v>
+        <v>-675100</v>
       </c>
       <c r="H18" s="3">
-        <v>44700</v>
+        <v>45600</v>
       </c>
       <c r="I18" s="3">
-        <v>74100</v>
+        <v>75700</v>
       </c>
       <c r="J18" s="3">
-        <v>92500</v>
+        <v>94500</v>
       </c>
       <c r="K18" s="3">
         <v>122000</v>
@@ -1387,25 +1387,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>107100</v>
+        <v>109400</v>
       </c>
       <c r="E20" s="3">
-        <v>38900</v>
+        <v>39800</v>
       </c>
       <c r="F20" s="3">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="G20" s="3">
-        <v>-576600</v>
+        <v>-589000</v>
       </c>
       <c r="H20" s="3">
-        <v>40200</v>
+        <v>41100</v>
       </c>
       <c r="I20" s="3">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="J20" s="3">
-        <v>56500</v>
+        <v>57700</v>
       </c>
       <c r="K20" s="3">
         <v>71500</v>
@@ -1449,25 +1449,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1309800</v>
+        <v>1332800</v>
       </c>
       <c r="E21" s="3">
-        <v>313200</v>
+        <v>310300</v>
       </c>
       <c r="F21" s="3">
-        <v>183100</v>
+        <v>187100</v>
       </c>
       <c r="G21" s="3">
-        <v>-1131500</v>
+        <v>-1155700</v>
       </c>
       <c r="H21" s="3">
-        <v>186600</v>
+        <v>190500</v>
       </c>
       <c r="I21" s="3">
-        <v>169500</v>
+        <v>173100</v>
       </c>
       <c r="J21" s="3">
-        <v>197400</v>
+        <v>201600</v>
       </c>
       <c r="K21" s="3">
         <v>241700</v>
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>68100</v>
+        <v>69600</v>
       </c>
       <c r="E22" s="3">
-        <v>58900</v>
+        <v>60100</v>
       </c>
       <c r="F22" s="3">
-        <v>71800</v>
+        <v>73400</v>
       </c>
       <c r="G22" s="3">
-        <v>68300</v>
+        <v>69700</v>
       </c>
       <c r="H22" s="3">
-        <v>74900</v>
+        <v>76500</v>
       </c>
       <c r="I22" s="3">
-        <v>34800</v>
+        <v>35500</v>
       </c>
       <c r="J22" s="3">
-        <v>36500</v>
+        <v>37200</v>
       </c>
       <c r="K22" s="3">
         <v>32700</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1146900</v>
+        <v>1166300</v>
       </c>
       <c r="E23" s="3">
-        <v>157800</v>
+        <v>151600</v>
       </c>
       <c r="F23" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1305900</v>
+        <v>-1333800</v>
       </c>
       <c r="H23" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="I23" s="3">
-        <v>78300</v>
+        <v>80000</v>
       </c>
       <c r="J23" s="3">
-        <v>112500</v>
+        <v>114900</v>
       </c>
       <c r="K23" s="3">
         <v>160800</v>
@@ -1635,25 +1635,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>313200</v>
+        <v>319800</v>
       </c>
       <c r="E24" s="3">
-        <v>43000</v>
+        <v>43900</v>
       </c>
       <c r="F24" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="G24" s="3">
-        <v>53800</v>
+        <v>54900</v>
       </c>
       <c r="H24" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="I24" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J24" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="K24" s="3">
         <v>30000</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>833700</v>
+        <v>846500</v>
       </c>
       <c r="E26" s="3">
-        <v>114700</v>
+        <v>107600</v>
       </c>
       <c r="F26" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1359700</v>
+        <v>-1388700</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
-        <v>68600</v>
+        <v>70100</v>
       </c>
       <c r="J26" s="3">
-        <v>89900</v>
+        <v>91900</v>
       </c>
       <c r="K26" s="3">
         <v>130800</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>810400</v>
+        <v>822700</v>
       </c>
       <c r="E27" s="3">
-        <v>89200</v>
+        <v>81500</v>
       </c>
       <c r="F27" s="3">
-        <v>-27800</v>
+        <v>-28400</v>
       </c>
       <c r="G27" s="3">
-        <v>-1394500</v>
+        <v>-1424300</v>
       </c>
       <c r="H27" s="3">
         <v>-2400</v>
       </c>
       <c r="I27" s="3">
-        <v>58700</v>
+        <v>60000</v>
       </c>
       <c r="J27" s="3">
-        <v>83200</v>
+        <v>85000</v>
       </c>
       <c r="K27" s="3">
         <v>111700</v>
@@ -2131,25 +2131,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-107100</v>
+        <v>-109400</v>
       </c>
       <c r="E32" s="3">
-        <v>-38900</v>
+        <v>-39800</v>
       </c>
       <c r="F32" s="3">
-        <v>-23600</v>
+        <v>-24100</v>
       </c>
       <c r="G32" s="3">
-        <v>576600</v>
+        <v>589000</v>
       </c>
       <c r="H32" s="3">
-        <v>-40200</v>
+        <v>-41100</v>
       </c>
       <c r="I32" s="3">
-        <v>-39000</v>
+        <v>-39800</v>
       </c>
       <c r="J32" s="3">
-        <v>-56500</v>
+        <v>-57700</v>
       </c>
       <c r="K32" s="3">
         <v>-71500</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>810400</v>
+        <v>822700</v>
       </c>
       <c r="E33" s="3">
-        <v>89200</v>
+        <v>81500</v>
       </c>
       <c r="F33" s="3">
-        <v>-27800</v>
+        <v>-28400</v>
       </c>
       <c r="G33" s="3">
-        <v>-1394500</v>
+        <v>-1424300</v>
       </c>
       <c r="H33" s="3">
         <v>-2400</v>
       </c>
       <c r="I33" s="3">
-        <v>58700</v>
+        <v>60000</v>
       </c>
       <c r="J33" s="3">
-        <v>83200</v>
+        <v>85000</v>
       </c>
       <c r="K33" s="3">
         <v>111700</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>810400</v>
+        <v>822700</v>
       </c>
       <c r="E35" s="3">
-        <v>89200</v>
+        <v>81500</v>
       </c>
       <c r="F35" s="3">
-        <v>-27800</v>
+        <v>-28400</v>
       </c>
       <c r="G35" s="3">
-        <v>-1394500</v>
+        <v>-1424300</v>
       </c>
       <c r="H35" s="3">
         <v>-2400</v>
       </c>
       <c r="I35" s="3">
-        <v>58700</v>
+        <v>60000</v>
       </c>
       <c r="J35" s="3">
-        <v>83200</v>
+        <v>85000</v>
       </c>
       <c r="K35" s="3">
         <v>111700</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1540400</v>
+        <v>1573400</v>
       </c>
       <c r="E41" s="3">
-        <v>1507500</v>
+        <v>1552600</v>
       </c>
       <c r="F41" s="3">
-        <v>1918700</v>
+        <v>1959600</v>
       </c>
       <c r="G41" s="3">
-        <v>2262500</v>
+        <v>2310800</v>
       </c>
       <c r="H41" s="3">
-        <v>1737900</v>
+        <v>1775100</v>
       </c>
       <c r="I41" s="3">
-        <v>2024500</v>
+        <v>2067700</v>
       </c>
       <c r="J41" s="3">
-        <v>1974500</v>
+        <v>2016700</v>
       </c>
       <c r="K41" s="3">
         <v>2121800</v>
@@ -2556,25 +2556,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="E42" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="F42" s="3">
-        <v>27200</v>
+        <v>27800</v>
       </c>
       <c r="G42" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="H42" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="I42" s="3">
-        <v>407200</v>
+        <v>415900</v>
       </c>
       <c r="J42" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="K42" s="3">
         <v>13100</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1403200</v>
+        <v>1433200</v>
       </c>
       <c r="E43" s="3">
-        <v>1530600</v>
+        <v>2978200</v>
       </c>
       <c r="F43" s="3">
-        <v>1588900</v>
+        <v>1622900</v>
       </c>
       <c r="G43" s="3">
-        <v>1582200</v>
+        <v>1616000</v>
       </c>
       <c r="H43" s="3">
-        <v>986700</v>
+        <v>1007800</v>
       </c>
       <c r="I43" s="3">
-        <v>770000</v>
+        <v>786500</v>
       </c>
       <c r="J43" s="3">
-        <v>1244600</v>
+        <v>1271200</v>
       </c>
       <c r="K43" s="3">
         <v>1226000</v>
@@ -2680,25 +2680,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4323500</v>
+        <v>4415800</v>
       </c>
       <c r="E44" s="3">
-        <v>4233500</v>
+        <v>4323900</v>
       </c>
       <c r="F44" s="3">
-        <v>4429000</v>
+        <v>4523600</v>
       </c>
       <c r="G44" s="3">
-        <v>3908800</v>
+        <v>3992300</v>
       </c>
       <c r="H44" s="3">
-        <v>4066100</v>
+        <v>4153000</v>
       </c>
       <c r="I44" s="3">
-        <v>3742900</v>
+        <v>3822800</v>
       </c>
       <c r="J44" s="3">
-        <v>3933100</v>
+        <v>4017100</v>
       </c>
       <c r="K44" s="3">
         <v>3958100</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>965400</v>
+        <v>986000</v>
       </c>
       <c r="E45" s="3">
-        <v>1216700</v>
+        <v>461500</v>
       </c>
       <c r="F45" s="3">
-        <v>937100</v>
+        <v>957200</v>
       </c>
       <c r="G45" s="3">
-        <v>56100</v>
+        <v>57300</v>
       </c>
       <c r="H45" s="3">
-        <v>136800</v>
+        <v>139800</v>
       </c>
       <c r="I45" s="3">
-        <v>171900</v>
+        <v>175600</v>
       </c>
       <c r="J45" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="K45" s="3">
         <v>8400</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8251800</v>
+        <v>8428100</v>
       </c>
       <c r="E46" s="3">
-        <v>8507700</v>
+        <v>7951500</v>
       </c>
       <c r="F46" s="3">
-        <v>8900900</v>
+        <v>9091100</v>
       </c>
       <c r="G46" s="3">
-        <v>7824100</v>
+        <v>7991200</v>
       </c>
       <c r="H46" s="3">
-        <v>6942200</v>
+        <v>7090500</v>
       </c>
       <c r="I46" s="3">
-        <v>7116500</v>
+        <v>7268500</v>
       </c>
       <c r="J46" s="3">
-        <v>7179700</v>
+        <v>7333100</v>
       </c>
       <c r="K46" s="3">
         <v>7327400</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2358400</v>
+        <v>2408800</v>
       </c>
       <c r="E47" s="3">
-        <v>1887300</v>
+        <v>1927600</v>
       </c>
       <c r="F47" s="3">
-        <v>1835300</v>
+        <v>1874500</v>
       </c>
       <c r="G47" s="3">
-        <v>1830200</v>
+        <v>1869300</v>
       </c>
       <c r="H47" s="3">
-        <v>2669600</v>
+        <v>2726700</v>
       </c>
       <c r="I47" s="3">
-        <v>2037500</v>
+        <v>2081000</v>
       </c>
       <c r="J47" s="3">
-        <v>2108400</v>
+        <v>2153500</v>
       </c>
       <c r="K47" s="3">
         <v>2063200</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5993200</v>
+        <v>6121200</v>
       </c>
       <c r="E48" s="3">
-        <v>6772500</v>
+        <v>10600100</v>
       </c>
       <c r="F48" s="3">
-        <v>6881000</v>
+        <v>7028000</v>
       </c>
       <c r="G48" s="3">
-        <v>7304700</v>
+        <v>7460800</v>
       </c>
       <c r="H48" s="3">
-        <v>7148600</v>
+        <v>7301300</v>
       </c>
       <c r="I48" s="3">
-        <v>7144200</v>
+        <v>7296900</v>
       </c>
       <c r="J48" s="3">
-        <v>6850100</v>
+        <v>6996400</v>
       </c>
       <c r="K48" s="3">
         <v>6767100</v>
@@ -2996,7 +2996,7 @@
         <v>1400</v>
       </c>
       <c r="F49" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65000</v>
+        <v>66400</v>
       </c>
       <c r="E52" s="3">
-        <v>121100</v>
+        <v>258600</v>
       </c>
       <c r="F52" s="3">
-        <v>146100</v>
+        <v>149200</v>
       </c>
       <c r="G52" s="3">
-        <v>174500</v>
+        <v>178300</v>
       </c>
       <c r="H52" s="3">
-        <v>502600</v>
+        <v>513400</v>
       </c>
       <c r="I52" s="3">
-        <v>490400</v>
+        <v>500900</v>
       </c>
       <c r="J52" s="3">
-        <v>488900</v>
+        <v>499400</v>
       </c>
       <c r="K52" s="3">
         <v>447300</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16669600</v>
+        <v>17025700</v>
       </c>
       <c r="E54" s="3">
-        <v>17289900</v>
+        <v>17649900</v>
       </c>
       <c r="F54" s="3">
-        <v>17764700</v>
+        <v>18144200</v>
       </c>
       <c r="G54" s="3">
-        <v>17133500</v>
+        <v>17499500</v>
       </c>
       <c r="H54" s="3">
-        <v>17263000</v>
+        <v>17631800</v>
       </c>
       <c r="I54" s="3">
-        <v>16788600</v>
+        <v>17147300</v>
       </c>
       <c r="J54" s="3">
-        <v>16627100</v>
+        <v>16982400</v>
       </c>
       <c r="K54" s="3">
         <v>16604900</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>177200</v>
+        <v>181000</v>
       </c>
       <c r="E57" s="3">
-        <v>182000</v>
+        <v>1272000</v>
       </c>
       <c r="F57" s="3">
-        <v>152000</v>
+        <v>155300</v>
       </c>
       <c r="G57" s="3">
-        <v>976000</v>
+        <v>996900</v>
       </c>
       <c r="H57" s="3">
-        <v>778500</v>
+        <v>795100</v>
       </c>
       <c r="I57" s="3">
-        <v>867600</v>
+        <v>886100</v>
       </c>
       <c r="J57" s="3">
-        <v>989300</v>
+        <v>1010400</v>
       </c>
       <c r="K57" s="3">
         <v>910200</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2804500</v>
+        <v>2864400</v>
       </c>
       <c r="E58" s="3">
-        <v>3948100</v>
+        <v>4032500</v>
       </c>
       <c r="F58" s="3">
-        <v>3003500</v>
+        <v>3067600</v>
       </c>
       <c r="G58" s="3">
-        <v>2035500</v>
+        <v>2078900</v>
       </c>
       <c r="H58" s="3">
-        <v>1313400</v>
+        <v>1341500</v>
       </c>
       <c r="I58" s="3">
-        <v>1487600</v>
+        <v>1519400</v>
       </c>
       <c r="J58" s="3">
-        <v>1134400</v>
+        <v>1158600</v>
       </c>
       <c r="K58" s="3">
         <v>1433200</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1688600</v>
+        <v>1724600</v>
       </c>
       <c r="E59" s="3">
-        <v>1568400</v>
+        <v>1607000</v>
       </c>
       <c r="F59" s="3">
-        <v>1828100</v>
+        <v>1867100</v>
       </c>
       <c r="G59" s="3">
-        <v>638900</v>
+        <v>652500</v>
       </c>
       <c r="H59" s="3">
-        <v>398300</v>
+        <v>406800</v>
       </c>
       <c r="I59" s="3">
-        <v>378100</v>
+        <v>386200</v>
       </c>
       <c r="J59" s="3">
-        <v>347800</v>
+        <v>355200</v>
       </c>
       <c r="K59" s="3">
         <v>365600</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4670300</v>
+        <v>4770100</v>
       </c>
       <c r="E60" s="3">
-        <v>5698600</v>
+        <v>5837600</v>
       </c>
       <c r="F60" s="3">
-        <v>4983600</v>
+        <v>5090000</v>
       </c>
       <c r="G60" s="3">
-        <v>3650300</v>
+        <v>3728300</v>
       </c>
       <c r="H60" s="3">
-        <v>2490200</v>
+        <v>2543400</v>
       </c>
       <c r="I60" s="3">
-        <v>2733300</v>
+        <v>2791700</v>
       </c>
       <c r="J60" s="3">
-        <v>2471400</v>
+        <v>2524200</v>
       </c>
       <c r="K60" s="3">
         <v>2709000</v>
@@ -3658,25 +3658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4691900</v>
+        <v>4792100</v>
       </c>
       <c r="E61" s="3">
-        <v>4485100</v>
+        <v>4581000</v>
       </c>
       <c r="F61" s="3">
-        <v>5683200</v>
+        <v>5804600</v>
       </c>
       <c r="G61" s="3">
-        <v>6508400</v>
+        <v>6647400</v>
       </c>
       <c r="H61" s="3">
-        <v>6397500</v>
+        <v>6534200</v>
       </c>
       <c r="I61" s="3">
-        <v>5689700</v>
+        <v>5811200</v>
       </c>
       <c r="J61" s="3">
-        <v>4938700</v>
+        <v>5044200</v>
       </c>
       <c r="K61" s="3">
         <v>4783300</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>361800</v>
+        <v>369500</v>
       </c>
       <c r="E62" s="3">
-        <v>353200</v>
+        <v>524700</v>
       </c>
       <c r="F62" s="3">
-        <v>394400</v>
+        <v>402800</v>
       </c>
       <c r="G62" s="3">
-        <v>286600</v>
+        <v>292700</v>
       </c>
       <c r="H62" s="3">
-        <v>204700</v>
+        <v>209100</v>
       </c>
       <c r="I62" s="3">
-        <v>212700</v>
+        <v>217200</v>
       </c>
       <c r="J62" s="3">
-        <v>213900</v>
+        <v>218500</v>
       </c>
       <c r="K62" s="3">
         <v>217300</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9987800</v>
+        <v>10201100</v>
       </c>
       <c r="E66" s="3">
-        <v>11201600</v>
+        <v>11440900</v>
       </c>
       <c r="F66" s="3">
-        <v>11713100</v>
+        <v>11963300</v>
       </c>
       <c r="G66" s="3">
-        <v>10980900</v>
+        <v>11215500</v>
       </c>
       <c r="H66" s="3">
-        <v>9612900</v>
+        <v>9818200</v>
       </c>
       <c r="I66" s="3">
-        <v>9175800</v>
+        <v>9371800</v>
       </c>
       <c r="J66" s="3">
-        <v>9184700</v>
+        <v>9380900</v>
       </c>
       <c r="K66" s="3">
         <v>9276700</v>
@@ -4178,13 +4178,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>239000</v>
+        <v>244100</v>
       </c>
       <c r="E70" s="3">
-        <v>239000</v>
+        <v>244100</v>
       </c>
       <c r="F70" s="3">
-        <v>239000</v>
+        <v>244100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5368500</v>
+        <v>5483200</v>
       </c>
       <c r="E72" s="3">
-        <v>4749300</v>
+        <v>9588000</v>
       </c>
       <c r="F72" s="3">
-        <v>4670600</v>
+        <v>4770400</v>
       </c>
       <c r="G72" s="3">
-        <v>4775700</v>
+        <v>4877700</v>
       </c>
       <c r="H72" s="3">
-        <v>6277500</v>
+        <v>6411700</v>
       </c>
       <c r="I72" s="3">
-        <v>6264400</v>
+        <v>6398200</v>
       </c>
       <c r="J72" s="3">
-        <v>6122200</v>
+        <v>6252900</v>
       </c>
       <c r="K72" s="3">
         <v>5972500</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6442900</v>
+        <v>6580500</v>
       </c>
       <c r="E76" s="3">
-        <v>5849400</v>
+        <v>5965000</v>
       </c>
       <c r="F76" s="3">
-        <v>5812700</v>
+        <v>5936900</v>
       </c>
       <c r="G76" s="3">
-        <v>6152500</v>
+        <v>6284000</v>
       </c>
       <c r="H76" s="3">
-        <v>7650100</v>
+        <v>7813600</v>
       </c>
       <c r="I76" s="3">
-        <v>7612900</v>
+        <v>7775500</v>
       </c>
       <c r="J76" s="3">
-        <v>7442400</v>
+        <v>7601400</v>
       </c>
       <c r="K76" s="3">
         <v>7328300</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>810400</v>
+        <v>822700</v>
       </c>
       <c r="E81" s="3">
-        <v>89200</v>
+        <v>81500</v>
       </c>
       <c r="F81" s="3">
-        <v>-27800</v>
+        <v>-28400</v>
       </c>
       <c r="G81" s="3">
-        <v>-1394500</v>
+        <v>-1424300</v>
       </c>
       <c r="H81" s="3">
         <v>-2400</v>
       </c>
       <c r="I81" s="3">
-        <v>58700</v>
+        <v>60000</v>
       </c>
       <c r="J81" s="3">
-        <v>83200</v>
+        <v>85000</v>
       </c>
       <c r="K81" s="3">
         <v>111700</v>
@@ -4827,25 +4827,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>94900</v>
+        <v>96900</v>
       </c>
       <c r="E83" s="3">
-        <v>96600</v>
+        <v>98700</v>
       </c>
       <c r="F83" s="3">
-        <v>104300</v>
+        <v>106500</v>
       </c>
       <c r="G83" s="3">
-        <v>106100</v>
+        <v>108300</v>
       </c>
       <c r="H83" s="3">
-        <v>101700</v>
+        <v>103900</v>
       </c>
       <c r="I83" s="3">
-        <v>56300</v>
+        <v>57600</v>
       </c>
       <c r="J83" s="3">
-        <v>48400</v>
+        <v>49400</v>
       </c>
       <c r="K83" s="3">
         <v>48200</v>
@@ -5199,25 +5199,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21600</v>
+        <v>-22000</v>
       </c>
       <c r="E89" s="3">
-        <v>389300</v>
+        <v>397600</v>
       </c>
       <c r="F89" s="3">
-        <v>431500</v>
+        <v>440700</v>
       </c>
       <c r="G89" s="3">
-        <v>122900</v>
+        <v>125500</v>
       </c>
       <c r="H89" s="3">
-        <v>-380600</v>
+        <v>-388700</v>
       </c>
       <c r="I89" s="3">
-        <v>197700</v>
+        <v>201900</v>
       </c>
       <c r="J89" s="3">
-        <v>109000</v>
+        <v>111400</v>
       </c>
       <c r="K89" s="3">
         <v>142400</v>
@@ -5285,25 +5285,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23900</v>
+        <v>-24400</v>
       </c>
       <c r="E91" s="3">
-        <v>-75500</v>
+        <v>-77100</v>
       </c>
       <c r="F91" s="3">
-        <v>-28100</v>
+        <v>-28700</v>
       </c>
       <c r="G91" s="3">
-        <v>-159500</v>
+        <v>-162900</v>
       </c>
       <c r="H91" s="3">
-        <v>-33900</v>
+        <v>-34600</v>
       </c>
       <c r="I91" s="3">
-        <v>-38400</v>
+        <v>-39200</v>
       </c>
       <c r="J91" s="3">
-        <v>-50700</v>
+        <v>-51800</v>
       </c>
       <c r="K91" s="3">
         <v>-31000</v>
@@ -5471,25 +5471,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>491000</v>
+        <v>501500</v>
       </c>
       <c r="E94" s="3">
-        <v>-281900</v>
+        <v>-287900</v>
       </c>
       <c r="F94" s="3">
-        <v>-342900</v>
+        <v>-350200</v>
       </c>
       <c r="G94" s="3">
-        <v>-452800</v>
+        <v>-462500</v>
       </c>
       <c r="H94" s="3">
-        <v>-325800</v>
+        <v>-332800</v>
       </c>
       <c r="I94" s="3">
         <v>3400</v>
       </c>
       <c r="J94" s="3">
-        <v>-84400</v>
+        <v>-86200</v>
       </c>
       <c r="K94" s="3">
         <v>-448400</v>
@@ -5557,25 +5557,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-76000</v>
+        <v>-77700</v>
       </c>
       <c r="E96" s="3">
-        <v>-31700</v>
+        <v>-32300</v>
       </c>
       <c r="F96" s="3">
-        <v>-94200</v>
+        <v>-96200</v>
       </c>
       <c r="G96" s="3">
-        <v>-108000</v>
+        <v>-110300</v>
       </c>
       <c r="H96" s="3">
-        <v>-29700</v>
+        <v>-30300</v>
       </c>
       <c r="I96" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="J96" s="3">
-        <v>-59600</v>
+        <v>-60900</v>
       </c>
       <c r="K96" s="3">
         <v>-104500</v>
@@ -5805,25 +5805,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-368800</v>
+        <v>-376700</v>
       </c>
       <c r="E100" s="3">
-        <v>-500000</v>
+        <v>-510700</v>
       </c>
       <c r="F100" s="3">
-        <v>-424200</v>
+        <v>-433200</v>
       </c>
       <c r="G100" s="3">
-        <v>721900</v>
+        <v>737300</v>
       </c>
       <c r="H100" s="3">
-        <v>409600</v>
+        <v>418400</v>
       </c>
       <c r="I100" s="3">
-        <v>-155300</v>
+        <v>-158700</v>
       </c>
       <c r="J100" s="3">
-        <v>-189600</v>
+        <v>-193600</v>
       </c>
       <c r="K100" s="3">
         <v>974300</v>
@@ -5867,25 +5867,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24100</v>
+        <v>-24600</v>
       </c>
       <c r="E101" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F101" s="3">
         <v>1800</v>
       </c>
       <c r="G101" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="H101" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
       </c>
       <c r="J101" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K101" s="3">
         <v>-2400</v>
@@ -5929,25 +5929,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>76600</v>
+        <v>78200</v>
       </c>
       <c r="E102" s="3">
-        <v>-397800</v>
+        <v>-406300</v>
       </c>
       <c r="F102" s="3">
-        <v>-333800</v>
+        <v>-341000</v>
       </c>
       <c r="G102" s="3">
-        <v>407500</v>
+        <v>416200</v>
       </c>
       <c r="H102" s="3">
-        <v>-287700</v>
+        <v>-293800</v>
       </c>
       <c r="I102" s="3">
-        <v>45400</v>
+        <v>46400</v>
       </c>
       <c r="J102" s="3">
-        <v>-168200</v>
+        <v>-171800</v>
       </c>
       <c r="K102" s="3">
         <v>665800</v>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1088400</v>
+        <v>1092900</v>
       </c>
       <c r="E8" s="3">
-        <v>1059600</v>
+        <v>1064000</v>
       </c>
       <c r="F8" s="3">
-        <v>881200</v>
+        <v>884800</v>
       </c>
       <c r="G8" s="3">
-        <v>765300</v>
+        <v>768500</v>
       </c>
       <c r="H8" s="3">
-        <v>793000</v>
+        <v>796300</v>
       </c>
       <c r="I8" s="3">
-        <v>699900</v>
+        <v>702800</v>
       </c>
       <c r="J8" s="3">
-        <v>654300</v>
+        <v>657000</v>
       </c>
       <c r="K8" s="3">
         <v>608900</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>657100</v>
+        <v>659900</v>
       </c>
       <c r="E9" s="3">
-        <v>645000</v>
+        <v>647700</v>
       </c>
       <c r="F9" s="3">
-        <v>573100</v>
+        <v>575500</v>
       </c>
       <c r="G9" s="3">
-        <v>482700</v>
+        <v>484700</v>
       </c>
       <c r="H9" s="3">
-        <v>463000</v>
+        <v>464900</v>
       </c>
       <c r="I9" s="3">
-        <v>385200</v>
+        <v>386800</v>
       </c>
       <c r="J9" s="3">
-        <v>328100</v>
+        <v>329400</v>
       </c>
       <c r="K9" s="3">
         <v>308600</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>431300</v>
+        <v>433100</v>
       </c>
       <c r="E10" s="3">
-        <v>414600</v>
+        <v>416300</v>
       </c>
       <c r="F10" s="3">
-        <v>308100</v>
+        <v>309300</v>
       </c>
       <c r="G10" s="3">
-        <v>282700</v>
+        <v>283800</v>
       </c>
       <c r="H10" s="3">
-        <v>330000</v>
+        <v>331300</v>
       </c>
       <c r="I10" s="3">
-        <v>314600</v>
+        <v>315900</v>
       </c>
       <c r="J10" s="3">
-        <v>326200</v>
+        <v>327600</v>
       </c>
       <c r="K10" s="3">
         <v>300200</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-368100</v>
+        <v>-369600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>212900</v>
+        <v>213700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>96900</v>
+        <v>97300</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-38100</v>
+        <v>-38200</v>
       </c>
       <c r="E17" s="3">
-        <v>887700</v>
+        <v>891400</v>
       </c>
       <c r="F17" s="3">
-        <v>824700</v>
+        <v>828100</v>
       </c>
       <c r="G17" s="3">
-        <v>1440400</v>
+        <v>1446400</v>
       </c>
       <c r="H17" s="3">
-        <v>747400</v>
+        <v>750500</v>
       </c>
       <c r="I17" s="3">
-        <v>624100</v>
+        <v>626700</v>
       </c>
       <c r="J17" s="3">
-        <v>559800</v>
+        <v>562200</v>
       </c>
       <c r="K17" s="3">
         <v>486800</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1126500</v>
+        <v>1131200</v>
       </c>
       <c r="E18" s="3">
-        <v>171900</v>
+        <v>172600</v>
       </c>
       <c r="F18" s="3">
-        <v>56400</v>
+        <v>56700</v>
       </c>
       <c r="G18" s="3">
-        <v>-675100</v>
+        <v>-677900</v>
       </c>
       <c r="H18" s="3">
-        <v>45600</v>
+        <v>45800</v>
       </c>
       <c r="I18" s="3">
-        <v>75700</v>
+        <v>76000</v>
       </c>
       <c r="J18" s="3">
-        <v>94500</v>
+        <v>94900</v>
       </c>
       <c r="K18" s="3">
         <v>122000</v>
@@ -1387,25 +1387,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>109400</v>
+        <v>109800</v>
       </c>
       <c r="E20" s="3">
-        <v>39800</v>
+        <v>39900</v>
       </c>
       <c r="F20" s="3">
-        <v>24100</v>
+        <v>24200</v>
       </c>
       <c r="G20" s="3">
-        <v>-589000</v>
+        <v>-591400</v>
       </c>
       <c r="H20" s="3">
-        <v>41100</v>
+        <v>41200</v>
       </c>
       <c r="I20" s="3">
-        <v>39800</v>
+        <v>40000</v>
       </c>
       <c r="J20" s="3">
-        <v>57700</v>
+        <v>57900</v>
       </c>
       <c r="K20" s="3">
         <v>71500</v>
@@ -1449,25 +1449,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1332800</v>
+        <v>1338300</v>
       </c>
       <c r="E21" s="3">
-        <v>310300</v>
+        <v>311600</v>
       </c>
       <c r="F21" s="3">
-        <v>187100</v>
+        <v>187800</v>
       </c>
       <c r="G21" s="3">
-        <v>-1155700</v>
+        <v>-1160500</v>
       </c>
       <c r="H21" s="3">
-        <v>190500</v>
+        <v>191300</v>
       </c>
       <c r="I21" s="3">
-        <v>173100</v>
+        <v>173800</v>
       </c>
       <c r="J21" s="3">
-        <v>201600</v>
+        <v>202400</v>
       </c>
       <c r="K21" s="3">
         <v>241700</v>
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>69600</v>
+        <v>69900</v>
       </c>
       <c r="E22" s="3">
-        <v>60100</v>
+        <v>60400</v>
       </c>
       <c r="F22" s="3">
-        <v>73400</v>
+        <v>73700</v>
       </c>
       <c r="G22" s="3">
-        <v>69700</v>
+        <v>70000</v>
       </c>
       <c r="H22" s="3">
-        <v>76500</v>
+        <v>76800</v>
       </c>
       <c r="I22" s="3">
-        <v>35500</v>
+        <v>35700</v>
       </c>
       <c r="J22" s="3">
-        <v>37200</v>
+        <v>37400</v>
       </c>
       <c r="K22" s="3">
         <v>32700</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1166300</v>
+        <v>1171100</v>
       </c>
       <c r="E23" s="3">
-        <v>151600</v>
+        <v>152200</v>
       </c>
       <c r="F23" s="3">
         <v>7200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1333800</v>
+        <v>-1339300</v>
       </c>
       <c r="H23" s="3">
         <v>10200</v>
       </c>
       <c r="I23" s="3">
-        <v>80000</v>
+        <v>80300</v>
       </c>
       <c r="J23" s="3">
-        <v>114900</v>
+        <v>115400</v>
       </c>
       <c r="K23" s="3">
         <v>160800</v>
@@ -1635,25 +1635,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>319800</v>
+        <v>321200</v>
       </c>
       <c r="E24" s="3">
-        <v>43900</v>
+        <v>44100</v>
       </c>
       <c r="F24" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="G24" s="3">
-        <v>54900</v>
+        <v>55100</v>
       </c>
       <c r="H24" s="3">
         <v>9900</v>
       </c>
       <c r="I24" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="J24" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="K24" s="3">
         <v>30000</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>846500</v>
+        <v>850000</v>
       </c>
       <c r="E26" s="3">
-        <v>107600</v>
+        <v>108100</v>
       </c>
       <c r="F26" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="G26" s="3">
-        <v>-1388700</v>
+        <v>-1394500</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
-        <v>70100</v>
+        <v>70400</v>
       </c>
       <c r="J26" s="3">
-        <v>91900</v>
+        <v>92200</v>
       </c>
       <c r="K26" s="3">
         <v>130800</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>822700</v>
+        <v>826100</v>
       </c>
       <c r="E27" s="3">
-        <v>81500</v>
+        <v>81900</v>
       </c>
       <c r="F27" s="3">
-        <v>-28400</v>
+        <v>-28600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1424300</v>
+        <v>-1430200</v>
       </c>
       <c r="H27" s="3">
         <v>-2400</v>
       </c>
       <c r="I27" s="3">
-        <v>60000</v>
+        <v>60300</v>
       </c>
       <c r="J27" s="3">
-        <v>85000</v>
+        <v>85300</v>
       </c>
       <c r="K27" s="3">
         <v>111700</v>
@@ -2131,25 +2131,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-109400</v>
+        <v>-109800</v>
       </c>
       <c r="E32" s="3">
-        <v>-39800</v>
+        <v>-39900</v>
       </c>
       <c r="F32" s="3">
-        <v>-24100</v>
+        <v>-24200</v>
       </c>
       <c r="G32" s="3">
-        <v>589000</v>
+        <v>591400</v>
       </c>
       <c r="H32" s="3">
-        <v>-41100</v>
+        <v>-41200</v>
       </c>
       <c r="I32" s="3">
-        <v>-39800</v>
+        <v>-40000</v>
       </c>
       <c r="J32" s="3">
-        <v>-57700</v>
+        <v>-57900</v>
       </c>
       <c r="K32" s="3">
         <v>-71500</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>822700</v>
+        <v>826100</v>
       </c>
       <c r="E33" s="3">
-        <v>81500</v>
+        <v>81900</v>
       </c>
       <c r="F33" s="3">
-        <v>-28400</v>
+        <v>-28600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1424300</v>
+        <v>-1430200</v>
       </c>
       <c r="H33" s="3">
         <v>-2400</v>
       </c>
       <c r="I33" s="3">
-        <v>60000</v>
+        <v>60300</v>
       </c>
       <c r="J33" s="3">
-        <v>85000</v>
+        <v>85300</v>
       </c>
       <c r="K33" s="3">
         <v>111700</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>822700</v>
+        <v>826100</v>
       </c>
       <c r="E35" s="3">
-        <v>81500</v>
+        <v>81900</v>
       </c>
       <c r="F35" s="3">
-        <v>-28400</v>
+        <v>-28600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1424300</v>
+        <v>-1430200</v>
       </c>
       <c r="H35" s="3">
         <v>-2400</v>
       </c>
       <c r="I35" s="3">
-        <v>60000</v>
+        <v>60300</v>
       </c>
       <c r="J35" s="3">
-        <v>85000</v>
+        <v>85300</v>
       </c>
       <c r="K35" s="3">
         <v>111700</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1573400</v>
+        <v>1579900</v>
       </c>
       <c r="E41" s="3">
-        <v>1552600</v>
+        <v>1559100</v>
       </c>
       <c r="F41" s="3">
-        <v>1959600</v>
+        <v>1967800</v>
       </c>
       <c r="G41" s="3">
-        <v>2310800</v>
+        <v>2320400</v>
       </c>
       <c r="H41" s="3">
-        <v>1775100</v>
+        <v>1782400</v>
       </c>
       <c r="I41" s="3">
-        <v>2067700</v>
+        <v>2076300</v>
       </c>
       <c r="J41" s="3">
-        <v>2016700</v>
+        <v>2025100</v>
       </c>
       <c r="K41" s="3">
         <v>2121800</v>
@@ -2559,19 +2559,19 @@
         <v>19700</v>
       </c>
       <c r="E42" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="F42" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="G42" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="H42" s="3">
         <v>14900</v>
       </c>
       <c r="I42" s="3">
-        <v>415900</v>
+        <v>417600</v>
       </c>
       <c r="J42" s="3">
         <v>16000</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1433200</v>
+        <v>1439100</v>
       </c>
       <c r="E43" s="3">
-        <v>2978200</v>
+        <v>2990600</v>
       </c>
       <c r="F43" s="3">
-        <v>1622900</v>
+        <v>1629600</v>
       </c>
       <c r="G43" s="3">
-        <v>1616000</v>
+        <v>1622700</v>
       </c>
       <c r="H43" s="3">
-        <v>1007800</v>
+        <v>1011900</v>
       </c>
       <c r="I43" s="3">
-        <v>786500</v>
+        <v>789800</v>
       </c>
       <c r="J43" s="3">
-        <v>1271200</v>
+        <v>1276400</v>
       </c>
       <c r="K43" s="3">
         <v>1226000</v>
@@ -2680,25 +2680,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4415800</v>
+        <v>4434200</v>
       </c>
       <c r="E44" s="3">
-        <v>4323900</v>
+        <v>4341900</v>
       </c>
       <c r="F44" s="3">
-        <v>4523600</v>
+        <v>4542400</v>
       </c>
       <c r="G44" s="3">
-        <v>3992300</v>
+        <v>4008900</v>
       </c>
       <c r="H44" s="3">
-        <v>4153000</v>
+        <v>4170300</v>
       </c>
       <c r="I44" s="3">
-        <v>3822800</v>
+        <v>3838700</v>
       </c>
       <c r="J44" s="3">
-        <v>4017100</v>
+        <v>4033800</v>
       </c>
       <c r="K44" s="3">
         <v>3958100</v>
@@ -2742,22 +2742,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>986000</v>
+        <v>990100</v>
       </c>
       <c r="E45" s="3">
-        <v>461500</v>
+        <v>463400</v>
       </c>
       <c r="F45" s="3">
-        <v>957200</v>
+        <v>961100</v>
       </c>
       <c r="G45" s="3">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="H45" s="3">
-        <v>139800</v>
+        <v>140300</v>
       </c>
       <c r="I45" s="3">
-        <v>175600</v>
+        <v>176300</v>
       </c>
       <c r="J45" s="3">
         <v>12200</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8428100</v>
+        <v>8463100</v>
       </c>
       <c r="E46" s="3">
-        <v>7951500</v>
+        <v>7984500</v>
       </c>
       <c r="F46" s="3">
-        <v>9091100</v>
+        <v>9128800</v>
       </c>
       <c r="G46" s="3">
-        <v>7991200</v>
+        <v>8024400</v>
       </c>
       <c r="H46" s="3">
-        <v>7090500</v>
+        <v>7119900</v>
       </c>
       <c r="I46" s="3">
-        <v>7268500</v>
+        <v>7298700</v>
       </c>
       <c r="J46" s="3">
-        <v>7333100</v>
+        <v>7363600</v>
       </c>
       <c r="K46" s="3">
         <v>7327400</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2408800</v>
+        <v>2418800</v>
       </c>
       <c r="E47" s="3">
-        <v>1927600</v>
+        <v>1935600</v>
       </c>
       <c r="F47" s="3">
-        <v>1874500</v>
+        <v>1882300</v>
       </c>
       <c r="G47" s="3">
-        <v>1869300</v>
+        <v>1877000</v>
       </c>
       <c r="H47" s="3">
-        <v>2726700</v>
+        <v>2738000</v>
       </c>
       <c r="I47" s="3">
-        <v>2081000</v>
+        <v>2089700</v>
       </c>
       <c r="J47" s="3">
-        <v>2153500</v>
+        <v>2162400</v>
       </c>
       <c r="K47" s="3">
         <v>2063200</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6121200</v>
+        <v>6146700</v>
       </c>
       <c r="E48" s="3">
-        <v>10600100</v>
+        <v>10644100</v>
       </c>
       <c r="F48" s="3">
-        <v>7028000</v>
+        <v>7057200</v>
       </c>
       <c r="G48" s="3">
-        <v>7460800</v>
+        <v>7491700</v>
       </c>
       <c r="H48" s="3">
-        <v>7301300</v>
+        <v>7331600</v>
       </c>
       <c r="I48" s="3">
-        <v>7296900</v>
+        <v>7327200</v>
       </c>
       <c r="J48" s="3">
-        <v>6996400</v>
+        <v>7025500</v>
       </c>
       <c r="K48" s="3">
         <v>6767100</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66400</v>
+        <v>66700</v>
       </c>
       <c r="E52" s="3">
-        <v>258600</v>
+        <v>259700</v>
       </c>
       <c r="F52" s="3">
-        <v>149200</v>
+        <v>149800</v>
       </c>
       <c r="G52" s="3">
-        <v>178300</v>
+        <v>179000</v>
       </c>
       <c r="H52" s="3">
-        <v>513400</v>
+        <v>515500</v>
       </c>
       <c r="I52" s="3">
-        <v>500900</v>
+        <v>503000</v>
       </c>
       <c r="J52" s="3">
-        <v>499400</v>
+        <v>501500</v>
       </c>
       <c r="K52" s="3">
         <v>447300</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17025700</v>
+        <v>17096500</v>
       </c>
       <c r="E54" s="3">
-        <v>17649900</v>
+        <v>17723200</v>
       </c>
       <c r="F54" s="3">
-        <v>18144200</v>
+        <v>18219600</v>
       </c>
       <c r="G54" s="3">
-        <v>17499500</v>
+        <v>17572200</v>
       </c>
       <c r="H54" s="3">
-        <v>17631800</v>
+        <v>17705000</v>
       </c>
       <c r="I54" s="3">
-        <v>17147300</v>
+        <v>17218500</v>
       </c>
       <c r="J54" s="3">
-        <v>16982400</v>
+        <v>17052900</v>
       </c>
       <c r="K54" s="3">
         <v>16604900</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>181000</v>
+        <v>181700</v>
       </c>
       <c r="E57" s="3">
-        <v>1272000</v>
+        <v>1277300</v>
       </c>
       <c r="F57" s="3">
-        <v>155300</v>
+        <v>155900</v>
       </c>
       <c r="G57" s="3">
-        <v>996900</v>
+        <v>1001000</v>
       </c>
       <c r="H57" s="3">
-        <v>795100</v>
+        <v>798400</v>
       </c>
       <c r="I57" s="3">
-        <v>886100</v>
+        <v>889800</v>
       </c>
       <c r="J57" s="3">
-        <v>1010400</v>
+        <v>1014600</v>
       </c>
       <c r="K57" s="3">
         <v>910200</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2864400</v>
+        <v>2876300</v>
       </c>
       <c r="E58" s="3">
-        <v>4032500</v>
+        <v>4049200</v>
       </c>
       <c r="F58" s="3">
-        <v>3067600</v>
+        <v>3080400</v>
       </c>
       <c r="G58" s="3">
-        <v>2078900</v>
+        <v>2087600</v>
       </c>
       <c r="H58" s="3">
-        <v>1341500</v>
+        <v>1347000</v>
       </c>
       <c r="I58" s="3">
-        <v>1519400</v>
+        <v>1525700</v>
       </c>
       <c r="J58" s="3">
-        <v>1158600</v>
+        <v>1163400</v>
       </c>
       <c r="K58" s="3">
         <v>1433200</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1724600</v>
+        <v>1731800</v>
       </c>
       <c r="E59" s="3">
-        <v>1607000</v>
+        <v>1613700</v>
       </c>
       <c r="F59" s="3">
-        <v>1867100</v>
+        <v>1874900</v>
       </c>
       <c r="G59" s="3">
-        <v>652500</v>
+        <v>655200</v>
       </c>
       <c r="H59" s="3">
-        <v>406800</v>
+        <v>408500</v>
       </c>
       <c r="I59" s="3">
-        <v>386200</v>
+        <v>387800</v>
       </c>
       <c r="J59" s="3">
-        <v>355200</v>
+        <v>356700</v>
       </c>
       <c r="K59" s="3">
         <v>365600</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4770100</v>
+        <v>4789900</v>
       </c>
       <c r="E60" s="3">
-        <v>5837600</v>
+        <v>5861900</v>
       </c>
       <c r="F60" s="3">
-        <v>5090000</v>
+        <v>5111200</v>
       </c>
       <c r="G60" s="3">
-        <v>3728300</v>
+        <v>3743800</v>
       </c>
       <c r="H60" s="3">
-        <v>2543400</v>
+        <v>2553900</v>
       </c>
       <c r="I60" s="3">
-        <v>2791700</v>
+        <v>2803300</v>
       </c>
       <c r="J60" s="3">
-        <v>2524200</v>
+        <v>2534700</v>
       </c>
       <c r="K60" s="3">
         <v>2709000</v>
@@ -3658,25 +3658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4792100</v>
+        <v>4812000</v>
       </c>
       <c r="E61" s="3">
-        <v>4581000</v>
+        <v>4600000</v>
       </c>
       <c r="F61" s="3">
-        <v>5804600</v>
+        <v>5828700</v>
       </c>
       <c r="G61" s="3">
-        <v>6647400</v>
+        <v>6675000</v>
       </c>
       <c r="H61" s="3">
-        <v>6534200</v>
+        <v>6561300</v>
       </c>
       <c r="I61" s="3">
-        <v>5811200</v>
+        <v>5835400</v>
       </c>
       <c r="J61" s="3">
-        <v>5044200</v>
+        <v>5065200</v>
       </c>
       <c r="K61" s="3">
         <v>4783300</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>369500</v>
+        <v>371000</v>
       </c>
       <c r="E62" s="3">
-        <v>524700</v>
+        <v>526900</v>
       </c>
       <c r="F62" s="3">
-        <v>402800</v>
+        <v>404500</v>
       </c>
       <c r="G62" s="3">
-        <v>292700</v>
+        <v>293900</v>
       </c>
       <c r="H62" s="3">
-        <v>209100</v>
+        <v>210000</v>
       </c>
       <c r="I62" s="3">
-        <v>217200</v>
+        <v>218100</v>
       </c>
       <c r="J62" s="3">
-        <v>218500</v>
+        <v>219400</v>
       </c>
       <c r="K62" s="3">
         <v>217300</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10201100</v>
+        <v>10243500</v>
       </c>
       <c r="E66" s="3">
-        <v>11440900</v>
+        <v>11488400</v>
       </c>
       <c r="F66" s="3">
-        <v>11963300</v>
+        <v>12013000</v>
       </c>
       <c r="G66" s="3">
-        <v>11215500</v>
+        <v>11262100</v>
       </c>
       <c r="H66" s="3">
-        <v>9818200</v>
+        <v>9859000</v>
       </c>
       <c r="I66" s="3">
-        <v>9371800</v>
+        <v>9410700</v>
       </c>
       <c r="J66" s="3">
-        <v>9380900</v>
+        <v>9419900</v>
       </c>
       <c r="K66" s="3">
         <v>9276700</v>
@@ -4178,13 +4178,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>244100</v>
+        <v>245100</v>
       </c>
       <c r="E70" s="3">
-        <v>244100</v>
+        <v>245100</v>
       </c>
       <c r="F70" s="3">
-        <v>244100</v>
+        <v>245100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5483200</v>
+        <v>5506000</v>
       </c>
       <c r="E72" s="3">
-        <v>9588000</v>
+        <v>9627800</v>
       </c>
       <c r="F72" s="3">
-        <v>4770400</v>
+        <v>4790200</v>
       </c>
       <c r="G72" s="3">
-        <v>4877700</v>
+        <v>4898000</v>
       </c>
       <c r="H72" s="3">
-        <v>6411700</v>
+        <v>6438300</v>
       </c>
       <c r="I72" s="3">
-        <v>6398200</v>
+        <v>6424800</v>
       </c>
       <c r="J72" s="3">
-        <v>6252900</v>
+        <v>6278900</v>
       </c>
       <c r="K72" s="3">
         <v>5972500</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6580500</v>
+        <v>6607900</v>
       </c>
       <c r="E76" s="3">
-        <v>5965000</v>
+        <v>5989700</v>
       </c>
       <c r="F76" s="3">
-        <v>5936900</v>
+        <v>5961500</v>
       </c>
       <c r="G76" s="3">
-        <v>6284000</v>
+        <v>6310100</v>
       </c>
       <c r="H76" s="3">
-        <v>7813600</v>
+        <v>7846000</v>
       </c>
       <c r="I76" s="3">
-        <v>7775500</v>
+        <v>7807800</v>
       </c>
       <c r="J76" s="3">
-        <v>7601400</v>
+        <v>7633000</v>
       </c>
       <c r="K76" s="3">
         <v>7328300</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>822700</v>
+        <v>826100</v>
       </c>
       <c r="E81" s="3">
-        <v>81500</v>
+        <v>81900</v>
       </c>
       <c r="F81" s="3">
-        <v>-28400</v>
+        <v>-28600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1424300</v>
+        <v>-1430200</v>
       </c>
       <c r="H81" s="3">
         <v>-2400</v>
       </c>
       <c r="I81" s="3">
-        <v>60000</v>
+        <v>60300</v>
       </c>
       <c r="J81" s="3">
-        <v>85000</v>
+        <v>85300</v>
       </c>
       <c r="K81" s="3">
         <v>111700</v>
@@ -4827,25 +4827,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>96900</v>
+        <v>97300</v>
       </c>
       <c r="E83" s="3">
-        <v>98700</v>
+        <v>99100</v>
       </c>
       <c r="F83" s="3">
-        <v>106500</v>
+        <v>106900</v>
       </c>
       <c r="G83" s="3">
-        <v>108300</v>
+        <v>108800</v>
       </c>
       <c r="H83" s="3">
-        <v>103900</v>
+        <v>104300</v>
       </c>
       <c r="I83" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="J83" s="3">
-        <v>49400</v>
+        <v>49600</v>
       </c>
       <c r="K83" s="3">
         <v>48200</v>
@@ -5199,25 +5199,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-22000</v>
+        <v>-22100</v>
       </c>
       <c r="E89" s="3">
-        <v>397600</v>
+        <v>399300</v>
       </c>
       <c r="F89" s="3">
-        <v>440700</v>
+        <v>442500</v>
       </c>
       <c r="G89" s="3">
-        <v>125500</v>
+        <v>126000</v>
       </c>
       <c r="H89" s="3">
-        <v>-388700</v>
+        <v>-390300</v>
       </c>
       <c r="I89" s="3">
-        <v>201900</v>
+        <v>202700</v>
       </c>
       <c r="J89" s="3">
-        <v>111400</v>
+        <v>111800</v>
       </c>
       <c r="K89" s="3">
         <v>142400</v>
@@ -5285,25 +5285,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24400</v>
+        <v>-33100</v>
       </c>
       <c r="E91" s="3">
-        <v>-77100</v>
+        <v>-104400</v>
       </c>
       <c r="F91" s="3">
-        <v>-28700</v>
+        <v>-39300</v>
       </c>
       <c r="G91" s="3">
-        <v>-162900</v>
+        <v>-220600</v>
       </c>
       <c r="H91" s="3">
-        <v>-34600</v>
+        <v>-47000</v>
       </c>
       <c r="I91" s="3">
-        <v>-39200</v>
+        <v>-53600</v>
       </c>
       <c r="J91" s="3">
-        <v>-51800</v>
+        <v>-70100</v>
       </c>
       <c r="K91" s="3">
         <v>-31000</v>
@@ -5471,25 +5471,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>501500</v>
+        <v>503600</v>
       </c>
       <c r="E94" s="3">
-        <v>-287900</v>
+        <v>-289100</v>
       </c>
       <c r="F94" s="3">
-        <v>-350200</v>
+        <v>-351700</v>
       </c>
       <c r="G94" s="3">
-        <v>-462500</v>
+        <v>-464400</v>
       </c>
       <c r="H94" s="3">
-        <v>-332800</v>
+        <v>-334200</v>
       </c>
       <c r="I94" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J94" s="3">
-        <v>-86200</v>
+        <v>-86600</v>
       </c>
       <c r="K94" s="3">
         <v>-448400</v>
@@ -5557,25 +5557,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-77700</v>
+        <v>-78000</v>
       </c>
       <c r="E96" s="3">
-        <v>-32300</v>
+        <v>-32500</v>
       </c>
       <c r="F96" s="3">
-        <v>-96200</v>
+        <v>-96600</v>
       </c>
       <c r="G96" s="3">
-        <v>-110300</v>
+        <v>-110700</v>
       </c>
       <c r="H96" s="3">
-        <v>-30300</v>
+        <v>-30400</v>
       </c>
       <c r="I96" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="J96" s="3">
-        <v>-60900</v>
+        <v>-61100</v>
       </c>
       <c r="K96" s="3">
         <v>-104500</v>
@@ -5805,25 +5805,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-376700</v>
+        <v>-378200</v>
       </c>
       <c r="E100" s="3">
-        <v>-510700</v>
+        <v>-512800</v>
       </c>
       <c r="F100" s="3">
-        <v>-433200</v>
+        <v>-435000</v>
       </c>
       <c r="G100" s="3">
-        <v>737300</v>
+        <v>740300</v>
       </c>
       <c r="H100" s="3">
-        <v>418400</v>
+        <v>420100</v>
       </c>
       <c r="I100" s="3">
-        <v>-158700</v>
+        <v>-159300</v>
       </c>
       <c r="J100" s="3">
-        <v>-193600</v>
+        <v>-194400</v>
       </c>
       <c r="K100" s="3">
         <v>974300</v>
@@ -5867,7 +5867,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24600</v>
+        <v>-24700</v>
       </c>
       <c r="E101" s="3">
         <v>-5300</v>
@@ -5876,10 +5876,10 @@
         <v>1800</v>
       </c>
       <c r="G101" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="H101" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
@@ -5929,25 +5929,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>78200</v>
+        <v>78500</v>
       </c>
       <c r="E102" s="3">
-        <v>-406300</v>
+        <v>-407900</v>
       </c>
       <c r="F102" s="3">
-        <v>-341000</v>
+        <v>-342400</v>
       </c>
       <c r="G102" s="3">
-        <v>416200</v>
+        <v>417900</v>
       </c>
       <c r="H102" s="3">
-        <v>-293800</v>
+        <v>-295000</v>
       </c>
       <c r="I102" s="3">
-        <v>46400</v>
+        <v>46600</v>
       </c>
       <c r="J102" s="3">
-        <v>-171800</v>
+        <v>-172500</v>
       </c>
       <c r="K102" s="3">
         <v>665800</v>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1092900</v>
+        <v>1089900</v>
       </c>
       <c r="E8" s="3">
-        <v>1064000</v>
+        <v>1061100</v>
       </c>
       <c r="F8" s="3">
-        <v>884800</v>
+        <v>882400</v>
       </c>
       <c r="G8" s="3">
-        <v>768500</v>
+        <v>766400</v>
       </c>
       <c r="H8" s="3">
-        <v>796300</v>
+        <v>794100</v>
       </c>
       <c r="I8" s="3">
-        <v>702800</v>
+        <v>700800</v>
       </c>
       <c r="J8" s="3">
-        <v>657000</v>
+        <v>655200</v>
       </c>
       <c r="K8" s="3">
         <v>608900</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>659900</v>
+        <v>658100</v>
       </c>
       <c r="E9" s="3">
-        <v>647700</v>
+        <v>645900</v>
       </c>
       <c r="F9" s="3">
-        <v>575500</v>
+        <v>573900</v>
       </c>
       <c r="G9" s="3">
-        <v>484700</v>
+        <v>483300</v>
       </c>
       <c r="H9" s="3">
-        <v>464900</v>
+        <v>463700</v>
       </c>
       <c r="I9" s="3">
-        <v>386800</v>
+        <v>385800</v>
       </c>
       <c r="J9" s="3">
-        <v>329400</v>
+        <v>328500</v>
       </c>
       <c r="K9" s="3">
         <v>308600</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>433100</v>
+        <v>431900</v>
       </c>
       <c r="E10" s="3">
-        <v>416300</v>
+        <v>415200</v>
       </c>
       <c r="F10" s="3">
-        <v>309300</v>
+        <v>308500</v>
       </c>
       <c r="G10" s="3">
-        <v>283800</v>
+        <v>283100</v>
       </c>
       <c r="H10" s="3">
-        <v>331300</v>
+        <v>330400</v>
       </c>
       <c r="I10" s="3">
-        <v>315900</v>
+        <v>315100</v>
       </c>
       <c r="J10" s="3">
-        <v>327600</v>
+        <v>326700</v>
       </c>
       <c r="K10" s="3">
         <v>300200</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-369600</v>
+        <v>-368600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>213700</v>
+        <v>213200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>97300</v>
+        <v>97000</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-38200</v>
+        <v>-38100</v>
       </c>
       <c r="E17" s="3">
-        <v>891400</v>
+        <v>889000</v>
       </c>
       <c r="F17" s="3">
-        <v>828100</v>
+        <v>825900</v>
       </c>
       <c r="G17" s="3">
-        <v>1446400</v>
+        <v>1442400</v>
       </c>
       <c r="H17" s="3">
-        <v>750500</v>
+        <v>748400</v>
       </c>
       <c r="I17" s="3">
-        <v>626700</v>
+        <v>625000</v>
       </c>
       <c r="J17" s="3">
-        <v>562200</v>
+        <v>560600</v>
       </c>
       <c r="K17" s="3">
         <v>486800</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1131200</v>
+        <v>1128100</v>
       </c>
       <c r="E18" s="3">
-        <v>172600</v>
+        <v>172200</v>
       </c>
       <c r="F18" s="3">
-        <v>56700</v>
+        <v>56500</v>
       </c>
       <c r="G18" s="3">
-        <v>-677900</v>
+        <v>-676000</v>
       </c>
       <c r="H18" s="3">
-        <v>45800</v>
+        <v>45700</v>
       </c>
       <c r="I18" s="3">
-        <v>76000</v>
+        <v>75800</v>
       </c>
       <c r="J18" s="3">
-        <v>94900</v>
+        <v>94600</v>
       </c>
       <c r="K18" s="3">
         <v>122000</v>
@@ -1387,25 +1387,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>109800</v>
+        <v>109500</v>
       </c>
       <c r="E20" s="3">
-        <v>39900</v>
+        <v>39800</v>
       </c>
       <c r="F20" s="3">
         <v>24200</v>
       </c>
       <c r="G20" s="3">
-        <v>-591400</v>
+        <v>-589800</v>
       </c>
       <c r="H20" s="3">
-        <v>41200</v>
+        <v>41100</v>
       </c>
       <c r="I20" s="3">
-        <v>40000</v>
+        <v>39900</v>
       </c>
       <c r="J20" s="3">
-        <v>57900</v>
+        <v>57800</v>
       </c>
       <c r="K20" s="3">
         <v>71500</v>
@@ -1449,25 +1449,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1338300</v>
+        <v>1334600</v>
       </c>
       <c r="E21" s="3">
-        <v>311600</v>
+        <v>310800</v>
       </c>
       <c r="F21" s="3">
-        <v>187800</v>
+        <v>187300</v>
       </c>
       <c r="G21" s="3">
-        <v>-1160500</v>
+        <v>-1157300</v>
       </c>
       <c r="H21" s="3">
-        <v>191300</v>
+        <v>190800</v>
       </c>
       <c r="I21" s="3">
-        <v>173800</v>
+        <v>173400</v>
       </c>
       <c r="J21" s="3">
-        <v>202400</v>
+        <v>201900</v>
       </c>
       <c r="K21" s="3">
         <v>241700</v>
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>69900</v>
+        <v>69700</v>
       </c>
       <c r="E22" s="3">
-        <v>60400</v>
+        <v>60200</v>
       </c>
       <c r="F22" s="3">
-        <v>73700</v>
+        <v>73500</v>
       </c>
       <c r="G22" s="3">
-        <v>70000</v>
+        <v>69800</v>
       </c>
       <c r="H22" s="3">
-        <v>76800</v>
+        <v>76600</v>
       </c>
       <c r="I22" s="3">
-        <v>35700</v>
+        <v>35600</v>
       </c>
       <c r="J22" s="3">
-        <v>37400</v>
+        <v>37300</v>
       </c>
       <c r="K22" s="3">
         <v>32700</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1171100</v>
+        <v>1167900</v>
       </c>
       <c r="E23" s="3">
-        <v>152200</v>
+        <v>151800</v>
       </c>
       <c r="F23" s="3">
         <v>7200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1339300</v>
+        <v>-1335700</v>
       </c>
       <c r="H23" s="3">
         <v>10200</v>
       </c>
       <c r="I23" s="3">
-        <v>80300</v>
+        <v>80100</v>
       </c>
       <c r="J23" s="3">
-        <v>115400</v>
+        <v>115100</v>
       </c>
       <c r="K23" s="3">
         <v>160800</v>
@@ -1635,25 +1635,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>321200</v>
+        <v>320300</v>
       </c>
       <c r="E24" s="3">
-        <v>44100</v>
+        <v>44000</v>
       </c>
       <c r="F24" s="3">
         <v>21100</v>
       </c>
       <c r="G24" s="3">
-        <v>55100</v>
+        <v>55000</v>
       </c>
       <c r="H24" s="3">
         <v>9900</v>
       </c>
       <c r="I24" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J24" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="K24" s="3">
         <v>30000</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>850000</v>
+        <v>847700</v>
       </c>
       <c r="E26" s="3">
-        <v>108100</v>
+        <v>107800</v>
       </c>
       <c r="F26" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1394500</v>
+        <v>-1390700</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
-        <v>70400</v>
+        <v>70200</v>
       </c>
       <c r="J26" s="3">
-        <v>92200</v>
+        <v>92000</v>
       </c>
       <c r="K26" s="3">
         <v>130800</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>826100</v>
+        <v>823800</v>
       </c>
       <c r="E27" s="3">
-        <v>81900</v>
+        <v>81600</v>
       </c>
       <c r="F27" s="3">
-        <v>-28600</v>
+        <v>-28500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1430200</v>
+        <v>-1426300</v>
       </c>
       <c r="H27" s="3">
         <v>-2400</v>
       </c>
       <c r="I27" s="3">
-        <v>60300</v>
+        <v>60100</v>
       </c>
       <c r="J27" s="3">
-        <v>85300</v>
+        <v>85100</v>
       </c>
       <c r="K27" s="3">
         <v>111700</v>
@@ -2131,25 +2131,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-109800</v>
+        <v>-109500</v>
       </c>
       <c r="E32" s="3">
-        <v>-39900</v>
+        <v>-39800</v>
       </c>
       <c r="F32" s="3">
         <v>-24200</v>
       </c>
       <c r="G32" s="3">
-        <v>591400</v>
+        <v>589800</v>
       </c>
       <c r="H32" s="3">
-        <v>-41200</v>
+        <v>-41100</v>
       </c>
       <c r="I32" s="3">
-        <v>-40000</v>
+        <v>-39900</v>
       </c>
       <c r="J32" s="3">
-        <v>-57900</v>
+        <v>-57800</v>
       </c>
       <c r="K32" s="3">
         <v>-71500</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>826100</v>
+        <v>823800</v>
       </c>
       <c r="E33" s="3">
-        <v>81900</v>
+        <v>81600</v>
       </c>
       <c r="F33" s="3">
-        <v>-28600</v>
+        <v>-28500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1430200</v>
+        <v>-1426300</v>
       </c>
       <c r="H33" s="3">
         <v>-2400</v>
       </c>
       <c r="I33" s="3">
-        <v>60300</v>
+        <v>60100</v>
       </c>
       <c r="J33" s="3">
-        <v>85300</v>
+        <v>85100</v>
       </c>
       <c r="K33" s="3">
         <v>111700</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>826100</v>
+        <v>823800</v>
       </c>
       <c r="E35" s="3">
-        <v>81900</v>
+        <v>81600</v>
       </c>
       <c r="F35" s="3">
-        <v>-28600</v>
+        <v>-28500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1430200</v>
+        <v>-1426300</v>
       </c>
       <c r="H35" s="3">
         <v>-2400</v>
       </c>
       <c r="I35" s="3">
-        <v>60300</v>
+        <v>60100</v>
       </c>
       <c r="J35" s="3">
-        <v>85300</v>
+        <v>85100</v>
       </c>
       <c r="K35" s="3">
         <v>111700</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1579900</v>
+        <v>1575600</v>
       </c>
       <c r="E41" s="3">
-        <v>1559100</v>
+        <v>1554800</v>
       </c>
       <c r="F41" s="3">
-        <v>1967800</v>
+        <v>1962400</v>
       </c>
       <c r="G41" s="3">
-        <v>2320400</v>
+        <v>2314100</v>
       </c>
       <c r="H41" s="3">
-        <v>1782400</v>
+        <v>1777600</v>
       </c>
       <c r="I41" s="3">
-        <v>2076300</v>
+        <v>2070700</v>
       </c>
       <c r="J41" s="3">
-        <v>2025100</v>
+        <v>2019500</v>
       </c>
       <c r="K41" s="3">
         <v>2121800</v>
@@ -2562,16 +2562,16 @@
         <v>19900</v>
       </c>
       <c r="F42" s="3">
-        <v>27900</v>
+        <v>27800</v>
       </c>
       <c r="G42" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="H42" s="3">
         <v>14900</v>
       </c>
       <c r="I42" s="3">
-        <v>417600</v>
+        <v>416500</v>
       </c>
       <c r="J42" s="3">
         <v>16000</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1439100</v>
+        <v>1435200</v>
       </c>
       <c r="E43" s="3">
-        <v>2990600</v>
+        <v>2982400</v>
       </c>
       <c r="F43" s="3">
-        <v>1629600</v>
+        <v>1625100</v>
       </c>
       <c r="G43" s="3">
-        <v>1622700</v>
+        <v>1618300</v>
       </c>
       <c r="H43" s="3">
-        <v>1011900</v>
+        <v>1009200</v>
       </c>
       <c r="I43" s="3">
-        <v>789800</v>
+        <v>787600</v>
       </c>
       <c r="J43" s="3">
-        <v>1276400</v>
+        <v>1273000</v>
       </c>
       <c r="K43" s="3">
         <v>1226000</v>
@@ -2680,25 +2680,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4434200</v>
+        <v>4422100</v>
       </c>
       <c r="E44" s="3">
-        <v>4341900</v>
+        <v>4330000</v>
       </c>
       <c r="F44" s="3">
-        <v>4542400</v>
+        <v>4530000</v>
       </c>
       <c r="G44" s="3">
-        <v>4008900</v>
+        <v>3997900</v>
       </c>
       <c r="H44" s="3">
-        <v>4170300</v>
+        <v>4158900</v>
       </c>
       <c r="I44" s="3">
-        <v>3838700</v>
+        <v>3828200</v>
       </c>
       <c r="J44" s="3">
-        <v>4033800</v>
+        <v>4022800</v>
       </c>
       <c r="K44" s="3">
         <v>3958100</v>
@@ -2742,22 +2742,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>990100</v>
+        <v>987400</v>
       </c>
       <c r="E45" s="3">
-        <v>463400</v>
+        <v>462100</v>
       </c>
       <c r="F45" s="3">
-        <v>961100</v>
+        <v>958500</v>
       </c>
       <c r="G45" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="H45" s="3">
-        <v>140300</v>
+        <v>140000</v>
       </c>
       <c r="I45" s="3">
-        <v>176300</v>
+        <v>175800</v>
       </c>
       <c r="J45" s="3">
         <v>12200</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8463100</v>
+        <v>8439900</v>
       </c>
       <c r="E46" s="3">
-        <v>7984500</v>
+        <v>7962700</v>
       </c>
       <c r="F46" s="3">
-        <v>9128800</v>
+        <v>9103800</v>
       </c>
       <c r="G46" s="3">
-        <v>8024400</v>
+        <v>8002500</v>
       </c>
       <c r="H46" s="3">
-        <v>7119900</v>
+        <v>7100500</v>
       </c>
       <c r="I46" s="3">
-        <v>7298700</v>
+        <v>7278700</v>
       </c>
       <c r="J46" s="3">
-        <v>7363600</v>
+        <v>7343400</v>
       </c>
       <c r="K46" s="3">
         <v>7327400</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2418800</v>
+        <v>2412200</v>
       </c>
       <c r="E47" s="3">
-        <v>1935600</v>
+        <v>1930300</v>
       </c>
       <c r="F47" s="3">
-        <v>1882300</v>
+        <v>1877200</v>
       </c>
       <c r="G47" s="3">
-        <v>1877000</v>
+        <v>1871900</v>
       </c>
       <c r="H47" s="3">
-        <v>2738000</v>
+        <v>2730500</v>
       </c>
       <c r="I47" s="3">
-        <v>2089700</v>
+        <v>2084000</v>
       </c>
       <c r="J47" s="3">
-        <v>2162400</v>
+        <v>2156500</v>
       </c>
       <c r="K47" s="3">
         <v>2063200</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6146700</v>
+        <v>6129800</v>
       </c>
       <c r="E48" s="3">
-        <v>10644100</v>
+        <v>10615000</v>
       </c>
       <c r="F48" s="3">
-        <v>7057200</v>
+        <v>7037900</v>
       </c>
       <c r="G48" s="3">
-        <v>7491700</v>
+        <v>7471300</v>
       </c>
       <c r="H48" s="3">
-        <v>7331600</v>
+        <v>7311600</v>
       </c>
       <c r="I48" s="3">
-        <v>7327200</v>
+        <v>7307100</v>
       </c>
       <c r="J48" s="3">
-        <v>7025500</v>
+        <v>7006200</v>
       </c>
       <c r="K48" s="3">
         <v>6767100</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66700</v>
+        <v>66500</v>
       </c>
       <c r="E52" s="3">
-        <v>259700</v>
+        <v>259000</v>
       </c>
       <c r="F52" s="3">
-        <v>149800</v>
+        <v>149400</v>
       </c>
       <c r="G52" s="3">
-        <v>179000</v>
+        <v>178500</v>
       </c>
       <c r="H52" s="3">
-        <v>515500</v>
+        <v>514100</v>
       </c>
       <c r="I52" s="3">
-        <v>503000</v>
+        <v>501600</v>
       </c>
       <c r="J52" s="3">
-        <v>501500</v>
+        <v>500100</v>
       </c>
       <c r="K52" s="3">
         <v>447300</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17096500</v>
+        <v>17049700</v>
       </c>
       <c r="E54" s="3">
-        <v>17723200</v>
+        <v>17674700</v>
       </c>
       <c r="F54" s="3">
-        <v>18219600</v>
+        <v>18169800</v>
       </c>
       <c r="G54" s="3">
-        <v>17572200</v>
+        <v>17524100</v>
       </c>
       <c r="H54" s="3">
-        <v>17705000</v>
+        <v>17656600</v>
       </c>
       <c r="I54" s="3">
-        <v>17218500</v>
+        <v>17171400</v>
       </c>
       <c r="J54" s="3">
-        <v>17052900</v>
+        <v>17006300</v>
       </c>
       <c r="K54" s="3">
         <v>16604900</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>181700</v>
+        <v>181200</v>
       </c>
       <c r="E57" s="3">
-        <v>1277300</v>
+        <v>1273800</v>
       </c>
       <c r="F57" s="3">
-        <v>155900</v>
+        <v>155500</v>
       </c>
       <c r="G57" s="3">
-        <v>1001000</v>
+        <v>998300</v>
       </c>
       <c r="H57" s="3">
-        <v>798400</v>
+        <v>796200</v>
       </c>
       <c r="I57" s="3">
-        <v>889800</v>
+        <v>887400</v>
       </c>
       <c r="J57" s="3">
-        <v>1014600</v>
+        <v>1011800</v>
       </c>
       <c r="K57" s="3">
         <v>910200</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2876300</v>
+        <v>2868500</v>
       </c>
       <c r="E58" s="3">
-        <v>4049200</v>
+        <v>4038200</v>
       </c>
       <c r="F58" s="3">
-        <v>3080400</v>
+        <v>3071900</v>
       </c>
       <c r="G58" s="3">
-        <v>2087600</v>
+        <v>2081900</v>
       </c>
       <c r="H58" s="3">
-        <v>1347000</v>
+        <v>1343400</v>
       </c>
       <c r="I58" s="3">
-        <v>1525700</v>
+        <v>1521500</v>
       </c>
       <c r="J58" s="3">
-        <v>1163400</v>
+        <v>1160200</v>
       </c>
       <c r="K58" s="3">
         <v>1433200</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1731800</v>
+        <v>1727100</v>
       </c>
       <c r="E59" s="3">
-        <v>1613700</v>
+        <v>1609300</v>
       </c>
       <c r="F59" s="3">
-        <v>1874900</v>
+        <v>1869800</v>
       </c>
       <c r="G59" s="3">
-        <v>655200</v>
+        <v>653400</v>
       </c>
       <c r="H59" s="3">
-        <v>408500</v>
+        <v>407400</v>
       </c>
       <c r="I59" s="3">
-        <v>387800</v>
+        <v>386800</v>
       </c>
       <c r="J59" s="3">
-        <v>356700</v>
+        <v>355700</v>
       </c>
       <c r="K59" s="3">
         <v>365600</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4789900</v>
+        <v>4776800</v>
       </c>
       <c r="E60" s="3">
-        <v>5861900</v>
+        <v>5845800</v>
       </c>
       <c r="F60" s="3">
-        <v>5111200</v>
+        <v>5097200</v>
       </c>
       <c r="G60" s="3">
-        <v>3743800</v>
+        <v>3733600</v>
       </c>
       <c r="H60" s="3">
-        <v>2553900</v>
+        <v>2546900</v>
       </c>
       <c r="I60" s="3">
-        <v>2803300</v>
+        <v>2795700</v>
       </c>
       <c r="J60" s="3">
-        <v>2534700</v>
+        <v>2527800</v>
       </c>
       <c r="K60" s="3">
         <v>2709000</v>
@@ -3658,25 +3658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4812000</v>
+        <v>4798900</v>
       </c>
       <c r="E61" s="3">
-        <v>4600000</v>
+        <v>4587400</v>
       </c>
       <c r="F61" s="3">
-        <v>5828700</v>
+        <v>5812800</v>
       </c>
       <c r="G61" s="3">
-        <v>6675000</v>
+        <v>6656800</v>
       </c>
       <c r="H61" s="3">
-        <v>6561300</v>
+        <v>6543400</v>
       </c>
       <c r="I61" s="3">
-        <v>5835400</v>
+        <v>5819400</v>
       </c>
       <c r="J61" s="3">
-        <v>5065200</v>
+        <v>5051300</v>
       </c>
       <c r="K61" s="3">
         <v>4783300</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>371000</v>
+        <v>370000</v>
       </c>
       <c r="E62" s="3">
-        <v>526900</v>
+        <v>525500</v>
       </c>
       <c r="F62" s="3">
-        <v>404500</v>
+        <v>403400</v>
       </c>
       <c r="G62" s="3">
-        <v>293900</v>
+        <v>293100</v>
       </c>
       <c r="H62" s="3">
-        <v>210000</v>
+        <v>209400</v>
       </c>
       <c r="I62" s="3">
-        <v>218100</v>
+        <v>217500</v>
       </c>
       <c r="J62" s="3">
-        <v>219400</v>
+        <v>218800</v>
       </c>
       <c r="K62" s="3">
         <v>217300</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10243500</v>
+        <v>10215500</v>
       </c>
       <c r="E66" s="3">
-        <v>11488400</v>
+        <v>11457000</v>
       </c>
       <c r="F66" s="3">
-        <v>12013000</v>
+        <v>11980100</v>
       </c>
       <c r="G66" s="3">
-        <v>11262100</v>
+        <v>11231300</v>
       </c>
       <c r="H66" s="3">
-        <v>9859000</v>
+        <v>9832000</v>
       </c>
       <c r="I66" s="3">
-        <v>9410700</v>
+        <v>9385000</v>
       </c>
       <c r="J66" s="3">
-        <v>9419900</v>
+        <v>9394100</v>
       </c>
       <c r="K66" s="3">
         <v>9276700</v>
@@ -4178,13 +4178,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>245100</v>
+        <v>244400</v>
       </c>
       <c r="E70" s="3">
-        <v>245100</v>
+        <v>244400</v>
       </c>
       <c r="F70" s="3">
-        <v>245100</v>
+        <v>244400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5506000</v>
+        <v>5490900</v>
       </c>
       <c r="E72" s="3">
-        <v>9627800</v>
+        <v>9601500</v>
       </c>
       <c r="F72" s="3">
-        <v>4790200</v>
+        <v>4777100</v>
       </c>
       <c r="G72" s="3">
-        <v>4898000</v>
+        <v>4884600</v>
       </c>
       <c r="H72" s="3">
-        <v>6438300</v>
+        <v>6420700</v>
       </c>
       <c r="I72" s="3">
-        <v>6424800</v>
+        <v>6407200</v>
       </c>
       <c r="J72" s="3">
-        <v>6278900</v>
+        <v>6261700</v>
       </c>
       <c r="K72" s="3">
         <v>5972500</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6607900</v>
+        <v>6589800</v>
       </c>
       <c r="E76" s="3">
-        <v>5989700</v>
+        <v>5973400</v>
       </c>
       <c r="F76" s="3">
-        <v>5961500</v>
+        <v>5945200</v>
       </c>
       <c r="G76" s="3">
-        <v>6310100</v>
+        <v>6292800</v>
       </c>
       <c r="H76" s="3">
-        <v>7846000</v>
+        <v>7824600</v>
       </c>
       <c r="I76" s="3">
-        <v>7807800</v>
+        <v>7786500</v>
       </c>
       <c r="J76" s="3">
-        <v>7633000</v>
+        <v>7612100</v>
       </c>
       <c r="K76" s="3">
         <v>7328300</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>826100</v>
+        <v>823800</v>
       </c>
       <c r="E81" s="3">
-        <v>81900</v>
+        <v>81600</v>
       </c>
       <c r="F81" s="3">
-        <v>-28600</v>
+        <v>-28500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1430200</v>
+        <v>-1426300</v>
       </c>
       <c r="H81" s="3">
         <v>-2400</v>
       </c>
       <c r="I81" s="3">
-        <v>60300</v>
+        <v>60100</v>
       </c>
       <c r="J81" s="3">
-        <v>85300</v>
+        <v>85100</v>
       </c>
       <c r="K81" s="3">
         <v>111700</v>
@@ -4827,25 +4827,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>97300</v>
+        <v>97000</v>
       </c>
       <c r="E83" s="3">
-        <v>99100</v>
+        <v>98800</v>
       </c>
       <c r="F83" s="3">
-        <v>106900</v>
+        <v>106600</v>
       </c>
       <c r="G83" s="3">
-        <v>108800</v>
+        <v>108500</v>
       </c>
       <c r="H83" s="3">
-        <v>104300</v>
+        <v>104000</v>
       </c>
       <c r="I83" s="3">
-        <v>57800</v>
+        <v>57600</v>
       </c>
       <c r="J83" s="3">
-        <v>49600</v>
+        <v>49500</v>
       </c>
       <c r="K83" s="3">
         <v>48200</v>
@@ -5202,22 +5202,22 @@
         <v>-22100</v>
       </c>
       <c r="E89" s="3">
-        <v>399300</v>
+        <v>398200</v>
       </c>
       <c r="F89" s="3">
-        <v>442500</v>
+        <v>441300</v>
       </c>
       <c r="G89" s="3">
-        <v>126000</v>
+        <v>125700</v>
       </c>
       <c r="H89" s="3">
-        <v>-390300</v>
+        <v>-389300</v>
       </c>
       <c r="I89" s="3">
-        <v>202700</v>
+        <v>202200</v>
       </c>
       <c r="J89" s="3">
-        <v>111800</v>
+        <v>111500</v>
       </c>
       <c r="K89" s="3">
         <v>142400</v>
@@ -5471,25 +5471,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>503600</v>
+        <v>502200</v>
       </c>
       <c r="E94" s="3">
-        <v>-289100</v>
+        <v>-288300</v>
       </c>
       <c r="F94" s="3">
-        <v>-351700</v>
+        <v>-350700</v>
       </c>
       <c r="G94" s="3">
-        <v>-464400</v>
+        <v>-463100</v>
       </c>
       <c r="H94" s="3">
-        <v>-334200</v>
+        <v>-333300</v>
       </c>
       <c r="I94" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J94" s="3">
-        <v>-86600</v>
+        <v>-86300</v>
       </c>
       <c r="K94" s="3">
         <v>-448400</v>
@@ -5557,25 +5557,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-78000</v>
+        <v>-77800</v>
       </c>
       <c r="E96" s="3">
-        <v>-32500</v>
+        <v>-32400</v>
       </c>
       <c r="F96" s="3">
-        <v>-96600</v>
+        <v>-96400</v>
       </c>
       <c r="G96" s="3">
-        <v>-110700</v>
+        <v>-110400</v>
       </c>
       <c r="H96" s="3">
-        <v>-30400</v>
+        <v>-30300</v>
       </c>
       <c r="I96" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J96" s="3">
-        <v>-61100</v>
+        <v>-60900</v>
       </c>
       <c r="K96" s="3">
         <v>-104500</v>
@@ -5805,25 +5805,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-378200</v>
+        <v>-377200</v>
       </c>
       <c r="E100" s="3">
-        <v>-512800</v>
+        <v>-511400</v>
       </c>
       <c r="F100" s="3">
-        <v>-435000</v>
+        <v>-433800</v>
       </c>
       <c r="G100" s="3">
-        <v>740300</v>
+        <v>738300</v>
       </c>
       <c r="H100" s="3">
-        <v>420100</v>
+        <v>419000</v>
       </c>
       <c r="I100" s="3">
-        <v>-159300</v>
+        <v>-158900</v>
       </c>
       <c r="J100" s="3">
-        <v>-194400</v>
+        <v>-193900</v>
       </c>
       <c r="K100" s="3">
         <v>974300</v>
@@ -5867,7 +5867,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24700</v>
+        <v>-24600</v>
       </c>
       <c r="E101" s="3">
         <v>-5300</v>
@@ -5876,10 +5876,10 @@
         <v>1800</v>
       </c>
       <c r="G101" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="H101" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
@@ -5929,25 +5929,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>78500</v>
+        <v>78300</v>
       </c>
       <c r="E102" s="3">
-        <v>-407900</v>
+        <v>-406800</v>
       </c>
       <c r="F102" s="3">
-        <v>-342400</v>
+        <v>-341400</v>
       </c>
       <c r="G102" s="3">
-        <v>417900</v>
+        <v>416800</v>
       </c>
       <c r="H102" s="3">
-        <v>-295000</v>
+        <v>-294200</v>
       </c>
       <c r="I102" s="3">
-        <v>46600</v>
+        <v>46400</v>
       </c>
       <c r="J102" s="3">
-        <v>-172500</v>
+        <v>-172000</v>
       </c>
       <c r="K102" s="3">
         <v>665800</v>

--- a/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CDEVY_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1089900</v>
+        <v>1093200</v>
       </c>
       <c r="E8" s="3">
-        <v>1061100</v>
+        <v>1064300</v>
       </c>
       <c r="F8" s="3">
-        <v>882400</v>
+        <v>885000</v>
       </c>
       <c r="G8" s="3">
-        <v>766400</v>
+        <v>768700</v>
       </c>
       <c r="H8" s="3">
-        <v>794100</v>
+        <v>796500</v>
       </c>
       <c r="I8" s="3">
-        <v>700800</v>
+        <v>702900</v>
       </c>
       <c r="J8" s="3">
-        <v>655200</v>
+        <v>657200</v>
       </c>
       <c r="K8" s="3">
         <v>608900</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>658100</v>
+        <v>660000</v>
       </c>
       <c r="E9" s="3">
-        <v>645900</v>
+        <v>647900</v>
       </c>
       <c r="F9" s="3">
-        <v>573900</v>
+        <v>575600</v>
       </c>
       <c r="G9" s="3">
-        <v>483300</v>
+        <v>484800</v>
       </c>
       <c r="H9" s="3">
-        <v>463700</v>
+        <v>465000</v>
       </c>
       <c r="I9" s="3">
-        <v>385800</v>
+        <v>386900</v>
       </c>
       <c r="J9" s="3">
-        <v>328500</v>
+        <v>329500</v>
       </c>
       <c r="K9" s="3">
         <v>308600</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>431900</v>
+        <v>433200</v>
       </c>
       <c r="E10" s="3">
-        <v>415200</v>
+        <v>416400</v>
       </c>
       <c r="F10" s="3">
-        <v>308500</v>
+        <v>309400</v>
       </c>
       <c r="G10" s="3">
-        <v>283100</v>
+        <v>283900</v>
       </c>
       <c r="H10" s="3">
-        <v>330400</v>
+        <v>331400</v>
       </c>
       <c r="I10" s="3">
-        <v>315100</v>
+        <v>316000</v>
       </c>
       <c r="J10" s="3">
-        <v>326700</v>
+        <v>327700</v>
       </c>
       <c r="K10" s="3">
         <v>300200</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-368600</v>
+        <v>-369700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>213200</v>
+        <v>213800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>97000</v>
+        <v>97300</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-38100</v>
+        <v>-38200</v>
       </c>
       <c r="E17" s="3">
-        <v>889000</v>
+        <v>891600</v>
       </c>
       <c r="F17" s="3">
-        <v>825900</v>
+        <v>828300</v>
       </c>
       <c r="G17" s="3">
-        <v>1442400</v>
+        <v>1446700</v>
       </c>
       <c r="H17" s="3">
-        <v>748400</v>
+        <v>750600</v>
       </c>
       <c r="I17" s="3">
-        <v>625000</v>
+        <v>626900</v>
       </c>
       <c r="J17" s="3">
-        <v>560600</v>
+        <v>562300</v>
       </c>
       <c r="K17" s="3">
         <v>486800</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1128100</v>
+        <v>1131400</v>
       </c>
       <c r="E18" s="3">
-        <v>172200</v>
+        <v>172700</v>
       </c>
       <c r="F18" s="3">
-        <v>56500</v>
+        <v>56700</v>
       </c>
       <c r="G18" s="3">
-        <v>-676000</v>
+        <v>-678000</v>
       </c>
       <c r="H18" s="3">
-        <v>45700</v>
+        <v>45800</v>
       </c>
       <c r="I18" s="3">
-        <v>75800</v>
+        <v>76100</v>
       </c>
       <c r="J18" s="3">
-        <v>94600</v>
+        <v>94900</v>
       </c>
       <c r="K18" s="3">
         <v>122000</v>
@@ -1387,25 +1387,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>109500</v>
+        <v>109900</v>
       </c>
       <c r="E20" s="3">
-        <v>39800</v>
+        <v>39900</v>
       </c>
       <c r="F20" s="3">
         <v>24200</v>
       </c>
       <c r="G20" s="3">
-        <v>-589800</v>
+        <v>-591500</v>
       </c>
       <c r="H20" s="3">
-        <v>41100</v>
+        <v>41200</v>
       </c>
       <c r="I20" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="J20" s="3">
-        <v>57800</v>
+        <v>58000</v>
       </c>
       <c r="K20" s="3">
         <v>71500</v>
@@ -1449,25 +1449,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1334600</v>
+        <v>1338600</v>
       </c>
       <c r="E21" s="3">
-        <v>310800</v>
+        <v>311700</v>
       </c>
       <c r="F21" s="3">
-        <v>187300</v>
+        <v>187900</v>
       </c>
       <c r="G21" s="3">
-        <v>-1157300</v>
+        <v>-1160800</v>
       </c>
       <c r="H21" s="3">
-        <v>190800</v>
+        <v>191400</v>
       </c>
       <c r="I21" s="3">
-        <v>173400</v>
+        <v>173900</v>
       </c>
       <c r="J21" s="3">
-        <v>201900</v>
+        <v>202500</v>
       </c>
       <c r="K21" s="3">
         <v>241700</v>
@@ -1511,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>69700</v>
+        <v>69900</v>
       </c>
       <c r="E22" s="3">
-        <v>60200</v>
+        <v>60400</v>
       </c>
       <c r="F22" s="3">
-        <v>73500</v>
+        <v>73700</v>
       </c>
       <c r="G22" s="3">
-        <v>69800</v>
+        <v>70000</v>
       </c>
       <c r="H22" s="3">
-        <v>76600</v>
+        <v>76800</v>
       </c>
       <c r="I22" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="J22" s="3">
-        <v>37300</v>
+        <v>37400</v>
       </c>
       <c r="K22" s="3">
         <v>32700</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1167900</v>
+        <v>1171400</v>
       </c>
       <c r="E23" s="3">
-        <v>151800</v>
+        <v>152200</v>
       </c>
       <c r="F23" s="3">
         <v>7200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1335700</v>
+        <v>-1339600</v>
       </c>
       <c r="H23" s="3">
         <v>10200</v>
       </c>
       <c r="I23" s="3">
-        <v>80100</v>
+        <v>80400</v>
       </c>
       <c r="J23" s="3">
-        <v>115100</v>
+        <v>115400</v>
       </c>
       <c r="K23" s="3">
         <v>160800</v>
@@ -1635,25 +1635,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>320300</v>
+        <v>321200</v>
       </c>
       <c r="E24" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="F24" s="3">
         <v>21100</v>
       </c>
       <c r="G24" s="3">
-        <v>55000</v>
+        <v>55200</v>
       </c>
       <c r="H24" s="3">
         <v>9900</v>
       </c>
       <c r="I24" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="J24" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="K24" s="3">
         <v>30000</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>847700</v>
+        <v>850200</v>
       </c>
       <c r="E26" s="3">
-        <v>107800</v>
+        <v>108100</v>
       </c>
       <c r="F26" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="G26" s="3">
-        <v>-1390700</v>
+        <v>-1394800</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
-        <v>70200</v>
+        <v>70400</v>
       </c>
       <c r="J26" s="3">
-        <v>92000</v>
+        <v>92300</v>
       </c>
       <c r="K26" s="3">
         <v>130800</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>823800</v>
+        <v>826300</v>
       </c>
       <c r="E27" s="3">
-        <v>81600</v>
+        <v>81900</v>
       </c>
       <c r="F27" s="3">
-        <v>-28500</v>
+        <v>-28600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1426300</v>
+        <v>-1430500</v>
       </c>
       <c r="H27" s="3">
         <v>-2400</v>
       </c>
       <c r="I27" s="3">
-        <v>60100</v>
+        <v>60300</v>
       </c>
       <c r="J27" s="3">
-        <v>85100</v>
+        <v>85300</v>
       </c>
       <c r="K27" s="3">
         <v>111700</v>
@@ -2131,25 +2131,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-109500</v>
+        <v>-109900</v>
       </c>
       <c r="E32" s="3">
-        <v>-39800</v>
+        <v>-39900</v>
       </c>
       <c r="F32" s="3">
         <v>-24200</v>
       </c>
       <c r="G32" s="3">
-        <v>589800</v>
+        <v>591500</v>
       </c>
       <c r="H32" s="3">
-        <v>-41100</v>
+        <v>-41200</v>
       </c>
       <c r="I32" s="3">
-        <v>-39900</v>
+        <v>-40000</v>
       </c>
       <c r="J32" s="3">
-        <v>-57800</v>
+        <v>-58000</v>
       </c>
       <c r="K32" s="3">
         <v>-71500</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>823800</v>
+        <v>826300</v>
       </c>
       <c r="E33" s="3">
-        <v>81600</v>
+        <v>81900</v>
       </c>
       <c r="F33" s="3">
-        <v>-28500</v>
+        <v>-28600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1426300</v>
+        <v>-1430500</v>
       </c>
       <c r="H33" s="3">
         <v>-2400</v>
       </c>
       <c r="I33" s="3">
-        <v>60100</v>
+        <v>60300</v>
       </c>
       <c r="J33" s="3">
-        <v>85100</v>
+        <v>85300</v>
       </c>
       <c r="K33" s="3">
         <v>111700</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>823800</v>
+        <v>826300</v>
       </c>
       <c r="E35" s="3">
-        <v>81600</v>
+        <v>81900</v>
       </c>
       <c r="F35" s="3">
-        <v>-28500</v>
+        <v>-28600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1426300</v>
+        <v>-1430500</v>
       </c>
       <c r="H35" s="3">
         <v>-2400</v>
       </c>
       <c r="I35" s="3">
-        <v>60100</v>
+        <v>60300</v>
       </c>
       <c r="J35" s="3">
-        <v>85100</v>
+        <v>85300</v>
       </c>
       <c r="K35" s="3">
         <v>111700</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1575600</v>
+        <v>1580300</v>
       </c>
       <c r="E41" s="3">
-        <v>1554800</v>
+        <v>1559400</v>
       </c>
       <c r="F41" s="3">
-        <v>1962400</v>
+        <v>1968200</v>
       </c>
       <c r="G41" s="3">
-        <v>2314100</v>
+        <v>2320900</v>
       </c>
       <c r="H41" s="3">
-        <v>1777600</v>
+        <v>1782900</v>
       </c>
       <c r="I41" s="3">
-        <v>2070700</v>
+        <v>2076800</v>
       </c>
       <c r="J41" s="3">
-        <v>2019500</v>
+        <v>2025500</v>
       </c>
       <c r="K41" s="3">
         <v>2121800</v>
@@ -2562,16 +2562,16 @@
         <v>19900</v>
       </c>
       <c r="F42" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="G42" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="H42" s="3">
         <v>14900</v>
       </c>
       <c r="I42" s="3">
-        <v>416500</v>
+        <v>417700</v>
       </c>
       <c r="J42" s="3">
         <v>16000</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1435200</v>
+        <v>1439400</v>
       </c>
       <c r="E43" s="3">
-        <v>2982400</v>
+        <v>2991300</v>
       </c>
       <c r="F43" s="3">
-        <v>1625100</v>
+        <v>1630000</v>
       </c>
       <c r="G43" s="3">
-        <v>1618300</v>
+        <v>1623100</v>
       </c>
       <c r="H43" s="3">
-        <v>1009200</v>
+        <v>1012200</v>
       </c>
       <c r="I43" s="3">
-        <v>787600</v>
+        <v>789900</v>
       </c>
       <c r="J43" s="3">
-        <v>1273000</v>
+        <v>1276700</v>
       </c>
       <c r="K43" s="3">
         <v>1226000</v>
@@ -2680,25 +2680,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4422100</v>
+        <v>4435200</v>
       </c>
       <c r="E44" s="3">
-        <v>4330000</v>
+        <v>4342900</v>
       </c>
       <c r="F44" s="3">
-        <v>4530000</v>
+        <v>4543400</v>
       </c>
       <c r="G44" s="3">
-        <v>3997900</v>
+        <v>4009800</v>
       </c>
       <c r="H44" s="3">
-        <v>4158900</v>
+        <v>4171200</v>
       </c>
       <c r="I44" s="3">
-        <v>3828200</v>
+        <v>3839600</v>
       </c>
       <c r="J44" s="3">
-        <v>4022800</v>
+        <v>4034800</v>
       </c>
       <c r="K44" s="3">
         <v>3958100</v>
@@ -2742,22 +2742,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>987400</v>
+        <v>990400</v>
       </c>
       <c r="E45" s="3">
-        <v>462100</v>
+        <v>463500</v>
       </c>
       <c r="F45" s="3">
-        <v>958500</v>
+        <v>961300</v>
       </c>
       <c r="G45" s="3">
-        <v>57400</v>
+        <v>57600</v>
       </c>
       <c r="H45" s="3">
-        <v>140000</v>
+        <v>140400</v>
       </c>
       <c r="I45" s="3">
-        <v>175800</v>
+        <v>176300</v>
       </c>
       <c r="J45" s="3">
         <v>12200</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8439900</v>
+        <v>8465000</v>
       </c>
       <c r="E46" s="3">
-        <v>7962700</v>
+        <v>7986300</v>
       </c>
       <c r="F46" s="3">
-        <v>9103800</v>
+        <v>9130900</v>
       </c>
       <c r="G46" s="3">
-        <v>8002500</v>
+        <v>8026300</v>
       </c>
       <c r="H46" s="3">
-        <v>7100500</v>
+        <v>7121600</v>
       </c>
       <c r="I46" s="3">
-        <v>7278700</v>
+        <v>7300400</v>
       </c>
       <c r="J46" s="3">
-        <v>7343400</v>
+        <v>7365300</v>
       </c>
       <c r="K46" s="3">
         <v>7327400</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2412200</v>
+        <v>2419300</v>
       </c>
       <c r="E47" s="3">
-        <v>1930300</v>
+        <v>1936000</v>
       </c>
       <c r="F47" s="3">
-        <v>1877200</v>
+        <v>1882700</v>
       </c>
       <c r="G47" s="3">
-        <v>1871900</v>
+        <v>1877500</v>
       </c>
       <c r="H47" s="3">
-        <v>2730500</v>
+        <v>2738600</v>
       </c>
       <c r="I47" s="3">
-        <v>2084000</v>
+        <v>2090200</v>
       </c>
       <c r="J47" s="3">
-        <v>2156500</v>
+        <v>2162900</v>
       </c>
       <c r="K47" s="3">
         <v>2063200</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6129800</v>
+        <v>6148100</v>
       </c>
       <c r="E48" s="3">
-        <v>10615000</v>
+        <v>10646500</v>
       </c>
       <c r="F48" s="3">
-        <v>7037900</v>
+        <v>7058800</v>
       </c>
       <c r="G48" s="3">
-        <v>7471300</v>
+        <v>7493500</v>
       </c>
       <c r="H48" s="3">
-        <v>7311600</v>
+        <v>7333300</v>
       </c>
       <c r="I48" s="3">
-        <v>7307100</v>
+        <v>7328800</v>
       </c>
       <c r="J48" s="3">
-        <v>7006200</v>
+        <v>7027100</v>
       </c>
       <c r="K48" s="3">
         <v>6767100</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66500</v>
+        <v>66700</v>
       </c>
       <c r="E52" s="3">
-        <v>259000</v>
+        <v>259800</v>
       </c>
       <c r="F52" s="3">
-        <v>149400</v>
+        <v>149900</v>
       </c>
       <c r="G52" s="3">
-        <v>178500</v>
+        <v>179000</v>
       </c>
       <c r="H52" s="3">
-        <v>514100</v>
+        <v>515600</v>
       </c>
       <c r="I52" s="3">
+        <v>503100</v>
+      </c>
+      <c r="J52" s="3">
         <v>501600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>500100</v>
       </c>
       <c r="K52" s="3">
         <v>447300</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17049700</v>
+        <v>17100400</v>
       </c>
       <c r="E54" s="3">
-        <v>17674700</v>
+        <v>17727300</v>
       </c>
       <c r="F54" s="3">
-        <v>18169800</v>
+        <v>18223800</v>
       </c>
       <c r="G54" s="3">
-        <v>17524100</v>
+        <v>17576200</v>
       </c>
       <c r="H54" s="3">
-        <v>17656600</v>
+        <v>17709100</v>
       </c>
       <c r="I54" s="3">
-        <v>17171400</v>
+        <v>17222500</v>
       </c>
       <c r="J54" s="3">
-        <v>17006300</v>
+        <v>17056800</v>
       </c>
       <c r="K54" s="3">
         <v>16604900</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>181200</v>
+        <v>181800</v>
       </c>
       <c r="E57" s="3">
-        <v>1273800</v>
+        <v>1277600</v>
       </c>
       <c r="F57" s="3">
-        <v>155500</v>
+        <v>156000</v>
       </c>
       <c r="G57" s="3">
-        <v>998300</v>
+        <v>1001200</v>
       </c>
       <c r="H57" s="3">
-        <v>796200</v>
+        <v>798600</v>
       </c>
       <c r="I57" s="3">
-        <v>887400</v>
+        <v>890000</v>
       </c>
       <c r="J57" s="3">
-        <v>1011800</v>
+        <v>1014800</v>
       </c>
       <c r="K57" s="3">
         <v>910200</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2868500</v>
+        <v>2877000</v>
       </c>
       <c r="E58" s="3">
-        <v>4038200</v>
+        <v>4050200</v>
       </c>
       <c r="F58" s="3">
-        <v>3071900</v>
+        <v>3081100</v>
       </c>
       <c r="G58" s="3">
-        <v>2081900</v>
+        <v>2088100</v>
       </c>
       <c r="H58" s="3">
-        <v>1343400</v>
+        <v>1347400</v>
       </c>
       <c r="I58" s="3">
-        <v>1521500</v>
+        <v>1526100</v>
       </c>
       <c r="J58" s="3">
-        <v>1160200</v>
+        <v>1163700</v>
       </c>
       <c r="K58" s="3">
         <v>1433200</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1727100</v>
+        <v>1732200</v>
       </c>
       <c r="E59" s="3">
-        <v>1609300</v>
+        <v>1614100</v>
       </c>
       <c r="F59" s="3">
-        <v>1869800</v>
+        <v>1875300</v>
       </c>
       <c r="G59" s="3">
-        <v>653400</v>
+        <v>655400</v>
       </c>
       <c r="H59" s="3">
-        <v>407400</v>
+        <v>408600</v>
       </c>
       <c r="I59" s="3">
-        <v>386800</v>
+        <v>387900</v>
       </c>
       <c r="J59" s="3">
-        <v>355700</v>
+        <v>356700</v>
       </c>
       <c r="K59" s="3">
         <v>365600</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4776800</v>
+        <v>4791000</v>
       </c>
       <c r="E60" s="3">
-        <v>5845800</v>
+        <v>5863200</v>
       </c>
       <c r="F60" s="3">
-        <v>5097200</v>
+        <v>5112400</v>
       </c>
       <c r="G60" s="3">
-        <v>3733600</v>
+        <v>3744700</v>
       </c>
       <c r="H60" s="3">
-        <v>2546900</v>
+        <v>2554500</v>
       </c>
       <c r="I60" s="3">
-        <v>2795700</v>
+        <v>2804000</v>
       </c>
       <c r="J60" s="3">
-        <v>2527800</v>
+        <v>2535300</v>
       </c>
       <c r="K60" s="3">
         <v>2709000</v>
@@ -3658,25 +3658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4798900</v>
+        <v>4813200</v>
       </c>
       <c r="E61" s="3">
-        <v>4587400</v>
+        <v>4601000</v>
       </c>
       <c r="F61" s="3">
-        <v>5812800</v>
+        <v>5830100</v>
       </c>
       <c r="G61" s="3">
-        <v>6656800</v>
+        <v>6676500</v>
       </c>
       <c r="H61" s="3">
-        <v>6543400</v>
+        <v>6562800</v>
       </c>
       <c r="I61" s="3">
-        <v>5819400</v>
+        <v>5836700</v>
       </c>
       <c r="J61" s="3">
-        <v>5051300</v>
+        <v>5066400</v>
       </c>
       <c r="K61" s="3">
         <v>4783300</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>370000</v>
+        <v>371100</v>
       </c>
       <c r="E62" s="3">
-        <v>525500</v>
+        <v>527000</v>
       </c>
       <c r="F62" s="3">
-        <v>403400</v>
+        <v>404600</v>
       </c>
       <c r="G62" s="3">
-        <v>293100</v>
+        <v>294000</v>
       </c>
       <c r="H62" s="3">
-        <v>209400</v>
+        <v>210000</v>
       </c>
       <c r="I62" s="3">
-        <v>217500</v>
+        <v>218200</v>
       </c>
       <c r="J62" s="3">
-        <v>218800</v>
+        <v>219400</v>
       </c>
       <c r="K62" s="3">
         <v>217300</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10215500</v>
+        <v>10245900</v>
       </c>
       <c r="E66" s="3">
-        <v>11457000</v>
+        <v>11491000</v>
       </c>
       <c r="F66" s="3">
-        <v>11980100</v>
+        <v>12015800</v>
       </c>
       <c r="G66" s="3">
-        <v>11231300</v>
+        <v>11264700</v>
       </c>
       <c r="H66" s="3">
-        <v>9832000</v>
+        <v>9861300</v>
       </c>
       <c r="I66" s="3">
-        <v>9385000</v>
+        <v>9412900</v>
       </c>
       <c r="J66" s="3">
-        <v>9394100</v>
+        <v>9422100</v>
       </c>
       <c r="K66" s="3">
         <v>9276700</v>
@@ -4178,13 +4178,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>244400</v>
+        <v>245100</v>
       </c>
       <c r="E70" s="3">
-        <v>244400</v>
+        <v>245100</v>
       </c>
       <c r="F70" s="3">
-        <v>244400</v>
+        <v>245100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5490900</v>
+        <v>5507300</v>
       </c>
       <c r="E72" s="3">
-        <v>9601500</v>
+        <v>9630000</v>
       </c>
       <c r="F72" s="3">
-        <v>4777100</v>
+        <v>4791300</v>
       </c>
       <c r="G72" s="3">
-        <v>4884600</v>
+        <v>4899100</v>
       </c>
       <c r="H72" s="3">
-        <v>6420700</v>
+        <v>6439800</v>
       </c>
       <c r="I72" s="3">
-        <v>6407200</v>
+        <v>6426300</v>
       </c>
       <c r="J72" s="3">
-        <v>6261700</v>
+        <v>6280400</v>
       </c>
       <c r="K72" s="3">
         <v>5972500</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6589800</v>
+        <v>6609400</v>
       </c>
       <c r="E76" s="3">
-        <v>5973400</v>
+        <v>5991100</v>
       </c>
       <c r="F76" s="3">
-        <v>5945200</v>
+        <v>5962900</v>
       </c>
       <c r="G76" s="3">
-        <v>6292800</v>
+        <v>6311500</v>
       </c>
       <c r="H76" s="3">
-        <v>7824600</v>
+        <v>7847800</v>
       </c>
       <c r="I76" s="3">
-        <v>7786500</v>
+        <v>7809600</v>
       </c>
       <c r="J76" s="3">
-        <v>7612100</v>
+        <v>7634800</v>
       </c>
       <c r="K76" s="3">
         <v>7328300</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>823800</v>
+        <v>826300</v>
       </c>
       <c r="E81" s="3">
-        <v>81600</v>
+        <v>81900</v>
       </c>
       <c r="F81" s="3">
-        <v>-28500</v>
+        <v>-28600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1426300</v>
+        <v>-1430500</v>
       </c>
       <c r="H81" s="3">
         <v>-2400</v>
       </c>
       <c r="I81" s="3">
-        <v>60100</v>
+        <v>60300</v>
       </c>
       <c r="J81" s="3">
-        <v>85100</v>
+        <v>85300</v>
       </c>
       <c r="K81" s="3">
         <v>111700</v>
@@ -4827,25 +4827,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>97000</v>
+        <v>97300</v>
       </c>
       <c r="E83" s="3">
-        <v>98800</v>
+        <v>99100</v>
       </c>
       <c r="F83" s="3">
-        <v>106600</v>
+        <v>106900</v>
       </c>
       <c r="G83" s="3">
-        <v>108500</v>
+        <v>108800</v>
       </c>
       <c r="H83" s="3">
-        <v>104000</v>
+        <v>104300</v>
       </c>
       <c r="I83" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="J83" s="3">
-        <v>49500</v>
+        <v>49600</v>
       </c>
       <c r="K83" s="3">
         <v>48200</v>
@@ -5202,22 +5202,22 @@
         <v>-22100</v>
       </c>
       <c r="E89" s="3">
-        <v>398200</v>
+        <v>399400</v>
       </c>
       <c r="F89" s="3">
-        <v>441300</v>
+        <v>442600</v>
       </c>
       <c r="G89" s="3">
-        <v>125700</v>
+        <v>126000</v>
       </c>
       <c r="H89" s="3">
-        <v>-389300</v>
+        <v>-390400</v>
       </c>
       <c r="I89" s="3">
-        <v>202200</v>
+        <v>202800</v>
       </c>
       <c r="J89" s="3">
-        <v>111500</v>
+        <v>111900</v>
       </c>
       <c r="K89" s="3">
         <v>142400</v>
@@ -5471,25 +5471,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>502200</v>
+        <v>503700</v>
       </c>
       <c r="E94" s="3">
-        <v>-288300</v>
+        <v>-289200</v>
       </c>
       <c r="F94" s="3">
-        <v>-350700</v>
+        <v>-351800</v>
       </c>
       <c r="G94" s="3">
-        <v>-463100</v>
+        <v>-464500</v>
       </c>
       <c r="H94" s="3">
-        <v>-333300</v>
+        <v>-334300</v>
       </c>
       <c r="I94" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J94" s="3">
-        <v>-86300</v>
+        <v>-86600</v>
       </c>
       <c r="K94" s="3">
         <v>-448400</v>
@@ -5557,25 +5557,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-77800</v>
+        <v>-78000</v>
       </c>
       <c r="E96" s="3">
-        <v>-32400</v>
+        <v>-32500</v>
       </c>
       <c r="F96" s="3">
-        <v>-96400</v>
+        <v>-96600</v>
       </c>
       <c r="G96" s="3">
-        <v>-110400</v>
+        <v>-110800</v>
       </c>
       <c r="H96" s="3">
-        <v>-30300</v>
+        <v>-30400</v>
       </c>
       <c r="I96" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="J96" s="3">
-        <v>-60900</v>
+        <v>-61100</v>
       </c>
       <c r="K96" s="3">
         <v>-104500</v>
@@ -5805,25 +5805,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-377200</v>
+        <v>-378300</v>
       </c>
       <c r="E100" s="3">
-        <v>-511400</v>
+        <v>-512900</v>
       </c>
       <c r="F100" s="3">
-        <v>-433800</v>
+        <v>-435100</v>
       </c>
       <c r="G100" s="3">
-        <v>738300</v>
+        <v>740500</v>
       </c>
       <c r="H100" s="3">
-        <v>419000</v>
+        <v>420200</v>
       </c>
       <c r="I100" s="3">
-        <v>-158900</v>
+        <v>-159400</v>
       </c>
       <c r="J100" s="3">
-        <v>-193900</v>
+        <v>-194400</v>
       </c>
       <c r="K100" s="3">
         <v>974300</v>
@@ -5867,7 +5867,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24600</v>
+        <v>-24700</v>
       </c>
       <c r="E101" s="3">
         <v>-5300</v>
@@ -5876,10 +5876,10 @@
         <v>1800</v>
       </c>
       <c r="G101" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="H101" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
@@ -5929,25 +5929,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>78300</v>
+        <v>78600</v>
       </c>
       <c r="E102" s="3">
-        <v>-406800</v>
+        <v>-408000</v>
       </c>
       <c r="F102" s="3">
-        <v>-341400</v>
+        <v>-342400</v>
       </c>
       <c r="G102" s="3">
-        <v>416800</v>
+        <v>418000</v>
       </c>
       <c r="H102" s="3">
-        <v>-294200</v>
+        <v>-295100</v>
       </c>
       <c r="I102" s="3">
-        <v>46400</v>
+        <v>46600</v>
       </c>
       <c r="J102" s="3">
-        <v>-172000</v>
+        <v>-172500</v>
       </c>
       <c r="K102" s="3">
         <v>665800</v>
